--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 6_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 6_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$6:$P$121</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$G$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$G$58</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="305">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -938,6 +938,9 @@
   </si>
   <si>
     <t>Hải vui thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>Thanh toán chi phí cho anh Tâm Qunhf trnag</t>
   </si>
 </sst>
 </file>
@@ -2875,6 +2878,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2890,32 +2920,122 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2938,123 +3058,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3118,91 +3121,103 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="27" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3214,36 +3229,33 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3280,13 +3292,16 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3314,18 +3329,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3671,11 +3674,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <pane ySplit="7" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3727,15 +3730,15 @@
       <c r="H3" s="114"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="454" t="s">
+      <c r="A4" s="463" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="454"/>
-      <c r="C4" s="454"/>
-      <c r="D4" s="454"/>
-      <c r="E4" s="454"/>
-      <c r="F4" s="454"/>
-      <c r="G4" s="454"/>
+      <c r="B4" s="463"/>
+      <c r="C4" s="463"/>
+      <c r="D4" s="463"/>
+      <c r="E4" s="463"/>
+      <c r="F4" s="463"/>
+      <c r="G4" s="463"/>
       <c r="H4" s="114"/>
     </row>
     <row r="5" spans="1:8" s="112" customFormat="1" x14ac:dyDescent="0.25">
@@ -3747,28 +3750,28 @@
       <c r="G5" s="111"/>
     </row>
     <row r="6" spans="1:8" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="455" t="s">
+      <c r="A6" s="454" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="455" t="s">
+      <c r="B6" s="454" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="456" t="s">
+      <c r="C6" s="455" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="457" t="s">
+      <c r="D6" s="450" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="457"/>
-      <c r="F6" s="457" t="s">
+      <c r="E6" s="450"/>
+      <c r="F6" s="450" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="457"/>
+      <c r="G6" s="450"/>
     </row>
     <row r="7" spans="1:8" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="455"/>
-      <c r="B7" s="455"/>
-      <c r="C7" s="456"/>
+      <c r="A7" s="454"/>
+      <c r="B7" s="454"/>
+      <c r="C7" s="455"/>
       <c r="D7" s="429" t="s">
         <v>83</v>
       </c>
@@ -4039,18 +4042,18 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="150">
-        <v>43992</v>
+        <v>43990</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C23" s="99" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="D23" s="100"/>
       <c r="E23" s="116"/>
       <c r="F23" s="100">
-        <v>2000000</v>
+        <v>37800000</v>
       </c>
       <c r="G23" s="116"/>
     </row>
@@ -4059,15 +4062,15 @@
         <v>43992</v>
       </c>
       <c r="B24" s="98" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="C24" s="99" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D24" s="100"/>
       <c r="E24" s="116"/>
       <c r="F24" s="100">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
       <c r="G24" s="116"/>
     </row>
@@ -4079,12 +4082,12 @@
         <v>211</v>
       </c>
       <c r="C25" s="99" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D25" s="100"/>
       <c r="E25" s="116"/>
       <c r="F25" s="100">
-        <v>2100000</v>
+        <v>4000000</v>
       </c>
       <c r="G25" s="116"/>
     </row>
@@ -4093,169 +4096,169 @@
         <v>43992</v>
       </c>
       <c r="B26" s="98" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="C26" s="99" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D26" s="100"/>
       <c r="E26" s="116"/>
       <c r="F26" s="100">
-        <v>2000000</v>
+        <v>2100000</v>
       </c>
       <c r="G26" s="116"/>
     </row>
-    <row r="27" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="150">
         <v>43992</v>
       </c>
       <c r="B27" s="98" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C27" s="99" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D27" s="100"/>
       <c r="E27" s="116"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="116">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="100">
+        <v>2000000</v>
+      </c>
+      <c r="G27" s="116"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="150">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="B28" s="98" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C28" s="99" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D28" s="100"/>
       <c r="E28" s="116"/>
       <c r="F28" s="100"/>
       <c r="G28" s="116">
-        <v>765000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="150">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="B29" s="98" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C29" s="99" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D29" s="100"/>
       <c r="E29" s="116"/>
       <c r="F29" s="100"/>
       <c r="G29" s="116">
-        <v>500000</v>
+        <v>765000</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="150">
-        <v>43996</v>
+        <v>43994</v>
       </c>
       <c r="B30" s="98" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C30" s="99" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D30" s="100"/>
       <c r="E30" s="116"/>
       <c r="F30" s="100"/>
       <c r="G30" s="116">
-        <f>120000+45000</f>
-        <v>165000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="150">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="B31" s="98" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C31" s="99" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D31" s="100"/>
       <c r="E31" s="116"/>
       <c r="F31" s="100"/>
       <c r="G31" s="116">
-        <v>250000</v>
+        <f>120000+45000</f>
+        <v>165000</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="150">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="B32" s="98" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C32" s="99" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D32" s="100"/>
       <c r="E32" s="116"/>
-      <c r="F32" s="100">
-        <v>1903000</v>
-      </c>
-      <c r="G32" s="116"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="116">
+        <v>250000</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="150">
         <v>43998</v>
       </c>
       <c r="B33" s="98" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C33" s="99" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D33" s="100"/>
       <c r="E33" s="116"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="116">
-        <v>40000</v>
-      </c>
+      <c r="F33" s="100">
+        <v>1903000</v>
+      </c>
+      <c r="G33" s="116"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="150">
-        <v>44001</v>
+        <v>43998</v>
       </c>
       <c r="B34" s="98" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C34" s="99" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="D34" s="100"/>
       <c r="E34" s="116"/>
-      <c r="F34" s="100">
-        <v>5000000</v>
-      </c>
-      <c r="G34" s="116"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="116">
+        <v>40000</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="150">
         <v>44001</v>
       </c>
       <c r="B35" s="98" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C35" s="99" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D35" s="100"/>
       <c r="E35" s="116"/>
       <c r="F35" s="100">
-        <v>49500000</v>
+        <v>5000000</v>
       </c>
       <c r="G35" s="116"/>
     </row>
@@ -4264,50 +4267,50 @@
         <v>44001</v>
       </c>
       <c r="B36" s="98" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C36" s="99" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D36" s="100"/>
       <c r="E36" s="116"/>
       <c r="F36" s="100">
-        <v>430000</v>
+        <v>49500000</v>
       </c>
       <c r="G36" s="116"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="150">
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="B37" s="98" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C37" s="99" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D37" s="100"/>
       <c r="E37" s="116"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="116">
-        <v>40000</v>
-      </c>
+      <c r="F37" s="100">
+        <v>430000</v>
+      </c>
+      <c r="G37" s="116"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="150">
-        <v>44006</v>
+        <v>44002</v>
       </c>
       <c r="B38" s="98" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C38" s="99" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D38" s="100"/>
       <c r="E38" s="116"/>
       <c r="F38" s="100"/>
       <c r="G38" s="116">
-        <v>250000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4315,34 +4318,33 @@
         <v>44006</v>
       </c>
       <c r="B39" s="98" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C39" s="99" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D39" s="100"/>
       <c r="E39" s="116"/>
       <c r="F39" s="100"/>
       <c r="G39" s="116">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="150">
         <v>44006</v>
       </c>
       <c r="B40" s="98" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C40" s="99" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D40" s="100"/>
       <c r="E40" s="116"/>
       <c r="F40" s="100"/>
       <c r="G40" s="116">
-        <f>680000+120000+15000+80000+60000+120000+300000+60000+450000+2585000+958980+1000545</f>
-        <v>6429525</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4350,123 +4352,124 @@
         <v>44006</v>
       </c>
       <c r="B41" s="98" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C41" s="99" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D41" s="100"/>
       <c r="E41" s="116"/>
       <c r="F41" s="100"/>
       <c r="G41" s="116">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <f>680000+120000+15000+80000+60000+120000+300000+60000+450000+2585000+958980+1000545</f>
+        <v>6429525</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="150">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B42" s="98" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C42" s="99" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D42" s="100"/>
       <c r="E42" s="116"/>
       <c r="F42" s="100"/>
       <c r="G42" s="116">
-        <v>100000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="150">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B43" s="98" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="C43" s="99" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="D43" s="100"/>
-      <c r="E43" s="116">
-        <v>887000</v>
-      </c>
+      <c r="E43" s="116"/>
       <c r="F43" s="100"/>
-      <c r="G43" s="116"/>
+      <c r="G43" s="116">
+        <v>100000</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="150">
         <v>44008</v>
       </c>
       <c r="B44" s="98" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C44" s="99" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D44" s="100"/>
-      <c r="E44" s="116"/>
+      <c r="E44" s="116">
+        <v>887000</v>
+      </c>
       <c r="F44" s="100"/>
-      <c r="G44" s="116">
-        <v>887000</v>
-      </c>
+      <c r="G44" s="116"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="150">
         <v>44008</v>
       </c>
       <c r="B45" s="98" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C45" s="99" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D45" s="100"/>
       <c r="E45" s="116"/>
-      <c r="F45" s="100">
-        <v>8000000</v>
-      </c>
-      <c r="G45" s="116"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="116">
+        <v>887000</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="150">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B46" s="98" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C46" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D46" s="100"/>
       <c r="E46" s="116"/>
       <c r="F46" s="100">
-        <v>99000000</v>
+        <v>8000000</v>
       </c>
       <c r="G46" s="116"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="150">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="B47" s="98" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="C47" s="99" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="D47" s="100"/>
       <c r="E47" s="116"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="116">
-        <v>105000</v>
-      </c>
+      <c r="F47" s="100">
+        <v>99000000</v>
+      </c>
+      <c r="G47" s="116"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="150">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="B48" s="98" t="s">
         <v>255</v>
@@ -4478,7 +4481,7 @@
       <c r="E48" s="116"/>
       <c r="F48" s="100"/>
       <c r="G48" s="116">
-        <v>40000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -4495,7 +4498,7 @@
       <c r="E49" s="116"/>
       <c r="F49" s="100"/>
       <c r="G49" s="116">
-        <v>105000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4503,31 +4506,31 @@
         <v>44011</v>
       </c>
       <c r="B50" s="98" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="C50" s="99" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="D50" s="100"/>
-      <c r="E50" s="116">
-        <v>117528500</v>
-      </c>
+      <c r="E50" s="116"/>
       <c r="F50" s="100"/>
-      <c r="G50" s="116"/>
+      <c r="G50" s="116">
+        <v>105000</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="150">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B51" s="98" t="s">
         <v>278</v>
       </c>
-      <c r="C51" s="117" t="s">
-        <v>291</v>
+      <c r="C51" s="99" t="s">
+        <v>302</v>
       </c>
       <c r="D51" s="100"/>
       <c r="E51" s="116">
-        <v>776000</v>
+        <v>117528500</v>
       </c>
       <c r="F51" s="100"/>
       <c r="G51" s="116"/>
@@ -4537,18 +4540,17 @@
         <v>44012</v>
       </c>
       <c r="B52" s="98" t="s">
-        <v>255</v>
-      </c>
-      <c r="C52" s="99" t="s">
-        <v>256</v>
+        <v>278</v>
+      </c>
+      <c r="C52" s="117" t="s">
+        <v>291</v>
       </c>
       <c r="D52" s="100"/>
-      <c r="E52" s="116"/>
+      <c r="E52" s="116">
+        <v>776000</v>
+      </c>
       <c r="F52" s="100"/>
-      <c r="G52" s="118">
-        <f>15000*22</f>
-        <v>330000</v>
-      </c>
+      <c r="G52" s="116"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="150">
@@ -4558,13 +4560,14 @@
         <v>255</v>
       </c>
       <c r="C53" s="99" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D53" s="100"/>
       <c r="E53" s="116"/>
       <c r="F53" s="100"/>
       <c r="G53" s="118">
-        <v>90000</v>
+        <f>15000*22</f>
+        <v>330000</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4572,16 +4575,16 @@
         <v>44012</v>
       </c>
       <c r="B54" s="98" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C54" s="99" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="D54" s="100"/>
       <c r="E54" s="116"/>
       <c r="F54" s="100"/>
       <c r="G54" s="118">
-        <v>776000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -4589,16 +4592,16 @@
         <v>44012</v>
       </c>
       <c r="B55" s="98" t="s">
-        <v>255</v>
-      </c>
-      <c r="C55" s="119" t="s">
-        <v>258</v>
+        <v>268</v>
+      </c>
+      <c r="C55" s="99" t="s">
+        <v>281</v>
       </c>
       <c r="D55" s="100"/>
       <c r="E55" s="116"/>
       <c r="F55" s="100"/>
       <c r="G55" s="118">
-        <v>1000000</v>
+        <v>776000</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -4606,65 +4609,73 @@
         <v>44012</v>
       </c>
       <c r="B56" s="98" t="s">
-        <v>253</v>
-      </c>
-      <c r="C56" s="99" t="s">
-        <v>300</v>
+        <v>255</v>
+      </c>
+      <c r="C56" s="119" t="s">
+        <v>258</v>
       </c>
       <c r="D56" s="100"/>
       <c r="E56" s="116"/>
       <c r="F56" s="100"/>
       <c r="G56" s="118">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="150">
+        <v>44012</v>
+      </c>
+      <c r="B57" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="C57" s="99" t="s">
+        <v>300</v>
+      </c>
+      <c r="D57" s="100"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="118">
         <f>'Hỗ trợ vận chuyển'!D26+'Hỗ trợ vận chuyển'!E26+'Hỗ trợ vận chuyển'!F26</f>
         <v>365000</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="451" t="s">
+    <row r="58" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="460" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="452"/>
-      <c r="C57" s="453"/>
-      <c r="D57" s="120">
-        <f>SUM(D8:D56)</f>
+      <c r="B58" s="461"/>
+      <c r="C58" s="462"/>
+      <c r="D58" s="120">
+        <f>SUM(D8:D57)</f>
         <v>67068400</v>
       </c>
-      <c r="E57" s="120">
-        <f>SUM(E8:E56)</f>
+      <c r="E58" s="120">
+        <f>SUM(E8:E57)</f>
         <v>129516000</v>
       </c>
-      <c r="F57" s="120">
-        <f>SUM(F8:F56)</f>
-        <v>206120000</v>
-      </c>
-      <c r="G57" s="120">
-        <f>SUM(G8:G56)</f>
+      <c r="F58" s="120">
+        <f>SUM(F8:F57)</f>
+        <v>243920000</v>
+      </c>
+      <c r="G58" s="120">
+        <f>SUM(G8:G57)</f>
         <v>13367525</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="151"/>
-      <c r="B58" s="122"/>
-      <c r="C58" s="122"/>
-      <c r="D58" s="123"/>
-      <c r="E58" s="123"/>
-      <c r="F58" s="123"/>
-      <c r="G58" s="123"/>
-    </row>
-    <row r="59" spans="1:7" s="121" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="450" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59" s="450"/>
+    <row r="59" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="151"/>
+      <c r="B59" s="122"/>
       <c r="C59" s="122"/>
       <c r="D59" s="123"/>
       <c r="E59" s="123"/>
       <c r="F59" s="123"/>
       <c r="G59" s="123"/>
     </row>
-    <row r="60" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="151"/>
-      <c r="B60" s="122"/>
+    <row r="60" spans="1:7" s="121" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="459" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="459"/>
       <c r="C60" s="122"/>
       <c r="D60" s="123"/>
       <c r="E60" s="123"/>
@@ -4673,204 +4684,196 @@
     </row>
     <row r="61" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="151"/>
-      <c r="B61" s="458" t="s">
-        <v>292</v>
-      </c>
-      <c r="C61" s="458"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="122"/>
       <c r="D61" s="123"/>
       <c r="E61" s="123"/>
       <c r="F61" s="123"/>
       <c r="G61" s="123"/>
     </row>
-    <row r="62" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="455" t="s">
+    <row r="62" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="151"/>
+      <c r="B62" s="457" t="s">
+        <v>292</v>
+      </c>
+      <c r="C62" s="457"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="123"/>
+      <c r="F62" s="123"/>
+      <c r="G62" s="123"/>
+    </row>
+    <row r="63" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="454" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="455" t="s">
+      <c r="B63" s="454" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="456" t="s">
+      <c r="C63" s="455" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="457" t="s">
+      <c r="D63" s="450" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="457"/>
-      <c r="F62" s="457" t="s">
+      <c r="E63" s="450"/>
+      <c r="F63" s="450" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="457"/>
-    </row>
-    <row r="63" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="455"/>
-      <c r="B63" s="455"/>
-      <c r="C63" s="456"/>
-      <c r="D63" s="429" t="s">
+      <c r="G63" s="450"/>
+    </row>
+    <row r="64" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="454"/>
+      <c r="B64" s="454"/>
+      <c r="C64" s="455"/>
+      <c r="D64" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="E63" s="429" t="s">
+      <c r="E64" s="429" t="s">
         <v>57</v>
       </c>
-      <c r="F63" s="429" t="s">
+      <c r="F64" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="G63" s="429" t="s">
+      <c r="G64" s="429" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="430">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="430">
         <v>43984</v>
       </c>
-      <c r="B64" s="431" t="s">
+      <c r="B65" s="431" t="s">
         <v>266</v>
       </c>
-      <c r="C64" s="432" t="s">
+      <c r="C65" s="432" t="s">
         <v>267</v>
       </c>
-      <c r="D64" s="427"/>
-      <c r="E64" s="428"/>
-      <c r="F64" s="427">
+      <c r="D65" s="427"/>
+      <c r="E65" s="428"/>
+      <c r="F65" s="427">
         <v>10000000</v>
       </c>
-      <c r="G64" s="428"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="150">
+      <c r="G65" s="428"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="150">
         <v>43987</v>
       </c>
-      <c r="B65" s="98" t="s">
+      <c r="B66" s="98" t="s">
         <v>266</v>
       </c>
-      <c r="C65" s="99" t="s">
+      <c r="C66" s="99" t="s">
         <v>270</v>
       </c>
-      <c r="D65" s="100"/>
-      <c r="E65" s="116"/>
-      <c r="F65" s="100">
+      <c r="D66" s="100"/>
+      <c r="E66" s="116"/>
+      <c r="F66" s="100">
         <v>1512000</v>
       </c>
-      <c r="G65" s="116"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="422">
+      <c r="G66" s="116"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="422">
         <v>44008</v>
       </c>
-      <c r="B66" s="423" t="s">
+      <c r="B67" s="423" t="s">
         <v>266</v>
       </c>
-      <c r="C66" s="424" t="s">
+      <c r="C67" s="424" t="s">
         <v>277</v>
       </c>
-      <c r="D66" s="425"/>
-      <c r="E66" s="426"/>
-      <c r="F66" s="425">
+      <c r="D67" s="425"/>
+      <c r="E67" s="426"/>
+      <c r="F67" s="425">
         <v>8000000</v>
       </c>
-      <c r="G66" s="426"/>
-    </row>
-    <row r="67" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="461" t="s">
+      <c r="G67" s="426"/>
+    </row>
+    <row r="68" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="451" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="462"/>
-      <c r="C67" s="463"/>
-      <c r="D67" s="120"/>
-      <c r="E67" s="433"/>
-      <c r="F67" s="120">
-        <f>SUM(F64:F66)</f>
+      <c r="B68" s="452"/>
+      <c r="C68" s="453"/>
+      <c r="D68" s="120"/>
+      <c r="E68" s="433"/>
+      <c r="F68" s="120">
+        <f>SUM(F65:F67)</f>
         <v>19512000</v>
       </c>
-      <c r="G67" s="433"/>
-    </row>
-    <row r="68" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="151"/>
-      <c r="B68" s="122"/>
-      <c r="C68" s="122"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="123"/>
-      <c r="F68" s="123"/>
-      <c r="G68" s="123"/>
+      <c r="G68" s="433"/>
     </row>
     <row r="69" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="151"/>
-      <c r="B69" s="459" t="s">
-        <v>293</v>
-      </c>
-      <c r="C69" s="459"/>
+      <c r="B69" s="122"/>
+      <c r="C69" s="122"/>
       <c r="D69" s="123"/>
       <c r="E69" s="123"/>
       <c r="F69" s="123"/>
       <c r="G69" s="123"/>
     </row>
-    <row r="70" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="455" t="s">
+    <row r="70" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="151"/>
+      <c r="B70" s="458" t="s">
+        <v>293</v>
+      </c>
+      <c r="C70" s="458"/>
+      <c r="D70" s="123"/>
+      <c r="E70" s="123"/>
+      <c r="F70" s="123"/>
+      <c r="G70" s="123"/>
+    </row>
+    <row r="71" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="454" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="455" t="s">
+      <c r="B71" s="454" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="456" t="s">
+      <c r="C71" s="455" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="457" t="s">
+      <c r="D71" s="450" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="457"/>
-      <c r="F70" s="457" t="s">
+      <c r="E71" s="450"/>
+      <c r="F71" s="450" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="457"/>
-    </row>
-    <row r="71" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="455"/>
-      <c r="B71" s="455"/>
-      <c r="C71" s="456"/>
-      <c r="D71" s="429" t="s">
+      <c r="G71" s="450"/>
+    </row>
+    <row r="72" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="454"/>
+      <c r="B72" s="454"/>
+      <c r="C72" s="455"/>
+      <c r="D72" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="E71" s="429" t="s">
+      <c r="E72" s="429" t="s">
         <v>57</v>
       </c>
-      <c r="F71" s="429" t="s">
+      <c r="F72" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="G71" s="429" t="s">
+      <c r="G72" s="429" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="150">
-        <v>43987</v>
-      </c>
-      <c r="B72" s="98" t="s">
-        <v>255</v>
-      </c>
-      <c r="C72" s="99" t="s">
-        <v>258</v>
-      </c>
-      <c r="D72" s="100"/>
-      <c r="E72" s="116"/>
-      <c r="F72" s="100"/>
-      <c r="G72" s="116">
-        <v>500000</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="150">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B73" s="98" t="s">
         <v>255</v>
       </c>
       <c r="C73" s="99" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D73" s="100"/>
       <c r="E73" s="116"/>
       <c r="F73" s="100"/>
       <c r="G73" s="116">
-        <v>40000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4890,9 +4893,9 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="150">
-        <v>43992</v>
+        <v>43988</v>
       </c>
       <c r="B75" s="98" t="s">
         <v>255</v>
@@ -4907,43 +4910,43 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="150">
-        <v>43994</v>
+        <v>43992</v>
       </c>
       <c r="B76" s="98" t="s">
         <v>255</v>
       </c>
       <c r="C76" s="99" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D76" s="100"/>
       <c r="E76" s="116"/>
       <c r="F76" s="100"/>
       <c r="G76" s="116">
-        <v>500000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="150">
-        <v>43998</v>
+        <v>43994</v>
       </c>
       <c r="B77" s="98" t="s">
         <v>255</v>
       </c>
       <c r="C77" s="99" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D77" s="100"/>
       <c r="E77" s="116"/>
       <c r="F77" s="100"/>
       <c r="G77" s="116">
-        <v>40000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="150">
-        <v>44002</v>
+        <v>43998</v>
       </c>
       <c r="B78" s="98" t="s">
         <v>255</v>
@@ -4960,7 +4963,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="150">
-        <v>44006</v>
+        <v>44002</v>
       </c>
       <c r="B79" s="98" t="s">
         <v>255</v>
@@ -4972,10 +4975,10 @@
       <c r="E79" s="116"/>
       <c r="F79" s="100"/>
       <c r="G79" s="116">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="150">
         <v>44006</v>
       </c>
@@ -4992,9 +4995,9 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="150">
-        <v>44010</v>
+        <v>44006</v>
       </c>
       <c r="B81" s="98" t="s">
         <v>255</v>
@@ -5011,7 +5014,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="150">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="B82" s="98" t="s">
         <v>255</v>
@@ -5023,7 +5026,7 @@
       <c r="E82" s="116"/>
       <c r="F82" s="100"/>
       <c r="G82" s="116">
-        <v>40000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -5040,12 +5043,12 @@
       <c r="E83" s="116"/>
       <c r="F83" s="100"/>
       <c r="G83" s="116">
-        <v>105000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="150">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B84" s="98" t="s">
         <v>255</v>
@@ -5056,8 +5059,8 @@
       <c r="D84" s="100"/>
       <c r="E84" s="116"/>
       <c r="F84" s="100"/>
-      <c r="G84" s="118">
-        <v>330000</v>
+      <c r="G84" s="116">
+        <v>105000</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -5068,13 +5071,13 @@
         <v>255</v>
       </c>
       <c r="C85" s="99" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D85" s="100"/>
       <c r="E85" s="116"/>
       <c r="F85" s="100"/>
       <c r="G85" s="118">
-        <v>90000</v>
+        <v>330000</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -5084,149 +5087,149 @@
       <c r="B86" s="98" t="s">
         <v>255</v>
       </c>
-      <c r="C86" s="119" t="s">
-        <v>258</v>
+      <c r="C86" s="99" t="s">
+        <v>257</v>
       </c>
       <c r="D86" s="100"/>
       <c r="E86" s="116"/>
       <c r="F86" s="100"/>
       <c r="G86" s="118">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="150">
+        <v>44012</v>
+      </c>
+      <c r="B87" s="98" t="s">
+        <v>255</v>
+      </c>
+      <c r="C87" s="119" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87" s="100"/>
+      <c r="E87" s="116"/>
+      <c r="F87" s="100"/>
+      <c r="G87" s="118">
         <v>1000000</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="461" t="s">
+    <row r="88" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="451" t="s">
         <v>60</v>
       </c>
-      <c r="B87" s="462"/>
-      <c r="C87" s="463"/>
-      <c r="D87" s="120"/>
-      <c r="E87" s="433"/>
-      <c r="F87" s="120"/>
-      <c r="G87" s="433">
-        <f>SUM(G72:G86)</f>
+      <c r="B88" s="452"/>
+      <c r="C88" s="453"/>
+      <c r="D88" s="120"/>
+      <c r="E88" s="433"/>
+      <c r="F88" s="120"/>
+      <c r="G88" s="433">
+        <f>SUM(G73:G87)</f>
         <v>3080000</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="151"/>
-      <c r="B88" s="122"/>
-      <c r="C88" s="122"/>
-      <c r="D88" s="123"/>
-      <c r="E88" s="123"/>
-      <c r="F88" s="123"/>
-      <c r="G88" s="123"/>
     </row>
     <row r="89" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="151"/>
-      <c r="B89" s="460" t="s">
-        <v>294</v>
-      </c>
-      <c r="C89" s="460"/>
+      <c r="B89" s="122"/>
+      <c r="C89" s="122"/>
       <c r="D89" s="123"/>
       <c r="E89" s="123"/>
       <c r="F89" s="123"/>
       <c r="G89" s="123"/>
     </row>
-    <row r="90" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="455" t="s">
+    <row r="90" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A90" s="151"/>
+      <c r="B90" s="456" t="s">
+        <v>294</v>
+      </c>
+      <c r="C90" s="456"/>
+      <c r="D90" s="123"/>
+      <c r="E90" s="123"/>
+      <c r="F90" s="123"/>
+      <c r="G90" s="123"/>
+    </row>
+    <row r="91" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="454" t="s">
         <v>4</v>
       </c>
-      <c r="B90" s="455" t="s">
+      <c r="B91" s="454" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="456" t="s">
+      <c r="C91" s="455" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="457" t="s">
+      <c r="D91" s="450" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="457"/>
-      <c r="F90" s="457" t="s">
+      <c r="E91" s="450"/>
+      <c r="F91" s="450" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="457"/>
-    </row>
-    <row r="91" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="455"/>
-      <c r="B91" s="455"/>
-      <c r="C91" s="456"/>
-      <c r="D91" s="429" t="s">
+      <c r="G91" s="450"/>
+    </row>
+    <row r="92" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="454"/>
+      <c r="B92" s="454"/>
+      <c r="C92" s="455"/>
+      <c r="D92" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="E91" s="429" t="s">
+      <c r="E92" s="429" t="s">
         <v>57</v>
       </c>
-      <c r="F91" s="429" t="s">
+      <c r="F92" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="G91" s="429" t="s">
+      <c r="G92" s="429" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="430">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="430">
         <v>43949</v>
       </c>
-      <c r="B92" s="431" t="s">
+      <c r="B93" s="431" t="s">
         <v>278</v>
       </c>
-      <c r="C92" s="432" t="s">
+      <c r="C93" s="432" t="s">
         <v>288</v>
       </c>
-      <c r="D92" s="427"/>
-      <c r="E92" s="428">
+      <c r="D93" s="427"/>
+      <c r="E93" s="428">
         <v>10000000</v>
       </c>
-      <c r="F92" s="427"/>
-      <c r="G92" s="428"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="150">
-        <v>43970</v>
-      </c>
-      <c r="B93" s="98" t="s">
-        <v>278</v>
-      </c>
-      <c r="C93" s="99" t="s">
-        <v>283</v>
-      </c>
-      <c r="D93" s="100"/>
-      <c r="E93" s="116">
-        <v>324500</v>
-      </c>
-      <c r="F93" s="100"/>
-      <c r="G93" s="116"/>
+      <c r="F93" s="427"/>
+      <c r="G93" s="428"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="150">
-        <v>43976</v>
+        <v>43970</v>
       </c>
       <c r="B94" s="98" t="s">
         <v>278</v>
       </c>
       <c r="C94" s="99" t="s">
-        <v>289</v>
-      </c>
-      <c r="D94" s="100">
-        <v>6307000</v>
-      </c>
-      <c r="E94" s="116"/>
+        <v>283</v>
+      </c>
+      <c r="D94" s="100"/>
+      <c r="E94" s="116">
+        <v>324500</v>
+      </c>
       <c r="F94" s="100"/>
       <c r="G94" s="116"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="150">
-        <v>43986</v>
+        <v>43976</v>
       </c>
       <c r="B95" s="98" t="s">
         <v>278</v>
       </c>
       <c r="C95" s="99" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D95" s="100">
-        <v>961400</v>
+        <v>6307000</v>
       </c>
       <c r="E95" s="116"/>
       <c r="F95" s="100"/>
@@ -5234,447 +5237,447 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="150">
-        <v>44001</v>
+        <v>43986</v>
       </c>
       <c r="B96" s="98" t="s">
         <v>278</v>
       </c>
       <c r="C96" s="99" t="s">
-        <v>280</v>
-      </c>
-      <c r="D96" s="100"/>
+        <v>284</v>
+      </c>
+      <c r="D96" s="100">
+        <v>961400</v>
+      </c>
       <c r="E96" s="116"/>
-      <c r="F96" s="100">
-        <v>49500000</v>
-      </c>
+      <c r="F96" s="100"/>
       <c r="G96" s="116"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="150">
-        <v>44008</v>
+        <v>44001</v>
       </c>
       <c r="B97" s="98" t="s">
         <v>278</v>
       </c>
       <c r="C97" s="99" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D97" s="100"/>
-      <c r="E97" s="116">
-        <v>887000</v>
-      </c>
-      <c r="F97" s="100"/>
+      <c r="E97" s="116"/>
+      <c r="F97" s="100">
+        <v>49500000</v>
+      </c>
       <c r="G97" s="116"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="150">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B98" s="98" t="s">
         <v>278</v>
       </c>
       <c r="C98" s="99" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D98" s="100"/>
-      <c r="E98" s="116"/>
-      <c r="F98" s="100">
-        <v>99000000</v>
-      </c>
+      <c r="E98" s="116">
+        <v>887000</v>
+      </c>
+      <c r="F98" s="100"/>
       <c r="G98" s="116"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="150">
-        <v>44011</v>
+        <v>44009</v>
       </c>
       <c r="B99" s="98" t="s">
         <v>278</v>
       </c>
       <c r="C99" s="99" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="D99" s="100"/>
-      <c r="E99" s="116">
-        <v>117528500</v>
-      </c>
-      <c r="F99" s="100"/>
+      <c r="E99" s="116"/>
+      <c r="F99" s="100">
+        <v>99000000</v>
+      </c>
       <c r="G99" s="116"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="150">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B100" s="98" t="s">
         <v>278</v>
       </c>
-      <c r="C100" s="117" t="s">
-        <v>291</v>
+      <c r="C100" s="99" t="s">
+        <v>303</v>
       </c>
       <c r="D100" s="100"/>
       <c r="E100" s="116">
-        <v>776000</v>
+        <v>117528500</v>
       </c>
       <c r="F100" s="100"/>
       <c r="G100" s="116"/>
     </row>
-    <row r="101" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A101" s="461" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="150">
+        <v>44012</v>
+      </c>
+      <c r="B101" s="98" t="s">
+        <v>278</v>
+      </c>
+      <c r="C101" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="D101" s="100"/>
+      <c r="E101" s="116">
+        <v>776000</v>
+      </c>
+      <c r="F101" s="100"/>
+      <c r="G101" s="116"/>
+    </row>
+    <row r="102" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A102" s="451" t="s">
         <v>60</v>
       </c>
-      <c r="B101" s="462"/>
-      <c r="C101" s="463"/>
-      <c r="D101" s="120">
-        <f>SUM(D92:D100)</f>
+      <c r="B102" s="452"/>
+      <c r="C102" s="453"/>
+      <c r="D102" s="120">
+        <f>SUM(D93:D101)</f>
         <v>7268400</v>
       </c>
-      <c r="E101" s="120">
-        <f t="shared" ref="E101:F101" si="0">SUM(E92:E100)</f>
+      <c r="E102" s="120">
+        <f t="shared" ref="E102:F102" si="0">SUM(E93:E101)</f>
         <v>129516000</v>
       </c>
-      <c r="F101" s="120">
+      <c r="F102" s="120">
         <f t="shared" si="0"/>
         <v>148500000</v>
       </c>
-      <c r="G101" s="433"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="246"/>
-      <c r="B102" s="247"/>
-      <c r="C102" s="421"/>
-      <c r="D102" s="249"/>
-      <c r="E102" s="250"/>
-      <c r="F102" s="249"/>
-      <c r="G102" s="250"/>
-    </row>
-    <row r="103" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A103" s="151"/>
-      <c r="B103" s="460" t="s">
+      <c r="G102" s="433"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="246"/>
+      <c r="B103" s="247"/>
+      <c r="C103" s="421"/>
+      <c r="D103" s="249"/>
+      <c r="E103" s="250"/>
+      <c r="F103" s="249"/>
+      <c r="G103" s="250"/>
+    </row>
+    <row r="104" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="151"/>
+      <c r="B104" s="456" t="s">
         <v>295</v>
       </c>
-      <c r="C103" s="460"/>
-      <c r="D103" s="123"/>
-      <c r="E103" s="123"/>
-      <c r="F103" s="123"/>
-      <c r="G103" s="123"/>
-    </row>
-    <row r="104" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="455" t="s">
+      <c r="C104" s="456"/>
+      <c r="D104" s="123"/>
+      <c r="E104" s="123"/>
+      <c r="F104" s="123"/>
+      <c r="G104" s="123"/>
+    </row>
+    <row r="105" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="454" t="s">
         <v>4</v>
       </c>
-      <c r="B104" s="455" t="s">
+      <c r="B105" s="454" t="s">
         <v>5</v>
       </c>
-      <c r="C104" s="456" t="s">
+      <c r="C105" s="455" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="457" t="s">
+      <c r="D105" s="450" t="s">
         <v>7</v>
       </c>
-      <c r="E104" s="457"/>
-      <c r="F104" s="457" t="s">
+      <c r="E105" s="450"/>
+      <c r="F105" s="450" t="s">
         <v>8</v>
       </c>
-      <c r="G104" s="457"/>
-    </row>
-    <row r="105" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="455"/>
-      <c r="B105" s="455"/>
-      <c r="C105" s="456"/>
-      <c r="D105" s="429" t="s">
+      <c r="G105" s="450"/>
+    </row>
+    <row r="106" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="454"/>
+      <c r="B106" s="454"/>
+      <c r="C106" s="455"/>
+      <c r="D106" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="E105" s="429" t="s">
+      <c r="E106" s="429" t="s">
         <v>57</v>
       </c>
-      <c r="F105" s="429" t="s">
+      <c r="F106" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="G105" s="429" t="s">
+      <c r="G106" s="429" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="430">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="430">
         <v>43992</v>
       </c>
-      <c r="B106" s="431" t="s">
+      <c r="B107" s="431" t="s">
         <v>211</v>
       </c>
-      <c r="C106" s="432" t="s">
+      <c r="C107" s="432" t="s">
         <v>273</v>
       </c>
-      <c r="D106" s="427"/>
-      <c r="E106" s="428"/>
-      <c r="F106" s="427">
+      <c r="D107" s="427"/>
+      <c r="E107" s="428"/>
+      <c r="F107" s="427">
         <v>4000000</v>
       </c>
-      <c r="G106" s="428"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="150">
+      <c r="G107" s="428"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="150">
         <v>43992</v>
       </c>
-      <c r="B107" s="98" t="s">
+      <c r="B108" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="C107" s="99" t="s">
+      <c r="C108" s="99" t="s">
         <v>272</v>
       </c>
-      <c r="D107" s="100"/>
-      <c r="E107" s="116"/>
-      <c r="F107" s="100">
+      <c r="D108" s="100"/>
+      <c r="E108" s="116"/>
+      <c r="F108" s="100">
         <v>2100000</v>
       </c>
-      <c r="G107" s="116"/>
-    </row>
-    <row r="108" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A108" s="461" t="s">
+      <c r="G108" s="116"/>
+    </row>
+    <row r="109" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A109" s="451" t="s">
         <v>60</v>
       </c>
-      <c r="B108" s="462"/>
-      <c r="C108" s="463"/>
-      <c r="D108" s="120"/>
-      <c r="E108" s="433"/>
-      <c r="F108" s="120">
-        <f>SUM(F106:F107)</f>
+      <c r="B109" s="452"/>
+      <c r="C109" s="453"/>
+      <c r="D109" s="120"/>
+      <c r="E109" s="433"/>
+      <c r="F109" s="120">
+        <f>SUM(F107:F108)</f>
         <v>6100000</v>
       </c>
-      <c r="G108" s="433"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="246"/>
-      <c r="B109" s="247"/>
-      <c r="C109" s="248"/>
-      <c r="D109" s="249"/>
-      <c r="E109" s="250"/>
-      <c r="F109" s="249"/>
-      <c r="G109" s="250"/>
-    </row>
-    <row r="110" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A110" s="151"/>
-      <c r="B110" s="460" t="s">
+      <c r="G109" s="433"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="246"/>
+      <c r="B110" s="247"/>
+      <c r="C110" s="248"/>
+      <c r="D110" s="249"/>
+      <c r="E110" s="250"/>
+      <c r="F110" s="249"/>
+      <c r="G110" s="250"/>
+    </row>
+    <row r="111" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A111" s="151"/>
+      <c r="B111" s="456" t="s">
         <v>296</v>
       </c>
-      <c r="C110" s="460"/>
-      <c r="D110" s="123"/>
-      <c r="E110" s="123"/>
-      <c r="F110" s="123"/>
-      <c r="G110" s="123"/>
-    </row>
-    <row r="111" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="455" t="s">
+      <c r="C111" s="456"/>
+      <c r="D111" s="123"/>
+      <c r="E111" s="123"/>
+      <c r="F111" s="123"/>
+      <c r="G111" s="123"/>
+    </row>
+    <row r="112" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="454" t="s">
         <v>4</v>
       </c>
-      <c r="B111" s="455" t="s">
+      <c r="B112" s="454" t="s">
         <v>5</v>
       </c>
-      <c r="C111" s="456" t="s">
+      <c r="C112" s="455" t="s">
         <v>6</v>
       </c>
-      <c r="D111" s="457" t="s">
+      <c r="D112" s="450" t="s">
         <v>7</v>
       </c>
-      <c r="E111" s="457"/>
-      <c r="F111" s="457" t="s">
+      <c r="E112" s="450"/>
+      <c r="F112" s="450" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="457"/>
-    </row>
-    <row r="112" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="455"/>
-      <c r="B112" s="455"/>
-      <c r="C112" s="456"/>
-      <c r="D112" s="429" t="s">
+      <c r="G112" s="450"/>
+    </row>
+    <row r="113" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="454"/>
+      <c r="B113" s="454"/>
+      <c r="C113" s="455"/>
+      <c r="D113" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="E112" s="429" t="s">
+      <c r="E113" s="429" t="s">
         <v>57</v>
       </c>
-      <c r="F112" s="429" t="s">
+      <c r="F113" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="G112" s="429" t="s">
+      <c r="G113" s="429" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="430">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="430">
         <v>43993</v>
       </c>
-      <c r="B113" s="431" t="s">
+      <c r="B114" s="431" t="s">
         <v>259</v>
       </c>
-      <c r="C113" s="432" t="s">
+      <c r="C114" s="432" t="s">
         <v>262</v>
       </c>
-      <c r="D113" s="427"/>
-      <c r="E113" s="428"/>
-      <c r="F113" s="427"/>
-      <c r="G113" s="428">
+      <c r="D114" s="427"/>
+      <c r="E114" s="428"/>
+      <c r="F114" s="427"/>
+      <c r="G114" s="428">
         <v>765000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="150">
-        <v>43996</v>
-      </c>
-      <c r="B114" s="98" t="s">
-        <v>259</v>
-      </c>
-      <c r="C114" s="99" t="s">
-        <v>260</v>
-      </c>
-      <c r="D114" s="100"/>
-      <c r="E114" s="116"/>
-      <c r="F114" s="100"/>
-      <c r="G114" s="116">
-        <v>165000</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="150">
-        <v>43998</v>
+        <v>43996</v>
       </c>
       <c r="B115" s="98" t="s">
         <v>259</v>
       </c>
       <c r="C115" s="99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D115" s="100"/>
       <c r="E115" s="116"/>
-      <c r="F115" s="100">
-        <v>1903000</v>
-      </c>
-      <c r="G115" s="116"/>
-    </row>
-    <row r="116" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F115" s="100"/>
+      <c r="G115" s="116">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="150">
-        <v>44006</v>
+        <v>43998</v>
       </c>
       <c r="B116" s="98" t="s">
         <v>259</v>
       </c>
       <c r="C116" s="99" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D116" s="100"/>
       <c r="E116" s="116"/>
-      <c r="F116" s="100"/>
-      <c r="G116" s="116">
+      <c r="F116" s="100">
+        <v>1903000</v>
+      </c>
+      <c r="G116" s="116"/>
+    </row>
+    <row r="117" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="150">
+        <v>44006</v>
+      </c>
+      <c r="B117" s="98" t="s">
+        <v>259</v>
+      </c>
+      <c r="C117" s="99" t="s">
+        <v>263</v>
+      </c>
+      <c r="D117" s="100"/>
+      <c r="E117" s="116"/>
+      <c r="F117" s="100"/>
+      <c r="G117" s="116">
         <v>6429525</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A117" s="461" t="s">
+    <row r="118" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A118" s="451" t="s">
         <v>60</v>
       </c>
-      <c r="B117" s="462"/>
-      <c r="C117" s="463"/>
-      <c r="D117" s="120"/>
-      <c r="E117" s="433"/>
-      <c r="F117" s="120">
-        <f>SUM(F113:F116)</f>
+      <c r="B118" s="452"/>
+      <c r="C118" s="453"/>
+      <c r="D118" s="120"/>
+      <c r="E118" s="433"/>
+      <c r="F118" s="120">
+        <f>SUM(F114:F117)</f>
         <v>1903000</v>
       </c>
-      <c r="G117" s="433">
-        <f>SUM(G113:G116)</f>
+      <c r="G118" s="433">
+        <f>SUM(G114:G117)</f>
         <v>7359525</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="246"/>
-      <c r="B118" s="247"/>
-      <c r="C118" s="248"/>
-      <c r="D118" s="249"/>
-      <c r="E118" s="250"/>
-      <c r="F118" s="249"/>
-      <c r="G118" s="250"/>
-    </row>
-    <row r="119" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A119" s="151"/>
-      <c r="B119" s="460" t="s">
+    <row r="119" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="246"/>
+      <c r="B119" s="247"/>
+      <c r="C119" s="248"/>
+      <c r="D119" s="249"/>
+      <c r="E119" s="250"/>
+      <c r="F119" s="249"/>
+      <c r="G119" s="250"/>
+    </row>
+    <row r="120" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A120" s="151"/>
+      <c r="B120" s="456" t="s">
         <v>297</v>
       </c>
-      <c r="C119" s="460"/>
-      <c r="D119" s="123"/>
-      <c r="E119" s="123"/>
-      <c r="F119" s="123"/>
-      <c r="G119" s="123"/>
-    </row>
-    <row r="120" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="455" t="s">
+      <c r="C120" s="456"/>
+      <c r="D120" s="123"/>
+      <c r="E120" s="123"/>
+      <c r="F120" s="123"/>
+      <c r="G120" s="123"/>
+    </row>
+    <row r="121" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="454" t="s">
         <v>4</v>
       </c>
-      <c r="B120" s="455" t="s">
+      <c r="B121" s="454" t="s">
         <v>5</v>
       </c>
-      <c r="C120" s="456" t="s">
+      <c r="C121" s="455" t="s">
         <v>6</v>
       </c>
-      <c r="D120" s="457" t="s">
+      <c r="D121" s="450" t="s">
         <v>7</v>
       </c>
-      <c r="E120" s="457"/>
-      <c r="F120" s="457" t="s">
+      <c r="E121" s="450"/>
+      <c r="F121" s="450" t="s">
         <v>8</v>
       </c>
-      <c r="G120" s="457"/>
-    </row>
-    <row r="121" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="455"/>
-      <c r="B121" s="455"/>
-      <c r="C121" s="456"/>
-      <c r="D121" s="429" t="s">
+      <c r="G121" s="450"/>
+    </row>
+    <row r="122" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="454"/>
+      <c r="B122" s="454"/>
+      <c r="C122" s="455"/>
+      <c r="D122" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="E121" s="429" t="s">
+      <c r="E122" s="429" t="s">
         <v>57</v>
       </c>
-      <c r="F121" s="429" t="s">
+      <c r="F122" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="G121" s="429" t="s">
+      <c r="G122" s="429" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="430">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="430">
         <v>43976</v>
       </c>
-      <c r="B122" s="431" t="s">
+      <c r="B123" s="431" t="s">
         <v>253</v>
       </c>
-      <c r="C122" s="432" t="s">
+      <c r="C123" s="432" t="s">
         <v>254</v>
       </c>
-      <c r="D122" s="427"/>
-      <c r="E122" s="428"/>
-      <c r="F122" s="427"/>
-      <c r="G122" s="428">
+      <c r="D123" s="427"/>
+      <c r="E123" s="428"/>
+      <c r="F123" s="427"/>
+      <c r="G123" s="428">
         <v>100000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="150">
-        <v>43997</v>
-      </c>
-      <c r="B123" s="98" t="s">
-        <v>253</v>
-      </c>
-      <c r="C123" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="D123" s="100"/>
-      <c r="E123" s="116"/>
-      <c r="F123" s="100"/>
-      <c r="G123" s="116">
-        <v>250000</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="150">
-        <v>44006</v>
+        <v>43997</v>
       </c>
       <c r="B124" s="98" t="s">
         <v>253</v>
@@ -5691,7 +5694,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="150">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B125" s="98" t="s">
         <v>253</v>
@@ -5703,145 +5706,145 @@
       <c r="E125" s="116"/>
       <c r="F125" s="100"/>
       <c r="G125" s="116">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="150">
+        <v>44007</v>
+      </c>
+      <c r="B126" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="D126" s="100"/>
+      <c r="E126" s="116"/>
+      <c r="F126" s="100"/>
+      <c r="G126" s="116">
         <v>100000</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="436">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="436">
         <v>44012</v>
       </c>
-      <c r="B126" s="437" t="s">
+      <c r="B127" s="437" t="s">
         <v>253</v>
       </c>
-      <c r="C126" s="438" t="s">
+      <c r="C127" s="438" t="s">
         <v>300</v>
       </c>
-      <c r="D126" s="434"/>
-      <c r="E126" s="435"/>
-      <c r="F126" s="434"/>
-      <c r="G126" s="435">
-        <f>G56</f>
+      <c r="D127" s="434"/>
+      <c r="E127" s="435"/>
+      <c r="F127" s="434"/>
+      <c r="G127" s="435">
+        <f>G57</f>
         <v>365000</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A127" s="461" t="s">
+    <row r="128" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A128" s="451" t="s">
         <v>60</v>
       </c>
-      <c r="B127" s="462"/>
-      <c r="C127" s="463"/>
-      <c r="D127" s="120"/>
-      <c r="E127" s="433"/>
-      <c r="F127" s="120"/>
-      <c r="G127" s="433">
-        <f>SUM(G122:G126)</f>
+      <c r="B128" s="452"/>
+      <c r="C128" s="453"/>
+      <c r="D128" s="120"/>
+      <c r="E128" s="433"/>
+      <c r="F128" s="120"/>
+      <c r="G128" s="433">
+        <f>SUM(G123:G127)</f>
         <v>1065000</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A128" s="151"/>
-      <c r="B128" s="122"/>
-      <c r="C128" s="122"/>
-      <c r="D128" s="123"/>
-      <c r="E128" s="123"/>
-      <c r="F128" s="123"/>
-      <c r="G128" s="123"/>
     </row>
     <row r="129" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="151"/>
-      <c r="B129" s="460" t="s">
-        <v>298</v>
-      </c>
-      <c r="C129" s="460"/>
+      <c r="B129" s="122"/>
+      <c r="C129" s="122"/>
       <c r="D129" s="123"/>
       <c r="E129" s="123"/>
       <c r="F129" s="123"/>
       <c r="G129" s="123"/>
     </row>
-    <row r="130" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="455" t="s">
+    <row r="130" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A130" s="151"/>
+      <c r="B130" s="456" t="s">
+        <v>298</v>
+      </c>
+      <c r="C130" s="456"/>
+      <c r="D130" s="123"/>
+      <c r="E130" s="123"/>
+      <c r="F130" s="123"/>
+      <c r="G130" s="123"/>
+    </row>
+    <row r="131" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="454" t="s">
         <v>4</v>
       </c>
-      <c r="B130" s="455" t="s">
+      <c r="B131" s="454" t="s">
         <v>5</v>
       </c>
-      <c r="C130" s="456" t="s">
+      <c r="C131" s="455" t="s">
         <v>6</v>
       </c>
-      <c r="D130" s="457" t="s">
+      <c r="D131" s="450" t="s">
         <v>7</v>
       </c>
-      <c r="E130" s="457"/>
-      <c r="F130" s="457" t="s">
+      <c r="E131" s="450"/>
+      <c r="F131" s="450" t="s">
         <v>8</v>
       </c>
-      <c r="G130" s="457"/>
-    </row>
-    <row r="131" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="455"/>
-      <c r="B131" s="455"/>
-      <c r="C131" s="456"/>
-      <c r="D131" s="429" t="s">
+      <c r="G131" s="450"/>
+    </row>
+    <row r="132" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="454"/>
+      <c r="B132" s="454"/>
+      <c r="C132" s="455"/>
+      <c r="D132" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="E131" s="429" t="s">
+      <c r="E132" s="429" t="s">
         <v>57</v>
       </c>
-      <c r="F131" s="429" t="s">
+      <c r="F132" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="G131" s="429" t="s">
+      <c r="G132" s="429" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="430">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="430">
         <v>43987</v>
       </c>
-      <c r="B132" s="431" t="s">
+      <c r="B133" s="431" t="s">
         <v>268</v>
       </c>
-      <c r="C132" s="432" t="s">
+      <c r="C133" s="432" t="s">
         <v>274</v>
       </c>
-      <c r="D132" s="427"/>
-      <c r="E132" s="428"/>
-      <c r="F132" s="427"/>
-      <c r="G132" s="428">
+      <c r="D133" s="427"/>
+      <c r="E133" s="428"/>
+      <c r="F133" s="427"/>
+      <c r="G133" s="428">
         <v>200000</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="150">
-        <v>43987</v>
-      </c>
-      <c r="B133" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="C133" s="99" t="s">
-        <v>269</v>
-      </c>
-      <c r="D133" s="100"/>
-      <c r="E133" s="116"/>
-      <c r="F133" s="100">
-        <v>10500000</v>
-      </c>
-      <c r="G133" s="116"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="150">
-        <v>43992</v>
+        <v>43987</v>
       </c>
       <c r="B134" s="98" t="s">
         <v>268</v>
       </c>
       <c r="C134" s="99" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D134" s="100"/>
       <c r="E134" s="116"/>
       <c r="F134" s="100">
-        <v>2000000</v>
+        <v>10500000</v>
       </c>
       <c r="G134" s="116"/>
     </row>
@@ -5853,7 +5856,7 @@
         <v>268</v>
       </c>
       <c r="C135" s="99" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D135" s="100"/>
       <c r="E135" s="116"/>
@@ -5864,41 +5867,41 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="150">
-        <v>44001</v>
+        <v>43992</v>
       </c>
       <c r="B136" s="98" t="s">
         <v>268</v>
       </c>
       <c r="C136" s="99" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D136" s="100"/>
       <c r="E136" s="116"/>
       <c r="F136" s="100">
-        <v>430000</v>
+        <v>2000000</v>
       </c>
       <c r="G136" s="116"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="150">
-        <v>44008</v>
+        <v>44001</v>
       </c>
       <c r="B137" s="98" t="s">
         <v>268</v>
       </c>
       <c r="C137" s="99" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D137" s="100"/>
       <c r="E137" s="116"/>
-      <c r="F137" s="100"/>
-      <c r="G137" s="116">
-        <v>887000</v>
-      </c>
+      <c r="F137" s="100">
+        <v>430000</v>
+      </c>
+      <c r="G137" s="116"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="150">
-        <v>44012</v>
+        <v>44008</v>
       </c>
       <c r="B138" s="98" t="s">
         <v>268</v>
@@ -5909,364 +5912,398 @@
       <c r="D138" s="100"/>
       <c r="E138" s="116"/>
       <c r="F138" s="100"/>
-      <c r="G138" s="118">
+      <c r="G138" s="116">
+        <v>887000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="150">
+        <v>44012</v>
+      </c>
+      <c r="B139" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="C139" s="99" t="s">
+        <v>281</v>
+      </c>
+      <c r="D139" s="100"/>
+      <c r="E139" s="116"/>
+      <c r="F139" s="100"/>
+      <c r="G139" s="118">
         <v>776000</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A139" s="461" t="s">
+    <row r="140" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A140" s="451" t="s">
         <v>60</v>
       </c>
-      <c r="B139" s="462"/>
-      <c r="C139" s="463"/>
-      <c r="D139" s="120"/>
-      <c r="E139" s="433"/>
-      <c r="F139" s="120">
-        <f>SUM(F132:F138)</f>
+      <c r="B140" s="452"/>
+      <c r="C140" s="453"/>
+      <c r="D140" s="120"/>
+      <c r="E140" s="433"/>
+      <c r="F140" s="120">
+        <f>SUM(F133:F139)</f>
         <v>14930000</v>
       </c>
-      <c r="G139" s="120">
-        <f>SUM(G132:G138)</f>
+      <c r="G140" s="120">
+        <f>SUM(G133:G139)</f>
         <v>1863000</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="246"/>
-      <c r="B140" s="247"/>
-      <c r="C140" s="248"/>
-      <c r="D140" s="249"/>
-      <c r="E140" s="250"/>
-      <c r="F140" s="249"/>
-      <c r="G140" s="251"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="246"/>
-      <c r="B141" s="460" t="s">
-        <v>299</v>
-      </c>
-      <c r="C141" s="460"/>
+      <c r="B141" s="247"/>
+      <c r="C141" s="248"/>
       <c r="D141" s="249"/>
       <c r="E141" s="250"/>
       <c r="F141" s="249"/>
       <c r="G141" s="251"/>
     </row>
-    <row r="142" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="455" t="s">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="246"/>
+      <c r="B142" s="456" t="s">
+        <v>299</v>
+      </c>
+      <c r="C142" s="456"/>
+      <c r="D142" s="249"/>
+      <c r="E142" s="250"/>
+      <c r="F142" s="249"/>
+      <c r="G142" s="251"/>
+    </row>
+    <row r="143" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="454" t="s">
         <v>4</v>
       </c>
-      <c r="B142" s="455" t="s">
+      <c r="B143" s="454" t="s">
         <v>5</v>
       </c>
-      <c r="C142" s="456" t="s">
+      <c r="C143" s="455" t="s">
         <v>6</v>
       </c>
-      <c r="D142" s="457" t="s">
+      <c r="D143" s="450" t="s">
         <v>7</v>
       </c>
-      <c r="E142" s="457"/>
-      <c r="F142" s="457" t="s">
+      <c r="E143" s="450"/>
+      <c r="F143" s="450" t="s">
         <v>8</v>
       </c>
-      <c r="G142" s="457"/>
-    </row>
-    <row r="143" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="455"/>
-      <c r="B143" s="455"/>
-      <c r="C143" s="456"/>
-      <c r="D143" s="429" t="s">
+      <c r="G143" s="450"/>
+    </row>
+    <row r="144" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="454"/>
+      <c r="B144" s="454"/>
+      <c r="C144" s="455"/>
+      <c r="D144" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="E143" s="429" t="s">
+      <c r="E144" s="429" t="s">
         <v>57</v>
       </c>
-      <c r="F143" s="429" t="s">
+      <c r="F144" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="G143" s="429" t="s">
+      <c r="G144" s="429" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="430">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="430">
         <v>43983</v>
       </c>
-      <c r="B144" s="431" t="s">
+      <c r="B145" s="431" t="s">
         <v>285</v>
       </c>
-      <c r="C144" s="432" t="s">
+      <c r="C145" s="432" t="s">
         <v>286</v>
       </c>
-      <c r="D144" s="427">
+      <c r="D145" s="427">
         <v>9800000</v>
       </c>
-      <c r="E144" s="428"/>
-      <c r="F144" s="427"/>
-      <c r="G144" s="428"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="150">
+      <c r="E145" s="428"/>
+      <c r="F145" s="427"/>
+      <c r="G145" s="428"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="150">
         <v>43987</v>
       </c>
-      <c r="B145" s="98" t="s">
+      <c r="B146" s="98" t="s">
         <v>285</v>
       </c>
-      <c r="C145" s="99" t="s">
+      <c r="C146" s="99" t="s">
         <v>287</v>
       </c>
-      <c r="D145" s="100">
+      <c r="D146" s="100">
         <v>50000000</v>
       </c>
-      <c r="E145" s="116"/>
-      <c r="F145" s="100"/>
-      <c r="G145" s="116"/>
-    </row>
-    <row r="146" spans="1:8" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A146" s="461" t="s">
+      <c r="E146" s="116"/>
+      <c r="F146" s="100"/>
+      <c r="G146" s="116"/>
+    </row>
+    <row r="147" spans="1:8" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A147" s="451" t="s">
         <v>60</v>
       </c>
-      <c r="B146" s="462"/>
-      <c r="C146" s="463"/>
-      <c r="D146" s="120">
-        <f>SUM(D144:D145)</f>
+      <c r="B147" s="452"/>
+      <c r="C147" s="453"/>
+      <c r="D147" s="120">
+        <f>SUM(D145:D146)</f>
         <v>59800000</v>
       </c>
-      <c r="E146" s="433"/>
-      <c r="F146" s="120"/>
-      <c r="G146" s="433"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="246"/>
-      <c r="B147" s="247"/>
-      <c r="C147" s="248"/>
-      <c r="D147" s="249"/>
-      <c r="E147" s="250"/>
-      <c r="F147" s="249"/>
-      <c r="G147" s="251"/>
+      <c r="E147" s="433"/>
+      <c r="F147" s="120"/>
+      <c r="G147" s="433"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="246"/>
-      <c r="B148" s="439" t="s">
-        <v>301</v>
-      </c>
+      <c r="B148" s="247"/>
       <c r="C148" s="248"/>
       <c r="D148" s="249"/>
       <c r="E148" s="250"/>
       <c r="F148" s="249"/>
       <c r="G148" s="251"/>
     </row>
-    <row r="149" spans="1:8" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="455" t="s">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="246"/>
+      <c r="B149" s="439" t="s">
+        <v>301</v>
+      </c>
+      <c r="C149" s="248"/>
+      <c r="D149" s="249"/>
+      <c r="E149" s="250"/>
+      <c r="F149" s="249"/>
+      <c r="G149" s="251"/>
+    </row>
+    <row r="150" spans="1:8" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="454" t="s">
         <v>4</v>
       </c>
-      <c r="B149" s="455" t="s">
+      <c r="B150" s="454" t="s">
         <v>5</v>
       </c>
-      <c r="C149" s="456" t="s">
+      <c r="C150" s="455" t="s">
         <v>6</v>
       </c>
-      <c r="D149" s="457" t="s">
+      <c r="D150" s="450" t="s">
         <v>7</v>
       </c>
-      <c r="E149" s="457"/>
-      <c r="F149" s="457" t="s">
+      <c r="E150" s="450"/>
+      <c r="F150" s="450" t="s">
         <v>8</v>
       </c>
-      <c r="G149" s="457"/>
-    </row>
-    <row r="150" spans="1:8" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="455"/>
-      <c r="B150" s="455"/>
-      <c r="C150" s="456"/>
-      <c r="D150" s="429" t="s">
+      <c r="G150" s="450"/>
+    </row>
+    <row r="151" spans="1:8" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="454"/>
+      <c r="B151" s="454"/>
+      <c r="C151" s="455"/>
+      <c r="D151" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="E150" s="429" t="s">
+      <c r="E151" s="429" t="s">
         <v>57</v>
       </c>
-      <c r="F150" s="429" t="s">
+      <c r="F151" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="G150" s="429" t="s">
+      <c r="G151" s="429" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="150">
-        <v>43983</v>
-      </c>
-      <c r="B151" s="98" t="s">
-        <v>264</v>
-      </c>
-      <c r="C151" s="99" t="s">
-        <v>265</v>
-      </c>
-      <c r="D151" s="100"/>
-      <c r="E151" s="116"/>
-      <c r="F151" s="100">
-        <v>10175000</v>
-      </c>
-      <c r="G151" s="116"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="150">
-        <v>44001</v>
+        <v>43983</v>
       </c>
       <c r="B152" s="98" t="s">
         <v>264</v>
       </c>
       <c r="C152" s="99" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D152" s="100"/>
       <c r="E152" s="116"/>
       <c r="F152" s="100">
+        <v>10175000</v>
+      </c>
+      <c r="G152" s="116"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="150">
+        <v>43990</v>
+      </c>
+      <c r="B153" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="C153" s="99" t="s">
+        <v>304</v>
+      </c>
+      <c r="D153" s="100"/>
+      <c r="E153" s="116"/>
+      <c r="F153" s="100">
+        <v>37800000</v>
+      </c>
+      <c r="G153" s="116"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="150">
+        <v>44001</v>
+      </c>
+      <c r="B154" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="C154" s="99" t="s">
+        <v>282</v>
+      </c>
+      <c r="D154" s="100"/>
+      <c r="E154" s="116"/>
+      <c r="F154" s="100">
         <v>5000000</v>
       </c>
-      <c r="G152" s="116"/>
-    </row>
-    <row r="153" spans="1:8" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A153" s="461" t="s">
+      <c r="G154" s="116"/>
+    </row>
+    <row r="155" spans="1:8" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A155" s="451" t="s">
         <v>60</v>
       </c>
-      <c r="B153" s="462"/>
-      <c r="C153" s="463"/>
-      <c r="D153" s="120"/>
-      <c r="E153" s="433"/>
-      <c r="F153" s="120">
-        <f>SUBTOTAL(9,F151:F152)</f>
-        <v>15175000</v>
-      </c>
-      <c r="G153" s="433"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="246"/>
-      <c r="B154" s="247"/>
-      <c r="C154" s="248"/>
-      <c r="D154" s="249"/>
-      <c r="E154" s="250"/>
-      <c r="F154" s="249"/>
-      <c r="G154" s="250"/>
-    </row>
-    <row r="155" spans="1:8" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A155" s="151"/>
-      <c r="B155" s="122"/>
-      <c r="C155" s="122"/>
-      <c r="D155" s="123"/>
-      <c r="E155" s="123"/>
-      <c r="F155" s="123"/>
-      <c r="G155" s="123"/>
-    </row>
-    <row r="156" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="152"/>
-      <c r="B156" s="91" t="s">
+      <c r="B155" s="452"/>
+      <c r="C155" s="453"/>
+      <c r="D155" s="120"/>
+      <c r="E155" s="433"/>
+      <c r="F155" s="120">
+        <f>SUBTOTAL(9,F152:F154)</f>
+        <v>52975000</v>
+      </c>
+      <c r="G155" s="433"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="246"/>
+      <c r="B156" s="247"/>
+      <c r="C156" s="248"/>
+      <c r="D156" s="249"/>
+      <c r="E156" s="250"/>
+      <c r="F156" s="249"/>
+      <c r="G156" s="250"/>
+    </row>
+    <row r="157" spans="1:8" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A157" s="151"/>
+      <c r="B157" s="122"/>
+      <c r="C157" s="122"/>
+      <c r="D157" s="123"/>
+      <c r="E157" s="123"/>
+      <c r="F157" s="123"/>
+      <c r="G157" s="123"/>
+    </row>
+    <row r="158" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="152"/>
+      <c r="B158" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="C156" s="66"/>
-      <c r="D156" s="91" t="s">
+      <c r="C158" s="66"/>
+      <c r="D158" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="E156" s="66"/>
-      <c r="F156" s="66"/>
-      <c r="G156" s="66"/>
-      <c r="H156" s="66"/>
-    </row>
-    <row r="157" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="152"/>
-      <c r="B157" s="4" t="s">
+      <c r="E158" s="66"/>
+      <c r="F158" s="66"/>
+      <c r="G158" s="66"/>
+      <c r="H158" s="66"/>
+    </row>
+    <row r="159" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="152"/>
+      <c r="B159" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="4" t="s">
+      <c r="C159" s="5"/>
+      <c r="D159" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B160" s="91"/>
-      <c r="C160" s="91"/>
-      <c r="D160" s="135" t="s">
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="91"/>
+      <c r="C162" s="91"/>
+      <c r="D162" s="135" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:G57">
+  <autoFilter ref="A6:G58">
     <filterColumn colId="3" hiddenButton="1" showButton="0"/>
     <filterColumn colId="5" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="70">
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A58:C58"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:E150"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.46" bottom="0.45" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -6304,13 +6341,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="308" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="490" t="s">
+      <c r="A1" s="483" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="490"/>
-      <c r="C1" s="490"/>
-      <c r="D1" s="490"/>
-      <c r="E1" s="490"/>
+      <c r="B1" s="483"/>
+      <c r="C1" s="483"/>
+      <c r="D1" s="483"/>
+      <c r="E1" s="483"/>
       <c r="H1" s="309"/>
       <c r="I1" s="309"/>
       <c r="J1" s="309"/>
@@ -6338,153 +6375,153 @@
       <c r="O2" s="309"/>
     </row>
     <row r="3" spans="1:17" s="308" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="490" t="s">
+      <c r="A3" s="483" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="490"/>
-      <c r="C3" s="490"/>
-      <c r="D3" s="490"/>
-      <c r="E3" s="490"/>
-      <c r="F3" s="490"/>
-      <c r="G3" s="490"/>
-      <c r="H3" s="490"/>
-      <c r="I3" s="490"/>
-      <c r="J3" s="490"/>
-      <c r="K3" s="490"/>
-      <c r="L3" s="490"/>
-      <c r="M3" s="490"/>
-      <c r="N3" s="490"/>
-      <c r="O3" s="490"/>
-      <c r="P3" s="490"/>
+      <c r="B3" s="483"/>
+      <c r="C3" s="483"/>
+      <c r="D3" s="483"/>
+      <c r="E3" s="483"/>
+      <c r="F3" s="483"/>
+      <c r="G3" s="483"/>
+      <c r="H3" s="483"/>
+      <c r="I3" s="483"/>
+      <c r="J3" s="483"/>
+      <c r="K3" s="483"/>
+      <c r="L3" s="483"/>
+      <c r="M3" s="483"/>
+      <c r="N3" s="483"/>
+      <c r="O3" s="483"/>
+      <c r="P3" s="483"/>
     </row>
     <row r="4" spans="1:17" s="308" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="490" t="s">
+      <c r="A4" s="483" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="490"/>
-      <c r="C4" s="490"/>
-      <c r="D4" s="490"/>
-      <c r="E4" s="490"/>
-      <c r="F4" s="490"/>
-      <c r="G4" s="490"/>
-      <c r="H4" s="490"/>
-      <c r="I4" s="490"/>
-      <c r="J4" s="490"/>
-      <c r="K4" s="490"/>
-      <c r="L4" s="490"/>
-      <c r="M4" s="490"/>
-      <c r="N4" s="490"/>
-      <c r="O4" s="490"/>
-      <c r="P4" s="490"/>
+      <c r="B4" s="483"/>
+      <c r="C4" s="483"/>
+      <c r="D4" s="483"/>
+      <c r="E4" s="483"/>
+      <c r="F4" s="483"/>
+      <c r="G4" s="483"/>
+      <c r="H4" s="483"/>
+      <c r="I4" s="483"/>
+      <c r="J4" s="483"/>
+      <c r="K4" s="483"/>
+      <c r="L4" s="483"/>
+      <c r="M4" s="483"/>
+      <c r="N4" s="483"/>
+      <c r="O4" s="483"/>
+      <c r="P4" s="483"/>
     </row>
     <row r="5" spans="1:17" s="308" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="490"/>
-      <c r="B5" s="490"/>
-      <c r="C5" s="490"/>
-      <c r="D5" s="490"/>
-      <c r="E5" s="490"/>
-      <c r="F5" s="490"/>
-      <c r="G5" s="490"/>
-      <c r="H5" s="490"/>
-      <c r="I5" s="490"/>
-      <c r="J5" s="490"/>
-      <c r="K5" s="491"/>
-      <c r="L5" s="491"/>
+      <c r="A5" s="483"/>
+      <c r="B5" s="483"/>
+      <c r="C5" s="483"/>
+      <c r="D5" s="483"/>
+      <c r="E5" s="483"/>
+      <c r="F5" s="483"/>
+      <c r="G5" s="483"/>
+      <c r="H5" s="483"/>
+      <c r="I5" s="483"/>
+      <c r="J5" s="483"/>
+      <c r="K5" s="484"/>
+      <c r="L5" s="484"/>
       <c r="M5" s="309"/>
       <c r="N5" s="309"/>
       <c r="O5" s="309"/>
     </row>
     <row r="6" spans="1:17" s="316" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="492" t="s">
+      <c r="A6" s="485" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="494" t="s">
+      <c r="B6" s="487" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="498" t="s">
+      <c r="C6" s="491" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="500" t="s">
+      <c r="D6" s="493" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="500"/>
-      <c r="F6" s="501" t="s">
+      <c r="E6" s="493"/>
+      <c r="F6" s="494" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="501"/>
-      <c r="H6" s="501"/>
-      <c r="I6" s="501"/>
-      <c r="J6" s="501"/>
-      <c r="K6" s="501"/>
-      <c r="L6" s="501"/>
-      <c r="M6" s="502"/>
-      <c r="N6" s="502"/>
-      <c r="O6" s="502"/>
-      <c r="P6" s="503" t="s">
+      <c r="G6" s="494"/>
+      <c r="H6" s="494"/>
+      <c r="I6" s="494"/>
+      <c r="J6" s="494"/>
+      <c r="K6" s="494"/>
+      <c r="L6" s="494"/>
+      <c r="M6" s="495"/>
+      <c r="N6" s="495"/>
+      <c r="O6" s="495"/>
+      <c r="P6" s="496" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="316" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="493"/>
-      <c r="B7" s="495"/>
-      <c r="C7" s="499"/>
-      <c r="D7" s="492" t="s">
+      <c r="A7" s="486"/>
+      <c r="B7" s="488"/>
+      <c r="C7" s="492"/>
+      <c r="D7" s="485" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="492" t="s">
+      <c r="E7" s="485" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="492" t="s">
+      <c r="F7" s="485" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="492" t="s">
+      <c r="G7" s="485" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="496" t="s">
+      <c r="H7" s="489" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="496" t="s">
+      <c r="I7" s="489" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="505" t="s">
+      <c r="J7" s="498" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="505"/>
-      <c r="L7" s="496" t="s">
+      <c r="K7" s="498"/>
+      <c r="L7" s="489" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="496" t="s">
+      <c r="M7" s="489" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="496" t="s">
+      <c r="N7" s="489" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="496" t="s">
+      <c r="O7" s="489" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="504"/>
+      <c r="P7" s="497"/>
     </row>
     <row r="8" spans="1:17" s="316" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="493"/>
-      <c r="B8" s="495"/>
-      <c r="C8" s="499"/>
-      <c r="D8" s="493"/>
-      <c r="E8" s="493"/>
-      <c r="F8" s="493"/>
-      <c r="G8" s="493"/>
-      <c r="H8" s="497"/>
-      <c r="I8" s="497"/>
+      <c r="A8" s="486"/>
+      <c r="B8" s="488"/>
+      <c r="C8" s="492"/>
+      <c r="D8" s="486"/>
+      <c r="E8" s="486"/>
+      <c r="F8" s="486"/>
+      <c r="G8" s="486"/>
+      <c r="H8" s="490"/>
+      <c r="I8" s="490"/>
       <c r="J8" s="317" t="s">
         <v>86</v>
       </c>
       <c r="K8" s="318" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="497"/>
-      <c r="M8" s="497"/>
-      <c r="N8" s="497"/>
-      <c r="O8" s="497"/>
-      <c r="P8" s="504"/>
+      <c r="L8" s="490"/>
+      <c r="M8" s="490"/>
+      <c r="N8" s="490"/>
+      <c r="O8" s="490"/>
+      <c r="P8" s="497"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="243">
@@ -6581,17 +6618,17 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="464">
+      <c r="A11" s="503">
         <v>556</v>
       </c>
-      <c r="B11" s="466">
+      <c r="B11" s="505">
         <v>43976</v>
       </c>
-      <c r="C11" s="464"/>
-      <c r="D11" s="464" t="s">
+      <c r="C11" s="503"/>
+      <c r="D11" s="503" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="464" t="s">
+      <c r="E11" s="503" t="s">
         <v>134</v>
       </c>
       <c r="F11" s="243" t="s">
@@ -6626,11 +6663,11 @@
       <c r="P11" s="243"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="465"/>
-      <c r="B12" s="467"/>
-      <c r="C12" s="465"/>
-      <c r="D12" s="465"/>
-      <c r="E12" s="465"/>
+      <c r="A12" s="504"/>
+      <c r="B12" s="506"/>
+      <c r="C12" s="504"/>
+      <c r="D12" s="504"/>
+      <c r="E12" s="504"/>
       <c r="F12" s="405" t="s">
         <v>141</v>
       </c>
@@ -6661,19 +6698,19 @@
       <c r="P12" s="405"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="471">
+      <c r="A13" s="473">
         <v>557</v>
       </c>
-      <c r="B13" s="484">
+      <c r="B13" s="464">
         <v>43981</v>
       </c>
-      <c r="C13" s="477" t="s">
+      <c r="C13" s="470" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="477" t="s">
+      <c r="D13" s="470" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="477" t="s">
+      <c r="E13" s="470" t="s">
         <v>136</v>
       </c>
       <c r="F13" s="383" t="s">
@@ -6709,11 +6746,11 @@
       <c r="Q13" s="323"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="473"/>
-      <c r="B14" s="486"/>
-      <c r="C14" s="479"/>
-      <c r="D14" s="479"/>
-      <c r="E14" s="479"/>
+      <c r="A14" s="475"/>
+      <c r="B14" s="466"/>
+      <c r="C14" s="472"/>
+      <c r="D14" s="472"/>
+      <c r="E14" s="472"/>
       <c r="F14" s="390" t="s">
         <v>137</v>
       </c>
@@ -6838,19 +6875,19 @@
       <c r="P16" s="325"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="471">
+      <c r="A17" s="473">
         <v>563</v>
       </c>
-      <c r="B17" s="484">
+      <c r="B17" s="464">
         <v>43986</v>
       </c>
-      <c r="C17" s="477" t="s">
+      <c r="C17" s="470" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="487" t="s">
+      <c r="D17" s="467" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="487" t="s">
+      <c r="E17" s="467" t="s">
         <v>145</v>
       </c>
       <c r="F17" s="383" t="s">
@@ -6883,11 +6920,11 @@
       <c r="P17" s="398"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="473"/>
-      <c r="B18" s="486"/>
-      <c r="C18" s="479"/>
-      <c r="D18" s="489"/>
-      <c r="E18" s="489"/>
+      <c r="A18" s="475"/>
+      <c r="B18" s="466"/>
+      <c r="C18" s="472"/>
+      <c r="D18" s="469"/>
+      <c r="E18" s="469"/>
       <c r="F18" s="390" t="s">
         <v>141</v>
       </c>
@@ -7008,17 +7045,17 @@
       <c r="P20" s="325"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="471">
+      <c r="A21" s="473">
         <v>567</v>
       </c>
-      <c r="B21" s="484">
+      <c r="B21" s="464">
         <v>43990</v>
       </c>
-      <c r="C21" s="471"/>
-      <c r="D21" s="487" t="s">
+      <c r="C21" s="473"/>
+      <c r="D21" s="467" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="487" t="s">
+      <c r="E21" s="467" t="s">
         <v>151</v>
       </c>
       <c r="F21" s="383" t="s">
@@ -7051,11 +7088,11 @@
       <c r="P21" s="398"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="473"/>
-      <c r="B22" s="486"/>
-      <c r="C22" s="473"/>
-      <c r="D22" s="489"/>
-      <c r="E22" s="489"/>
+      <c r="A22" s="475"/>
+      <c r="B22" s="466"/>
+      <c r="C22" s="475"/>
+      <c r="D22" s="469"/>
+      <c r="E22" s="469"/>
       <c r="F22" s="390" t="s">
         <v>138</v>
       </c>
@@ -7086,17 +7123,17 @@
       <c r="P22" s="400"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="471">
+      <c r="A23" s="473">
         <v>571</v>
       </c>
-      <c r="B23" s="484">
+      <c r="B23" s="464">
         <v>43990</v>
       </c>
-      <c r="C23" s="471"/>
-      <c r="D23" s="477" t="s">
+      <c r="C23" s="473"/>
+      <c r="D23" s="470" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="477" t="s">
+      <c r="E23" s="470" t="s">
         <v>153</v>
       </c>
       <c r="F23" s="383" t="s">
@@ -7133,11 +7170,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="472"/>
-      <c r="B24" s="485"/>
-      <c r="C24" s="472"/>
-      <c r="D24" s="478"/>
-      <c r="E24" s="478"/>
+      <c r="A24" s="474"/>
+      <c r="B24" s="465"/>
+      <c r="C24" s="474"/>
+      <c r="D24" s="471"/>
+      <c r="E24" s="471"/>
       <c r="F24" s="387" t="s">
         <v>149</v>
       </c>
@@ -7168,11 +7205,11 @@
       <c r="P24" s="387"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="472"/>
-      <c r="B25" s="485"/>
-      <c r="C25" s="472"/>
-      <c r="D25" s="478"/>
-      <c r="E25" s="478"/>
+      <c r="A25" s="474"/>
+      <c r="B25" s="465"/>
+      <c r="C25" s="474"/>
+      <c r="D25" s="471"/>
+      <c r="E25" s="471"/>
       <c r="F25" s="387" t="s">
         <v>154</v>
       </c>
@@ -7203,11 +7240,11 @@
       <c r="P25" s="387"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="472"/>
-      <c r="B26" s="485"/>
-      <c r="C26" s="472"/>
-      <c r="D26" s="478"/>
-      <c r="E26" s="478"/>
+      <c r="A26" s="474"/>
+      <c r="B26" s="465"/>
+      <c r="C26" s="474"/>
+      <c r="D26" s="471"/>
+      <c r="E26" s="471"/>
       <c r="F26" s="387" t="s">
         <v>131</v>
       </c>
@@ -7238,11 +7275,11 @@
       <c r="P26" s="387"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="472"/>
-      <c r="B27" s="485"/>
-      <c r="C27" s="472"/>
-      <c r="D27" s="478"/>
-      <c r="E27" s="478"/>
+      <c r="A27" s="474"/>
+      <c r="B27" s="465"/>
+      <c r="C27" s="474"/>
+      <c r="D27" s="471"/>
+      <c r="E27" s="471"/>
       <c r="F27" s="387" t="s">
         <v>155</v>
       </c>
@@ -7273,11 +7310,11 @@
       <c r="P27" s="387"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="472"/>
-      <c r="B28" s="485"/>
-      <c r="C28" s="472"/>
-      <c r="D28" s="478"/>
-      <c r="E28" s="478"/>
+      <c r="A28" s="474"/>
+      <c r="B28" s="465"/>
+      <c r="C28" s="474"/>
+      <c r="D28" s="471"/>
+      <c r="E28" s="471"/>
       <c r="F28" s="387" t="s">
         <v>146</v>
       </c>
@@ -7308,11 +7345,11 @@
       <c r="P28" s="387"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="472"/>
-      <c r="B29" s="485"/>
-      <c r="C29" s="472"/>
-      <c r="D29" s="478"/>
-      <c r="E29" s="478"/>
+      <c r="A29" s="474"/>
+      <c r="B29" s="465"/>
+      <c r="C29" s="474"/>
+      <c r="D29" s="471"/>
+      <c r="E29" s="471"/>
       <c r="F29" s="387" t="s">
         <v>156</v>
       </c>
@@ -7343,11 +7380,11 @@
       <c r="P29" s="397"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="473"/>
-      <c r="B30" s="486"/>
-      <c r="C30" s="473"/>
-      <c r="D30" s="479"/>
-      <c r="E30" s="479"/>
+      <c r="A30" s="475"/>
+      <c r="B30" s="466"/>
+      <c r="C30" s="475"/>
+      <c r="D30" s="472"/>
+      <c r="E30" s="472"/>
       <c r="F30" s="390" t="s">
         <v>157</v>
       </c>
@@ -7378,19 +7415,19 @@
       <c r="P30" s="390"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="464">
+      <c r="A31" s="503">
         <v>586</v>
       </c>
-      <c r="B31" s="466">
+      <c r="B31" s="505">
         <v>43991</v>
       </c>
-      <c r="C31" s="464" t="s">
+      <c r="C31" s="503" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="480" t="s">
+      <c r="D31" s="499" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="482"/>
+      <c r="E31" s="501"/>
       <c r="F31" s="243" t="s">
         <v>146</v>
       </c>
@@ -7423,11 +7460,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="465"/>
-      <c r="B32" s="467"/>
-      <c r="C32" s="465"/>
-      <c r="D32" s="481"/>
-      <c r="E32" s="483"/>
+      <c r="A32" s="504"/>
+      <c r="B32" s="506"/>
+      <c r="C32" s="504"/>
+      <c r="D32" s="500"/>
+      <c r="E32" s="502"/>
       <c r="F32" s="243" t="s">
         <v>131</v>
       </c>
@@ -7595,19 +7632,19 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="471">
+      <c r="A36" s="473">
         <v>576</v>
       </c>
-      <c r="B36" s="484">
+      <c r="B36" s="464">
         <v>43995</v>
       </c>
-      <c r="C36" s="471" t="s">
+      <c r="C36" s="473" t="s">
         <v>180</v>
       </c>
-      <c r="D36" s="487" t="s">
+      <c r="D36" s="467" t="s">
         <v>181</v>
       </c>
-      <c r="E36" s="477" t="s">
+      <c r="E36" s="470" t="s">
         <v>182</v>
       </c>
       <c r="F36" s="383" t="s">
@@ -7640,11 +7677,11 @@
       <c r="P36" s="383"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="472"/>
-      <c r="B37" s="485"/>
-      <c r="C37" s="472"/>
-      <c r="D37" s="488"/>
-      <c r="E37" s="478"/>
+      <c r="A37" s="474"/>
+      <c r="B37" s="465"/>
+      <c r="C37" s="474"/>
+      <c r="D37" s="468"/>
+      <c r="E37" s="471"/>
       <c r="F37" s="387" t="s">
         <v>154</v>
       </c>
@@ -7675,11 +7712,11 @@
       <c r="P37" s="387"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="473"/>
-      <c r="B38" s="486"/>
-      <c r="C38" s="473"/>
-      <c r="D38" s="489"/>
-      <c r="E38" s="479"/>
+      <c r="A38" s="475"/>
+      <c r="B38" s="466"/>
+      <c r="C38" s="475"/>
+      <c r="D38" s="469"/>
+      <c r="E38" s="472"/>
       <c r="F38" s="390" t="s">
         <v>146</v>
       </c>
@@ -7800,19 +7837,19 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="471">
+      <c r="A41" s="473">
         <v>582</v>
       </c>
-      <c r="B41" s="484">
+      <c r="B41" s="464">
         <v>43995</v>
       </c>
-      <c r="C41" s="471" t="s">
+      <c r="C41" s="473" t="s">
         <v>183</v>
       </c>
-      <c r="D41" s="487" t="s">
+      <c r="D41" s="467" t="s">
         <v>177</v>
       </c>
-      <c r="E41" s="477" t="s">
+      <c r="E41" s="470" t="s">
         <v>186</v>
       </c>
       <c r="F41" s="383" t="s">
@@ -7845,11 +7882,11 @@
       <c r="P41" s="383"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="472"/>
-      <c r="B42" s="485"/>
-      <c r="C42" s="472"/>
-      <c r="D42" s="488"/>
-      <c r="E42" s="478"/>
+      <c r="A42" s="474"/>
+      <c r="B42" s="465"/>
+      <c r="C42" s="474"/>
+      <c r="D42" s="468"/>
+      <c r="E42" s="471"/>
       <c r="F42" s="387" t="s">
         <v>137</v>
       </c>
@@ -7880,11 +7917,11 @@
       <c r="P42" s="387"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="472"/>
-      <c r="B43" s="485"/>
-      <c r="C43" s="472"/>
-      <c r="D43" s="488"/>
-      <c r="E43" s="478"/>
+      <c r="A43" s="474"/>
+      <c r="B43" s="465"/>
+      <c r="C43" s="474"/>
+      <c r="D43" s="468"/>
+      <c r="E43" s="471"/>
       <c r="F43" s="387" t="s">
         <v>187</v>
       </c>
@@ -7915,11 +7952,11 @@
       <c r="P43" s="387"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="472"/>
-      <c r="B44" s="485"/>
-      <c r="C44" s="472"/>
-      <c r="D44" s="488"/>
-      <c r="E44" s="478"/>
+      <c r="A44" s="474"/>
+      <c r="B44" s="465"/>
+      <c r="C44" s="474"/>
+      <c r="D44" s="468"/>
+      <c r="E44" s="471"/>
       <c r="F44" s="387" t="s">
         <v>188</v>
       </c>
@@ -7950,11 +7987,11 @@
       <c r="P44" s="387"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="472"/>
-      <c r="B45" s="485"/>
-      <c r="C45" s="472"/>
-      <c r="D45" s="488"/>
-      <c r="E45" s="478"/>
+      <c r="A45" s="474"/>
+      <c r="B45" s="465"/>
+      <c r="C45" s="474"/>
+      <c r="D45" s="468"/>
+      <c r="E45" s="471"/>
       <c r="F45" s="387" t="s">
         <v>189</v>
       </c>
@@ -7985,11 +8022,11 @@
       <c r="P45" s="387"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="472"/>
-      <c r="B46" s="485"/>
-      <c r="C46" s="472"/>
-      <c r="D46" s="488"/>
-      <c r="E46" s="478"/>
+      <c r="A46" s="474"/>
+      <c r="B46" s="465"/>
+      <c r="C46" s="474"/>
+      <c r="D46" s="468"/>
+      <c r="E46" s="471"/>
       <c r="F46" s="387" t="s">
         <v>141</v>
       </c>
@@ -8020,11 +8057,11 @@
       <c r="P46" s="387"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="472"/>
-      <c r="B47" s="485"/>
-      <c r="C47" s="472"/>
-      <c r="D47" s="488"/>
-      <c r="E47" s="478"/>
+      <c r="A47" s="474"/>
+      <c r="B47" s="465"/>
+      <c r="C47" s="474"/>
+      <c r="D47" s="468"/>
+      <c r="E47" s="471"/>
       <c r="F47" s="387" t="s">
         <v>138</v>
       </c>
@@ -8055,11 +8092,11 @@
       <c r="P47" s="387"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="473"/>
-      <c r="B48" s="486"/>
-      <c r="C48" s="473"/>
-      <c r="D48" s="489"/>
-      <c r="E48" s="479"/>
+      <c r="A48" s="475"/>
+      <c r="B48" s="466"/>
+      <c r="C48" s="475"/>
+      <c r="D48" s="469"/>
+      <c r="E48" s="472"/>
       <c r="F48" s="390" t="s">
         <v>146</v>
       </c>
@@ -8091,17 +8128,17 @@
       <c r="Q48" s="323"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="471">
+      <c r="A49" s="473">
         <v>585</v>
       </c>
-      <c r="B49" s="474">
+      <c r="B49" s="476">
         <v>43997</v>
       </c>
-      <c r="C49" s="471"/>
-      <c r="D49" s="487" t="s">
+      <c r="C49" s="473"/>
+      <c r="D49" s="467" t="s">
         <v>133</v>
       </c>
-      <c r="E49" s="477" t="s">
+      <c r="E49" s="470" t="s">
         <v>134</v>
       </c>
       <c r="F49" s="383" t="s">
@@ -8137,11 +8174,11 @@
       <c r="Q49" s="323"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="472"/>
-      <c r="B50" s="475"/>
-      <c r="C50" s="472"/>
-      <c r="D50" s="488"/>
-      <c r="E50" s="478"/>
+      <c r="A50" s="474"/>
+      <c r="B50" s="477"/>
+      <c r="C50" s="474"/>
+      <c r="D50" s="468"/>
+      <c r="E50" s="471"/>
       <c r="F50" s="387" t="s">
         <v>154</v>
       </c>
@@ -8173,11 +8210,11 @@
       <c r="Q50" s="323"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="472"/>
-      <c r="B51" s="475"/>
-      <c r="C51" s="472"/>
-      <c r="D51" s="488"/>
-      <c r="E51" s="478"/>
+      <c r="A51" s="474"/>
+      <c r="B51" s="477"/>
+      <c r="C51" s="474"/>
+      <c r="D51" s="468"/>
+      <c r="E51" s="471"/>
       <c r="F51" s="387" t="s">
         <v>131</v>
       </c>
@@ -8209,11 +8246,11 @@
       <c r="Q51" s="323"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="473"/>
-      <c r="B52" s="476"/>
-      <c r="C52" s="473"/>
-      <c r="D52" s="489"/>
-      <c r="E52" s="479"/>
+      <c r="A52" s="475"/>
+      <c r="B52" s="478"/>
+      <c r="C52" s="475"/>
+      <c r="D52" s="469"/>
+      <c r="E52" s="472"/>
       <c r="F52" s="390" t="s">
         <v>155</v>
       </c>
@@ -8245,17 +8282,17 @@
       <c r="Q52" s="323"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="471">
+      <c r="A53" s="473">
         <v>587</v>
       </c>
-      <c r="B53" s="484">
+      <c r="B53" s="464">
         <v>43995</v>
       </c>
-      <c r="C53" s="471"/>
-      <c r="D53" s="487" t="s">
+      <c r="C53" s="473"/>
+      <c r="D53" s="467" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="477" t="s">
+      <c r="E53" s="470" t="s">
         <v>153</v>
       </c>
       <c r="F53" s="383" t="s">
@@ -8289,11 +8326,11 @@
       <c r="Q53" s="323"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="473"/>
-      <c r="B54" s="486"/>
-      <c r="C54" s="473"/>
-      <c r="D54" s="489"/>
-      <c r="E54" s="479"/>
+      <c r="A54" s="475"/>
+      <c r="B54" s="466"/>
+      <c r="C54" s="475"/>
+      <c r="D54" s="469"/>
+      <c r="E54" s="472"/>
       <c r="F54" s="390" t="s">
         <v>190</v>
       </c>
@@ -8371,17 +8408,17 @@
       <c r="Q55" s="323"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="471">
+      <c r="A56" s="473">
         <v>479</v>
       </c>
-      <c r="B56" s="484">
+      <c r="B56" s="464">
         <v>43996</v>
       </c>
-      <c r="C56" s="471"/>
-      <c r="D56" s="487" t="s">
+      <c r="C56" s="473"/>
+      <c r="D56" s="467" t="s">
         <v>152</v>
       </c>
-      <c r="E56" s="477" t="s">
+      <c r="E56" s="470" t="s">
         <v>153</v>
       </c>
       <c r="F56" s="383" t="s">
@@ -8415,11 +8452,11 @@
       <c r="Q56" s="323"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="472"/>
-      <c r="B57" s="485"/>
-      <c r="C57" s="472"/>
-      <c r="D57" s="488"/>
-      <c r="E57" s="478"/>
+      <c r="A57" s="474"/>
+      <c r="B57" s="465"/>
+      <c r="C57" s="474"/>
+      <c r="D57" s="468"/>
+      <c r="E57" s="471"/>
       <c r="F57" s="387" t="s">
         <v>190</v>
       </c>
@@ -8451,11 +8488,11 @@
       <c r="Q57" s="323"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="472"/>
-      <c r="B58" s="485"/>
-      <c r="C58" s="472"/>
-      <c r="D58" s="488"/>
-      <c r="E58" s="478"/>
+      <c r="A58" s="474"/>
+      <c r="B58" s="465"/>
+      <c r="C58" s="474"/>
+      <c r="D58" s="468"/>
+      <c r="E58" s="471"/>
       <c r="F58" s="387" t="s">
         <v>146</v>
       </c>
@@ -8487,11 +8524,11 @@
       <c r="Q58" s="323"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="472"/>
-      <c r="B59" s="485"/>
-      <c r="C59" s="472"/>
-      <c r="D59" s="488"/>
-      <c r="E59" s="478"/>
+      <c r="A59" s="474"/>
+      <c r="B59" s="465"/>
+      <c r="C59" s="474"/>
+      <c r="D59" s="468"/>
+      <c r="E59" s="471"/>
       <c r="F59" s="387" t="s">
         <v>141</v>
       </c>
@@ -8523,11 +8560,11 @@
       <c r="Q59" s="323"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="473"/>
-      <c r="B60" s="486"/>
-      <c r="C60" s="473"/>
-      <c r="D60" s="489"/>
-      <c r="E60" s="479"/>
+      <c r="A60" s="475"/>
+      <c r="B60" s="466"/>
+      <c r="C60" s="475"/>
+      <c r="D60" s="469"/>
+      <c r="E60" s="472"/>
       <c r="F60" s="390" t="s">
         <v>138</v>
       </c>
@@ -8607,17 +8644,17 @@
       <c r="Q61" s="323"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="471">
+      <c r="A62" s="473">
         <v>481</v>
       </c>
-      <c r="B62" s="484">
+      <c r="B62" s="464">
         <v>43998</v>
       </c>
-      <c r="C62" s="471"/>
-      <c r="D62" s="487" t="s">
+      <c r="C62" s="473"/>
+      <c r="D62" s="467" t="s">
         <v>240</v>
       </c>
-      <c r="E62" s="477" t="s">
+      <c r="E62" s="470" t="s">
         <v>153</v>
       </c>
       <c r="F62" s="383" t="s">
@@ -8651,11 +8688,11 @@
       <c r="Q62" s="323"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="472"/>
-      <c r="B63" s="485"/>
-      <c r="C63" s="472"/>
-      <c r="D63" s="488"/>
-      <c r="E63" s="478"/>
+      <c r="A63" s="474"/>
+      <c r="B63" s="465"/>
+      <c r="C63" s="474"/>
+      <c r="D63" s="468"/>
+      <c r="E63" s="471"/>
       <c r="F63" s="387" t="s">
         <v>154</v>
       </c>
@@ -8686,11 +8723,11 @@
       <c r="Q63" s="323"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="472"/>
-      <c r="B64" s="485"/>
-      <c r="C64" s="472"/>
-      <c r="D64" s="488"/>
-      <c r="E64" s="478"/>
+      <c r="A64" s="474"/>
+      <c r="B64" s="465"/>
+      <c r="C64" s="474"/>
+      <c r="D64" s="468"/>
+      <c r="E64" s="471"/>
       <c r="F64" s="387" t="s">
         <v>190</v>
       </c>
@@ -8721,11 +8758,11 @@
       <c r="Q64" s="323"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="473"/>
-      <c r="B65" s="486"/>
-      <c r="C65" s="473"/>
-      <c r="D65" s="489"/>
-      <c r="E65" s="479"/>
+      <c r="A65" s="475"/>
+      <c r="B65" s="466"/>
+      <c r="C65" s="475"/>
+      <c r="D65" s="469"/>
+      <c r="E65" s="472"/>
       <c r="F65" s="390" t="s">
         <v>146</v>
       </c>
@@ -8802,17 +8839,17 @@
       <c r="Q66" s="323"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="471">
+      <c r="A67" s="473">
         <v>592</v>
       </c>
-      <c r="B67" s="474">
+      <c r="B67" s="476">
         <v>43999</v>
       </c>
-      <c r="C67" s="471"/>
-      <c r="D67" s="477" t="s">
+      <c r="C67" s="473"/>
+      <c r="D67" s="470" t="s">
         <v>218</v>
       </c>
-      <c r="E67" s="477" t="s">
+      <c r="E67" s="470" t="s">
         <v>219</v>
       </c>
       <c r="F67" s="383" t="s">
@@ -8842,16 +8879,16 @@
         <f>L67</f>
         <v>2700000</v>
       </c>
-      <c r="P67" s="468" t="s">
+      <c r="P67" s="507" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="472"/>
-      <c r="B68" s="475"/>
-      <c r="C68" s="472"/>
-      <c r="D68" s="478"/>
-      <c r="E68" s="478"/>
+      <c r="A68" s="474"/>
+      <c r="B68" s="477"/>
+      <c r="C68" s="474"/>
+      <c r="D68" s="471"/>
+      <c r="E68" s="471"/>
       <c r="F68" s="387" t="s">
         <v>137</v>
       </c>
@@ -8879,14 +8916,14 @@
         <f t="shared" ref="O68:O81" si="8">L68</f>
         <v>235000</v>
       </c>
-      <c r="P68" s="469"/>
+      <c r="P68" s="508"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="472"/>
-      <c r="B69" s="475"/>
-      <c r="C69" s="472"/>
-      <c r="D69" s="478"/>
-      <c r="E69" s="478"/>
+      <c r="A69" s="474"/>
+      <c r="B69" s="477"/>
+      <c r="C69" s="474"/>
+      <c r="D69" s="471"/>
+      <c r="E69" s="471"/>
       <c r="F69" s="387" t="s">
         <v>154</v>
       </c>
@@ -8914,14 +8951,14 @@
         <f t="shared" si="8"/>
         <v>2557500</v>
       </c>
-      <c r="P69" s="469"/>
+      <c r="P69" s="508"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="472"/>
-      <c r="B70" s="475"/>
-      <c r="C70" s="472"/>
-      <c r="D70" s="478"/>
-      <c r="E70" s="478"/>
+      <c r="A70" s="474"/>
+      <c r="B70" s="477"/>
+      <c r="C70" s="474"/>
+      <c r="D70" s="471"/>
+      <c r="E70" s="471"/>
       <c r="F70" s="387" t="s">
         <v>131</v>
       </c>
@@ -8949,14 +8986,14 @@
         <f t="shared" si="8"/>
         <v>2850000</v>
       </c>
-      <c r="P70" s="469"/>
+      <c r="P70" s="508"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="472"/>
-      <c r="B71" s="475"/>
-      <c r="C71" s="472"/>
-      <c r="D71" s="478"/>
-      <c r="E71" s="478"/>
+      <c r="A71" s="474"/>
+      <c r="B71" s="477"/>
+      <c r="C71" s="474"/>
+      <c r="D71" s="471"/>
+      <c r="E71" s="471"/>
       <c r="F71" s="387" t="s">
         <v>155</v>
       </c>
@@ -8984,14 +9021,14 @@
         <f t="shared" si="8"/>
         <v>2910000</v>
       </c>
-      <c r="P71" s="469"/>
+      <c r="P71" s="508"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="472"/>
-      <c r="B72" s="475"/>
-      <c r="C72" s="472"/>
-      <c r="D72" s="478"/>
-      <c r="E72" s="478"/>
+      <c r="A72" s="474"/>
+      <c r="B72" s="477"/>
+      <c r="C72" s="474"/>
+      <c r="D72" s="471"/>
+      <c r="E72" s="471"/>
       <c r="F72" s="387" t="s">
         <v>190</v>
       </c>
@@ -9019,14 +9056,14 @@
         <f t="shared" si="8"/>
         <v>2910000</v>
       </c>
-      <c r="P72" s="469"/>
+      <c r="P72" s="508"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="472"/>
-      <c r="B73" s="475"/>
-      <c r="C73" s="472"/>
-      <c r="D73" s="478"/>
-      <c r="E73" s="478"/>
+      <c r="A73" s="474"/>
+      <c r="B73" s="477"/>
+      <c r="C73" s="474"/>
+      <c r="D73" s="471"/>
+      <c r="E73" s="471"/>
       <c r="F73" s="387" t="s">
         <v>146</v>
       </c>
@@ -9054,14 +9091,14 @@
         <f t="shared" si="8"/>
         <v>6600000</v>
       </c>
-      <c r="P73" s="469"/>
+      <c r="P73" s="508"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="472"/>
-      <c r="B74" s="475"/>
-      <c r="C74" s="472"/>
-      <c r="D74" s="478"/>
-      <c r="E74" s="478"/>
+      <c r="A74" s="474"/>
+      <c r="B74" s="477"/>
+      <c r="C74" s="474"/>
+      <c r="D74" s="471"/>
+      <c r="E74" s="471"/>
       <c r="F74" s="387" t="s">
         <v>141</v>
       </c>
@@ -9089,14 +9126,14 @@
         <f t="shared" si="8"/>
         <v>2730000</v>
       </c>
-      <c r="P74" s="469"/>
+      <c r="P74" s="508"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="473"/>
-      <c r="B75" s="476"/>
-      <c r="C75" s="473"/>
-      <c r="D75" s="479"/>
-      <c r="E75" s="479"/>
+      <c r="A75" s="475"/>
+      <c r="B75" s="478"/>
+      <c r="C75" s="475"/>
+      <c r="D75" s="472"/>
+      <c r="E75" s="472"/>
       <c r="F75" s="390" t="s">
         <v>138</v>
       </c>
@@ -9124,7 +9161,7 @@
         <f t="shared" si="8"/>
         <v>2730000</v>
       </c>
-      <c r="P75" s="470"/>
+      <c r="P75" s="509"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="243">
@@ -9172,17 +9209,17 @@
       <c r="P76" s="243"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="471">
+      <c r="A77" s="473">
         <v>483</v>
       </c>
-      <c r="B77" s="474">
+      <c r="B77" s="476">
         <v>44001</v>
       </c>
-      <c r="C77" s="471"/>
-      <c r="D77" s="477" t="s">
+      <c r="C77" s="473"/>
+      <c r="D77" s="470" t="s">
         <v>150</v>
       </c>
-      <c r="E77" s="477" t="s">
+      <c r="E77" s="470" t="s">
         <v>145</v>
       </c>
       <c r="F77" s="383" t="s">
@@ -9215,11 +9252,11 @@
       <c r="P77" s="383"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="472"/>
-      <c r="B78" s="475"/>
-      <c r="C78" s="472"/>
-      <c r="D78" s="478"/>
-      <c r="E78" s="478"/>
+      <c r="A78" s="474"/>
+      <c r="B78" s="477"/>
+      <c r="C78" s="474"/>
+      <c r="D78" s="471"/>
+      <c r="E78" s="471"/>
       <c r="F78" s="387" t="s">
         <v>155</v>
       </c>
@@ -9250,11 +9287,11 @@
       <c r="P78" s="387"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="473"/>
-      <c r="B79" s="476"/>
-      <c r="C79" s="473"/>
-      <c r="D79" s="479"/>
-      <c r="E79" s="479"/>
+      <c r="A79" s="475"/>
+      <c r="B79" s="478"/>
+      <c r="C79" s="475"/>
+      <c r="D79" s="472"/>
+      <c r="E79" s="472"/>
       <c r="F79" s="390" t="s">
         <v>138</v>
       </c>
@@ -9285,19 +9322,19 @@
       <c r="P79" s="390"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="471">
+      <c r="A80" s="473">
         <v>485</v>
       </c>
-      <c r="B80" s="474">
+      <c r="B80" s="476">
         <v>44002</v>
       </c>
-      <c r="C80" s="471" t="s">
+      <c r="C80" s="473" t="s">
         <v>183</v>
       </c>
-      <c r="D80" s="477" t="s">
+      <c r="D80" s="470" t="s">
         <v>221</v>
       </c>
-      <c r="E80" s="477"/>
+      <c r="E80" s="470"/>
       <c r="F80" s="383" t="s">
         <v>155</v>
       </c>
@@ -9328,11 +9365,11 @@
       <c r="P80" s="383"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="473"/>
-      <c r="B81" s="476"/>
-      <c r="C81" s="473"/>
-      <c r="D81" s="479"/>
-      <c r="E81" s="479"/>
+      <c r="A81" s="475"/>
+      <c r="B81" s="478"/>
+      <c r="C81" s="475"/>
+      <c r="D81" s="472"/>
+      <c r="E81" s="472"/>
       <c r="F81" s="390" t="s">
         <v>138</v>
       </c>
@@ -9539,17 +9576,17 @@
       <c r="P85" s="243"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="471">
+      <c r="A86" s="473">
         <v>1152</v>
       </c>
-      <c r="B86" s="474">
+      <c r="B86" s="476">
         <v>44006</v>
       </c>
-      <c r="C86" s="471"/>
-      <c r="D86" s="487" t="s">
+      <c r="C86" s="473"/>
+      <c r="D86" s="467" t="s">
         <v>225</v>
       </c>
-      <c r="E86" s="477" t="s">
+      <c r="E86" s="470" t="s">
         <v>134</v>
       </c>
       <c r="F86" s="383" t="s">
@@ -9584,11 +9621,11 @@
       <c r="P86" s="383"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="472"/>
-      <c r="B87" s="475"/>
-      <c r="C87" s="472"/>
-      <c r="D87" s="488"/>
-      <c r="E87" s="478"/>
+      <c r="A87" s="474"/>
+      <c r="B87" s="477"/>
+      <c r="C87" s="474"/>
+      <c r="D87" s="468"/>
+      <c r="E87" s="471"/>
       <c r="F87" s="387" t="s">
         <v>149</v>
       </c>
@@ -9619,11 +9656,11 @@
       <c r="P87" s="387"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="472"/>
-      <c r="B88" s="475"/>
-      <c r="C88" s="472"/>
-      <c r="D88" s="488"/>
-      <c r="E88" s="478"/>
+      <c r="A88" s="474"/>
+      <c r="B88" s="477"/>
+      <c r="C88" s="474"/>
+      <c r="D88" s="468"/>
+      <c r="E88" s="471"/>
       <c r="F88" s="387" t="s">
         <v>190</v>
       </c>
@@ -9654,11 +9691,11 @@
       <c r="P88" s="387"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="473"/>
-      <c r="B89" s="476"/>
-      <c r="C89" s="473"/>
-      <c r="D89" s="489"/>
-      <c r="E89" s="479"/>
+      <c r="A89" s="475"/>
+      <c r="B89" s="478"/>
+      <c r="C89" s="475"/>
+      <c r="D89" s="469"/>
+      <c r="E89" s="472"/>
       <c r="F89" s="390" t="s">
         <v>138</v>
       </c>
@@ -9689,19 +9726,19 @@
       <c r="P89" s="390"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="471">
+      <c r="A90" s="473">
         <v>1153</v>
       </c>
-      <c r="B90" s="474">
+      <c r="B90" s="476">
         <v>44005</v>
       </c>
-      <c r="C90" s="471" t="s">
+      <c r="C90" s="473" t="s">
         <v>183</v>
       </c>
-      <c r="D90" s="477" t="s">
+      <c r="D90" s="470" t="s">
         <v>226</v>
       </c>
-      <c r="E90" s="477"/>
+      <c r="E90" s="470"/>
       <c r="F90" s="383" t="s">
         <v>190</v>
       </c>
@@ -9732,11 +9769,11 @@
       <c r="P90" s="383"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="473"/>
-      <c r="B91" s="476"/>
-      <c r="C91" s="473"/>
-      <c r="D91" s="479"/>
-      <c r="E91" s="479"/>
+      <c r="A91" s="475"/>
+      <c r="B91" s="478"/>
+      <c r="C91" s="475"/>
+      <c r="D91" s="472"/>
+      <c r="E91" s="472"/>
       <c r="F91" s="390" t="s">
         <v>146</v>
       </c>
@@ -9814,19 +9851,19 @@
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="471">
+      <c r="A93" s="473">
         <v>1154</v>
       </c>
-      <c r="B93" s="474">
+      <c r="B93" s="476">
         <v>44007</v>
       </c>
-      <c r="C93" s="471" t="s">
+      <c r="C93" s="473" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="477" t="s">
+      <c r="D93" s="470" t="s">
         <v>128</v>
       </c>
-      <c r="E93" s="477" t="s">
+      <c r="E93" s="470" t="s">
         <v>136</v>
       </c>
       <c r="F93" s="383" t="s">
@@ -9856,16 +9893,16 @@
       </c>
       <c r="N93" s="384"/>
       <c r="O93" s="384"/>
-      <c r="P93" s="471" t="s">
+      <c r="P93" s="473" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="472"/>
-      <c r="B94" s="475"/>
-      <c r="C94" s="472"/>
-      <c r="D94" s="478"/>
-      <c r="E94" s="478"/>
+      <c r="A94" s="474"/>
+      <c r="B94" s="477"/>
+      <c r="C94" s="474"/>
+      <c r="D94" s="471"/>
+      <c r="E94" s="471"/>
       <c r="F94" s="387" t="s">
         <v>137</v>
       </c>
@@ -9893,14 +9930,14 @@
       </c>
       <c r="N94" s="388"/>
       <c r="O94" s="388"/>
-      <c r="P94" s="472"/>
+      <c r="P94" s="474"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="473"/>
-      <c r="B95" s="476"/>
-      <c r="C95" s="473"/>
-      <c r="D95" s="479"/>
-      <c r="E95" s="479"/>
+      <c r="A95" s="475"/>
+      <c r="B95" s="478"/>
+      <c r="C95" s="475"/>
+      <c r="D95" s="472"/>
+      <c r="E95" s="472"/>
       <c r="F95" s="390" t="s">
         <v>138</v>
       </c>
@@ -9928,7 +9965,7 @@
       </c>
       <c r="N95" s="391"/>
       <c r="O95" s="391"/>
-      <c r="P95" s="473"/>
+      <c r="P95" s="475"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="243">
@@ -10117,17 +10154,17 @@
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="471">
+      <c r="A100" s="473">
         <v>488</v>
       </c>
-      <c r="B100" s="474">
+      <c r="B100" s="476">
         <v>44009</v>
       </c>
-      <c r="C100" s="471"/>
-      <c r="D100" s="477" t="s">
+      <c r="C100" s="473"/>
+      <c r="D100" s="470" t="s">
         <v>150</v>
       </c>
-      <c r="E100" s="477" t="s">
+      <c r="E100" s="470" t="s">
         <v>145</v>
       </c>
       <c r="F100" s="383" t="s">
@@ -10160,11 +10197,11 @@
       <c r="P100" s="383"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="473"/>
-      <c r="B101" s="476"/>
-      <c r="C101" s="473"/>
-      <c r="D101" s="479"/>
-      <c r="E101" s="479"/>
+      <c r="A101" s="475"/>
+      <c r="B101" s="478"/>
+      <c r="C101" s="475"/>
+      <c r="D101" s="472"/>
+      <c r="E101" s="472"/>
       <c r="F101" s="390" t="s">
         <v>190</v>
       </c>
@@ -10195,17 +10232,17 @@
       <c r="P101" s="390"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="471">
+      <c r="A102" s="473">
         <v>1196</v>
       </c>
-      <c r="B102" s="474">
+      <c r="B102" s="476">
         <v>44011</v>
       </c>
-      <c r="C102" s="471"/>
-      <c r="D102" s="477" t="s">
+      <c r="C102" s="473"/>
+      <c r="D102" s="470" t="s">
         <v>233</v>
       </c>
-      <c r="E102" s="477" t="s">
+      <c r="E102" s="470" t="s">
         <v>234</v>
       </c>
       <c r="F102" s="383" t="s">
@@ -10238,11 +10275,11 @@
       <c r="P102" s="383"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="472"/>
-      <c r="B103" s="475"/>
-      <c r="C103" s="472"/>
-      <c r="D103" s="478"/>
-      <c r="E103" s="478"/>
+      <c r="A103" s="474"/>
+      <c r="B103" s="477"/>
+      <c r="C103" s="474"/>
+      <c r="D103" s="471"/>
+      <c r="E103" s="471"/>
       <c r="F103" s="387" t="s">
         <v>154</v>
       </c>
@@ -10273,11 +10310,11 @@
       <c r="P103" s="387"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="472"/>
-      <c r="B104" s="475"/>
-      <c r="C104" s="472"/>
-      <c r="D104" s="478"/>
-      <c r="E104" s="478"/>
+      <c r="A104" s="474"/>
+      <c r="B104" s="477"/>
+      <c r="C104" s="474"/>
+      <c r="D104" s="471"/>
+      <c r="E104" s="471"/>
       <c r="F104" s="387" t="s">
         <v>131</v>
       </c>
@@ -10308,11 +10345,11 @@
       <c r="P104" s="387"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="472"/>
-      <c r="B105" s="475"/>
-      <c r="C105" s="472"/>
-      <c r="D105" s="478"/>
-      <c r="E105" s="478"/>
+      <c r="A105" s="474"/>
+      <c r="B105" s="477"/>
+      <c r="C105" s="474"/>
+      <c r="D105" s="471"/>
+      <c r="E105" s="471"/>
       <c r="F105" s="387" t="s">
         <v>155</v>
       </c>
@@ -10343,11 +10380,11 @@
       <c r="P105" s="387"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="473"/>
-      <c r="B106" s="476"/>
-      <c r="C106" s="473"/>
-      <c r="D106" s="479"/>
-      <c r="E106" s="479"/>
+      <c r="A106" s="475"/>
+      <c r="B106" s="478"/>
+      <c r="C106" s="475"/>
+      <c r="D106" s="472"/>
+      <c r="E106" s="472"/>
       <c r="F106" s="390" t="s">
         <v>141</v>
       </c>
@@ -10423,17 +10460,17 @@
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="471">
+      <c r="A108" s="473">
         <v>1195</v>
       </c>
-      <c r="B108" s="474">
+      <c r="B108" s="476">
         <v>44010</v>
       </c>
-      <c r="C108" s="471"/>
-      <c r="D108" s="477" t="s">
+      <c r="C108" s="473"/>
+      <c r="D108" s="470" t="s">
         <v>233</v>
       </c>
-      <c r="E108" s="477" t="s">
+      <c r="E108" s="470" t="s">
         <v>234</v>
       </c>
       <c r="F108" s="383" t="s">
@@ -10466,11 +10503,11 @@
       <c r="P108" s="383"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="472"/>
-      <c r="B109" s="475"/>
-      <c r="C109" s="472"/>
-      <c r="D109" s="478"/>
-      <c r="E109" s="478"/>
+      <c r="A109" s="474"/>
+      <c r="B109" s="477"/>
+      <c r="C109" s="474"/>
+      <c r="D109" s="471"/>
+      <c r="E109" s="471"/>
       <c r="F109" s="387" t="s">
         <v>154</v>
       </c>
@@ -10501,11 +10538,11 @@
       <c r="P109" s="387"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="472"/>
-      <c r="B110" s="475"/>
-      <c r="C110" s="472"/>
-      <c r="D110" s="478"/>
-      <c r="E110" s="478"/>
+      <c r="A110" s="474"/>
+      <c r="B110" s="477"/>
+      <c r="C110" s="474"/>
+      <c r="D110" s="471"/>
+      <c r="E110" s="471"/>
       <c r="F110" s="387" t="s">
         <v>131</v>
       </c>
@@ -10536,11 +10573,11 @@
       <c r="P110" s="387"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="472"/>
-      <c r="B111" s="475"/>
-      <c r="C111" s="472"/>
-      <c r="D111" s="478"/>
-      <c r="E111" s="478"/>
+      <c r="A111" s="474"/>
+      <c r="B111" s="477"/>
+      <c r="C111" s="474"/>
+      <c r="D111" s="471"/>
+      <c r="E111" s="471"/>
       <c r="F111" s="387" t="s">
         <v>155</v>
       </c>
@@ -10571,11 +10608,11 @@
       <c r="P111" s="387"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="472"/>
-      <c r="B112" s="475"/>
-      <c r="C112" s="472"/>
-      <c r="D112" s="478"/>
-      <c r="E112" s="478"/>
+      <c r="A112" s="474"/>
+      <c r="B112" s="477"/>
+      <c r="C112" s="474"/>
+      <c r="D112" s="471"/>
+      <c r="E112" s="471"/>
       <c r="F112" s="387" t="s">
         <v>190</v>
       </c>
@@ -10606,11 +10643,11 @@
       <c r="P112" s="387"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="472"/>
-      <c r="B113" s="475"/>
-      <c r="C113" s="472"/>
-      <c r="D113" s="478"/>
-      <c r="E113" s="478"/>
+      <c r="A113" s="474"/>
+      <c r="B113" s="477"/>
+      <c r="C113" s="474"/>
+      <c r="D113" s="471"/>
+      <c r="E113" s="471"/>
       <c r="F113" s="387" t="s">
         <v>146</v>
       </c>
@@ -10641,11 +10678,11 @@
       <c r="P113" s="387"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" s="472"/>
-      <c r="B114" s="475"/>
-      <c r="C114" s="472"/>
-      <c r="D114" s="478"/>
-      <c r="E114" s="478"/>
+      <c r="A114" s="474"/>
+      <c r="B114" s="477"/>
+      <c r="C114" s="474"/>
+      <c r="D114" s="471"/>
+      <c r="E114" s="471"/>
       <c r="F114" s="387" t="s">
         <v>141</v>
       </c>
@@ -10676,11 +10713,11 @@
       <c r="P114" s="387"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="473"/>
-      <c r="B115" s="476"/>
-      <c r="C115" s="473"/>
-      <c r="D115" s="479"/>
-      <c r="E115" s="479"/>
+      <c r="A115" s="475"/>
+      <c r="B115" s="478"/>
+      <c r="C115" s="475"/>
+      <c r="D115" s="472"/>
+      <c r="E115" s="472"/>
       <c r="F115" s="390" t="s">
         <v>138</v>
       </c>
@@ -10756,14 +10793,14 @@
       </c>
     </row>
     <row r="117" spans="1:17" s="334" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A117" s="508" t="s">
+      <c r="A117" s="481" t="s">
         <v>79</v>
       </c>
-      <c r="B117" s="508"/>
-      <c r="C117" s="508"/>
-      <c r="D117" s="508"/>
-      <c r="E117" s="508"/>
-      <c r="F117" s="508"/>
+      <c r="B117" s="481"/>
+      <c r="C117" s="481"/>
+      <c r="D117" s="481"/>
+      <c r="E117" s="481"/>
+      <c r="F117" s="481"/>
       <c r="G117" s="328">
         <f>SUM(G9:G116)</f>
         <v>1625</v>
@@ -10782,18 +10819,18 @@
       <c r="M117" s="329"/>
       <c r="N117" s="329"/>
       <c r="O117" s="329"/>
-      <c r="P117" s="509"/>
-      <c r="Q117" s="506"/>
+      <c r="P117" s="482"/>
+      <c r="Q117" s="479"/>
     </row>
     <row r="118" spans="1:17" s="334" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A118" s="507" t="s">
+      <c r="A118" s="480" t="s">
         <v>125</v>
       </c>
-      <c r="B118" s="507"/>
-      <c r="C118" s="507"/>
-      <c r="D118" s="507"/>
-      <c r="E118" s="507"/>
-      <c r="F118" s="507"/>
+      <c r="B118" s="480"/>
+      <c r="C118" s="480"/>
+      <c r="D118" s="480"/>
+      <c r="E118" s="480"/>
+      <c r="F118" s="480"/>
       <c r="G118" s="328">
         <f>G117</f>
         <v>1625</v>
@@ -10809,18 +10846,18 @@
       <c r="M118" s="331"/>
       <c r="N118" s="331"/>
       <c r="O118" s="331"/>
-      <c r="P118" s="509"/>
-      <c r="Q118" s="506"/>
+      <c r="P118" s="482"/>
+      <c r="Q118" s="479"/>
     </row>
     <row r="119" spans="1:17" s="334" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A119" s="507" t="s">
+      <c r="A119" s="480" t="s">
         <v>80</v>
       </c>
-      <c r="B119" s="507"/>
-      <c r="C119" s="507"/>
-      <c r="D119" s="507"/>
-      <c r="E119" s="507"/>
-      <c r="F119" s="507"/>
+      <c r="B119" s="480"/>
+      <c r="C119" s="480"/>
+      <c r="D119" s="480"/>
+      <c r="E119" s="480"/>
+      <c r="F119" s="480"/>
       <c r="G119" s="335" t="s">
         <v>50</v>
       </c>
@@ -10837,14 +10874,14 @@
       <c r="O119" s="331"/>
     </row>
     <row r="120" spans="1:17" s="334" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A120" s="507" t="s">
+      <c r="A120" s="480" t="s">
         <v>81</v>
       </c>
-      <c r="B120" s="507"/>
-      <c r="C120" s="507"/>
-      <c r="D120" s="507"/>
-      <c r="E120" s="507"/>
-      <c r="F120" s="507"/>
+      <c r="B120" s="480"/>
+      <c r="C120" s="480"/>
+      <c r="D120" s="480"/>
+      <c r="E120" s="480"/>
+      <c r="F120" s="480"/>
       <c r="G120" s="335"/>
       <c r="H120" s="331"/>
       <c r="I120" s="329"/>
@@ -10859,14 +10896,14 @@
       <c r="O120" s="331"/>
     </row>
     <row r="121" spans="1:17" s="334" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A121" s="507" t="s">
+      <c r="A121" s="480" t="s">
         <v>82</v>
       </c>
-      <c r="B121" s="507"/>
-      <c r="C121" s="507"/>
-      <c r="D121" s="507"/>
-      <c r="E121" s="507"/>
-      <c r="F121" s="507"/>
+      <c r="B121" s="480"/>
+      <c r="C121" s="480"/>
+      <c r="D121" s="480"/>
+      <c r="E121" s="480"/>
+      <c r="F121" s="480"/>
       <c r="G121" s="335"/>
       <c r="H121" s="331"/>
       <c r="I121" s="329"/>
@@ -10939,47 +10976,77 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="136">
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="A108:A115"/>
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="C108:C115"/>
-    <mergeCell ref="D108:D115"/>
-    <mergeCell ref="E108:E115"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="D67:D75"/>
-    <mergeCell ref="E67:E75"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="A67:A75"/>
-    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="P67:P75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="P93:P95"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="D102:D106"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="E23:E30"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="E41:E48"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="Q117:Q118"/>
     <mergeCell ref="A118:F118"/>
     <mergeCell ref="A119:F119"/>
@@ -11004,77 +11071,47 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="A41:A48"/>
     <mergeCell ref="B41:B48"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="E23:E30"/>
-    <mergeCell ref="C23:C30"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="E41:E48"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="P67:P75"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="P93:P95"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="D102:D106"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A108:A115"/>
+    <mergeCell ref="B108:B115"/>
+    <mergeCell ref="C108:C115"/>
+    <mergeCell ref="D108:D115"/>
+    <mergeCell ref="E108:E115"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="D67:D75"/>
+    <mergeCell ref="E67:E75"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="A67:A75"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="C86:C89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11085,7 +11122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -11349,18 +11386,18 @@
       <c r="P9" s="141"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="471">
+      <c r="A10" s="473">
         <v>480</v>
       </c>
-      <c r="B10" s="484">
+      <c r="B10" s="464">
         <v>43998</v>
       </c>
-      <c r="C10" s="471" t="s">
+      <c r="C10" s="473" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="471"/>
-      <c r="E10" s="468"/>
-      <c r="F10" s="471"/>
+      <c r="D10" s="473"/>
+      <c r="E10" s="507"/>
+      <c r="F10" s="473"/>
       <c r="G10" s="224" t="s">
         <v>135</v>
       </c>
@@ -11387,12 +11424,12 @@
       <c r="P10" s="227"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="472"/>
-      <c r="B11" s="485"/>
-      <c r="C11" s="472"/>
-      <c r="D11" s="472"/>
-      <c r="E11" s="469"/>
-      <c r="F11" s="472"/>
+      <c r="A11" s="474"/>
+      <c r="B11" s="465"/>
+      <c r="C11" s="474"/>
+      <c r="D11" s="474"/>
+      <c r="E11" s="508"/>
+      <c r="F11" s="474"/>
       <c r="G11" s="228" t="s">
         <v>149</v>
       </c>
@@ -11421,12 +11458,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="472"/>
-      <c r="B12" s="485"/>
-      <c r="C12" s="472"/>
-      <c r="D12" s="472"/>
-      <c r="E12" s="469"/>
-      <c r="F12" s="472"/>
+      <c r="A12" s="474"/>
+      <c r="B12" s="465"/>
+      <c r="C12" s="474"/>
+      <c r="D12" s="474"/>
+      <c r="E12" s="508"/>
+      <c r="F12" s="474"/>
       <c r="G12" s="228" t="s">
         <v>154</v>
       </c>
@@ -11455,12 +11492,12 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="472"/>
-      <c r="B13" s="485"/>
-      <c r="C13" s="472"/>
-      <c r="D13" s="472"/>
-      <c r="E13" s="469"/>
-      <c r="F13" s="472"/>
+      <c r="A13" s="474"/>
+      <c r="B13" s="465"/>
+      <c r="C13" s="474"/>
+      <c r="D13" s="474"/>
+      <c r="E13" s="508"/>
+      <c r="F13" s="474"/>
       <c r="G13" s="228" t="s">
         <v>190</v>
       </c>
@@ -11487,12 +11524,12 @@
       <c r="P13" s="232"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="473"/>
-      <c r="B14" s="486"/>
-      <c r="C14" s="473"/>
-      <c r="D14" s="473"/>
-      <c r="E14" s="470"/>
-      <c r="F14" s="473"/>
+      <c r="A14" s="475"/>
+      <c r="B14" s="466"/>
+      <c r="C14" s="475"/>
+      <c r="D14" s="475"/>
+      <c r="E14" s="509"/>
+      <c r="F14" s="475"/>
       <c r="G14" s="233" t="s">
         <v>146</v>
       </c>
@@ -11519,18 +11556,18 @@
       <c r="P14" s="236"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="471">
+      <c r="A15" s="473">
         <v>484</v>
       </c>
-      <c r="B15" s="484">
+      <c r="B15" s="464">
         <v>44002</v>
       </c>
-      <c r="C15" s="471" t="s">
+      <c r="C15" s="473" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="471"/>
-      <c r="E15" s="468"/>
-      <c r="F15" s="471"/>
+      <c r="D15" s="473"/>
+      <c r="E15" s="507"/>
+      <c r="F15" s="473"/>
       <c r="G15" s="224" t="s">
         <v>155</v>
       </c>
@@ -11557,12 +11594,12 @@
       <c r="P15" s="227"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="473"/>
-      <c r="B16" s="486"/>
-      <c r="C16" s="473"/>
-      <c r="D16" s="473"/>
-      <c r="E16" s="470"/>
-      <c r="F16" s="473"/>
+      <c r="A16" s="475"/>
+      <c r="B16" s="466"/>
+      <c r="C16" s="475"/>
+      <c r="D16" s="475"/>
+      <c r="E16" s="509"/>
+      <c r="F16" s="475"/>
       <c r="G16" s="233" t="s">
         <v>138</v>
       </c>
@@ -11627,18 +11664,18 @@
       <c r="P17" s="412"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="471">
+      <c r="A18" s="473">
         <v>487</v>
       </c>
-      <c r="B18" s="484">
+      <c r="B18" s="464">
         <v>44009</v>
       </c>
-      <c r="C18" s="471" t="s">
+      <c r="C18" s="473" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="471"/>
-      <c r="E18" s="471"/>
-      <c r="F18" s="471"/>
+      <c r="D18" s="473"/>
+      <c r="E18" s="473"/>
+      <c r="F18" s="473"/>
       <c r="G18" s="224" t="s">
         <v>154</v>
       </c>
@@ -11665,12 +11702,12 @@
       <c r="P18" s="227"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="473"/>
-      <c r="B19" s="486"/>
-      <c r="C19" s="473"/>
-      <c r="D19" s="473"/>
-      <c r="E19" s="473"/>
-      <c r="F19" s="473"/>
+      <c r="A19" s="475"/>
+      <c r="B19" s="466"/>
+      <c r="C19" s="475"/>
+      <c r="D19" s="475"/>
+      <c r="E19" s="475"/>
+      <c r="F19" s="475"/>
       <c r="G19" s="233" t="s">
         <v>190</v>
       </c>
@@ -11737,18 +11774,18 @@
       <c r="P20" s="417"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="471">
+      <c r="A21" s="473">
         <v>478</v>
       </c>
-      <c r="B21" s="484">
+      <c r="B21" s="464">
         <v>43996</v>
       </c>
-      <c r="C21" s="471" t="s">
+      <c r="C21" s="473" t="s">
         <v>242</v>
       </c>
-      <c r="D21" s="471"/>
-      <c r="E21" s="471"/>
-      <c r="F21" s="471"/>
+      <c r="D21" s="473"/>
+      <c r="E21" s="473"/>
+      <c r="F21" s="473"/>
       <c r="G21" s="402" t="s">
         <v>131</v>
       </c>
@@ -11775,12 +11812,12 @@
       <c r="P21" s="227"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="472"/>
-      <c r="B22" s="485"/>
-      <c r="C22" s="472"/>
-      <c r="D22" s="472"/>
-      <c r="E22" s="472"/>
-      <c r="F22" s="472"/>
+      <c r="A22" s="474"/>
+      <c r="B22" s="465"/>
+      <c r="C22" s="474"/>
+      <c r="D22" s="474"/>
+      <c r="E22" s="474"/>
+      <c r="F22" s="474"/>
       <c r="G22" s="403" t="s">
         <v>190</v>
       </c>
@@ -11807,12 +11844,12 @@
       <c r="P22" s="232"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="472"/>
-      <c r="B23" s="485"/>
-      <c r="C23" s="472"/>
-      <c r="D23" s="472"/>
-      <c r="E23" s="472"/>
-      <c r="F23" s="472"/>
+      <c r="A23" s="474"/>
+      <c r="B23" s="465"/>
+      <c r="C23" s="474"/>
+      <c r="D23" s="474"/>
+      <c r="E23" s="474"/>
+      <c r="F23" s="474"/>
       <c r="G23" s="403" t="s">
         <v>146</v>
       </c>
@@ -11839,12 +11876,12 @@
       <c r="P23" s="232"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="472"/>
-      <c r="B24" s="485"/>
-      <c r="C24" s="472"/>
-      <c r="D24" s="472"/>
-      <c r="E24" s="472"/>
-      <c r="F24" s="472"/>
+      <c r="A24" s="474"/>
+      <c r="B24" s="465"/>
+      <c r="C24" s="474"/>
+      <c r="D24" s="474"/>
+      <c r="E24" s="474"/>
+      <c r="F24" s="474"/>
       <c r="G24" s="403" t="s">
         <v>141</v>
       </c>
@@ -11871,12 +11908,12 @@
       <c r="P24" s="232"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="473"/>
-      <c r="B25" s="486"/>
-      <c r="C25" s="473"/>
-      <c r="D25" s="473"/>
-      <c r="E25" s="473"/>
-      <c r="F25" s="473"/>
+      <c r="A25" s="475"/>
+      <c r="B25" s="466"/>
+      <c r="C25" s="475"/>
+      <c r="D25" s="475"/>
+      <c r="E25" s="475"/>
+      <c r="F25" s="475"/>
       <c r="G25" s="404" t="s">
         <v>138</v>
       </c>
@@ -12004,6 +12041,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="F21:F25"/>
     <mergeCell ref="C21:C25"/>
     <mergeCell ref="B21:B25"/>
@@ -12020,27 +12078,6 @@
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="E10:E14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12051,8 +12088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12410,11 +12447,11 @@
         <v>23</v>
       </c>
       <c r="C16" s="440">
-        <f>'THU CHI'!D101+'THU CHI'!E101</f>
+        <f>'THU CHI'!D102+'THU CHI'!E102</f>
         <v>136784400</v>
       </c>
       <c r="D16" s="441">
-        <f>'THU CHI'!F101</f>
+        <f>'THU CHI'!F102</f>
         <v>148500000</v>
       </c>
       <c r="E16" s="442"/>
@@ -12428,7 +12465,7 @@
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="252">
-        <f>'THU CHI'!F67</f>
+        <f>'THU CHI'!F68</f>
         <v>19512000</v>
       </c>
       <c r="E17" s="445"/>
@@ -12442,7 +12479,7 @@
       </c>
       <c r="C18" s="446"/>
       <c r="D18" s="252">
-        <f>'THU CHI'!G87</f>
+        <f>'THU CHI'!G88</f>
         <v>3080000</v>
       </c>
       <c r="E18" s="34"/>
@@ -12456,7 +12493,7 @@
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="252">
-        <f>'THU CHI'!F108</f>
+        <f>'THU CHI'!F109</f>
         <v>6100000</v>
       </c>
       <c r="E19" s="34"/>
@@ -12470,7 +12507,7 @@
       </c>
       <c r="C20" s="446"/>
       <c r="D20" s="252">
-        <f>'THU CHI'!F117+'THU CHI'!G117</f>
+        <f>'THU CHI'!F118+'THU CHI'!G118</f>
         <v>9262525</v>
       </c>
       <c r="E20" s="34"/>
@@ -12484,7 +12521,7 @@
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="252">
-        <f>'THU CHI'!F139+'THU CHI'!G139</f>
+        <f>'THU CHI'!F140+'THU CHI'!G140</f>
         <v>16793000</v>
       </c>
       <c r="E21" s="34"/>
@@ -12498,7 +12535,7 @@
       </c>
       <c r="C22" s="446"/>
       <c r="D22" s="252">
-        <f>'THU CHI'!G127</f>
+        <f>'THU CHI'!G128</f>
         <v>1065000</v>
       </c>
       <c r="E22" s="34"/>
@@ -12511,7 +12548,7 @@
         <v>285</v>
       </c>
       <c r="C23" s="252">
-        <f>'THU CHI'!D146</f>
+        <f>'THU CHI'!D147</f>
         <v>59800000</v>
       </c>
       <c r="D23" s="252"/>
@@ -12526,8 +12563,8 @@
       </c>
       <c r="C24" s="448"/>
       <c r="D24" s="253">
-        <f>'THU CHI'!F153</f>
-        <v>15175000</v>
+        <f>'THU CHI'!F155</f>
+        <v>52975000</v>
       </c>
       <c r="E24" s="449"/>
     </row>
@@ -12542,7 +12579,7 @@
       </c>
       <c r="D25" s="254">
         <f>SUM(D16:D24)</f>
-        <v>219487525</v>
+        <v>257287525</v>
       </c>
       <c r="E25" s="30"/>
     </row>
@@ -12554,7 +12591,7 @@
       <c r="C26" s="30"/>
       <c r="D26" s="254">
         <f>C25-D25</f>
-        <v>-22903125</v>
+        <v>-60703125</v>
       </c>
       <c r="E26" s="30"/>
     </row>
@@ -12633,13 +12670,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="531" t="s">
+      <c r="A1" s="559" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="531"/>
-      <c r="C1" s="531"/>
-      <c r="D1" s="531"/>
-      <c r="E1" s="531"/>
+      <c r="B1" s="559"/>
+      <c r="C1" s="559"/>
+      <c r="D1" s="559"/>
+      <c r="E1" s="559"/>
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
@@ -12667,106 +12704,106 @@
       <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="532" t="s">
+      <c r="A4" s="543" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="532"/>
-      <c r="C4" s="532"/>
-      <c r="D4" s="532"/>
-      <c r="E4" s="532"/>
-      <c r="F4" s="532"/>
-      <c r="G4" s="532"/>
-      <c r="H4" s="532"/>
-      <c r="I4" s="532"/>
-      <c r="J4" s="532"/>
-      <c r="K4" s="532"/>
-      <c r="L4" s="532"/>
+      <c r="B4" s="543"/>
+      <c r="C4" s="543"/>
+      <c r="D4" s="543"/>
+      <c r="E4" s="543"/>
+      <c r="F4" s="543"/>
+      <c r="G4" s="543"/>
+      <c r="H4" s="543"/>
+      <c r="I4" s="543"/>
+      <c r="J4" s="543"/>
+      <c r="K4" s="543"/>
+      <c r="L4" s="543"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="536"/>
-      <c r="B5" s="536"/>
-      <c r="C5" s="536"/>
-      <c r="D5" s="536"/>
-      <c r="E5" s="536"/>
-      <c r="F5" s="536"/>
-      <c r="G5" s="536"/>
-      <c r="H5" s="536"/>
-      <c r="I5" s="536"/>
-      <c r="J5" s="536"/>
-      <c r="K5" s="536"/>
-      <c r="L5" s="536"/>
+      <c r="A5" s="552"/>
+      <c r="B5" s="552"/>
+      <c r="C5" s="552"/>
+      <c r="D5" s="552"/>
+      <c r="E5" s="552"/>
+      <c r="F5" s="552"/>
+      <c r="G5" s="552"/>
+      <c r="H5" s="552"/>
+      <c r="I5" s="552"/>
+      <c r="J5" s="552"/>
+      <c r="K5" s="552"/>
+      <c r="L5" s="552"/>
     </row>
     <row r="6" spans="1:13" s="142" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="533" t="s">
+      <c r="A6" s="540" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="539" t="s">
+      <c r="B6" s="553" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="533" t="s">
+      <c r="C6" s="540" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="533" t="s">
+      <c r="D6" s="540" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="533"/>
-      <c r="F6" s="538" t="s">
+      <c r="E6" s="540"/>
+      <c r="F6" s="541" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="538"/>
-      <c r="H6" s="538"/>
-      <c r="I6" s="538"/>
-      <c r="J6" s="538"/>
-      <c r="K6" s="538"/>
-      <c r="L6" s="538"/>
+      <c r="G6" s="541"/>
+      <c r="H6" s="541"/>
+      <c r="I6" s="541"/>
+      <c r="J6" s="541"/>
+      <c r="K6" s="541"/>
+      <c r="L6" s="541"/>
     </row>
     <row r="7" spans="1:13" s="142" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="533"/>
-      <c r="B7" s="539"/>
-      <c r="C7" s="533"/>
-      <c r="D7" s="533" t="s">
+      <c r="A7" s="540"/>
+      <c r="B7" s="553"/>
+      <c r="C7" s="540"/>
+      <c r="D7" s="540" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="533" t="s">
+      <c r="E7" s="540" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="533" t="s">
+      <c r="F7" s="540" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="533" t="s">
+      <c r="G7" s="540" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="534" t="s">
+      <c r="H7" s="531" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="534" t="s">
+      <c r="I7" s="531" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="535" t="s">
+      <c r="J7" s="532" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="535"/>
-      <c r="L7" s="534" t="s">
+      <c r="K7" s="532"/>
+      <c r="L7" s="531" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="533"/>
-      <c r="B8" s="539"/>
-      <c r="C8" s="533"/>
-      <c r="D8" s="533"/>
-      <c r="E8" s="533"/>
-      <c r="F8" s="533"/>
-      <c r="G8" s="533"/>
-      <c r="H8" s="534"/>
-      <c r="I8" s="534"/>
+      <c r="A8" s="540"/>
+      <c r="B8" s="553"/>
+      <c r="C8" s="540"/>
+      <c r="D8" s="540"/>
+      <c r="E8" s="540"/>
+      <c r="F8" s="540"/>
+      <c r="G8" s="540"/>
+      <c r="H8" s="531"/>
+      <c r="I8" s="531"/>
       <c r="J8" s="168" t="s">
         <v>86</v>
       </c>
       <c r="K8" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="534"/>
+      <c r="L8" s="531"/>
     </row>
     <row r="9" spans="1:13" s="322" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="243">
@@ -12845,19 +12882,19 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="322" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="464">
+      <c r="A11" s="503">
         <v>586</v>
       </c>
-      <c r="B11" s="466">
+      <c r="B11" s="505">
         <v>43991</v>
       </c>
-      <c r="C11" s="464" t="s">
+      <c r="C11" s="503" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="464" t="s">
+      <c r="D11" s="503" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="543" t="s">
+      <c r="E11" s="557" t="s">
         <v>136</v>
       </c>
       <c r="F11" s="243" t="s">
@@ -12883,11 +12920,11 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="322" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="465"/>
-      <c r="B12" s="467"/>
-      <c r="C12" s="465"/>
-      <c r="D12" s="465"/>
-      <c r="E12" s="544"/>
+      <c r="A12" s="504"/>
+      <c r="B12" s="506"/>
+      <c r="C12" s="504"/>
+      <c r="D12" s="504"/>
+      <c r="E12" s="558"/>
       <c r="F12" s="243" t="s">
         <v>131</v>
       </c>
@@ -13139,7 +13176,7 @@
       <c r="G20" s="165"/>
       <c r="H20" s="156"/>
       <c r="I20" s="156"/>
-      <c r="J20" s="540"/>
+      <c r="J20" s="554"/>
       <c r="K20" s="157"/>
       <c r="L20" s="156"/>
     </row>
@@ -13153,7 +13190,7 @@
       <c r="G21" s="166"/>
       <c r="H21" s="158"/>
       <c r="I21" s="158"/>
-      <c r="J21" s="541"/>
+      <c r="J21" s="555"/>
       <c r="K21" s="159"/>
       <c r="L21" s="158"/>
     </row>
@@ -13167,7 +13204,7 @@
       <c r="G22" s="167"/>
       <c r="H22" s="160"/>
       <c r="I22" s="160"/>
-      <c r="J22" s="542"/>
+      <c r="J22" s="556"/>
       <c r="K22" s="161"/>
       <c r="L22" s="160"/>
     </row>
@@ -13298,16 +13335,16 @@
       <c r="L31" s="162"/>
     </row>
     <row r="32" spans="1:12" s="210" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="545" t="s">
+      <c r="A32" s="548" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="546"/>
-      <c r="C32" s="546"/>
-      <c r="D32" s="546"/>
-      <c r="E32" s="546"/>
-      <c r="F32" s="546"/>
-      <c r="G32" s="546"/>
-      <c r="H32" s="547"/>
+      <c r="B32" s="549"/>
+      <c r="C32" s="549"/>
+      <c r="D32" s="549"/>
+      <c r="E32" s="549"/>
+      <c r="F32" s="549"/>
+      <c r="G32" s="549"/>
+      <c r="H32" s="550"/>
       <c r="I32" s="211">
         <f>SUM(I9:I31)</f>
         <v>7635000</v>
@@ -13332,106 +13369,106 @@
       <c r="L33" s="217"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="532" t="s">
+      <c r="A34" s="543" t="s">
         <v>193</v>
       </c>
-      <c r="B34" s="532"/>
-      <c r="C34" s="532"/>
-      <c r="D34" s="532"/>
-      <c r="E34" s="532"/>
-      <c r="F34" s="532"/>
-      <c r="G34" s="532"/>
-      <c r="H34" s="532"/>
-      <c r="I34" s="532"/>
-      <c r="J34" s="532"/>
-      <c r="K34" s="532"/>
-      <c r="L34" s="532"/>
+      <c r="B34" s="543"/>
+      <c r="C34" s="543"/>
+      <c r="D34" s="543"/>
+      <c r="E34" s="543"/>
+      <c r="F34" s="543"/>
+      <c r="G34" s="543"/>
+      <c r="H34" s="543"/>
+      <c r="I34" s="543"/>
+      <c r="J34" s="543"/>
+      <c r="K34" s="543"/>
+      <c r="L34" s="543"/>
     </row>
     <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="536"/>
-      <c r="B35" s="536"/>
-      <c r="C35" s="536"/>
-      <c r="D35" s="536"/>
-      <c r="E35" s="536"/>
-      <c r="F35" s="536"/>
-      <c r="G35" s="536"/>
-      <c r="H35" s="536"/>
-      <c r="I35" s="536"/>
-      <c r="J35" s="536"/>
-      <c r="K35" s="536"/>
-      <c r="L35" s="536"/>
+      <c r="A35" s="552"/>
+      <c r="B35" s="552"/>
+      <c r="C35" s="552"/>
+      <c r="D35" s="552"/>
+      <c r="E35" s="552"/>
+      <c r="F35" s="552"/>
+      <c r="G35" s="552"/>
+      <c r="H35" s="552"/>
+      <c r="I35" s="552"/>
+      <c r="J35" s="552"/>
+      <c r="K35" s="552"/>
+      <c r="L35" s="552"/>
     </row>
     <row r="36" spans="1:13" s="142" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="533" t="s">
+      <c r="A36" s="540" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="539" t="s">
+      <c r="B36" s="553" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="533" t="s">
+      <c r="C36" s="540" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="533" t="s">
+      <c r="D36" s="540" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="533"/>
-      <c r="F36" s="538" t="s">
+      <c r="E36" s="540"/>
+      <c r="F36" s="541" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="538"/>
-      <c r="H36" s="538"/>
-      <c r="I36" s="538"/>
-      <c r="J36" s="538"/>
-      <c r="K36" s="538"/>
-      <c r="L36" s="538"/>
+      <c r="G36" s="541"/>
+      <c r="H36" s="541"/>
+      <c r="I36" s="541"/>
+      <c r="J36" s="541"/>
+      <c r="K36" s="541"/>
+      <c r="L36" s="541"/>
     </row>
     <row r="37" spans="1:13" s="142" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="533"/>
-      <c r="B37" s="539"/>
-      <c r="C37" s="533"/>
-      <c r="D37" s="533" t="s">
+      <c r="A37" s="540"/>
+      <c r="B37" s="553"/>
+      <c r="C37" s="540"/>
+      <c r="D37" s="540" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="533" t="s">
+      <c r="E37" s="540" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="533" t="s">
+      <c r="F37" s="540" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="533" t="s">
+      <c r="G37" s="540" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="534" t="s">
+      <c r="H37" s="531" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="534" t="s">
+      <c r="I37" s="531" t="s">
         <v>44</v>
       </c>
-      <c r="J37" s="535" t="s">
+      <c r="J37" s="532" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="535"/>
-      <c r="L37" s="534" t="s">
+      <c r="K37" s="532"/>
+      <c r="L37" s="531" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="533"/>
-      <c r="B38" s="539"/>
-      <c r="C38" s="533"/>
-      <c r="D38" s="533"/>
-      <c r="E38" s="533"/>
-      <c r="F38" s="533"/>
-      <c r="G38" s="533"/>
-      <c r="H38" s="534"/>
-      <c r="I38" s="534"/>
+      <c r="A38" s="540"/>
+      <c r="B38" s="553"/>
+      <c r="C38" s="540"/>
+      <c r="D38" s="540"/>
+      <c r="E38" s="540"/>
+      <c r="F38" s="540"/>
+      <c r="G38" s="540"/>
+      <c r="H38" s="531"/>
+      <c r="I38" s="531"/>
       <c r="J38" s="307" t="s">
         <v>86</v>
       </c>
       <c r="K38" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="L38" s="534"/>
+      <c r="L38" s="531"/>
     </row>
     <row r="39" spans="1:13" s="322" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="243">
@@ -13473,16 +13510,16 @@
       <c r="M39" s="323"/>
     </row>
     <row r="40" spans="1:13" s="210" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="545" t="s">
+      <c r="A40" s="548" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="546"/>
-      <c r="C40" s="546"/>
-      <c r="D40" s="546"/>
-      <c r="E40" s="546"/>
-      <c r="F40" s="546"/>
-      <c r="G40" s="546"/>
-      <c r="H40" s="547"/>
+      <c r="B40" s="549"/>
+      <c r="C40" s="549"/>
+      <c r="D40" s="549"/>
+      <c r="E40" s="549"/>
+      <c r="F40" s="549"/>
+      <c r="G40" s="549"/>
+      <c r="H40" s="550"/>
       <c r="I40" s="211">
         <f>SUM(I39)</f>
         <v>1860000</v>
@@ -13521,20 +13558,20 @@
       <c r="L42" s="217"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="532" t="s">
+      <c r="A43" s="543" t="s">
         <v>244</v>
       </c>
-      <c r="B43" s="532"/>
-      <c r="C43" s="532"/>
-      <c r="D43" s="532"/>
-      <c r="E43" s="532"/>
-      <c r="F43" s="532"/>
-      <c r="G43" s="532"/>
-      <c r="H43" s="532"/>
-      <c r="I43" s="532"/>
-      <c r="J43" s="532"/>
-      <c r="K43" s="532"/>
-      <c r="L43" s="532"/>
+      <c r="B43" s="543"/>
+      <c r="C43" s="543"/>
+      <c r="D43" s="543"/>
+      <c r="E43" s="543"/>
+      <c r="F43" s="543"/>
+      <c r="G43" s="543"/>
+      <c r="H43" s="543"/>
+      <c r="I43" s="543"/>
+      <c r="J43" s="543"/>
+      <c r="K43" s="543"/>
+      <c r="L43" s="543"/>
     </row>
     <row r="44" spans="1:13" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="358"/>
@@ -13549,74 +13586,74 @@
       <c r="L44" s="217"/>
     </row>
     <row r="45" spans="1:13" s="142" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="551"/>
-      <c r="B45" s="552" t="s">
+      <c r="A45" s="546"/>
+      <c r="B45" s="547" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="533" t="s">
+      <c r="C45" s="540" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="533" t="s">
+      <c r="D45" s="540" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="533"/>
-      <c r="F45" s="538" t="s">
+      <c r="E45" s="540"/>
+      <c r="F45" s="541" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="538"/>
-      <c r="H45" s="538"/>
-      <c r="I45" s="538"/>
-      <c r="J45" s="538"/>
-      <c r="K45" s="538"/>
-      <c r="L45" s="559"/>
+      <c r="G45" s="541"/>
+      <c r="H45" s="541"/>
+      <c r="I45" s="541"/>
+      <c r="J45" s="541"/>
+      <c r="K45" s="541"/>
+      <c r="L45" s="542"/>
     </row>
     <row r="46" spans="1:13" s="142" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="551"/>
-      <c r="B46" s="552"/>
-      <c r="C46" s="533"/>
-      <c r="D46" s="533" t="s">
+      <c r="A46" s="546"/>
+      <c r="B46" s="547"/>
+      <c r="C46" s="540"/>
+      <c r="D46" s="540" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="533" t="s">
+      <c r="E46" s="540" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="533" t="s">
+      <c r="F46" s="540" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="533" t="s">
+      <c r="G46" s="540" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="534" t="s">
+      <c r="H46" s="531" t="s">
         <v>33</v>
       </c>
-      <c r="I46" s="534" t="s">
+      <c r="I46" s="531" t="s">
         <v>44</v>
       </c>
-      <c r="J46" s="535" t="s">
+      <c r="J46" s="532" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="535"/>
-      <c r="L46" s="534" t="s">
+      <c r="K46" s="532"/>
+      <c r="L46" s="531" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="551"/>
-      <c r="B47" s="552"/>
-      <c r="C47" s="533"/>
-      <c r="D47" s="533"/>
-      <c r="E47" s="533"/>
-      <c r="F47" s="533"/>
-      <c r="G47" s="533"/>
-      <c r="H47" s="534"/>
-      <c r="I47" s="534"/>
+      <c r="A47" s="546"/>
+      <c r="B47" s="547"/>
+      <c r="C47" s="540"/>
+      <c r="D47" s="540"/>
+      <c r="E47" s="540"/>
+      <c r="F47" s="540"/>
+      <c r="G47" s="540"/>
+      <c r="H47" s="531"/>
+      <c r="I47" s="531"/>
       <c r="J47" s="357" t="s">
         <v>86</v>
       </c>
       <c r="K47" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="L47" s="534"/>
+      <c r="L47" s="531"/>
     </row>
     <row r="48" spans="1:13" s="142" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="379"/>
@@ -13813,11 +13850,11 @@
       <c r="L54" s="369"/>
     </row>
     <row r="55" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="532" t="s">
+      <c r="A55" s="543" t="s">
         <v>194</v>
       </c>
-      <c r="B55" s="532"/>
-      <c r="C55" s="532"/>
+      <c r="B55" s="543"/>
+      <c r="C55" s="543"/>
       <c r="D55" s="306"/>
       <c r="E55" s="306"/>
       <c r="F55" s="306"/>
@@ -13830,131 +13867,131 @@
       <c r="A56" s="306"/>
       <c r="B56" s="306"/>
       <c r="C56" s="306"/>
-      <c r="D56" s="549" t="s">
+      <c r="D56" s="544" t="s">
         <v>195</v>
       </c>
-      <c r="E56" s="549"/>
-      <c r="F56" s="549"/>
-      <c r="G56" s="549"/>
-      <c r="H56" s="549"/>
-      <c r="I56" s="549"/>
-      <c r="J56" s="550" t="s">
+      <c r="E56" s="544"/>
+      <c r="F56" s="544"/>
+      <c r="G56" s="544"/>
+      <c r="H56" s="544"/>
+      <c r="I56" s="544"/>
+      <c r="J56" s="545" t="s">
         <v>51</v>
       </c>
-      <c r="K56" s="550"/>
+      <c r="K56" s="545"/>
       <c r="L56" s="217"/>
     </row>
     <row r="57" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="306"/>
       <c r="B57" s="306"/>
       <c r="C57" s="306"/>
-      <c r="D57" s="548" t="s">
+      <c r="D57" s="533" t="s">
         <v>196</v>
       </c>
-      <c r="E57" s="548"/>
-      <c r="F57" s="548"/>
-      <c r="G57" s="548"/>
-      <c r="H57" s="548"/>
-      <c r="I57" s="548"/>
-      <c r="J57" s="556">
+      <c r="E57" s="533"/>
+      <c r="F57" s="533"/>
+      <c r="G57" s="533"/>
+      <c r="H57" s="533"/>
+      <c r="I57" s="533"/>
+      <c r="J57" s="537">
         <v>2112246</v>
       </c>
-      <c r="K57" s="556"/>
+      <c r="K57" s="537"/>
       <c r="L57" s="217"/>
     </row>
     <row r="58" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="306"/>
       <c r="B58" s="306"/>
       <c r="C58" s="306"/>
-      <c r="D58" s="548" t="s">
+      <c r="D58" s="533" t="s">
         <v>197</v>
       </c>
-      <c r="E58" s="548"/>
-      <c r="F58" s="548"/>
-      <c r="G58" s="548"/>
-      <c r="H58" s="548"/>
-      <c r="I58" s="548"/>
-      <c r="J58" s="556">
+      <c r="E58" s="533"/>
+      <c r="F58" s="533"/>
+      <c r="G58" s="533"/>
+      <c r="H58" s="533"/>
+      <c r="I58" s="533"/>
+      <c r="J58" s="537">
         <f>L32</f>
         <v>4504650.0000000009</v>
       </c>
-      <c r="K58" s="556"/>
+      <c r="K58" s="537"/>
       <c r="L58" s="217"/>
     </row>
     <row r="59" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="255"/>
       <c r="B59" s="255"/>
       <c r="C59" s="255"/>
-      <c r="D59" s="548" t="s">
+      <c r="D59" s="533" t="s">
         <v>198</v>
       </c>
-      <c r="E59" s="548"/>
-      <c r="F59" s="548"/>
-      <c r="G59" s="548"/>
-      <c r="H59" s="548"/>
-      <c r="I59" s="548"/>
-      <c r="J59" s="556">
+      <c r="E59" s="533"/>
+      <c r="F59" s="533"/>
+      <c r="G59" s="533"/>
+      <c r="H59" s="533"/>
+      <c r="I59" s="533"/>
+      <c r="J59" s="537">
         <f>L40</f>
         <v>1860000</v>
       </c>
-      <c r="K59" s="556"/>
+      <c r="K59" s="537"/>
       <c r="L59" s="217"/>
     </row>
     <row r="60" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="306"/>
       <c r="B60" s="306"/>
       <c r="C60" s="306"/>
-      <c r="D60" s="553" t="s">
+      <c r="D60" s="534" t="s">
         <v>200</v>
       </c>
-      <c r="E60" s="554"/>
-      <c r="F60" s="554"/>
-      <c r="G60" s="554"/>
-      <c r="H60" s="554"/>
-      <c r="I60" s="555"/>
-      <c r="J60" s="557">
+      <c r="E60" s="535"/>
+      <c r="F60" s="535"/>
+      <c r="G60" s="535"/>
+      <c r="H60" s="535"/>
+      <c r="I60" s="536"/>
+      <c r="J60" s="538">
         <f>'Bảng lương'!L17</f>
         <v>2395769.230769231</v>
       </c>
-      <c r="K60" s="558"/>
+      <c r="K60" s="539"/>
       <c r="L60" s="217"/>
     </row>
     <row r="61" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="306"/>
       <c r="B61" s="306"/>
       <c r="C61" s="306"/>
-      <c r="D61" s="553" t="s">
+      <c r="D61" s="534" t="s">
         <v>247</v>
       </c>
-      <c r="E61" s="554"/>
-      <c r="F61" s="554"/>
-      <c r="G61" s="554"/>
-      <c r="H61" s="554"/>
-      <c r="I61" s="555"/>
-      <c r="J61" s="557">
+      <c r="E61" s="535"/>
+      <c r="F61" s="535"/>
+      <c r="G61" s="535"/>
+      <c r="H61" s="535"/>
+      <c r="I61" s="536"/>
+      <c r="J61" s="538">
         <f>L53</f>
         <v>2530000</v>
       </c>
-      <c r="K61" s="558"/>
+      <c r="K61" s="539"/>
       <c r="L61" s="353"/>
     </row>
     <row r="62" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="255"/>
       <c r="B62" s="255"/>
       <c r="C62" s="255"/>
-      <c r="D62" s="548" t="s">
+      <c r="D62" s="533" t="s">
         <v>199</v>
       </c>
-      <c r="E62" s="548"/>
-      <c r="F62" s="548"/>
-      <c r="G62" s="548"/>
-      <c r="H62" s="548"/>
-      <c r="I62" s="548"/>
-      <c r="J62" s="556">
+      <c r="E62" s="533"/>
+      <c r="F62" s="533"/>
+      <c r="G62" s="533"/>
+      <c r="H62" s="533"/>
+      <c r="I62" s="533"/>
+      <c r="J62" s="537">
         <f>J57+J58+J59+J61-J60</f>
         <v>8611126.7692307681</v>
       </c>
-      <c r="K62" s="556"/>
+      <c r="K62" s="537"/>
       <c r="L62" s="217"/>
     </row>
     <row r="63" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
@@ -13986,19 +14023,19 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="92"/>
-      <c r="B65" s="532" t="s">
+      <c r="B65" s="543" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="532"/>
-      <c r="D65" s="532"/>
+      <c r="C65" s="543"/>
+      <c r="D65" s="543"/>
       <c r="E65" s="92"/>
       <c r="F65" s="92"/>
       <c r="G65" s="92"/>
       <c r="H65" s="92"/>
-      <c r="I65" s="532" t="s">
+      <c r="I65" s="543" t="s">
         <v>117</v>
       </c>
-      <c r="J65" s="532"/>
+      <c r="J65" s="543"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="92"/>
@@ -14078,8 +14115,8 @@
       <c r="I72" s="214"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="537"/>
-      <c r="B73" s="537"/>
+      <c r="A73" s="551"/>
+      <c r="B73" s="551"/>
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
@@ -14089,8 +14126,8 @@
       <c r="H75" s="215"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="537"/>
-      <c r="B77" s="537"/>
+      <c r="A77" s="551"/>
+      <c r="B77" s="551"/>
       <c r="E77" s="36"/>
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
@@ -14098,6 +14135,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:L36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
     <mergeCell ref="I37:I38"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="D59:I59"/>
@@ -14114,62 +14207,6 @@
     <mergeCell ref="F45:L45"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:L36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A5:L5"/>
   </mergeCells>
   <pageMargins left="0.94" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -14205,13 +14242,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="531" t="s">
+      <c r="A1" s="559" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="531"/>
-      <c r="C1" s="531"/>
-      <c r="D1" s="531"/>
-      <c r="E1" s="531"/>
+      <c r="B1" s="559"/>
+      <c r="C1" s="559"/>
+      <c r="D1" s="559"/>
+      <c r="E1" s="559"/>
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
@@ -14239,121 +14276,121 @@
       <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="532" t="s">
+      <c r="A4" s="543" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="532"/>
-      <c r="C4" s="532"/>
-      <c r="D4" s="532"/>
-      <c r="E4" s="532"/>
-      <c r="F4" s="532"/>
-      <c r="G4" s="532"/>
-      <c r="H4" s="532"/>
-      <c r="I4" s="532"/>
-      <c r="J4" s="532"/>
-      <c r="K4" s="532"/>
-      <c r="L4" s="532"/>
+      <c r="B4" s="543"/>
+      <c r="C4" s="543"/>
+      <c r="D4" s="543"/>
+      <c r="E4" s="543"/>
+      <c r="F4" s="543"/>
+      <c r="G4" s="543"/>
+      <c r="H4" s="543"/>
+      <c r="I4" s="543"/>
+      <c r="J4" s="543"/>
+      <c r="K4" s="543"/>
+      <c r="L4" s="543"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="536"/>
-      <c r="B5" s="536"/>
-      <c r="C5" s="536"/>
-      <c r="D5" s="536"/>
-      <c r="E5" s="536"/>
-      <c r="F5" s="536"/>
-      <c r="G5" s="536"/>
-      <c r="H5" s="536"/>
-      <c r="I5" s="536"/>
-      <c r="J5" s="536"/>
-      <c r="K5" s="536"/>
-      <c r="L5" s="536"/>
+      <c r="A5" s="552"/>
+      <c r="B5" s="552"/>
+      <c r="C5" s="552"/>
+      <c r="D5" s="552"/>
+      <c r="E5" s="552"/>
+      <c r="F5" s="552"/>
+      <c r="G5" s="552"/>
+      <c r="H5" s="552"/>
+      <c r="I5" s="552"/>
+      <c r="J5" s="552"/>
+      <c r="K5" s="552"/>
+      <c r="L5" s="552"/>
     </row>
     <row r="6" spans="1:13" s="142" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="533" t="s">
+      <c r="A6" s="540" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="539" t="s">
+      <c r="B6" s="553" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="533" t="s">
+      <c r="C6" s="540" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="533" t="s">
+      <c r="D6" s="540" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="533"/>
-      <c r="F6" s="538" t="s">
+      <c r="E6" s="540"/>
+      <c r="F6" s="541" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="538"/>
-      <c r="H6" s="538"/>
-      <c r="I6" s="538"/>
-      <c r="J6" s="538"/>
-      <c r="K6" s="538"/>
-      <c r="L6" s="538"/>
+      <c r="G6" s="541"/>
+      <c r="H6" s="541"/>
+      <c r="I6" s="541"/>
+      <c r="J6" s="541"/>
+      <c r="K6" s="541"/>
+      <c r="L6" s="541"/>
     </row>
     <row r="7" spans="1:13" s="142" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="533"/>
-      <c r="B7" s="539"/>
-      <c r="C7" s="533"/>
-      <c r="D7" s="533" t="s">
+      <c r="A7" s="540"/>
+      <c r="B7" s="553"/>
+      <c r="C7" s="540"/>
+      <c r="D7" s="540" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="533" t="s">
+      <c r="E7" s="540" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="533" t="s">
+      <c r="F7" s="540" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="533" t="s">
+      <c r="G7" s="540" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="534" t="s">
+      <c r="H7" s="531" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="534" t="s">
+      <c r="I7" s="531" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="535" t="s">
+      <c r="J7" s="532" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="535"/>
-      <c r="L7" s="560" t="s">
+      <c r="K7" s="532"/>
+      <c r="L7" s="564" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="533"/>
-      <c r="B8" s="539"/>
-      <c r="C8" s="533"/>
-      <c r="D8" s="533"/>
-      <c r="E8" s="533"/>
-      <c r="F8" s="533"/>
-      <c r="G8" s="533"/>
-      <c r="H8" s="534"/>
-      <c r="I8" s="534"/>
+      <c r="A8" s="540"/>
+      <c r="B8" s="553"/>
+      <c r="C8" s="540"/>
+      <c r="D8" s="540"/>
+      <c r="E8" s="540"/>
+      <c r="F8" s="540"/>
+      <c r="G8" s="540"/>
+      <c r="H8" s="531"/>
+      <c r="I8" s="531"/>
       <c r="J8" s="357" t="s">
         <v>86</v>
       </c>
       <c r="K8" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="561"/>
+      <c r="L8" s="565"/>
     </row>
     <row r="9" spans="1:13" s="322" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="464">
+      <c r="A9" s="503">
         <v>557</v>
       </c>
-      <c r="B9" s="466">
+      <c r="B9" s="505">
         <v>43981</v>
       </c>
-      <c r="C9" s="480" t="s">
+      <c r="C9" s="499" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="480" t="s">
+      <c r="D9" s="499" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="480" t="s">
+      <c r="E9" s="499" t="s">
         <v>136</v>
       </c>
       <c r="F9" s="243" t="s">
@@ -14378,11 +14415,11 @@
       <c r="M9" s="323"/>
     </row>
     <row r="10" spans="1:13" s="322" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="465"/>
-      <c r="B10" s="467"/>
-      <c r="C10" s="481"/>
-      <c r="D10" s="481"/>
-      <c r="E10" s="481"/>
+      <c r="A10" s="504"/>
+      <c r="B10" s="506"/>
+      <c r="C10" s="500"/>
+      <c r="D10" s="500"/>
+      <c r="E10" s="500"/>
       <c r="F10" s="243" t="s">
         <v>137</v>
       </c>
@@ -14474,19 +14511,19 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="322" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="464">
+      <c r="A13" s="503">
         <v>1154</v>
       </c>
-      <c r="B13" s="564">
+      <c r="B13" s="561">
         <v>44007</v>
       </c>
-      <c r="C13" s="464" t="s">
+      <c r="C13" s="503" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="480" t="s">
+      <c r="D13" s="499" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="480" t="s">
+      <c r="E13" s="499" t="s">
         <v>136</v>
       </c>
       <c r="F13" s="243" t="s">
@@ -14510,11 +14547,11 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="322" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="563"/>
-      <c r="B14" s="565"/>
-      <c r="C14" s="563"/>
-      <c r="D14" s="562"/>
-      <c r="E14" s="562"/>
+      <c r="A14" s="560"/>
+      <c r="B14" s="562"/>
+      <c r="C14" s="560"/>
+      <c r="D14" s="566"/>
+      <c r="E14" s="566"/>
       <c r="F14" s="243" t="s">
         <v>137</v>
       </c>
@@ -14536,11 +14573,11 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="322" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="465"/>
-      <c r="B15" s="566"/>
-      <c r="C15" s="465"/>
-      <c r="D15" s="481"/>
-      <c r="E15" s="481"/>
+      <c r="A15" s="504"/>
+      <c r="B15" s="563"/>
+      <c r="C15" s="504"/>
+      <c r="D15" s="500"/>
+      <c r="E15" s="500"/>
       <c r="F15" s="243" t="s">
         <v>138</v>
       </c>
@@ -14598,16 +14635,16 @@
       </c>
     </row>
     <row r="17" spans="1:12" s="210" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="545" t="s">
+      <c r="A17" s="548" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="546"/>
-      <c r="C17" s="546"/>
-      <c r="D17" s="546"/>
-      <c r="E17" s="546"/>
-      <c r="F17" s="546"/>
-      <c r="G17" s="546"/>
-      <c r="H17" s="547"/>
+      <c r="B17" s="549"/>
+      <c r="C17" s="549"/>
+      <c r="D17" s="549"/>
+      <c r="E17" s="549"/>
+      <c r="F17" s="549"/>
+      <c r="G17" s="549"/>
+      <c r="H17" s="550"/>
       <c r="I17" s="211">
         <f>SUM(I9:I16)</f>
         <v>4980000</v>
@@ -14657,11 +14694,11 @@
       <c r="L20" s="369"/>
     </row>
     <row r="21" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="532" t="s">
+      <c r="A21" s="543" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="532"/>
-      <c r="C21" s="532"/>
+      <c r="B21" s="543"/>
+      <c r="C21" s="543"/>
       <c r="D21" s="358"/>
       <c r="E21" s="358"/>
       <c r="F21" s="358"/>
@@ -14674,75 +14711,75 @@
       <c r="A22" s="358"/>
       <c r="B22" s="358"/>
       <c r="C22" s="358"/>
-      <c r="D22" s="549" t="s">
+      <c r="D22" s="544" t="s">
         <v>195</v>
       </c>
-      <c r="E22" s="549"/>
-      <c r="F22" s="549"/>
-      <c r="G22" s="549"/>
-      <c r="H22" s="549"/>
-      <c r="I22" s="549"/>
-      <c r="J22" s="550" t="s">
+      <c r="E22" s="544"/>
+      <c r="F22" s="544"/>
+      <c r="G22" s="544"/>
+      <c r="H22" s="544"/>
+      <c r="I22" s="544"/>
+      <c r="J22" s="545" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="550"/>
+      <c r="K22" s="545"/>
       <c r="L22" s="217"/>
     </row>
     <row r="23" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="358"/>
       <c r="B23" s="358"/>
       <c r="C23" s="358"/>
-      <c r="D23" s="548" t="s">
+      <c r="D23" s="533" t="s">
         <v>197</v>
       </c>
-      <c r="E23" s="548"/>
-      <c r="F23" s="548"/>
-      <c r="G23" s="548"/>
-      <c r="H23" s="548"/>
-      <c r="I23" s="548"/>
-      <c r="J23" s="556">
+      <c r="E23" s="533"/>
+      <c r="F23" s="533"/>
+      <c r="G23" s="533"/>
+      <c r="H23" s="533"/>
+      <c r="I23" s="533"/>
+      <c r="J23" s="537">
         <f>L17</f>
         <v>2938200.0000000005</v>
       </c>
-      <c r="K23" s="556"/>
+      <c r="K23" s="537"/>
       <c r="L23" s="217"/>
     </row>
     <row r="24" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="358"/>
       <c r="B24" s="358"/>
       <c r="C24" s="358"/>
-      <c r="D24" s="553" t="s">
+      <c r="D24" s="534" t="s">
         <v>200</v>
       </c>
-      <c r="E24" s="554"/>
-      <c r="F24" s="554"/>
-      <c r="G24" s="554"/>
-      <c r="H24" s="554"/>
-      <c r="I24" s="555"/>
-      <c r="J24" s="557">
+      <c r="E24" s="535"/>
+      <c r="F24" s="535"/>
+      <c r="G24" s="535"/>
+      <c r="H24" s="535"/>
+      <c r="I24" s="536"/>
+      <c r="J24" s="538">
         <f>'Bảng lương'!L16</f>
         <v>2107692.307692308</v>
       </c>
-      <c r="K24" s="558"/>
+      <c r="K24" s="539"/>
       <c r="L24" s="217"/>
     </row>
     <row r="25" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="358"/>
       <c r="B25" s="358"/>
       <c r="C25" s="358"/>
-      <c r="D25" s="548" t="s">
+      <c r="D25" s="533" t="s">
         <v>248</v>
       </c>
-      <c r="E25" s="548"/>
-      <c r="F25" s="548"/>
-      <c r="G25" s="548"/>
-      <c r="H25" s="548"/>
-      <c r="I25" s="548"/>
-      <c r="J25" s="556">
+      <c r="E25" s="533"/>
+      <c r="F25" s="533"/>
+      <c r="G25" s="533"/>
+      <c r="H25" s="533"/>
+      <c r="I25" s="533"/>
+      <c r="J25" s="537">
         <f>J23-J24</f>
         <v>830507.69230769249</v>
       </c>
-      <c r="K25" s="556"/>
+      <c r="K25" s="537"/>
       <c r="L25" s="217"/>
     </row>
     <row r="26" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
@@ -14771,19 +14808,19 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="358"/>
-      <c r="B28" s="532" t="s">
+      <c r="B28" s="543" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="532"/>
-      <c r="D28" s="532"/>
+      <c r="C28" s="543"/>
+      <c r="D28" s="543"/>
       <c r="E28" s="358"/>
       <c r="F28" s="358"/>
       <c r="G28" s="358"/>
       <c r="H28" s="358"/>
-      <c r="I28" s="532" t="s">
+      <c r="I28" s="543" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="532"/>
+      <c r="J28" s="543"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="358"/>
@@ -14863,8 +14900,8 @@
       <c r="I35" s="214"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="537"/>
-      <c r="B36" s="537"/>
+      <c r="A36" s="551"/>
+      <c r="B36" s="551"/>
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
@@ -14874,8 +14911,8 @@
       <c r="H38" s="215"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="537"/>
-      <c r="B40" s="537"/>
+      <c r="A40" s="551"/>
+      <c r="B40" s="551"/>
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
@@ -14883,23 +14920,14 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
     <mergeCell ref="D22:I22"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="A17:H17"/>
@@ -14915,14 +14943,23 @@
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -15463,16 +15500,16 @@
       <c r="C1" s="170"/>
       <c r="D1" s="170"/>
       <c r="E1" s="170"/>
-      <c r="Z1" s="585" t="s">
+      <c r="Z1" s="572" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="586"/>
-      <c r="AB1" s="586"/>
-      <c r="AC1" s="586"/>
-      <c r="AD1" s="586"/>
-      <c r="AE1" s="586"/>
-      <c r="AF1" s="586"/>
-      <c r="AG1" s="587"/>
+      <c r="AA1" s="573"/>
+      <c r="AB1" s="573"/>
+      <c r="AC1" s="573"/>
+      <c r="AD1" s="573"/>
+      <c r="AE1" s="573"/>
+      <c r="AF1" s="573"/>
+      <c r="AG1" s="574"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="173" t="s">
@@ -15482,18 +15519,18 @@
       <c r="C2" s="174"/>
       <c r="D2" s="174"/>
       <c r="E2" s="174"/>
-      <c r="Z2" s="568" t="s">
+      <c r="Z2" s="567" t="s">
         <v>89</v>
       </c>
-      <c r="AA2" s="569"/>
-      <c r="AB2" s="569"/>
-      <c r="AC2" s="569"/>
-      <c r="AD2" s="569"/>
-      <c r="AE2" s="570"/>
-      <c r="AF2" s="571" t="s">
+      <c r="AA2" s="568"/>
+      <c r="AB2" s="568"/>
+      <c r="AC2" s="568"/>
+      <c r="AD2" s="568"/>
+      <c r="AE2" s="569"/>
+      <c r="AF2" s="570" t="s">
         <v>90</v>
       </c>
-      <c r="AG2" s="572"/>
+      <c r="AG2" s="571"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="173" t="s">
@@ -15503,18 +15540,18 @@
       <c r="C3" s="83"/>
       <c r="D3" s="83"/>
       <c r="E3" s="83"/>
-      <c r="Z3" s="568" t="s">
+      <c r="Z3" s="567" t="s">
         <v>92</v>
       </c>
-      <c r="AA3" s="569"/>
-      <c r="AB3" s="569"/>
-      <c r="AC3" s="569"/>
-      <c r="AD3" s="569"/>
-      <c r="AE3" s="570"/>
-      <c r="AF3" s="571" t="s">
+      <c r="AA3" s="568"/>
+      <c r="AB3" s="568"/>
+      <c r="AC3" s="568"/>
+      <c r="AD3" s="568"/>
+      <c r="AE3" s="569"/>
+      <c r="AF3" s="570" t="s">
         <v>93</v>
       </c>
-      <c r="AG3" s="572"/>
+      <c r="AG3" s="571"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="173" t="s">
@@ -15527,18 +15564,18 @@
       <c r="T4" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="Z4" s="568" t="s">
+      <c r="Z4" s="567" t="s">
         <v>95</v>
       </c>
-      <c r="AA4" s="569"/>
-      <c r="AB4" s="569"/>
-      <c r="AC4" s="569"/>
-      <c r="AD4" s="569"/>
-      <c r="AE4" s="570"/>
-      <c r="AF4" s="571" t="s">
+      <c r="AA4" s="568"/>
+      <c r="AB4" s="568"/>
+      <c r="AC4" s="568"/>
+      <c r="AD4" s="568"/>
+      <c r="AE4" s="569"/>
+      <c r="AF4" s="570" t="s">
         <v>96</v>
       </c>
-      <c r="AG4" s="572"/>
+      <c r="AG4" s="571"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="173" t="s">
@@ -15548,18 +15585,18 @@
       <c r="C5" s="83"/>
       <c r="D5" s="83"/>
       <c r="E5" s="83"/>
-      <c r="Z5" s="568" t="s">
+      <c r="Z5" s="567" t="s">
         <v>98</v>
       </c>
-      <c r="AA5" s="569"/>
-      <c r="AB5" s="569"/>
-      <c r="AC5" s="569"/>
-      <c r="AD5" s="569"/>
-      <c r="AE5" s="570"/>
-      <c r="AF5" s="571" t="s">
+      <c r="AA5" s="568"/>
+      <c r="AB5" s="568"/>
+      <c r="AC5" s="568"/>
+      <c r="AD5" s="568"/>
+      <c r="AE5" s="569"/>
+      <c r="AF5" s="570" t="s">
         <v>99</v>
       </c>
-      <c r="AG5" s="572"/>
+      <c r="AG5" s="571"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="175"/>
@@ -15569,93 +15606,93 @@
       <c r="E6" s="175"/>
     </row>
     <row r="7" spans="1:40" s="178" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="573" t="s">
+      <c r="A7" s="576" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="573"/>
-      <c r="C7" s="573"/>
-      <c r="D7" s="573"/>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="573"/>
-      <c r="I7" s="573"/>
-      <c r="J7" s="573"/>
-      <c r="K7" s="573"/>
-      <c r="L7" s="573"/>
-      <c r="M7" s="573"/>
-      <c r="N7" s="573"/>
-      <c r="O7" s="573"/>
-      <c r="P7" s="573"/>
-      <c r="Q7" s="573"/>
-      <c r="R7" s="573"/>
-      <c r="S7" s="573"/>
-      <c r="T7" s="573"/>
-      <c r="U7" s="573"/>
-      <c r="V7" s="573"/>
-      <c r="W7" s="573"/>
-      <c r="X7" s="573"/>
-      <c r="Y7" s="573"/>
-      <c r="Z7" s="573"/>
-      <c r="AA7" s="573"/>
-      <c r="AB7" s="573"/>
-      <c r="AC7" s="573"/>
-      <c r="AD7" s="573"/>
-      <c r="AE7" s="573"/>
-      <c r="AF7" s="573"/>
-      <c r="AG7" s="573"/>
-      <c r="AH7" s="573"/>
-      <c r="AI7" s="573"/>
-      <c r="AJ7" s="573"/>
-      <c r="AK7" s="573"/>
-      <c r="AL7" s="573"/>
-      <c r="AM7" s="573"/>
+      <c r="B7" s="576"/>
+      <c r="C7" s="576"/>
+      <c r="D7" s="576"/>
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="576"/>
+      <c r="I7" s="576"/>
+      <c r="J7" s="576"/>
+      <c r="K7" s="576"/>
+      <c r="L7" s="576"/>
+      <c r="M7" s="576"/>
+      <c r="N7" s="576"/>
+      <c r="O7" s="576"/>
+      <c r="P7" s="576"/>
+      <c r="Q7" s="576"/>
+      <c r="R7" s="576"/>
+      <c r="S7" s="576"/>
+      <c r="T7" s="576"/>
+      <c r="U7" s="576"/>
+      <c r="V7" s="576"/>
+      <c r="W7" s="576"/>
+      <c r="X7" s="576"/>
+      <c r="Y7" s="576"/>
+      <c r="Z7" s="576"/>
+      <c r="AA7" s="576"/>
+      <c r="AB7" s="576"/>
+      <c r="AC7" s="576"/>
+      <c r="AD7" s="576"/>
+      <c r="AE7" s="576"/>
+      <c r="AF7" s="576"/>
+      <c r="AG7" s="576"/>
+      <c r="AH7" s="576"/>
+      <c r="AI7" s="576"/>
+      <c r="AJ7" s="576"/>
+      <c r="AK7" s="576"/>
+      <c r="AL7" s="576"/>
+      <c r="AM7" s="576"/>
       <c r="AN7" s="177"/>
     </row>
     <row r="9" spans="1:40" s="183" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="574" t="s">
+      <c r="A9" s="577" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="574" t="s">
+      <c r="B9" s="577" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="574" t="s">
+      <c r="C9" s="577" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="577" t="s">
+      <c r="D9" s="580" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="578"/>
-      <c r="F9" s="578"/>
-      <c r="G9" s="578"/>
-      <c r="H9" s="578"/>
-      <c r="I9" s="578"/>
-      <c r="J9" s="578"/>
-      <c r="K9" s="578"/>
-      <c r="L9" s="578"/>
-      <c r="M9" s="578"/>
-      <c r="N9" s="578"/>
-      <c r="O9" s="578"/>
-      <c r="P9" s="578"/>
-      <c r="Q9" s="578"/>
-      <c r="R9" s="578"/>
-      <c r="S9" s="578"/>
-      <c r="T9" s="578"/>
-      <c r="U9" s="578"/>
-      <c r="V9" s="578"/>
-      <c r="W9" s="578"/>
-      <c r="X9" s="578"/>
-      <c r="Y9" s="578"/>
-      <c r="Z9" s="578"/>
-      <c r="AA9" s="578"/>
-      <c r="AB9" s="578"/>
-      <c r="AC9" s="578"/>
-      <c r="AD9" s="578"/>
-      <c r="AE9" s="578"/>
-      <c r="AF9" s="578"/>
-      <c r="AG9" s="578"/>
-      <c r="AH9" s="579"/>
-      <c r="AI9" s="580" t="s">
+      <c r="E9" s="581"/>
+      <c r="F9" s="581"/>
+      <c r="G9" s="581"/>
+      <c r="H9" s="581"/>
+      <c r="I9" s="581"/>
+      <c r="J9" s="581"/>
+      <c r="K9" s="581"/>
+      <c r="L9" s="581"/>
+      <c r="M9" s="581"/>
+      <c r="N9" s="581"/>
+      <c r="O9" s="581"/>
+      <c r="P9" s="581"/>
+      <c r="Q9" s="581"/>
+      <c r="R9" s="581"/>
+      <c r="S9" s="581"/>
+      <c r="T9" s="581"/>
+      <c r="U9" s="581"/>
+      <c r="V9" s="581"/>
+      <c r="W9" s="581"/>
+      <c r="X9" s="581"/>
+      <c r="Y9" s="581"/>
+      <c r="Z9" s="581"/>
+      <c r="AA9" s="581"/>
+      <c r="AB9" s="581"/>
+      <c r="AC9" s="581"/>
+      <c r="AD9" s="581"/>
+      <c r="AE9" s="581"/>
+      <c r="AF9" s="581"/>
+      <c r="AG9" s="581"/>
+      <c r="AH9" s="582"/>
+      <c r="AI9" s="583" t="s">
         <v>104</v>
       </c>
       <c r="AJ9" s="179"/>
@@ -15665,9 +15702,9 @@
       <c r="AN9" s="182"/>
     </row>
     <row r="10" spans="1:40" s="183" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="575"/>
-      <c r="B10" s="575"/>
-      <c r="C10" s="575"/>
+      <c r="A10" s="578"/>
+      <c r="B10" s="578"/>
+      <c r="C10" s="578"/>
       <c r="D10" s="184">
         <v>1</v>
       </c>
@@ -15759,7 +15796,7 @@
         <v>30</v>
       </c>
       <c r="AH10" s="184"/>
-      <c r="AI10" s="580"/>
+      <c r="AI10" s="583"/>
       <c r="AJ10" s="185"/>
       <c r="AK10" s="181"/>
       <c r="AL10" s="181"/>
@@ -15767,9 +15804,9 @@
       <c r="AN10" s="182"/>
     </row>
     <row r="11" spans="1:40" s="191" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="576"/>
-      <c r="B11" s="576"/>
-      <c r="C11" s="576"/>
+      <c r="A11" s="579"/>
+      <c r="B11" s="579"/>
+      <c r="C11" s="579"/>
       <c r="D11" s="184" t="s">
         <v>108</v>
       </c>
@@ -15861,7 +15898,7 @@
         <v>109</v>
       </c>
       <c r="AH11" s="186"/>
-      <c r="AI11" s="580"/>
+      <c r="AI11" s="583"/>
       <c r="AJ11" s="190"/>
       <c r="AN11" s="192"/>
     </row>
@@ -16424,10 +16461,10 @@
       <c r="AN17" s="192"/>
     </row>
     <row r="18" spans="1:40" s="191" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="581" t="s">
+      <c r="A18" s="584" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="582"/>
+      <c r="B18" s="585"/>
       <c r="C18" s="194"/>
       <c r="D18" s="194"/>
       <c r="E18" s="195"/>
@@ -16470,49 +16507,49 @@
       <c r="AN18" s="192"/>
     </row>
     <row r="20" spans="1:40" s="204" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="583" t="s">
+      <c r="A20" s="586" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="583"/>
-      <c r="C20" s="583"/>
-      <c r="D20" s="583"/>
-      <c r="E20" s="583"/>
-      <c r="F20" s="583"/>
-      <c r="G20" s="583"/>
+      <c r="B20" s="586"/>
+      <c r="C20" s="586"/>
+      <c r="D20" s="586"/>
+      <c r="E20" s="586"/>
+      <c r="F20" s="586"/>
+      <c r="G20" s="586"/>
       <c r="H20" s="199"/>
-      <c r="I20" s="584"/>
-      <c r="J20" s="584"/>
-      <c r="K20" s="584"/>
-      <c r="L20" s="584"/>
-      <c r="M20" s="584"/>
+      <c r="I20" s="587"/>
+      <c r="J20" s="587"/>
+      <c r="K20" s="587"/>
+      <c r="L20" s="587"/>
+      <c r="M20" s="587"/>
       <c r="N20" s="200"/>
-      <c r="O20" s="584" t="s">
+      <c r="O20" s="587" t="s">
         <v>114</v>
       </c>
-      <c r="P20" s="584"/>
-      <c r="Q20" s="584"/>
-      <c r="R20" s="584"/>
-      <c r="S20" s="584"/>
-      <c r="T20" s="584"/>
-      <c r="U20" s="584"/>
-      <c r="V20" s="584"/>
-      <c r="W20" s="584"/>
-      <c r="X20" s="584"/>
-      <c r="Y20" s="584"/>
+      <c r="P20" s="587"/>
+      <c r="Q20" s="587"/>
+      <c r="R20" s="587"/>
+      <c r="S20" s="587"/>
+      <c r="T20" s="587"/>
+      <c r="U20" s="587"/>
+      <c r="V20" s="587"/>
+      <c r="W20" s="587"/>
+      <c r="X20" s="587"/>
+      <c r="Y20" s="587"/>
       <c r="Z20" s="201"/>
       <c r="AA20" s="201"/>
       <c r="AB20" s="202"/>
-      <c r="AC20" s="584"/>
-      <c r="AD20" s="584"/>
-      <c r="AE20" s="584"/>
-      <c r="AF20" s="584"/>
-      <c r="AG20" s="584"/>
-      <c r="AH20" s="584"/>
-      <c r="AI20" s="584"/>
-      <c r="AJ20" s="584"/>
-      <c r="AK20" s="584"/>
-      <c r="AL20" s="584"/>
-      <c r="AM20" s="584"/>
+      <c r="AC20" s="587"/>
+      <c r="AD20" s="587"/>
+      <c r="AE20" s="587"/>
+      <c r="AF20" s="587"/>
+      <c r="AG20" s="587"/>
+      <c r="AH20" s="587"/>
+      <c r="AI20" s="587"/>
+      <c r="AJ20" s="587"/>
+      <c r="AK20" s="587"/>
+      <c r="AL20" s="587"/>
+      <c r="AM20" s="587"/>
       <c r="AN20" s="203"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
@@ -16546,131 +16583,131 @@
       <c r="AN35" s="208"/>
     </row>
     <row r="36" spans="3:40" s="207" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="567"/>
-      <c r="H36" s="567"/>
-      <c r="I36" s="567"/>
-      <c r="J36" s="567"/>
-      <c r="K36" s="567"/>
-      <c r="L36" s="567"/>
-      <c r="M36" s="567"/>
-      <c r="N36" s="567"/>
-      <c r="O36" s="567"/>
-      <c r="P36" s="567"/>
-      <c r="Q36" s="567"/>
-      <c r="R36" s="567"/>
-      <c r="S36" s="567"/>
-      <c r="T36" s="567"/>
-      <c r="U36" s="567"/>
-      <c r="V36" s="567"/>
-      <c r="W36" s="567"/>
-      <c r="X36" s="567"/>
+      <c r="G36" s="575"/>
+      <c r="H36" s="575"/>
+      <c r="I36" s="575"/>
+      <c r="J36" s="575"/>
+      <c r="K36" s="575"/>
+      <c r="L36" s="575"/>
+      <c r="M36" s="575"/>
+      <c r="N36" s="575"/>
+      <c r="O36" s="575"/>
+      <c r="P36" s="575"/>
+      <c r="Q36" s="575"/>
+      <c r="R36" s="575"/>
+      <c r="S36" s="575"/>
+      <c r="T36" s="575"/>
+      <c r="U36" s="575"/>
+      <c r="V36" s="575"/>
+      <c r="W36" s="575"/>
+      <c r="X36" s="575"/>
       <c r="AN36" s="208"/>
     </row>
     <row r="37" spans="3:40" s="207" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="567"/>
-      <c r="H37" s="567"/>
-      <c r="I37" s="567"/>
-      <c r="J37" s="567"/>
-      <c r="K37" s="567"/>
-      <c r="L37" s="567"/>
-      <c r="M37" s="567"/>
-      <c r="N37" s="567"/>
-      <c r="O37" s="567"/>
-      <c r="P37" s="567"/>
-      <c r="Q37" s="567"/>
-      <c r="R37" s="567"/>
-      <c r="S37" s="567"/>
-      <c r="T37" s="567"/>
-      <c r="U37" s="567"/>
-      <c r="V37" s="567"/>
-      <c r="W37" s="567"/>
-      <c r="X37" s="567"/>
+      <c r="G37" s="575"/>
+      <c r="H37" s="575"/>
+      <c r="I37" s="575"/>
+      <c r="J37" s="575"/>
+      <c r="K37" s="575"/>
+      <c r="L37" s="575"/>
+      <c r="M37" s="575"/>
+      <c r="N37" s="575"/>
+      <c r="O37" s="575"/>
+      <c r="P37" s="575"/>
+      <c r="Q37" s="575"/>
+      <c r="R37" s="575"/>
+      <c r="S37" s="575"/>
+      <c r="T37" s="575"/>
+      <c r="U37" s="575"/>
+      <c r="V37" s="575"/>
+      <c r="W37" s="575"/>
+      <c r="X37" s="575"/>
       <c r="AN37" s="208"/>
     </row>
     <row r="38" spans="3:40" s="207" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="567"/>
-      <c r="H38" s="567"/>
-      <c r="I38" s="567"/>
-      <c r="J38" s="567"/>
-      <c r="K38" s="567"/>
-      <c r="L38" s="567"/>
-      <c r="M38" s="567"/>
-      <c r="N38" s="567"/>
-      <c r="O38" s="567"/>
-      <c r="P38" s="567"/>
-      <c r="Q38" s="567"/>
-      <c r="R38" s="567"/>
-      <c r="S38" s="567"/>
-      <c r="T38" s="567"/>
-      <c r="U38" s="567"/>
-      <c r="V38" s="567"/>
-      <c r="W38" s="567"/>
-      <c r="X38" s="567"/>
+      <c r="G38" s="575"/>
+      <c r="H38" s="575"/>
+      <c r="I38" s="575"/>
+      <c r="J38" s="575"/>
+      <c r="K38" s="575"/>
+      <c r="L38" s="575"/>
+      <c r="M38" s="575"/>
+      <c r="N38" s="575"/>
+      <c r="O38" s="575"/>
+      <c r="P38" s="575"/>
+      <c r="Q38" s="575"/>
+      <c r="R38" s="575"/>
+      <c r="S38" s="575"/>
+      <c r="T38" s="575"/>
+      <c r="U38" s="575"/>
+      <c r="V38" s="575"/>
+      <c r="W38" s="575"/>
+      <c r="X38" s="575"/>
       <c r="AN38" s="208"/>
     </row>
     <row r="39" spans="3:40" s="207" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="567"/>
-      <c r="H39" s="567"/>
-      <c r="I39" s="567"/>
-      <c r="J39" s="567"/>
-      <c r="K39" s="567"/>
-      <c r="L39" s="567"/>
-      <c r="M39" s="567"/>
-      <c r="N39" s="567"/>
-      <c r="O39" s="567"/>
-      <c r="P39" s="567"/>
-      <c r="Q39" s="567"/>
-      <c r="R39" s="567"/>
-      <c r="S39" s="567"/>
-      <c r="T39" s="567"/>
-      <c r="U39" s="567"/>
-      <c r="V39" s="567"/>
-      <c r="W39" s="567"/>
-      <c r="X39" s="567"/>
+      <c r="G39" s="575"/>
+      <c r="H39" s="575"/>
+      <c r="I39" s="575"/>
+      <c r="J39" s="575"/>
+      <c r="K39" s="575"/>
+      <c r="L39" s="575"/>
+      <c r="M39" s="575"/>
+      <c r="N39" s="575"/>
+      <c r="O39" s="575"/>
+      <c r="P39" s="575"/>
+      <c r="Q39" s="575"/>
+      <c r="R39" s="575"/>
+      <c r="S39" s="575"/>
+      <c r="T39" s="575"/>
+      <c r="U39" s="575"/>
+      <c r="V39" s="575"/>
+      <c r="W39" s="575"/>
+      <c r="X39" s="575"/>
       <c r="AN39" s="208"/>
     </row>
     <row r="40" spans="3:40" s="207" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="567"/>
-      <c r="H40" s="567"/>
-      <c r="I40" s="567"/>
-      <c r="J40" s="567"/>
-      <c r="K40" s="567"/>
-      <c r="L40" s="567"/>
-      <c r="M40" s="567"/>
-      <c r="N40" s="567"/>
-      <c r="O40" s="567"/>
-      <c r="P40" s="567"/>
-      <c r="Q40" s="567"/>
-      <c r="R40" s="567"/>
-      <c r="S40" s="567"/>
-      <c r="T40" s="567"/>
-      <c r="U40" s="567"/>
-      <c r="V40" s="567"/>
-      <c r="W40" s="567"/>
-      <c r="X40" s="567"/>
+      <c r="G40" s="575"/>
+      <c r="H40" s="575"/>
+      <c r="I40" s="575"/>
+      <c r="J40" s="575"/>
+      <c r="K40" s="575"/>
+      <c r="L40" s="575"/>
+      <c r="M40" s="575"/>
+      <c r="N40" s="575"/>
+      <c r="O40" s="575"/>
+      <c r="P40" s="575"/>
+      <c r="Q40" s="575"/>
+      <c r="R40" s="575"/>
+      <c r="S40" s="575"/>
+      <c r="T40" s="575"/>
+      <c r="U40" s="575"/>
+      <c r="V40" s="575"/>
+      <c r="W40" s="575"/>
+      <c r="X40" s="575"/>
       <c r="AN40" s="208"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C41" s="171"/>
       <c r="D41" s="171"/>
-      <c r="G41" s="567"/>
-      <c r="H41" s="567"/>
-      <c r="I41" s="567"/>
-      <c r="J41" s="567"/>
-      <c r="K41" s="567"/>
-      <c r="L41" s="567"/>
-      <c r="M41" s="567"/>
-      <c r="N41" s="567"/>
-      <c r="O41" s="567"/>
-      <c r="P41" s="567"/>
-      <c r="Q41" s="567"/>
-      <c r="R41" s="567"/>
-      <c r="S41" s="567"/>
-      <c r="T41" s="567"/>
-      <c r="U41" s="567"/>
-      <c r="V41" s="567"/>
-      <c r="W41" s="567"/>
-      <c r="X41" s="567"/>
+      <c r="G41" s="575"/>
+      <c r="H41" s="575"/>
+      <c r="I41" s="575"/>
+      <c r="J41" s="575"/>
+      <c r="K41" s="575"/>
+      <c r="L41" s="575"/>
+      <c r="M41" s="575"/>
+      <c r="N41" s="575"/>
+      <c r="O41" s="575"/>
+      <c r="P41" s="575"/>
+      <c r="Q41" s="575"/>
+      <c r="R41" s="575"/>
+      <c r="S41" s="575"/>
+      <c r="T41" s="575"/>
+      <c r="U41" s="575"/>
+      <c r="V41" s="575"/>
+      <c r="W41" s="575"/>
+      <c r="X41" s="575"/>
       <c r="AN41" s="171"/>
     </row>
     <row r="42" spans="3:40" x14ac:dyDescent="0.25">
@@ -16680,13 +16717,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G36:X41"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -16701,6 +16731,13 @@
     <mergeCell ref="I20:M20"/>
     <mergeCell ref="O20:Y20"/>
     <mergeCell ref="AC20:AM20"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -17556,42 +17593,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="285" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="597" t="s">
+      <c r="A1" s="588" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="597"/>
-      <c r="C1" s="597"/>
-      <c r="D1" s="597"/>
+      <c r="B1" s="588"/>
+      <c r="C1" s="588"/>
+      <c r="D1" s="588"/>
       <c r="E1" s="284"/>
-      <c r="F1" s="598" t="s">
+      <c r="F1" s="589" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="598"/>
-      <c r="H1" s="598"/>
-      <c r="I1" s="598"/>
-      <c r="J1" s="598"/>
-      <c r="K1" s="598"/>
-      <c r="L1" s="598"/>
-      <c r="M1" s="598"/>
+      <c r="G1" s="589"/>
+      <c r="H1" s="589"/>
+      <c r="I1" s="589"/>
+      <c r="J1" s="589"/>
+      <c r="K1" s="589"/>
+      <c r="L1" s="589"/>
+      <c r="M1" s="589"/>
     </row>
     <row r="2" spans="1:17" s="285" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="599" t="s">
+      <c r="A2" s="590" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="599"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="599"/>
+      <c r="B2" s="590"/>
+      <c r="C2" s="590"/>
+      <c r="D2" s="590"/>
       <c r="E2" s="284"/>
-      <c r="F2" s="600" t="s">
+      <c r="F2" s="591" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="600"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="600"/>
-      <c r="J2" s="600"/>
-      <c r="K2" s="600"/>
-      <c r="L2" s="600"/>
-      <c r="M2" s="600"/>
+      <c r="G2" s="591"/>
+      <c r="H2" s="591"/>
+      <c r="I2" s="591"/>
+      <c r="J2" s="591"/>
+      <c r="K2" s="591"/>
+      <c r="L2" s="591"/>
+      <c r="M2" s="591"/>
     </row>
     <row r="3" spans="1:17" s="285" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="286"/>
@@ -17606,47 +17643,47 @@
       <c r="K3" s="287"/>
     </row>
     <row r="4" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="588" t="s">
+      <c r="A4" s="592" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="588"/>
-      <c r="C4" s="588"/>
-      <c r="D4" s="588"/>
-      <c r="E4" s="588"/>
-      <c r="F4" s="588"/>
-      <c r="G4" s="588"/>
-      <c r="H4" s="588"/>
-      <c r="I4" s="588"/>
-      <c r="J4" s="588"/>
-      <c r="K4" s="588"/>
-      <c r="L4" s="588"/>
-      <c r="M4" s="588"/>
-      <c r="N4" s="588"/>
+      <c r="B4" s="592"/>
+      <c r="C4" s="592"/>
+      <c r="D4" s="592"/>
+      <c r="E4" s="592"/>
+      <c r="F4" s="592"/>
+      <c r="G4" s="592"/>
+      <c r="H4" s="592"/>
+      <c r="I4" s="592"/>
+      <c r="J4" s="592"/>
+      <c r="K4" s="592"/>
+      <c r="L4" s="592"/>
+      <c r="M4" s="592"/>
+      <c r="N4" s="592"/>
     </row>
     <row r="5" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="588" t="s">
+      <c r="A5" s="592" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="588"/>
-      <c r="C5" s="588"/>
-      <c r="D5" s="588"/>
-      <c r="E5" s="588"/>
-      <c r="F5" s="588"/>
-      <c r="G5" s="588"/>
-      <c r="H5" s="588"/>
-      <c r="I5" s="588"/>
-      <c r="J5" s="588"/>
-      <c r="K5" s="588"/>
-      <c r="L5" s="588"/>
-      <c r="M5" s="588"/>
-      <c r="N5" s="588"/>
+      <c r="B5" s="592"/>
+      <c r="C5" s="592"/>
+      <c r="D5" s="592"/>
+      <c r="E5" s="592"/>
+      <c r="F5" s="592"/>
+      <c r="G5" s="592"/>
+      <c r="H5" s="592"/>
+      <c r="I5" s="592"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="592"/>
+      <c r="M5" s="592"/>
+      <c r="N5" s="592"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L6" s="589" t="s">
+      <c r="L6" s="593" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="589"/>
-      <c r="N6" s="589"/>
+      <c r="M6" s="593"/>
+      <c r="N6" s="593"/>
     </row>
     <row r="7" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
@@ -17723,10 +17760,10 @@
       <c r="N8" s="46"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="590" t="s">
+      <c r="A9" s="594" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="591"/>
+      <c r="B9" s="595"/>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
       <c r="E9" s="47"/>
@@ -17898,11 +17935,11 @@
       <c r="Q13" s="154"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="594" t="s">
+      <c r="A14" s="598" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="595"/>
-      <c r="C14" s="596"/>
+      <c r="B14" s="599"/>
+      <c r="C14" s="600"/>
       <c r="D14" s="262">
         <f>SUM(D10:D13)</f>
         <v>27000000</v>
@@ -17934,10 +17971,10 @@
       <c r="N14" s="290"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="592" t="s">
+      <c r="A15" s="596" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="593"/>
+      <c r="B15" s="597"/>
       <c r="C15" s="84"/>
       <c r="D15" s="85"/>
       <c r="E15" s="305"/>
@@ -18038,11 +18075,11 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="594" t="s">
+      <c r="A18" s="598" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="595"/>
-      <c r="C18" s="596"/>
+      <c r="B18" s="599"/>
+      <c r="C18" s="600"/>
       <c r="D18" s="291">
         <f>SUM(D16:D17)</f>
         <v>8000000</v>
@@ -18074,14 +18111,14 @@
       <c r="N18" s="290"/>
     </row>
     <row r="20" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="588"/>
-      <c r="C20" s="588"/>
-      <c r="D20" s="588"/>
+      <c r="B20" s="592"/>
+      <c r="C20" s="592"/>
+      <c r="D20" s="592"/>
       <c r="E20" s="263"/>
-      <c r="J20" s="588"/>
-      <c r="K20" s="588"/>
-      <c r="L20" s="588"/>
-      <c r="M20" s="588"/>
+      <c r="J20" s="592"/>
+      <c r="K20" s="592"/>
+      <c r="L20" s="592"/>
+      <c r="M20" s="592"/>
     </row>
     <row r="21" spans="1:14" s="285" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C21" s="293" t="s">
@@ -18125,11 +18162,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:N5"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="A9:B9"/>
@@ -18138,6 +18170,11 @@
     <mergeCell ref="J20:M20"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:N4"/>
   </mergeCells>
   <pageMargins left="0.12" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 6_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 6_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -2913,6 +2913,33 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2928,32 +2955,116 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2973,42 +3084,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3021,89 +3096,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3159,24 +3177,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3186,103 +3186,121 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="27" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3291,45 +3309,36 @@
     <xf numFmtId="168" fontId="27" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3366,13 +3375,16 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3400,18 +3412,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3759,7 +3759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
@@ -3813,15 +3813,15 @@
       <c r="H3" s="114"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="466" t="s">
+      <c r="A4" s="475" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="466"/>
-      <c r="C4" s="466"/>
-      <c r="D4" s="466"/>
-      <c r="E4" s="466"/>
-      <c r="F4" s="466"/>
-      <c r="G4" s="466"/>
+      <c r="B4" s="475"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="475"/>
+      <c r="E4" s="475"/>
+      <c r="F4" s="475"/>
+      <c r="G4" s="475"/>
       <c r="H4" s="114"/>
     </row>
     <row r="5" spans="1:8" s="112" customFormat="1" x14ac:dyDescent="0.25">
@@ -3833,28 +3833,28 @@
       <c r="G5" s="111"/>
     </row>
     <row r="6" spans="1:8" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="467" t="s">
+      <c r="A6" s="466" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="467" t="s">
+      <c r="B6" s="466" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="468" t="s">
+      <c r="C6" s="467" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="469" t="s">
+      <c r="D6" s="462" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="469"/>
-      <c r="F6" s="469" t="s">
+      <c r="E6" s="462"/>
+      <c r="F6" s="462" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="469"/>
+      <c r="G6" s="462"/>
     </row>
     <row r="7" spans="1:8" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="467"/>
-      <c r="B7" s="467"/>
-      <c r="C7" s="468"/>
+      <c r="A7" s="466"/>
+      <c r="B7" s="466"/>
+      <c r="C7" s="467"/>
       <c r="D7" s="373" t="s">
         <v>83</v>
       </c>
@@ -4808,11 +4808,11 @@
       </c>
     </row>
     <row r="63" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="463" t="s">
+      <c r="A63" s="472" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="464"/>
-      <c r="C63" s="465"/>
+      <c r="B63" s="473"/>
+      <c r="C63" s="474"/>
       <c r="D63" s="120">
         <f>SUM(D8:D62)</f>
         <v>67068400</v>
@@ -4840,10 +4840,10 @@
       <c r="G64" s="123"/>
     </row>
     <row r="65" spans="1:7" s="121" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="462" t="s">
+      <c r="A65" s="471" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="462"/>
+      <c r="B65" s="471"/>
       <c r="C65" s="122"/>
       <c r="D65" s="123"/>
       <c r="E65" s="123"/>
@@ -4861,38 +4861,38 @@
     </row>
     <row r="67" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="151"/>
-      <c r="B67" s="470" t="s">
+      <c r="B67" s="469" t="s">
         <v>289</v>
       </c>
-      <c r="C67" s="470"/>
+      <c r="C67" s="469"/>
       <c r="D67" s="123"/>
       <c r="E67" s="123"/>
       <c r="F67" s="123"/>
       <c r="G67" s="123"/>
     </row>
     <row r="68" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="467" t="s">
+      <c r="A68" s="466" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="467" t="s">
+      <c r="B68" s="466" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="468" t="s">
+      <c r="C68" s="467" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="469" t="s">
+      <c r="D68" s="462" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="469"/>
-      <c r="F68" s="469" t="s">
+      <c r="E68" s="462"/>
+      <c r="F68" s="462" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="469"/>
+      <c r="G68" s="462"/>
     </row>
     <row r="69" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="467"/>
-      <c r="B69" s="467"/>
-      <c r="C69" s="468"/>
+      <c r="A69" s="466"/>
+      <c r="B69" s="466"/>
+      <c r="C69" s="467"/>
       <c r="D69" s="373" t="s">
         <v>83</v>
       </c>
@@ -4958,11 +4958,11 @@
       <c r="G72" s="370"/>
     </row>
     <row r="73" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="473" t="s">
+      <c r="A73" s="463" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="474"/>
-      <c r="C73" s="475"/>
+      <c r="B73" s="464"/>
+      <c r="C73" s="465"/>
       <c r="D73" s="120"/>
       <c r="E73" s="377"/>
       <c r="F73" s="120">
@@ -4982,38 +4982,38 @@
     </row>
     <row r="75" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="151"/>
-      <c r="B75" s="471" t="s">
+      <c r="B75" s="470" t="s">
         <v>290</v>
       </c>
-      <c r="C75" s="471"/>
+      <c r="C75" s="470"/>
       <c r="D75" s="123"/>
       <c r="E75" s="123"/>
       <c r="F75" s="123"/>
       <c r="G75" s="123"/>
     </row>
     <row r="76" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="467" t="s">
+      <c r="A76" s="466" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="467" t="s">
+      <c r="B76" s="466" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="468" t="s">
+      <c r="C76" s="467" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="469" t="s">
+      <c r="D76" s="462" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="469"/>
-      <c r="F76" s="469" t="s">
+      <c r="E76" s="462"/>
+      <c r="F76" s="462" t="s">
         <v>8</v>
       </c>
-      <c r="G76" s="469"/>
+      <c r="G76" s="462"/>
     </row>
     <row r="77" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="467"/>
-      <c r="B77" s="467"/>
-      <c r="C77" s="468"/>
+      <c r="A77" s="466"/>
+      <c r="B77" s="466"/>
+      <c r="C77" s="467"/>
       <c r="D77" s="373" t="s">
         <v>83</v>
       </c>
@@ -5283,11 +5283,11 @@
       </c>
     </row>
     <row r="93" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="473" t="s">
+      <c r="A93" s="463" t="s">
         <v>60</v>
       </c>
-      <c r="B93" s="474"/>
-      <c r="C93" s="475"/>
+      <c r="B93" s="464"/>
+      <c r="C93" s="465"/>
       <c r="D93" s="120"/>
       <c r="E93" s="377"/>
       <c r="F93" s="120"/>
@@ -5307,38 +5307,38 @@
     </row>
     <row r="95" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="151"/>
-      <c r="B95" s="472" t="s">
+      <c r="B95" s="468" t="s">
         <v>291</v>
       </c>
-      <c r="C95" s="472"/>
+      <c r="C95" s="468"/>
       <c r="D95" s="123"/>
       <c r="E95" s="123"/>
       <c r="F95" s="123"/>
       <c r="G95" s="123"/>
     </row>
     <row r="96" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="467" t="s">
+      <c r="A96" s="466" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="467" t="s">
+      <c r="B96" s="466" t="s">
         <v>5</v>
       </c>
-      <c r="C96" s="468" t="s">
+      <c r="C96" s="467" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="469" t="s">
+      <c r="D96" s="462" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="469"/>
-      <c r="F96" s="469" t="s">
+      <c r="E96" s="462"/>
+      <c r="F96" s="462" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="469"/>
+      <c r="G96" s="462"/>
     </row>
     <row r="97" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="467"/>
-      <c r="B97" s="467"/>
-      <c r="C97" s="468"/>
+      <c r="A97" s="466"/>
+      <c r="B97" s="466"/>
+      <c r="C97" s="467"/>
       <c r="D97" s="373" t="s">
         <v>83</v>
       </c>
@@ -5506,11 +5506,11 @@
       <c r="G106" s="116"/>
     </row>
     <row r="107" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A107" s="473" t="s">
+      <c r="A107" s="463" t="s">
         <v>60</v>
       </c>
-      <c r="B107" s="474"/>
-      <c r="C107" s="475"/>
+      <c r="B107" s="464"/>
+      <c r="C107" s="465"/>
       <c r="D107" s="120">
         <f>SUM(D98:D106)</f>
         <v>7268400</v>
@@ -5536,38 +5536,38 @@
     </row>
     <row r="109" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="151"/>
-      <c r="B109" s="472" t="s">
+      <c r="B109" s="468" t="s">
         <v>292</v>
       </c>
-      <c r="C109" s="472"/>
+      <c r="C109" s="468"/>
       <c r="D109" s="123"/>
       <c r="E109" s="123"/>
       <c r="F109" s="123"/>
       <c r="G109" s="123"/>
     </row>
     <row r="110" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="467" t="s">
+      <c r="A110" s="466" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="467" t="s">
+      <c r="B110" s="466" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="468" t="s">
+      <c r="C110" s="467" t="s">
         <v>6</v>
       </c>
-      <c r="D110" s="469" t="s">
+      <c r="D110" s="462" t="s">
         <v>7</v>
       </c>
-      <c r="E110" s="469"/>
-      <c r="F110" s="469" t="s">
+      <c r="E110" s="462"/>
+      <c r="F110" s="462" t="s">
         <v>8</v>
       </c>
-      <c r="G110" s="469"/>
+      <c r="G110" s="462"/>
     </row>
     <row r="111" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="467"/>
-      <c r="B111" s="467"/>
-      <c r="C111" s="468"/>
+      <c r="A111" s="466"/>
+      <c r="B111" s="466"/>
+      <c r="C111" s="467"/>
       <c r="D111" s="373" t="s">
         <v>83</v>
       </c>
@@ -5616,11 +5616,11 @@
       <c r="G113" s="116"/>
     </row>
     <row r="114" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="473" t="s">
+      <c r="A114" s="463" t="s">
         <v>60</v>
       </c>
-      <c r="B114" s="474"/>
-      <c r="C114" s="475"/>
+      <c r="B114" s="464"/>
+      <c r="C114" s="465"/>
       <c r="D114" s="120"/>
       <c r="E114" s="377"/>
       <c r="F114" s="120">
@@ -5640,38 +5640,38 @@
     </row>
     <row r="116" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="151"/>
-      <c r="B116" s="472" t="s">
+      <c r="B116" s="468" t="s">
         <v>293</v>
       </c>
-      <c r="C116" s="472"/>
+      <c r="C116" s="468"/>
       <c r="D116" s="123"/>
       <c r="E116" s="123"/>
       <c r="F116" s="123"/>
       <c r="G116" s="123"/>
     </row>
     <row r="117" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="467" t="s">
+      <c r="A117" s="466" t="s">
         <v>4</v>
       </c>
-      <c r="B117" s="467" t="s">
+      <c r="B117" s="466" t="s">
         <v>5</v>
       </c>
-      <c r="C117" s="468" t="s">
+      <c r="C117" s="467" t="s">
         <v>6</v>
       </c>
-      <c r="D117" s="469" t="s">
+      <c r="D117" s="462" t="s">
         <v>7</v>
       </c>
-      <c r="E117" s="469"/>
-      <c r="F117" s="469" t="s">
+      <c r="E117" s="462"/>
+      <c r="F117" s="462" t="s">
         <v>8</v>
       </c>
-      <c r="G117" s="469"/>
+      <c r="G117" s="462"/>
     </row>
     <row r="118" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="467"/>
-      <c r="B118" s="467"/>
-      <c r="C118" s="468"/>
+      <c r="A118" s="466"/>
+      <c r="B118" s="466"/>
+      <c r="C118" s="467"/>
       <c r="D118" s="373" t="s">
         <v>83</v>
       </c>
@@ -5754,11 +5754,11 @@
       </c>
     </row>
     <row r="123" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A123" s="473" t="s">
+      <c r="A123" s="463" t="s">
         <v>60</v>
       </c>
-      <c r="B123" s="474"/>
-      <c r="C123" s="475"/>
+      <c r="B123" s="464"/>
+      <c r="C123" s="465"/>
       <c r="D123" s="120"/>
       <c r="E123" s="377"/>
       <c r="F123" s="120">
@@ -5781,38 +5781,38 @@
     </row>
     <row r="125" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="151"/>
-      <c r="B125" s="472" t="s">
+      <c r="B125" s="468" t="s">
         <v>294</v>
       </c>
-      <c r="C125" s="472"/>
+      <c r="C125" s="468"/>
       <c r="D125" s="123"/>
       <c r="E125" s="123"/>
       <c r="F125" s="123"/>
       <c r="G125" s="123"/>
     </row>
     <row r="126" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="467" t="s">
+      <c r="A126" s="466" t="s">
         <v>4</v>
       </c>
-      <c r="B126" s="467" t="s">
+      <c r="B126" s="466" t="s">
         <v>5</v>
       </c>
-      <c r="C126" s="468" t="s">
+      <c r="C126" s="467" t="s">
         <v>6</v>
       </c>
-      <c r="D126" s="469" t="s">
+      <c r="D126" s="462" t="s">
         <v>7</v>
       </c>
-      <c r="E126" s="469"/>
-      <c r="F126" s="469" t="s">
+      <c r="E126" s="462"/>
+      <c r="F126" s="462" t="s">
         <v>8</v>
       </c>
-      <c r="G126" s="469"/>
+      <c r="G126" s="462"/>
     </row>
     <row r="127" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="467"/>
-      <c r="B127" s="467"/>
-      <c r="C127" s="468"/>
+      <c r="A127" s="466"/>
+      <c r="B127" s="466"/>
+      <c r="C127" s="467"/>
       <c r="D127" s="373" t="s">
         <v>83</v>
       </c>
@@ -5913,11 +5913,11 @@
       </c>
     </row>
     <row r="133" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A133" s="473" t="s">
+      <c r="A133" s="463" t="s">
         <v>60</v>
       </c>
-      <c r="B133" s="474"/>
-      <c r="C133" s="475"/>
+      <c r="B133" s="464"/>
+      <c r="C133" s="465"/>
       <c r="D133" s="120"/>
       <c r="E133" s="377"/>
       <c r="F133" s="120"/>
@@ -5937,38 +5937,38 @@
     </row>
     <row r="135" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="151"/>
-      <c r="B135" s="472" t="s">
+      <c r="B135" s="468" t="s">
         <v>295</v>
       </c>
-      <c r="C135" s="472"/>
+      <c r="C135" s="468"/>
       <c r="D135" s="123"/>
       <c r="E135" s="123"/>
       <c r="F135" s="123"/>
       <c r="G135" s="123"/>
     </row>
     <row r="136" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="467" t="s">
+      <c r="A136" s="466" t="s">
         <v>4</v>
       </c>
-      <c r="B136" s="467" t="s">
+      <c r="B136" s="466" t="s">
         <v>5</v>
       </c>
-      <c r="C136" s="468" t="s">
+      <c r="C136" s="467" t="s">
         <v>6</v>
       </c>
-      <c r="D136" s="469" t="s">
+      <c r="D136" s="462" t="s">
         <v>7</v>
       </c>
-      <c r="E136" s="469"/>
-      <c r="F136" s="469" t="s">
+      <c r="E136" s="462"/>
+      <c r="F136" s="462" t="s">
         <v>8</v>
       </c>
-      <c r="G136" s="469"/>
+      <c r="G136" s="462"/>
     </row>
     <row r="137" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="467"/>
-      <c r="B137" s="467"/>
-      <c r="C137" s="468"/>
+      <c r="A137" s="466"/>
+      <c r="B137" s="466"/>
+      <c r="C137" s="467"/>
       <c r="D137" s="373" t="s">
         <v>83</v>
       </c>
@@ -6102,11 +6102,11 @@
       </c>
     </row>
     <row r="145" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A145" s="473" t="s">
+      <c r="A145" s="463" t="s">
         <v>60</v>
       </c>
-      <c r="B145" s="474"/>
-      <c r="C145" s="475"/>
+      <c r="B145" s="464"/>
+      <c r="C145" s="465"/>
       <c r="D145" s="120"/>
       <c r="E145" s="377"/>
       <c r="F145" s="120">
@@ -6129,38 +6129,38 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="246"/>
-      <c r="B147" s="472" t="s">
+      <c r="B147" s="468" t="s">
         <v>296</v>
       </c>
-      <c r="C147" s="472"/>
+      <c r="C147" s="468"/>
       <c r="D147" s="249"/>
       <c r="E147" s="250"/>
       <c r="F147" s="249"/>
       <c r="G147" s="251"/>
     </row>
     <row r="148" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="467" t="s">
+      <c r="A148" s="466" t="s">
         <v>4</v>
       </c>
-      <c r="B148" s="467" t="s">
+      <c r="B148" s="466" t="s">
         <v>5</v>
       </c>
-      <c r="C148" s="468" t="s">
+      <c r="C148" s="467" t="s">
         <v>6</v>
       </c>
-      <c r="D148" s="469" t="s">
+      <c r="D148" s="462" t="s">
         <v>7</v>
       </c>
-      <c r="E148" s="469"/>
-      <c r="F148" s="469" t="s">
+      <c r="E148" s="462"/>
+      <c r="F148" s="462" t="s">
         <v>8</v>
       </c>
-      <c r="G148" s="469"/>
+      <c r="G148" s="462"/>
     </row>
     <row r="149" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="467"/>
-      <c r="B149" s="467"/>
-      <c r="C149" s="468"/>
+      <c r="A149" s="466"/>
+      <c r="B149" s="466"/>
+      <c r="C149" s="467"/>
       <c r="D149" s="373" t="s">
         <v>83</v>
       </c>
@@ -6209,11 +6209,11 @@
       <c r="G151" s="116"/>
     </row>
     <row r="152" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A152" s="473" t="s">
+      <c r="A152" s="463" t="s">
         <v>60</v>
       </c>
-      <c r="B152" s="474"/>
-      <c r="C152" s="475"/>
+      <c r="B152" s="464"/>
+      <c r="C152" s="465"/>
       <c r="D152" s="120">
         <f>SUM(D150:D151)</f>
         <v>59800000</v>
@@ -6243,28 +6243,28 @@
       <c r="G154" s="251"/>
     </row>
     <row r="155" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="467" t="s">
+      <c r="A155" s="466" t="s">
         <v>4</v>
       </c>
-      <c r="B155" s="467" t="s">
+      <c r="B155" s="466" t="s">
         <v>5</v>
       </c>
-      <c r="C155" s="468" t="s">
+      <c r="C155" s="467" t="s">
         <v>6</v>
       </c>
-      <c r="D155" s="469" t="s">
+      <c r="D155" s="462" t="s">
         <v>7</v>
       </c>
-      <c r="E155" s="469"/>
-      <c r="F155" s="469" t="s">
+      <c r="E155" s="462"/>
+      <c r="F155" s="462" t="s">
         <v>8</v>
       </c>
-      <c r="G155" s="469"/>
+      <c r="G155" s="462"/>
     </row>
     <row r="156" spans="1:7" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="467"/>
-      <c r="B156" s="467"/>
-      <c r="C156" s="468"/>
+      <c r="A156" s="466"/>
+      <c r="B156" s="466"/>
+      <c r="C156" s="467"/>
       <c r="D156" s="373" t="s">
         <v>83</v>
       </c>
@@ -6330,11 +6330,11 @@
       <c r="G159" s="116"/>
     </row>
     <row r="160" spans="1:7" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A160" s="473" t="s">
+      <c r="A160" s="463" t="s">
         <v>60</v>
       </c>
-      <c r="B160" s="474"/>
-      <c r="C160" s="475"/>
+      <c r="B160" s="464"/>
+      <c r="C160" s="465"/>
       <c r="D160" s="120"/>
       <c r="E160" s="377"/>
       <c r="F160" s="120">
@@ -6402,13 +6402,53 @@
     <filterColumn colId="5" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="70">
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B116:C116"/>
     <mergeCell ref="B125:C125"/>
     <mergeCell ref="B135:C135"/>
     <mergeCell ref="B147:C147"/>
@@ -6425,53 +6465,13 @@
     <mergeCell ref="A117:A118"/>
     <mergeCell ref="B117:B118"/>
     <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="D155:E155"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.46" bottom="0.45" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -6482,9 +6482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R129"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55:D56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6509,13 +6509,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="308" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="504" t="s">
+      <c r="A1" s="495" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="504"/>
-      <c r="C1" s="504"/>
-      <c r="D1" s="504"/>
-      <c r="E1" s="504"/>
+      <c r="B1" s="495"/>
+      <c r="C1" s="495"/>
+      <c r="D1" s="495"/>
+      <c r="E1" s="495"/>
       <c r="H1" s="397"/>
       <c r="I1" s="397"/>
       <c r="J1" s="397"/>
@@ -6543,153 +6543,153 @@
       <c r="O2" s="397"/>
     </row>
     <row r="3" spans="1:17" s="308" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="504" t="s">
+      <c r="A3" s="495" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="504"/>
-      <c r="C3" s="504"/>
-      <c r="D3" s="504"/>
-      <c r="E3" s="504"/>
-      <c r="F3" s="504"/>
-      <c r="G3" s="504"/>
-      <c r="H3" s="504"/>
-      <c r="I3" s="504"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="504"/>
-      <c r="L3" s="504"/>
-      <c r="M3" s="504"/>
-      <c r="N3" s="504"/>
-      <c r="O3" s="504"/>
-      <c r="P3" s="504"/>
+      <c r="B3" s="495"/>
+      <c r="C3" s="495"/>
+      <c r="D3" s="495"/>
+      <c r="E3" s="495"/>
+      <c r="F3" s="495"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="495"/>
+      <c r="I3" s="495"/>
+      <c r="J3" s="495"/>
+      <c r="K3" s="495"/>
+      <c r="L3" s="495"/>
+      <c r="M3" s="495"/>
+      <c r="N3" s="495"/>
+      <c r="O3" s="495"/>
+      <c r="P3" s="495"/>
     </row>
     <row r="4" spans="1:17" s="308" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="504" t="s">
+      <c r="A4" s="495" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="504"/>
-      <c r="C4" s="504"/>
-      <c r="D4" s="504"/>
-      <c r="E4" s="504"/>
-      <c r="F4" s="504"/>
-      <c r="G4" s="504"/>
-      <c r="H4" s="504"/>
-      <c r="I4" s="504"/>
-      <c r="J4" s="504"/>
-      <c r="K4" s="504"/>
-      <c r="L4" s="504"/>
-      <c r="M4" s="504"/>
-      <c r="N4" s="504"/>
-      <c r="O4" s="504"/>
-      <c r="P4" s="504"/>
+      <c r="B4" s="495"/>
+      <c r="C4" s="495"/>
+      <c r="D4" s="495"/>
+      <c r="E4" s="495"/>
+      <c r="F4" s="495"/>
+      <c r="G4" s="495"/>
+      <c r="H4" s="495"/>
+      <c r="I4" s="495"/>
+      <c r="J4" s="495"/>
+      <c r="K4" s="495"/>
+      <c r="L4" s="495"/>
+      <c r="M4" s="495"/>
+      <c r="N4" s="495"/>
+      <c r="O4" s="495"/>
+      <c r="P4" s="495"/>
     </row>
     <row r="5" spans="1:17" s="308" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="504"/>
-      <c r="B5" s="504"/>
-      <c r="C5" s="504"/>
-      <c r="D5" s="504"/>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="504"/>
-      <c r="J5" s="504"/>
-      <c r="K5" s="505"/>
-      <c r="L5" s="505"/>
+      <c r="A5" s="495"/>
+      <c r="B5" s="495"/>
+      <c r="C5" s="495"/>
+      <c r="D5" s="495"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="495"/>
+      <c r="J5" s="495"/>
+      <c r="K5" s="496"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="397"/>
       <c r="N5" s="397"/>
       <c r="O5" s="397"/>
     </row>
     <row r="6" spans="1:17" s="308" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="506" t="s">
+      <c r="A6" s="497" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="508" t="s">
+      <c r="B6" s="499" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="512" t="s">
+      <c r="C6" s="503" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="514" t="s">
+      <c r="D6" s="505" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="514"/>
-      <c r="F6" s="515" t="s">
+      <c r="E6" s="505"/>
+      <c r="F6" s="493" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="515"/>
-      <c r="H6" s="515"/>
-      <c r="I6" s="515"/>
-      <c r="J6" s="515"/>
-      <c r="K6" s="515"/>
-      <c r="L6" s="515"/>
-      <c r="M6" s="516"/>
-      <c r="N6" s="516"/>
-      <c r="O6" s="516"/>
-      <c r="P6" s="517" t="s">
+      <c r="G6" s="493"/>
+      <c r="H6" s="493"/>
+      <c r="I6" s="493"/>
+      <c r="J6" s="493"/>
+      <c r="K6" s="493"/>
+      <c r="L6" s="493"/>
+      <c r="M6" s="506"/>
+      <c r="N6" s="506"/>
+      <c r="O6" s="506"/>
+      <c r="P6" s="507" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="308" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="507"/>
-      <c r="B7" s="509"/>
-      <c r="C7" s="513"/>
-      <c r="D7" s="506" t="s">
+      <c r="A7" s="498"/>
+      <c r="B7" s="500"/>
+      <c r="C7" s="504"/>
+      <c r="D7" s="497" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="506" t="s">
+      <c r="E7" s="497" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="506" t="s">
+      <c r="F7" s="497" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="506" t="s">
+      <c r="G7" s="497" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="510" t="s">
+      <c r="H7" s="501" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="510" t="s">
+      <c r="I7" s="501" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="519" t="s">
+      <c r="J7" s="509" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="519"/>
-      <c r="L7" s="510" t="s">
+      <c r="K7" s="509"/>
+      <c r="L7" s="501" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="510" t="s">
+      <c r="M7" s="501" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="510" t="s">
+      <c r="N7" s="501" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="510" t="s">
+      <c r="O7" s="501" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="518"/>
+      <c r="P7" s="508"/>
     </row>
     <row r="8" spans="1:17" s="308" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="507"/>
-      <c r="B8" s="509"/>
-      <c r="C8" s="513"/>
-      <c r="D8" s="507"/>
-      <c r="E8" s="507"/>
-      <c r="F8" s="507"/>
-      <c r="G8" s="507"/>
-      <c r="H8" s="511"/>
-      <c r="I8" s="511"/>
+      <c r="A8" s="498"/>
+      <c r="B8" s="500"/>
+      <c r="C8" s="504"/>
+      <c r="D8" s="498"/>
+      <c r="E8" s="498"/>
+      <c r="F8" s="498"/>
+      <c r="G8" s="498"/>
+      <c r="H8" s="502"/>
+      <c r="I8" s="502"/>
       <c r="J8" s="394" t="s">
         <v>86</v>
       </c>
       <c r="K8" s="309" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="511"/>
-      <c r="M8" s="511"/>
-      <c r="N8" s="511"/>
-      <c r="O8" s="511"/>
-      <c r="P8" s="518"/>
+      <c r="L8" s="502"/>
+      <c r="M8" s="502"/>
+      <c r="N8" s="502"/>
+      <c r="O8" s="502"/>
+      <c r="P8" s="508"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="404">
@@ -6786,17 +6786,17 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="476">
+      <c r="A11" s="513">
         <v>556</v>
       </c>
-      <c r="B11" s="478">
+      <c r="B11" s="515">
         <v>43976</v>
       </c>
-      <c r="C11" s="476"/>
-      <c r="D11" s="476" t="s">
+      <c r="C11" s="513"/>
+      <c r="D11" s="513" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="476" t="s">
+      <c r="E11" s="513" t="s">
         <v>133</v>
       </c>
       <c r="F11" s="404" t="s">
@@ -6831,11 +6831,11 @@
       <c r="P11" s="404"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="477"/>
-      <c r="B12" s="479"/>
-      <c r="C12" s="477"/>
-      <c r="D12" s="477"/>
-      <c r="E12" s="477"/>
+      <c r="A12" s="514"/>
+      <c r="B12" s="516"/>
+      <c r="C12" s="514"/>
+      <c r="D12" s="514"/>
+      <c r="E12" s="514"/>
       <c r="F12" s="409" t="s">
         <v>140</v>
       </c>
@@ -6869,16 +6869,16 @@
       <c r="A13" s="485">
         <v>557</v>
       </c>
-      <c r="B13" s="498">
+      <c r="B13" s="476">
         <v>43981</v>
       </c>
-      <c r="C13" s="491" t="s">
+      <c r="C13" s="482" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="491" t="s">
+      <c r="D13" s="482" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="491" t="s">
+      <c r="E13" s="482" t="s">
         <v>135</v>
       </c>
       <c r="F13" s="412" t="s">
@@ -6915,10 +6915,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="487"/>
-      <c r="B14" s="500"/>
-      <c r="C14" s="493"/>
-      <c r="D14" s="493"/>
-      <c r="E14" s="493"/>
+      <c r="B14" s="478"/>
+      <c r="C14" s="484"/>
+      <c r="D14" s="484"/>
+      <c r="E14" s="484"/>
       <c r="F14" s="416" t="s">
         <v>136</v>
       </c>
@@ -7045,14 +7045,14 @@
       <c r="A17" s="485">
         <v>563</v>
       </c>
-      <c r="B17" s="498">
+      <c r="B17" s="476">
         <v>43986</v>
       </c>
-      <c r="C17" s="491"/>
-      <c r="D17" s="501" t="s">
+      <c r="C17" s="482"/>
+      <c r="D17" s="479" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="501" t="s">
+      <c r="E17" s="479" t="s">
         <v>144</v>
       </c>
       <c r="F17" s="412" t="s">
@@ -7086,10 +7086,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="487"/>
-      <c r="B18" s="500"/>
-      <c r="C18" s="493"/>
-      <c r="D18" s="503"/>
-      <c r="E18" s="503"/>
+      <c r="B18" s="478"/>
+      <c r="C18" s="484"/>
+      <c r="D18" s="481"/>
+      <c r="E18" s="481"/>
       <c r="F18" s="416" t="s">
         <v>140</v>
       </c>
@@ -7212,14 +7212,14 @@
       <c r="A21" s="485">
         <v>567</v>
       </c>
-      <c r="B21" s="498">
+      <c r="B21" s="476">
         <v>43990</v>
       </c>
       <c r="C21" s="485"/>
-      <c r="D21" s="501" t="s">
+      <c r="D21" s="479" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="501" t="s">
+      <c r="E21" s="479" t="s">
         <v>150</v>
       </c>
       <c r="F21" s="412" t="s">
@@ -7253,10 +7253,10 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="487"/>
-      <c r="B22" s="500"/>
+      <c r="B22" s="478"/>
       <c r="C22" s="487"/>
-      <c r="D22" s="503"/>
-      <c r="E22" s="503"/>
+      <c r="D22" s="481"/>
+      <c r="E22" s="481"/>
       <c r="F22" s="416" t="s">
         <v>137</v>
       </c>
@@ -7290,14 +7290,14 @@
       <c r="A23" s="485">
         <v>571</v>
       </c>
-      <c r="B23" s="498">
+      <c r="B23" s="476">
         <v>43990</v>
       </c>
       <c r="C23" s="485"/>
-      <c r="D23" s="491" t="s">
+      <c r="D23" s="482" t="s">
         <v>151</v>
       </c>
-      <c r="E23" s="491" t="s">
+      <c r="E23" s="482" t="s">
         <v>152</v>
       </c>
       <c r="F23" s="412" t="s">
@@ -7307,11 +7307,11 @@
         <v>72</v>
       </c>
       <c r="H23" s="413">
-        <v>255000</v>
+        <v>225000</v>
       </c>
       <c r="I23" s="413">
         <f t="shared" si="0"/>
-        <v>18360000</v>
+        <v>16200000</v>
       </c>
       <c r="J23" s="425"/>
       <c r="K23" s="414">
@@ -7319,13 +7319,13 @@
       </c>
       <c r="L23" s="426">
         <f t="shared" si="1"/>
-        <v>9180000</v>
+        <v>8100000</v>
       </c>
       <c r="M23" s="426"/>
       <c r="N23" s="413"/>
       <c r="O23" s="413">
         <f>L23</f>
-        <v>9180000</v>
+        <v>8100000</v>
       </c>
       <c r="P23" s="412"/>
       <c r="R23" s="415">
@@ -7335,10 +7335,10 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="486"/>
-      <c r="B24" s="499"/>
+      <c r="B24" s="477"/>
       <c r="C24" s="486"/>
-      <c r="D24" s="492"/>
-      <c r="E24" s="492"/>
+      <c r="D24" s="483"/>
+      <c r="E24" s="483"/>
       <c r="F24" s="427" t="s">
         <v>148</v>
       </c>
@@ -7370,10 +7370,10 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="486"/>
-      <c r="B25" s="499"/>
+      <c r="B25" s="477"/>
       <c r="C25" s="486"/>
-      <c r="D25" s="492"/>
-      <c r="E25" s="492"/>
+      <c r="D25" s="483"/>
+      <c r="E25" s="483"/>
       <c r="F25" s="427" t="s">
         <v>153</v>
       </c>
@@ -7405,10 +7405,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="486"/>
-      <c r="B26" s="499"/>
+      <c r="B26" s="477"/>
       <c r="C26" s="486"/>
-      <c r="D26" s="492"/>
-      <c r="E26" s="492"/>
+      <c r="D26" s="483"/>
+      <c r="E26" s="483"/>
       <c r="F26" s="427" t="s">
         <v>131</v>
       </c>
@@ -7440,10 +7440,10 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="486"/>
-      <c r="B27" s="499"/>
+      <c r="B27" s="477"/>
       <c r="C27" s="486"/>
-      <c r="D27" s="492"/>
-      <c r="E27" s="492"/>
+      <c r="D27" s="483"/>
+      <c r="E27" s="483"/>
       <c r="F27" s="427" t="s">
         <v>154</v>
       </c>
@@ -7475,10 +7475,10 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="486"/>
-      <c r="B28" s="499"/>
+      <c r="B28" s="477"/>
       <c r="C28" s="486"/>
-      <c r="D28" s="492"/>
-      <c r="E28" s="492"/>
+      <c r="D28" s="483"/>
+      <c r="E28" s="483"/>
       <c r="F28" s="427" t="s">
         <v>145</v>
       </c>
@@ -7510,10 +7510,10 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="486"/>
-      <c r="B29" s="499"/>
+      <c r="B29" s="477"/>
       <c r="C29" s="486"/>
-      <c r="D29" s="492"/>
-      <c r="E29" s="492"/>
+      <c r="D29" s="483"/>
+      <c r="E29" s="483"/>
       <c r="F29" s="427" t="s">
         <v>155</v>
       </c>
@@ -7545,10 +7545,10 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="487"/>
-      <c r="B30" s="500"/>
+      <c r="B30" s="478"/>
       <c r="C30" s="487"/>
-      <c r="D30" s="493"/>
-      <c r="E30" s="493"/>
+      <c r="D30" s="484"/>
+      <c r="E30" s="484"/>
       <c r="F30" s="416" t="s">
         <v>156</v>
       </c>
@@ -7579,19 +7579,19 @@
       <c r="P30" s="416"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="476">
+      <c r="A31" s="513">
         <v>586</v>
       </c>
-      <c r="B31" s="478">
+      <c r="B31" s="515">
         <v>43992</v>
       </c>
-      <c r="C31" s="476" t="s">
+      <c r="C31" s="513" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="494" t="s">
+      <c r="D31" s="519" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="496"/>
+      <c r="E31" s="521"/>
       <c r="F31" s="404" t="s">
         <v>145</v>
       </c>
@@ -7624,11 +7624,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="477"/>
-      <c r="B32" s="479"/>
-      <c r="C32" s="477"/>
-      <c r="D32" s="495"/>
-      <c r="E32" s="497"/>
+      <c r="A32" s="514"/>
+      <c r="B32" s="516"/>
+      <c r="C32" s="514"/>
+      <c r="D32" s="520"/>
+      <c r="E32" s="522"/>
       <c r="F32" s="404" t="s">
         <v>131</v>
       </c>
@@ -7799,16 +7799,16 @@
       <c r="A36" s="485">
         <v>576</v>
       </c>
-      <c r="B36" s="498">
+      <c r="B36" s="476">
         <v>43995</v>
       </c>
       <c r="C36" s="485" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="501" t="s">
+      <c r="D36" s="479" t="s">
         <v>180</v>
       </c>
-      <c r="E36" s="491" t="s">
+      <c r="E36" s="482" t="s">
         <v>181</v>
       </c>
       <c r="F36" s="412" t="s">
@@ -7842,10 +7842,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="486"/>
-      <c r="B37" s="499"/>
+      <c r="B37" s="477"/>
       <c r="C37" s="486"/>
-      <c r="D37" s="502"/>
-      <c r="E37" s="492"/>
+      <c r="D37" s="480"/>
+      <c r="E37" s="483"/>
       <c r="F37" s="427" t="s">
         <v>153</v>
       </c>
@@ -7877,10 +7877,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="487"/>
-      <c r="B38" s="500"/>
+      <c r="B38" s="478"/>
       <c r="C38" s="487"/>
-      <c r="D38" s="503"/>
-      <c r="E38" s="493"/>
+      <c r="D38" s="481"/>
+      <c r="E38" s="484"/>
       <c r="F38" s="416" t="s">
         <v>145</v>
       </c>
@@ -8004,16 +8004,16 @@
       <c r="A41" s="485">
         <v>582</v>
       </c>
-      <c r="B41" s="498">
+      <c r="B41" s="476">
         <v>43995</v>
       </c>
       <c r="C41" s="485" t="s">
         <v>182</v>
       </c>
-      <c r="D41" s="501" t="s">
+      <c r="D41" s="479" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="491" t="s">
+      <c r="E41" s="482" t="s">
         <v>185</v>
       </c>
       <c r="F41" s="412" t="s">
@@ -8047,10 +8047,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="486"/>
-      <c r="B42" s="499"/>
+      <c r="B42" s="477"/>
       <c r="C42" s="486"/>
-      <c r="D42" s="502"/>
-      <c r="E42" s="492"/>
+      <c r="D42" s="480"/>
+      <c r="E42" s="483"/>
       <c r="F42" s="427" t="s">
         <v>136</v>
       </c>
@@ -8082,10 +8082,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="486"/>
-      <c r="B43" s="499"/>
+      <c r="B43" s="477"/>
       <c r="C43" s="486"/>
-      <c r="D43" s="502"/>
-      <c r="E43" s="492"/>
+      <c r="D43" s="480"/>
+      <c r="E43" s="483"/>
       <c r="F43" s="427" t="s">
         <v>186</v>
       </c>
@@ -8117,10 +8117,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="486"/>
-      <c r="B44" s="499"/>
+      <c r="B44" s="477"/>
       <c r="C44" s="486"/>
-      <c r="D44" s="502"/>
-      <c r="E44" s="492"/>
+      <c r="D44" s="480"/>
+      <c r="E44" s="483"/>
       <c r="F44" s="427" t="s">
         <v>187</v>
       </c>
@@ -8152,10 +8152,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="486"/>
-      <c r="B45" s="499"/>
+      <c r="B45" s="477"/>
       <c r="C45" s="486"/>
-      <c r="D45" s="502"/>
-      <c r="E45" s="492"/>
+      <c r="D45" s="480"/>
+      <c r="E45" s="483"/>
       <c r="F45" s="427" t="s">
         <v>188</v>
       </c>
@@ -8187,10 +8187,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="486"/>
-      <c r="B46" s="499"/>
+      <c r="B46" s="477"/>
       <c r="C46" s="486"/>
-      <c r="D46" s="502"/>
-      <c r="E46" s="492"/>
+      <c r="D46" s="480"/>
+      <c r="E46" s="483"/>
       <c r="F46" s="427" t="s">
         <v>140</v>
       </c>
@@ -8222,10 +8222,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="486"/>
-      <c r="B47" s="499"/>
+      <c r="B47" s="477"/>
       <c r="C47" s="486"/>
-      <c r="D47" s="502"/>
-      <c r="E47" s="492"/>
+      <c r="D47" s="480"/>
+      <c r="E47" s="483"/>
       <c r="F47" s="427" t="s">
         <v>137</v>
       </c>
@@ -8257,10 +8257,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="487"/>
-      <c r="B48" s="500"/>
+      <c r="B48" s="478"/>
       <c r="C48" s="487"/>
-      <c r="D48" s="503"/>
-      <c r="E48" s="493"/>
+      <c r="D48" s="481"/>
+      <c r="E48" s="484"/>
       <c r="F48" s="416" t="s">
         <v>145</v>
       </c>
@@ -8299,10 +8299,10 @@
         <v>43997</v>
       </c>
       <c r="C49" s="485"/>
-      <c r="D49" s="501" t="s">
+      <c r="D49" s="479" t="s">
         <v>132</v>
       </c>
-      <c r="E49" s="491" t="s">
+      <c r="E49" s="482" t="s">
         <v>133</v>
       </c>
       <c r="F49" s="412" t="s">
@@ -8341,8 +8341,8 @@
       <c r="A50" s="486"/>
       <c r="B50" s="489"/>
       <c r="C50" s="486"/>
-      <c r="D50" s="502"/>
-      <c r="E50" s="492"/>
+      <c r="D50" s="480"/>
+      <c r="E50" s="483"/>
       <c r="F50" s="427" t="s">
         <v>153</v>
       </c>
@@ -8377,8 +8377,8 @@
       <c r="A51" s="486"/>
       <c r="B51" s="489"/>
       <c r="C51" s="486"/>
-      <c r="D51" s="502"/>
-      <c r="E51" s="492"/>
+      <c r="D51" s="480"/>
+      <c r="E51" s="483"/>
       <c r="F51" s="427" t="s">
         <v>131</v>
       </c>
@@ -8413,8 +8413,8 @@
       <c r="A52" s="487"/>
       <c r="B52" s="490"/>
       <c r="C52" s="487"/>
-      <c r="D52" s="503"/>
-      <c r="E52" s="493"/>
+      <c r="D52" s="481"/>
+      <c r="E52" s="484"/>
       <c r="F52" s="416" t="s">
         <v>154</v>
       </c>
@@ -8449,14 +8449,14 @@
       <c r="A53" s="485">
         <v>587</v>
       </c>
-      <c r="B53" s="498">
+      <c r="B53" s="476">
         <v>43995</v>
       </c>
       <c r="C53" s="485"/>
-      <c r="D53" s="501" t="s">
+      <c r="D53" s="479" t="s">
         <v>151</v>
       </c>
-      <c r="E53" s="491" t="s">
+      <c r="E53" s="482" t="s">
         <v>152</v>
       </c>
       <c r="F53" s="412" t="s">
@@ -8491,10 +8491,10 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="487"/>
-      <c r="B54" s="500"/>
+      <c r="B54" s="478"/>
       <c r="C54" s="487"/>
-      <c r="D54" s="503"/>
-      <c r="E54" s="493"/>
+      <c r="D54" s="481"/>
+      <c r="E54" s="484"/>
       <c r="F54" s="416" t="s">
         <v>189</v>
       </c>
@@ -8526,16 +8526,16 @@
       <c r="Q54" s="415"/>
     </row>
     <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="476">
+      <c r="A55" s="513">
         <v>588</v>
       </c>
-      <c r="B55" s="478">
+      <c r="B55" s="515">
         <v>43995</v>
       </c>
-      <c r="C55" s="476" t="s">
+      <c r="C55" s="513" t="s">
         <v>130</v>
       </c>
-      <c r="D55" s="480" t="s">
+      <c r="D55" s="517" t="s">
         <v>130</v>
       </c>
       <c r="E55" s="459"/>
@@ -8557,10 +8557,10 @@
       <c r="Q55" s="415"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="477"/>
-      <c r="B56" s="479"/>
-      <c r="C56" s="477"/>
-      <c r="D56" s="481"/>
+      <c r="A56" s="514"/>
+      <c r="B56" s="516"/>
+      <c r="C56" s="514"/>
+      <c r="D56" s="518"/>
       <c r="E56" s="406"/>
       <c r="F56" s="404" t="s">
         <v>131</v>
@@ -8598,14 +8598,14 @@
       <c r="A57" s="485">
         <v>479</v>
       </c>
-      <c r="B57" s="498">
+      <c r="B57" s="476">
         <v>43996</v>
       </c>
       <c r="C57" s="485"/>
-      <c r="D57" s="501" t="s">
+      <c r="D57" s="479" t="s">
         <v>151</v>
       </c>
-      <c r="E57" s="491" t="s">
+      <c r="E57" s="482" t="s">
         <v>152</v>
       </c>
       <c r="F57" s="412" t="s">
@@ -8640,10 +8640,10 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="486"/>
-      <c r="B58" s="499"/>
+      <c r="B58" s="477"/>
       <c r="C58" s="486"/>
-      <c r="D58" s="502"/>
-      <c r="E58" s="492"/>
+      <c r="D58" s="480"/>
+      <c r="E58" s="483"/>
       <c r="F58" s="427" t="s">
         <v>189</v>
       </c>
@@ -8676,10 +8676,10 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="486"/>
-      <c r="B59" s="499"/>
+      <c r="B59" s="477"/>
       <c r="C59" s="486"/>
-      <c r="D59" s="502"/>
-      <c r="E59" s="492"/>
+      <c r="D59" s="480"/>
+      <c r="E59" s="483"/>
       <c r="F59" s="427" t="s">
         <v>145</v>
       </c>
@@ -8712,10 +8712,10 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="486"/>
-      <c r="B60" s="499"/>
+      <c r="B60" s="477"/>
       <c r="C60" s="486"/>
-      <c r="D60" s="502"/>
-      <c r="E60" s="492"/>
+      <c r="D60" s="480"/>
+      <c r="E60" s="483"/>
       <c r="F60" s="427" t="s">
         <v>140</v>
       </c>
@@ -8748,10 +8748,10 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="487"/>
-      <c r="B61" s="500"/>
+      <c r="B61" s="478"/>
       <c r="C61" s="487"/>
-      <c r="D61" s="503"/>
-      <c r="E61" s="493"/>
+      <c r="D61" s="481"/>
+      <c r="E61" s="484"/>
       <c r="F61" s="416" t="s">
         <v>137</v>
       </c>
@@ -8834,14 +8834,14 @@
       <c r="A63" s="485">
         <v>481</v>
       </c>
-      <c r="B63" s="498">
+      <c r="B63" s="476">
         <v>43998</v>
       </c>
       <c r="C63" s="485"/>
-      <c r="D63" s="501" t="s">
+      <c r="D63" s="479" t="s">
         <v>237</v>
       </c>
-      <c r="E63" s="491" t="s">
+      <c r="E63" s="482" t="s">
         <v>152</v>
       </c>
       <c r="F63" s="412" t="s">
@@ -8876,10 +8876,10 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="486"/>
-      <c r="B64" s="499"/>
+      <c r="B64" s="477"/>
       <c r="C64" s="486"/>
-      <c r="D64" s="502"/>
-      <c r="E64" s="492"/>
+      <c r="D64" s="480"/>
+      <c r="E64" s="483"/>
       <c r="F64" s="427" t="s">
         <v>153</v>
       </c>
@@ -8911,10 +8911,10 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="486"/>
-      <c r="B65" s="499"/>
+      <c r="B65" s="477"/>
       <c r="C65" s="486"/>
-      <c r="D65" s="502"/>
-      <c r="E65" s="492"/>
+      <c r="D65" s="480"/>
+      <c r="E65" s="483"/>
       <c r="F65" s="427" t="s">
         <v>189</v>
       </c>
@@ -8946,10 +8946,10 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="487"/>
-      <c r="B66" s="500"/>
+      <c r="B66" s="478"/>
       <c r="C66" s="487"/>
-      <c r="D66" s="503"/>
-      <c r="E66" s="493"/>
+      <c r="D66" s="481"/>
+      <c r="E66" s="484"/>
       <c r="F66" s="416" t="s">
         <v>145</v>
       </c>
@@ -9033,10 +9033,10 @@
         <v>43999</v>
       </c>
       <c r="C68" s="485"/>
-      <c r="D68" s="491" t="s">
+      <c r="D68" s="482" t="s">
         <v>217</v>
       </c>
-      <c r="E68" s="491" t="s">
+      <c r="E68" s="482" t="s">
         <v>218</v>
       </c>
       <c r="F68" s="412" t="s">
@@ -9066,7 +9066,7 @@
         <f>L68</f>
         <v>2700000</v>
       </c>
-      <c r="P68" s="482" t="s">
+      <c r="P68" s="510" t="s">
         <v>219</v>
       </c>
     </row>
@@ -9074,8 +9074,8 @@
       <c r="A69" s="486"/>
       <c r="B69" s="489"/>
       <c r="C69" s="486"/>
-      <c r="D69" s="492"/>
-      <c r="E69" s="492"/>
+      <c r="D69" s="483"/>
+      <c r="E69" s="483"/>
       <c r="F69" s="427" t="s">
         <v>136</v>
       </c>
@@ -9103,14 +9103,14 @@
         <f t="shared" ref="O69:O82" si="7">L69</f>
         <v>235000</v>
       </c>
-      <c r="P69" s="483"/>
+      <c r="P69" s="511"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="486"/>
       <c r="B70" s="489"/>
       <c r="C70" s="486"/>
-      <c r="D70" s="492"/>
-      <c r="E70" s="492"/>
+      <c r="D70" s="483"/>
+      <c r="E70" s="483"/>
       <c r="F70" s="427" t="s">
         <v>153</v>
       </c>
@@ -9138,14 +9138,14 @@
         <f t="shared" si="7"/>
         <v>2557500</v>
       </c>
-      <c r="P70" s="483"/>
+      <c r="P70" s="511"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="486"/>
       <c r="B71" s="489"/>
       <c r="C71" s="486"/>
-      <c r="D71" s="492"/>
-      <c r="E71" s="492"/>
+      <c r="D71" s="483"/>
+      <c r="E71" s="483"/>
       <c r="F71" s="427" t="s">
         <v>131</v>
       </c>
@@ -9173,14 +9173,14 @@
         <f t="shared" si="7"/>
         <v>2850000</v>
       </c>
-      <c r="P71" s="483"/>
+      <c r="P71" s="511"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="486"/>
       <c r="B72" s="489"/>
       <c r="C72" s="486"/>
-      <c r="D72" s="492"/>
-      <c r="E72" s="492"/>
+      <c r="D72" s="483"/>
+      <c r="E72" s="483"/>
       <c r="F72" s="427" t="s">
         <v>154</v>
       </c>
@@ -9208,14 +9208,14 @@
         <f t="shared" si="7"/>
         <v>2910000</v>
       </c>
-      <c r="P72" s="483"/>
+      <c r="P72" s="511"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="486"/>
       <c r="B73" s="489"/>
       <c r="C73" s="486"/>
-      <c r="D73" s="492"/>
-      <c r="E73" s="492"/>
+      <c r="D73" s="483"/>
+      <c r="E73" s="483"/>
       <c r="F73" s="427" t="s">
         <v>189</v>
       </c>
@@ -9243,14 +9243,14 @@
         <f t="shared" si="7"/>
         <v>2910000</v>
       </c>
-      <c r="P73" s="483"/>
+      <c r="P73" s="511"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="486"/>
       <c r="B74" s="489"/>
       <c r="C74" s="486"/>
-      <c r="D74" s="492"/>
-      <c r="E74" s="492"/>
+      <c r="D74" s="483"/>
+      <c r="E74" s="483"/>
       <c r="F74" s="427" t="s">
         <v>145</v>
       </c>
@@ -9278,14 +9278,14 @@
         <f t="shared" si="7"/>
         <v>6600000</v>
       </c>
-      <c r="P74" s="483"/>
+      <c r="P74" s="511"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="486"/>
       <c r="B75" s="489"/>
       <c r="C75" s="486"/>
-      <c r="D75" s="492"/>
-      <c r="E75" s="492"/>
+      <c r="D75" s="483"/>
+      <c r="E75" s="483"/>
       <c r="F75" s="427" t="s">
         <v>140</v>
       </c>
@@ -9313,14 +9313,14 @@
         <f t="shared" si="7"/>
         <v>2730000</v>
       </c>
-      <c r="P75" s="483"/>
+      <c r="P75" s="511"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="487"/>
       <c r="B76" s="490"/>
       <c r="C76" s="487"/>
-      <c r="D76" s="493"/>
-      <c r="E76" s="493"/>
+      <c r="D76" s="484"/>
+      <c r="E76" s="484"/>
       <c r="F76" s="416" t="s">
         <v>137</v>
       </c>
@@ -9348,7 +9348,7 @@
         <f t="shared" si="7"/>
         <v>2730000</v>
       </c>
-      <c r="P76" s="484"/>
+      <c r="P76" s="512"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="404">
@@ -9403,10 +9403,10 @@
         <v>44001</v>
       </c>
       <c r="C78" s="485"/>
-      <c r="D78" s="491" t="s">
+      <c r="D78" s="482" t="s">
         <v>149</v>
       </c>
-      <c r="E78" s="491" t="s">
+      <c r="E78" s="482" t="s">
         <v>144</v>
       </c>
       <c r="F78" s="412" t="s">
@@ -9442,8 +9442,8 @@
       <c r="A79" s="486"/>
       <c r="B79" s="489"/>
       <c r="C79" s="486"/>
-      <c r="D79" s="492"/>
-      <c r="E79" s="492"/>
+      <c r="D79" s="483"/>
+      <c r="E79" s="483"/>
       <c r="F79" s="427" t="s">
         <v>154</v>
       </c>
@@ -9477,8 +9477,8 @@
       <c r="A80" s="487"/>
       <c r="B80" s="490"/>
       <c r="C80" s="487"/>
-      <c r="D80" s="493"/>
-      <c r="E80" s="493"/>
+      <c r="D80" s="484"/>
+      <c r="E80" s="484"/>
       <c r="F80" s="416" t="s">
         <v>137</v>
       </c>
@@ -9518,10 +9518,10 @@
       <c r="C81" s="485" t="s">
         <v>182</v>
       </c>
-      <c r="D81" s="491" t="s">
+      <c r="D81" s="482" t="s">
         <v>220</v>
       </c>
-      <c r="E81" s="491"/>
+      <c r="E81" s="482"/>
       <c r="F81" s="412" t="s">
         <v>154</v>
       </c>
@@ -9555,8 +9555,8 @@
       <c r="A82" s="487"/>
       <c r="B82" s="490"/>
       <c r="C82" s="487"/>
-      <c r="D82" s="493"/>
-      <c r="E82" s="493"/>
+      <c r="D82" s="484"/>
+      <c r="E82" s="484"/>
       <c r="F82" s="416" t="s">
         <v>137</v>
       </c>
@@ -9775,10 +9775,10 @@
         <v>44006</v>
       </c>
       <c r="C87" s="485"/>
-      <c r="D87" s="501" t="s">
+      <c r="D87" s="479" t="s">
         <v>224</v>
       </c>
-      <c r="E87" s="491" t="s">
+      <c r="E87" s="482" t="s">
         <v>133</v>
       </c>
       <c r="F87" s="412" t="s">
@@ -9816,8 +9816,8 @@
       <c r="A88" s="486"/>
       <c r="B88" s="489"/>
       <c r="C88" s="486"/>
-      <c r="D88" s="502"/>
-      <c r="E88" s="492"/>
+      <c r="D88" s="480"/>
+      <c r="E88" s="483"/>
       <c r="F88" s="427" t="s">
         <v>148</v>
       </c>
@@ -9851,8 +9851,8 @@
       <c r="A89" s="486"/>
       <c r="B89" s="489"/>
       <c r="C89" s="486"/>
-      <c r="D89" s="502"/>
-      <c r="E89" s="492"/>
+      <c r="D89" s="480"/>
+      <c r="E89" s="483"/>
       <c r="F89" s="427" t="s">
         <v>189</v>
       </c>
@@ -9886,8 +9886,8 @@
       <c r="A90" s="487"/>
       <c r="B90" s="490"/>
       <c r="C90" s="487"/>
-      <c r="D90" s="503"/>
-      <c r="E90" s="493"/>
+      <c r="D90" s="481"/>
+      <c r="E90" s="484"/>
       <c r="F90" s="416" t="s">
         <v>137</v>
       </c>
@@ -9927,10 +9927,10 @@
       <c r="C91" s="485" t="s">
         <v>182</v>
       </c>
-      <c r="D91" s="491" t="s">
+      <c r="D91" s="482" t="s">
         <v>225</v>
       </c>
-      <c r="E91" s="491"/>
+      <c r="E91" s="482"/>
       <c r="F91" s="412" t="s">
         <v>189</v>
       </c>
@@ -9964,8 +9964,8 @@
       <c r="A92" s="487"/>
       <c r="B92" s="490"/>
       <c r="C92" s="487"/>
-      <c r="D92" s="493"/>
-      <c r="E92" s="493"/>
+      <c r="D92" s="484"/>
+      <c r="E92" s="484"/>
       <c r="F92" s="416" t="s">
         <v>145</v>
       </c>
@@ -10052,10 +10052,10 @@
       <c r="C94" s="485" t="s">
         <v>128</v>
       </c>
-      <c r="D94" s="491" t="s">
+      <c r="D94" s="482" t="s">
         <v>128</v>
       </c>
-      <c r="E94" s="491" t="s">
+      <c r="E94" s="482" t="s">
         <v>135</v>
       </c>
       <c r="F94" s="412" t="s">
@@ -10093,8 +10093,8 @@
       <c r="A95" s="486"/>
       <c r="B95" s="489"/>
       <c r="C95" s="486"/>
-      <c r="D95" s="492"/>
-      <c r="E95" s="492"/>
+      <c r="D95" s="483"/>
+      <c r="E95" s="483"/>
       <c r="F95" s="427" t="s">
         <v>136</v>
       </c>
@@ -10128,8 +10128,8 @@
       <c r="A96" s="487"/>
       <c r="B96" s="490"/>
       <c r="C96" s="487"/>
-      <c r="D96" s="493"/>
-      <c r="E96" s="493"/>
+      <c r="D96" s="484"/>
+      <c r="E96" s="484"/>
       <c r="F96" s="416" t="s">
         <v>137</v>
       </c>
@@ -10356,10 +10356,10 @@
       <c r="C101" s="485" t="s">
         <v>182</v>
       </c>
-      <c r="D101" s="491" t="s">
+      <c r="D101" s="482" t="s">
         <v>149</v>
       </c>
-      <c r="E101" s="491" t="s">
+      <c r="E101" s="482" t="s">
         <v>144</v>
       </c>
       <c r="F101" s="412" t="s">
@@ -10394,8 +10394,8 @@
       <c r="A102" s="487"/>
       <c r="B102" s="490"/>
       <c r="C102" s="487"/>
-      <c r="D102" s="493"/>
-      <c r="E102" s="493"/>
+      <c r="D102" s="484"/>
+      <c r="E102" s="484"/>
       <c r="F102" s="416" t="s">
         <v>189</v>
       </c>
@@ -10432,10 +10432,10 @@
         <v>44011</v>
       </c>
       <c r="C103" s="485"/>
-      <c r="D103" s="491" t="s">
+      <c r="D103" s="482" t="s">
         <v>230</v>
       </c>
-      <c r="E103" s="491" t="s">
+      <c r="E103" s="482" t="s">
         <v>231</v>
       </c>
       <c r="F103" s="412" t="s">
@@ -10471,8 +10471,8 @@
       <c r="A104" s="486"/>
       <c r="B104" s="489"/>
       <c r="C104" s="486"/>
-      <c r="D104" s="492"/>
-      <c r="E104" s="492"/>
+      <c r="D104" s="483"/>
+      <c r="E104" s="483"/>
       <c r="F104" s="427" t="s">
         <v>153</v>
       </c>
@@ -10506,8 +10506,8 @@
       <c r="A105" s="486"/>
       <c r="B105" s="489"/>
       <c r="C105" s="486"/>
-      <c r="D105" s="492"/>
-      <c r="E105" s="492"/>
+      <c r="D105" s="483"/>
+      <c r="E105" s="483"/>
       <c r="F105" s="427" t="s">
         <v>131</v>
       </c>
@@ -10541,8 +10541,8 @@
       <c r="A106" s="486"/>
       <c r="B106" s="489"/>
       <c r="C106" s="486"/>
-      <c r="D106" s="492"/>
-      <c r="E106" s="492"/>
+      <c r="D106" s="483"/>
+      <c r="E106" s="483"/>
       <c r="F106" s="427" t="s">
         <v>154</v>
       </c>
@@ -10576,8 +10576,8 @@
       <c r="A107" s="487"/>
       <c r="B107" s="490"/>
       <c r="C107" s="487"/>
-      <c r="D107" s="493"/>
-      <c r="E107" s="493"/>
+      <c r="D107" s="484"/>
+      <c r="E107" s="484"/>
       <c r="F107" s="416" t="s">
         <v>140</v>
       </c>
@@ -10659,10 +10659,10 @@
         <v>44010</v>
       </c>
       <c r="C109" s="485"/>
-      <c r="D109" s="491" t="s">
+      <c r="D109" s="482" t="s">
         <v>230</v>
       </c>
-      <c r="E109" s="491" t="s">
+      <c r="E109" s="482" t="s">
         <v>231</v>
       </c>
       <c r="F109" s="412" t="s">
@@ -10698,8 +10698,8 @@
       <c r="A110" s="486"/>
       <c r="B110" s="489"/>
       <c r="C110" s="486"/>
-      <c r="D110" s="492"/>
-      <c r="E110" s="492"/>
+      <c r="D110" s="483"/>
+      <c r="E110" s="483"/>
       <c r="F110" s="427" t="s">
         <v>153</v>
       </c>
@@ -10733,8 +10733,8 @@
       <c r="A111" s="486"/>
       <c r="B111" s="489"/>
       <c r="C111" s="486"/>
-      <c r="D111" s="492"/>
-      <c r="E111" s="492"/>
+      <c r="D111" s="483"/>
+      <c r="E111" s="483"/>
       <c r="F111" s="427" t="s">
         <v>131</v>
       </c>
@@ -10768,8 +10768,8 @@
       <c r="A112" s="486"/>
       <c r="B112" s="489"/>
       <c r="C112" s="486"/>
-      <c r="D112" s="492"/>
-      <c r="E112" s="492"/>
+      <c r="D112" s="483"/>
+      <c r="E112" s="483"/>
       <c r="F112" s="427" t="s">
         <v>154</v>
       </c>
@@ -10803,8 +10803,8 @@
       <c r="A113" s="486"/>
       <c r="B113" s="489"/>
       <c r="C113" s="486"/>
-      <c r="D113" s="492"/>
-      <c r="E113" s="492"/>
+      <c r="D113" s="483"/>
+      <c r="E113" s="483"/>
       <c r="F113" s="427" t="s">
         <v>189</v>
       </c>
@@ -10838,8 +10838,8 @@
       <c r="A114" s="486"/>
       <c r="B114" s="489"/>
       <c r="C114" s="486"/>
-      <c r="D114" s="492"/>
-      <c r="E114" s="492"/>
+      <c r="D114" s="483"/>
+      <c r="E114" s="483"/>
       <c r="F114" s="427" t="s">
         <v>145</v>
       </c>
@@ -10873,8 +10873,8 @@
       <c r="A115" s="486"/>
       <c r="B115" s="489"/>
       <c r="C115" s="486"/>
-      <c r="D115" s="492"/>
-      <c r="E115" s="492"/>
+      <c r="D115" s="483"/>
+      <c r="E115" s="483"/>
       <c r="F115" s="427" t="s">
         <v>140</v>
       </c>
@@ -10908,8 +10908,8 @@
       <c r="A116" s="487"/>
       <c r="B116" s="490"/>
       <c r="C116" s="487"/>
-      <c r="D116" s="493"/>
-      <c r="E116" s="493"/>
+      <c r="D116" s="484"/>
+      <c r="E116" s="484"/>
       <c r="F116" s="416" t="s">
         <v>137</v>
       </c>
@@ -10985,14 +10985,14 @@
       </c>
     </row>
     <row r="118" spans="1:17" s="446" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="515" t="s">
+      <c r="A118" s="493" t="s">
         <v>79</v>
       </c>
-      <c r="B118" s="515"/>
-      <c r="C118" s="515"/>
-      <c r="D118" s="515"/>
-      <c r="E118" s="515"/>
-      <c r="F118" s="515"/>
+      <c r="B118" s="493"/>
+      <c r="C118" s="493"/>
+      <c r="D118" s="493"/>
+      <c r="E118" s="493"/>
+      <c r="F118" s="493"/>
       <c r="G118" s="440">
         <f>SUM(G9:G117)</f>
         <v>1638</v>
@@ -11000,29 +11000,29 @@
       <c r="H118" s="441"/>
       <c r="I118" s="442">
         <f>SUM(I9:I117)</f>
-        <v>737420000</v>
+        <v>735260000</v>
       </c>
       <c r="J118" s="443"/>
       <c r="K118" s="444"/>
       <c r="L118" s="445">
         <f>SUM(L9:L117)</f>
-        <v>395261050</v>
+        <v>394181050</v>
       </c>
       <c r="M118" s="441"/>
       <c r="N118" s="441"/>
       <c r="O118" s="441"/>
-      <c r="P118" s="522"/>
-      <c r="Q118" s="520"/>
+      <c r="P118" s="494"/>
+      <c r="Q118" s="491"/>
     </row>
     <row r="119" spans="1:17" s="446" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="521" t="s">
+      <c r="A119" s="492" t="s">
         <v>125</v>
       </c>
-      <c r="B119" s="521"/>
-      <c r="C119" s="521"/>
-      <c r="D119" s="521"/>
-      <c r="E119" s="521"/>
-      <c r="F119" s="521"/>
+      <c r="B119" s="492"/>
+      <c r="C119" s="492"/>
+      <c r="D119" s="492"/>
+      <c r="E119" s="492"/>
+      <c r="F119" s="492"/>
       <c r="G119" s="440">
         <f>G118</f>
         <v>1638</v>
@@ -11033,23 +11033,23 @@
       <c r="K119" s="444"/>
       <c r="L119" s="445">
         <f>L118</f>
-        <v>395261050</v>
+        <v>394181050</v>
       </c>
       <c r="M119" s="443"/>
       <c r="N119" s="443"/>
       <c r="O119" s="443"/>
-      <c r="P119" s="522"/>
-      <c r="Q119" s="520"/>
+      <c r="P119" s="494"/>
+      <c r="Q119" s="491"/>
     </row>
     <row r="120" spans="1:17" s="446" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="521" t="s">
+      <c r="A120" s="492" t="s">
         <v>80</v>
       </c>
-      <c r="B120" s="521"/>
-      <c r="C120" s="521"/>
-      <c r="D120" s="521"/>
-      <c r="E120" s="521"/>
-      <c r="F120" s="521"/>
+      <c r="B120" s="492"/>
+      <c r="C120" s="492"/>
+      <c r="D120" s="492"/>
+      <c r="E120" s="492"/>
+      <c r="F120" s="492"/>
       <c r="G120" s="395" t="s">
         <v>50</v>
       </c>
@@ -11066,14 +11066,14 @@
       <c r="O120" s="443"/>
     </row>
     <row r="121" spans="1:17" s="446" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="521" t="s">
+      <c r="A121" s="492" t="s">
         <v>81</v>
       </c>
-      <c r="B121" s="521"/>
-      <c r="C121" s="521"/>
-      <c r="D121" s="521"/>
-      <c r="E121" s="521"/>
-      <c r="F121" s="521"/>
+      <c r="B121" s="492"/>
+      <c r="C121" s="492"/>
+      <c r="D121" s="492"/>
+      <c r="E121" s="492"/>
+      <c r="F121" s="492"/>
       <c r="G121" s="395"/>
       <c r="H121" s="443"/>
       <c r="I121" s="441"/>
@@ -11088,14 +11088,14 @@
       <c r="O121" s="443"/>
     </row>
     <row r="122" spans="1:17" s="446" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="521" t="s">
+      <c r="A122" s="492" t="s">
         <v>82</v>
       </c>
-      <c r="B122" s="521"/>
-      <c r="C122" s="521"/>
-      <c r="D122" s="521"/>
-      <c r="E122" s="521"/>
-      <c r="F122" s="521"/>
+      <c r="B122" s="492"/>
+      <c r="C122" s="492"/>
+      <c r="D122" s="492"/>
+      <c r="E122" s="492"/>
+      <c r="F122" s="492"/>
       <c r="G122" s="395"/>
       <c r="H122" s="443"/>
       <c r="I122" s="441"/>
@@ -11103,7 +11103,7 @@
       <c r="K122" s="444"/>
       <c r="L122" s="445">
         <f>SUM(O9:O117)</f>
-        <v>297976300</v>
+        <v>296896300</v>
       </c>
       <c r="M122" s="443"/>
       <c r="N122" s="443"/>
@@ -11168,47 +11168,81 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="140">
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="E87:E90"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="A109:A116"/>
-    <mergeCell ref="B109:B116"/>
-    <mergeCell ref="C109:C116"/>
-    <mergeCell ref="D109:D116"/>
-    <mergeCell ref="E109:E116"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="D68:D76"/>
-    <mergeCell ref="E68:E76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="E23:E30"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="E41:E48"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="P68:P76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="P94:P96"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="E103:E107"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="Q118:Q119"/>
     <mergeCell ref="A119:F119"/>
     <mergeCell ref="A120:F120"/>
@@ -11233,81 +11267,47 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="A41:A48"/>
     <mergeCell ref="B41:B48"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="P68:P76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="P94:P96"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="D103:D107"/>
-    <mergeCell ref="E103:E107"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="E23:E30"/>
-    <mergeCell ref="C23:C30"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="E41:E48"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="A109:A116"/>
+    <mergeCell ref="B109:B116"/>
+    <mergeCell ref="C109:C116"/>
+    <mergeCell ref="D109:D116"/>
+    <mergeCell ref="E109:E116"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="D68:D76"/>
+    <mergeCell ref="E68:E76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="E87:E90"/>
+    <mergeCell ref="C87:C90"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11338,99 +11338,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="526" t="s">
+      <c r="A1" s="532" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="526"/>
-      <c r="C1" s="526"/>
-      <c r="D1" s="526"/>
+      <c r="B1" s="532"/>
+      <c r="C1" s="532"/>
+      <c r="D1" s="532"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="527" t="s">
+      <c r="A2" s="533" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="527"/>
-      <c r="C2" s="527"/>
-      <c r="D2" s="527"/>
+      <c r="B2" s="533"/>
+      <c r="C2" s="533"/>
+      <c r="D2" s="533"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="529" t="s">
+      <c r="A3" s="535" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="529"/>
-      <c r="C3" s="529"/>
-      <c r="D3" s="529"/>
-      <c r="E3" s="529"/>
-      <c r="F3" s="529"/>
-      <c r="G3" s="529"/>
-      <c r="H3" s="529"/>
-      <c r="I3" s="529"/>
-      <c r="J3" s="529"/>
-      <c r="K3" s="529"/>
-      <c r="L3" s="529"/>
-      <c r="M3" s="529"/>
-      <c r="N3" s="529"/>
-      <c r="O3" s="529"/>
-      <c r="P3" s="529"/>
+      <c r="B3" s="535"/>
+      <c r="C3" s="535"/>
+      <c r="D3" s="535"/>
+      <c r="E3" s="535"/>
+      <c r="F3" s="535"/>
+      <c r="G3" s="535"/>
+      <c r="H3" s="535"/>
+      <c r="I3" s="535"/>
+      <c r="J3" s="535"/>
+      <c r="K3" s="535"/>
+      <c r="L3" s="535"/>
+      <c r="M3" s="535"/>
+      <c r="N3" s="535"/>
+      <c r="O3" s="535"/>
+      <c r="P3" s="535"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="530" t="s">
+      <c r="A4" s="536" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="530"/>
-      <c r="C4" s="530"/>
-      <c r="D4" s="530"/>
-      <c r="E4" s="530"/>
-      <c r="F4" s="530"/>
-      <c r="G4" s="530"/>
-      <c r="H4" s="530"/>
-      <c r="I4" s="530"/>
-      <c r="J4" s="530"/>
-      <c r="K4" s="531"/>
-      <c r="L4" s="530"/>
-      <c r="M4" s="530"/>
-      <c r="N4" s="530"/>
-      <c r="O4" s="530"/>
-      <c r="P4" s="530"/>
+      <c r="B4" s="536"/>
+      <c r="C4" s="536"/>
+      <c r="D4" s="536"/>
+      <c r="E4" s="536"/>
+      <c r="F4" s="536"/>
+      <c r="G4" s="536"/>
+      <c r="H4" s="536"/>
+      <c r="I4" s="536"/>
+      <c r="J4" s="536"/>
+      <c r="K4" s="537"/>
+      <c r="L4" s="536"/>
+      <c r="M4" s="536"/>
+      <c r="N4" s="536"/>
+      <c r="O4" s="536"/>
+      <c r="P4" s="536"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="532" t="s">
+      <c r="A5" s="538" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="534" t="s">
+      <c r="B5" s="540" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="536" t="s">
+      <c r="C5" s="542" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="536" t="s">
+      <c r="D5" s="542" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="536"/>
-      <c r="F5" s="536"/>
-      <c r="G5" s="538" t="s">
+      <c r="E5" s="542"/>
+      <c r="F5" s="542"/>
+      <c r="G5" s="544" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="538"/>
-      <c r="I5" s="538"/>
-      <c r="J5" s="538"/>
-      <c r="K5" s="539"/>
-      <c r="L5" s="540" t="s">
+      <c r="H5" s="544"/>
+      <c r="I5" s="544"/>
+      <c r="J5" s="544"/>
+      <c r="K5" s="545"/>
+      <c r="L5" s="546" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="538" t="s">
+      <c r="M5" s="544" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="538"/>
-      <c r="O5" s="538"/>
-      <c r="P5" s="542" t="s">
+      <c r="N5" s="544"/>
+      <c r="O5" s="544"/>
+      <c r="P5" s="548" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="57" x14ac:dyDescent="0.25">
-      <c r="A6" s="533"/>
-      <c r="B6" s="535"/>
-      <c r="C6" s="537"/>
+      <c r="A6" s="539"/>
+      <c r="B6" s="541"/>
+      <c r="C6" s="543"/>
       <c r="D6" s="81" t="s">
         <v>41</v>
       </c>
@@ -11455,7 +11455,7 @@
       <c r="K6" s="239" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="541"/>
+      <c r="L6" s="547"/>
       <c r="M6" s="81" t="s">
         <v>46</v>
       </c>
@@ -11465,7 +11465,7 @@
       <c r="O6" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="543"/>
+      <c r="P6" s="549"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="243">
@@ -11585,14 +11585,14 @@
       <c r="A10" s="523">
         <v>480</v>
       </c>
-      <c r="B10" s="544">
+      <c r="B10" s="526">
         <v>43998</v>
       </c>
       <c r="C10" s="523" t="s">
         <v>151</v>
       </c>
       <c r="D10" s="523"/>
-      <c r="E10" s="547"/>
+      <c r="E10" s="529"/>
       <c r="F10" s="523"/>
       <c r="G10" s="224" t="s">
         <v>134</v>
@@ -11621,10 +11621,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="524"/>
-      <c r="B11" s="546"/>
+      <c r="B11" s="527"/>
       <c r="C11" s="524"/>
       <c r="D11" s="524"/>
-      <c r="E11" s="549"/>
+      <c r="E11" s="531"/>
       <c r="F11" s="524"/>
       <c r="G11" s="228" t="s">
         <v>148</v>
@@ -11655,10 +11655,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="524"/>
-      <c r="B12" s="546"/>
+      <c r="B12" s="527"/>
       <c r="C12" s="524"/>
       <c r="D12" s="524"/>
-      <c r="E12" s="549"/>
+      <c r="E12" s="531"/>
       <c r="F12" s="524"/>
       <c r="G12" s="228" t="s">
         <v>153</v>
@@ -11689,10 +11689,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="524"/>
-      <c r="B13" s="546"/>
+      <c r="B13" s="527"/>
       <c r="C13" s="524"/>
       <c r="D13" s="524"/>
-      <c r="E13" s="549"/>
+      <c r="E13" s="531"/>
       <c r="F13" s="524"/>
       <c r="G13" s="228" t="s">
         <v>189</v>
@@ -11721,10 +11721,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="525"/>
-      <c r="B14" s="545"/>
+      <c r="B14" s="528"/>
       <c r="C14" s="525"/>
       <c r="D14" s="525"/>
-      <c r="E14" s="548"/>
+      <c r="E14" s="530"/>
       <c r="F14" s="525"/>
       <c r="G14" s="233" t="s">
         <v>145</v>
@@ -11755,14 +11755,14 @@
       <c r="A15" s="523">
         <v>484</v>
       </c>
-      <c r="B15" s="544">
+      <c r="B15" s="526">
         <v>44002</v>
       </c>
       <c r="C15" s="523" t="s">
         <v>151</v>
       </c>
       <c r="D15" s="523"/>
-      <c r="E15" s="547"/>
+      <c r="E15" s="529"/>
       <c r="F15" s="523"/>
       <c r="G15" s="224" t="s">
         <v>154</v>
@@ -11791,10 +11791,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="525"/>
-      <c r="B16" s="545"/>
+      <c r="B16" s="528"/>
       <c r="C16" s="525"/>
       <c r="D16" s="525"/>
-      <c r="E16" s="548"/>
+      <c r="E16" s="530"/>
       <c r="F16" s="525"/>
       <c r="G16" s="233" t="s">
         <v>137</v>
@@ -11863,7 +11863,7 @@
       <c r="A18" s="523">
         <v>487</v>
       </c>
-      <c r="B18" s="544">
+      <c r="B18" s="526">
         <v>44009</v>
       </c>
       <c r="C18" s="523" t="s">
@@ -11899,7 +11899,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="525"/>
-      <c r="B19" s="545"/>
+      <c r="B19" s="528"/>
       <c r="C19" s="525"/>
       <c r="D19" s="525"/>
       <c r="E19" s="525"/>
@@ -11973,7 +11973,7 @@
       <c r="A21" s="523">
         <v>478</v>
       </c>
-      <c r="B21" s="544">
+      <c r="B21" s="526">
         <v>43996</v>
       </c>
       <c r="C21" s="523" t="s">
@@ -12009,7 +12009,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="524"/>
-      <c r="B22" s="546"/>
+      <c r="B22" s="527"/>
       <c r="C22" s="524"/>
       <c r="D22" s="524"/>
       <c r="E22" s="524"/>
@@ -12041,7 +12041,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="524"/>
-      <c r="B23" s="546"/>
+      <c r="B23" s="527"/>
       <c r="C23" s="524"/>
       <c r="D23" s="524"/>
       <c r="E23" s="524"/>
@@ -12073,7 +12073,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="524"/>
-      <c r="B24" s="546"/>
+      <c r="B24" s="527"/>
       <c r="C24" s="524"/>
       <c r="D24" s="524"/>
       <c r="E24" s="524"/>
@@ -12105,7 +12105,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="525"/>
-      <c r="B25" s="545"/>
+      <c r="B25" s="528"/>
       <c r="C25" s="525"/>
       <c r="D25" s="525"/>
       <c r="E25" s="525"/>
@@ -12136,14 +12136,14 @@
       <c r="P25" s="236"/>
     </row>
     <row r="26" spans="1:16" s="131" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="528" t="s">
+      <c r="A26" s="534" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="528"/>
-      <c r="C26" s="528"/>
-      <c r="D26" s="528"/>
-      <c r="E26" s="528"/>
-      <c r="F26" s="528"/>
+      <c r="B26" s="534"/>
+      <c r="C26" s="534"/>
+      <c r="D26" s="534"/>
+      <c r="E26" s="534"/>
+      <c r="F26" s="534"/>
       <c r="G26" s="127"/>
       <c r="H26" s="127">
         <f>SUM(H7:H25)</f>
@@ -12237,6 +12237,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="F21:F25"/>
     <mergeCell ref="C21:C25"/>
     <mergeCell ref="B21:B25"/>
@@ -12253,27 +12274,6 @@
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="E10:E14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.27" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -12464,7 +12464,7 @@
       </c>
       <c r="D8" s="72">
         <f>'DOANH THU'!L119</f>
-        <v>395261050</v>
+        <v>394181050</v>
       </c>
       <c r="E8" s="71"/>
       <c r="F8" s="63"/>
@@ -12564,7 +12564,7 @@
       <c r="C12" s="79"/>
       <c r="D12" s="80">
         <f>D8-D9-D10</f>
-        <v>297976300</v>
+        <v>296896300</v>
       </c>
       <c r="E12" s="77"/>
       <c r="F12" s="63"/>
@@ -12866,13 +12866,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="553" t="s">
+      <c r="A1" s="585" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="553"/>
-      <c r="C1" s="553"/>
-      <c r="D1" s="553"/>
-      <c r="E1" s="553"/>
+      <c r="B1" s="585"/>
+      <c r="C1" s="585"/>
+      <c r="D1" s="585"/>
+      <c r="E1" s="585"/>
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
@@ -12900,106 +12900,106 @@
       <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="554" t="s">
+      <c r="A4" s="565" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="554"/>
-      <c r="C4" s="554"/>
-      <c r="D4" s="554"/>
-      <c r="E4" s="554"/>
-      <c r="F4" s="554"/>
-      <c r="G4" s="554"/>
-      <c r="H4" s="554"/>
-      <c r="I4" s="554"/>
-      <c r="J4" s="554"/>
-      <c r="K4" s="554"/>
-      <c r="L4" s="554"/>
+      <c r="B4" s="565"/>
+      <c r="C4" s="565"/>
+      <c r="D4" s="565"/>
+      <c r="E4" s="565"/>
+      <c r="F4" s="565"/>
+      <c r="G4" s="565"/>
+      <c r="H4" s="565"/>
+      <c r="I4" s="565"/>
+      <c r="J4" s="565"/>
+      <c r="K4" s="565"/>
+      <c r="L4" s="565"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="558"/>
-      <c r="B5" s="558"/>
-      <c r="C5" s="558"/>
-      <c r="D5" s="558"/>
-      <c r="E5" s="558"/>
-      <c r="F5" s="558"/>
-      <c r="G5" s="558"/>
-      <c r="H5" s="558"/>
-      <c r="I5" s="558"/>
-      <c r="J5" s="558"/>
-      <c r="K5" s="558"/>
-      <c r="L5" s="558"/>
+      <c r="A5" s="574"/>
+      <c r="B5" s="574"/>
+      <c r="C5" s="574"/>
+      <c r="D5" s="574"/>
+      <c r="E5" s="574"/>
+      <c r="F5" s="574"/>
+      <c r="G5" s="574"/>
+      <c r="H5" s="574"/>
+      <c r="I5" s="574"/>
+      <c r="J5" s="574"/>
+      <c r="K5" s="574"/>
+      <c r="L5" s="574"/>
     </row>
     <row r="6" spans="1:13" s="142" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="555" t="s">
+      <c r="A6" s="562" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="561" t="s">
+      <c r="B6" s="575" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="555" t="s">
+      <c r="C6" s="562" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="555" t="s">
+      <c r="D6" s="562" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="560" t="s">
+      <c r="E6" s="562"/>
+      <c r="F6" s="563" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="560"/>
-      <c r="H6" s="560"/>
-      <c r="I6" s="560"/>
-      <c r="J6" s="560"/>
-      <c r="K6" s="560"/>
-      <c r="L6" s="560"/>
+      <c r="G6" s="563"/>
+      <c r="H6" s="563"/>
+      <c r="I6" s="563"/>
+      <c r="J6" s="563"/>
+      <c r="K6" s="563"/>
+      <c r="L6" s="563"/>
     </row>
     <row r="7" spans="1:13" s="142" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="555"/>
-      <c r="B7" s="561"/>
-      <c r="C7" s="555"/>
-      <c r="D7" s="555" t="s">
+      <c r="A7" s="562"/>
+      <c r="B7" s="575"/>
+      <c r="C7" s="562"/>
+      <c r="D7" s="562" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="555" t="s">
+      <c r="E7" s="562" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="555" t="s">
+      <c r="F7" s="562" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="555" t="s">
+      <c r="G7" s="562" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="556" t="s">
+      <c r="H7" s="553" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="556" t="s">
+      <c r="I7" s="553" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="557" t="s">
+      <c r="J7" s="554" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="557"/>
-      <c r="L7" s="556" t="s">
+      <c r="K7" s="554"/>
+      <c r="L7" s="553" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="555"/>
-      <c r="B8" s="561"/>
-      <c r="C8" s="555"/>
-      <c r="D8" s="555"/>
-      <c r="E8" s="555"/>
-      <c r="F8" s="555"/>
-      <c r="G8" s="555"/>
-      <c r="H8" s="556"/>
-      <c r="I8" s="556"/>
+      <c r="A8" s="562"/>
+      <c r="B8" s="575"/>
+      <c r="C8" s="562"/>
+      <c r="D8" s="562"/>
+      <c r="E8" s="562"/>
+      <c r="F8" s="562"/>
+      <c r="G8" s="562"/>
+      <c r="H8" s="553"/>
+      <c r="I8" s="553"/>
       <c r="J8" s="168" t="s">
         <v>86</v>
       </c>
       <c r="K8" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="556"/>
+      <c r="L8" s="553"/>
     </row>
     <row r="9" spans="1:13" s="313" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="243">
@@ -13078,19 +13078,19 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="313" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="565">
+      <c r="A11" s="579">
         <v>586</v>
       </c>
-      <c r="B11" s="567">
+      <c r="B11" s="581">
         <v>43991</v>
       </c>
-      <c r="C11" s="565" t="s">
+      <c r="C11" s="579" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="565" t="s">
+      <c r="D11" s="579" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="569" t="s">
+      <c r="E11" s="583" t="s">
         <v>135</v>
       </c>
       <c r="F11" s="243" t="s">
@@ -13116,11 +13116,11 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="313" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="566"/>
-      <c r="B12" s="568"/>
-      <c r="C12" s="566"/>
-      <c r="D12" s="566"/>
-      <c r="E12" s="570"/>
+      <c r="A12" s="580"/>
+      <c r="B12" s="582"/>
+      <c r="C12" s="580"/>
+      <c r="D12" s="580"/>
+      <c r="E12" s="584"/>
       <c r="F12" s="243" t="s">
         <v>131</v>
       </c>
@@ -13372,7 +13372,7 @@
       <c r="G20" s="165"/>
       <c r="H20" s="156"/>
       <c r="I20" s="156"/>
-      <c r="J20" s="562"/>
+      <c r="J20" s="576"/>
       <c r="K20" s="157"/>
       <c r="L20" s="156"/>
     </row>
@@ -13386,7 +13386,7 @@
       <c r="G21" s="166"/>
       <c r="H21" s="158"/>
       <c r="I21" s="158"/>
-      <c r="J21" s="563"/>
+      <c r="J21" s="577"/>
       <c r="K21" s="159"/>
       <c r="L21" s="158"/>
     </row>
@@ -13400,7 +13400,7 @@
       <c r="G22" s="167"/>
       <c r="H22" s="160"/>
       <c r="I22" s="160"/>
-      <c r="J22" s="564"/>
+      <c r="J22" s="578"/>
       <c r="K22" s="161"/>
       <c r="L22" s="160"/>
     </row>
@@ -13531,16 +13531,16 @@
       <c r="L31" s="162"/>
     </row>
     <row r="32" spans="1:12" s="210" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="571" t="s">
+      <c r="A32" s="570" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="572"/>
-      <c r="C32" s="572"/>
-      <c r="D32" s="572"/>
-      <c r="E32" s="572"/>
-      <c r="F32" s="572"/>
-      <c r="G32" s="572"/>
-      <c r="H32" s="573"/>
+      <c r="B32" s="571"/>
+      <c r="C32" s="571"/>
+      <c r="D32" s="571"/>
+      <c r="E32" s="571"/>
+      <c r="F32" s="571"/>
+      <c r="G32" s="571"/>
+      <c r="H32" s="572"/>
       <c r="I32" s="211">
         <f>SUM(I9:I31)</f>
         <v>7635000</v>
@@ -13565,106 +13565,106 @@
       <c r="L33" s="217"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="554" t="s">
+      <c r="A34" s="565" t="s">
         <v>192</v>
       </c>
-      <c r="B34" s="554"/>
-      <c r="C34" s="554"/>
-      <c r="D34" s="554"/>
-      <c r="E34" s="554"/>
-      <c r="F34" s="554"/>
-      <c r="G34" s="554"/>
-      <c r="H34" s="554"/>
-      <c r="I34" s="554"/>
-      <c r="J34" s="554"/>
-      <c r="K34" s="554"/>
-      <c r="L34" s="554"/>
+      <c r="B34" s="565"/>
+      <c r="C34" s="565"/>
+      <c r="D34" s="565"/>
+      <c r="E34" s="565"/>
+      <c r="F34" s="565"/>
+      <c r="G34" s="565"/>
+      <c r="H34" s="565"/>
+      <c r="I34" s="565"/>
+      <c r="J34" s="565"/>
+      <c r="K34" s="565"/>
+      <c r="L34" s="565"/>
     </row>
     <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="558"/>
-      <c r="B35" s="558"/>
-      <c r="C35" s="558"/>
-      <c r="D35" s="558"/>
-      <c r="E35" s="558"/>
-      <c r="F35" s="558"/>
-      <c r="G35" s="558"/>
-      <c r="H35" s="558"/>
-      <c r="I35" s="558"/>
-      <c r="J35" s="558"/>
-      <c r="K35" s="558"/>
-      <c r="L35" s="558"/>
+      <c r="A35" s="574"/>
+      <c r="B35" s="574"/>
+      <c r="C35" s="574"/>
+      <c r="D35" s="574"/>
+      <c r="E35" s="574"/>
+      <c r="F35" s="574"/>
+      <c r="G35" s="574"/>
+      <c r="H35" s="574"/>
+      <c r="I35" s="574"/>
+      <c r="J35" s="574"/>
+      <c r="K35" s="574"/>
+      <c r="L35" s="574"/>
     </row>
     <row r="36" spans="1:13" s="142" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="555" t="s">
+      <c r="A36" s="562" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="561" t="s">
+      <c r="B36" s="575" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="555" t="s">
+      <c r="C36" s="562" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="555" t="s">
+      <c r="D36" s="562" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="555"/>
-      <c r="F36" s="560" t="s">
+      <c r="E36" s="562"/>
+      <c r="F36" s="563" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="560"/>
-      <c r="H36" s="560"/>
-      <c r="I36" s="560"/>
-      <c r="J36" s="560"/>
-      <c r="K36" s="560"/>
-      <c r="L36" s="560"/>
+      <c r="G36" s="563"/>
+      <c r="H36" s="563"/>
+      <c r="I36" s="563"/>
+      <c r="J36" s="563"/>
+      <c r="K36" s="563"/>
+      <c r="L36" s="563"/>
     </row>
     <row r="37" spans="1:13" s="142" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="555"/>
-      <c r="B37" s="561"/>
-      <c r="C37" s="555"/>
-      <c r="D37" s="555" t="s">
+      <c r="A37" s="562"/>
+      <c r="B37" s="575"/>
+      <c r="C37" s="562"/>
+      <c r="D37" s="562" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="555" t="s">
+      <c r="E37" s="562" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="555" t="s">
+      <c r="F37" s="562" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="555" t="s">
+      <c r="G37" s="562" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="556" t="s">
+      <c r="H37" s="553" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="556" t="s">
+      <c r="I37" s="553" t="s">
         <v>44</v>
       </c>
-      <c r="J37" s="557" t="s">
+      <c r="J37" s="554" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="557"/>
-      <c r="L37" s="556" t="s">
+      <c r="K37" s="554"/>
+      <c r="L37" s="553" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="555"/>
-      <c r="B38" s="561"/>
-      <c r="C38" s="555"/>
-      <c r="D38" s="555"/>
-      <c r="E38" s="555"/>
-      <c r="F38" s="555"/>
-      <c r="G38" s="555"/>
-      <c r="H38" s="556"/>
-      <c r="I38" s="556"/>
+      <c r="A38" s="562"/>
+      <c r="B38" s="575"/>
+      <c r="C38" s="562"/>
+      <c r="D38" s="562"/>
+      <c r="E38" s="562"/>
+      <c r="F38" s="562"/>
+      <c r="G38" s="562"/>
+      <c r="H38" s="553"/>
+      <c r="I38" s="553"/>
       <c r="J38" s="307" t="s">
         <v>86</v>
       </c>
       <c r="K38" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="L38" s="556"/>
+      <c r="L38" s="553"/>
     </row>
     <row r="39" spans="1:13" s="313" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="243">
@@ -13706,16 +13706,16 @@
       <c r="M39" s="314"/>
     </row>
     <row r="40" spans="1:13" s="210" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="571" t="s">
+      <c r="A40" s="570" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="572"/>
-      <c r="C40" s="572"/>
-      <c r="D40" s="572"/>
-      <c r="E40" s="572"/>
-      <c r="F40" s="572"/>
-      <c r="G40" s="572"/>
-      <c r="H40" s="573"/>
+      <c r="B40" s="571"/>
+      <c r="C40" s="571"/>
+      <c r="D40" s="571"/>
+      <c r="E40" s="571"/>
+      <c r="F40" s="571"/>
+      <c r="G40" s="571"/>
+      <c r="H40" s="572"/>
       <c r="I40" s="211">
         <f>SUM(I39)</f>
         <v>1860000</v>
@@ -13754,20 +13754,20 @@
       <c r="L42" s="217"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="554" t="s">
+      <c r="A43" s="565" t="s">
         <v>241</v>
       </c>
-      <c r="B43" s="554"/>
-      <c r="C43" s="554"/>
-      <c r="D43" s="554"/>
-      <c r="E43" s="554"/>
-      <c r="F43" s="554"/>
-      <c r="G43" s="554"/>
-      <c r="H43" s="554"/>
-      <c r="I43" s="554"/>
-      <c r="J43" s="554"/>
-      <c r="K43" s="554"/>
-      <c r="L43" s="554"/>
+      <c r="B43" s="565"/>
+      <c r="C43" s="565"/>
+      <c r="D43" s="565"/>
+      <c r="E43" s="565"/>
+      <c r="F43" s="565"/>
+      <c r="G43" s="565"/>
+      <c r="H43" s="565"/>
+      <c r="I43" s="565"/>
+      <c r="J43" s="565"/>
+      <c r="K43" s="565"/>
+      <c r="L43" s="565"/>
     </row>
     <row r="44" spans="1:13" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="322"/>
@@ -13782,74 +13782,74 @@
       <c r="L44" s="217"/>
     </row>
     <row r="45" spans="1:13" s="142" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="577"/>
-      <c r="B45" s="578" t="s">
+      <c r="A45" s="568"/>
+      <c r="B45" s="569" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="555" t="s">
+      <c r="C45" s="562" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="555" t="s">
+      <c r="D45" s="562" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="555"/>
-      <c r="F45" s="560" t="s">
+      <c r="E45" s="562"/>
+      <c r="F45" s="563" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="560"/>
-      <c r="H45" s="560"/>
-      <c r="I45" s="560"/>
-      <c r="J45" s="560"/>
-      <c r="K45" s="560"/>
-      <c r="L45" s="585"/>
+      <c r="G45" s="563"/>
+      <c r="H45" s="563"/>
+      <c r="I45" s="563"/>
+      <c r="J45" s="563"/>
+      <c r="K45" s="563"/>
+      <c r="L45" s="564"/>
     </row>
     <row r="46" spans="1:13" s="142" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="577"/>
-      <c r="B46" s="578"/>
-      <c r="C46" s="555"/>
-      <c r="D46" s="555" t="s">
+      <c r="A46" s="568"/>
+      <c r="B46" s="569"/>
+      <c r="C46" s="562"/>
+      <c r="D46" s="562" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="555" t="s">
+      <c r="E46" s="562" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="555" t="s">
+      <c r="F46" s="562" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="555" t="s">
+      <c r="G46" s="562" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="556" t="s">
+      <c r="H46" s="553" t="s">
         <v>33</v>
       </c>
-      <c r="I46" s="556" t="s">
+      <c r="I46" s="553" t="s">
         <v>44</v>
       </c>
-      <c r="J46" s="557" t="s">
+      <c r="J46" s="554" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="557"/>
-      <c r="L46" s="556" t="s">
+      <c r="K46" s="554"/>
+      <c r="L46" s="553" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="577"/>
-      <c r="B47" s="578"/>
-      <c r="C47" s="555"/>
-      <c r="D47" s="555"/>
-      <c r="E47" s="555"/>
-      <c r="F47" s="555"/>
-      <c r="G47" s="555"/>
-      <c r="H47" s="556"/>
-      <c r="I47" s="556"/>
+      <c r="A47" s="568"/>
+      <c r="B47" s="569"/>
+      <c r="C47" s="562"/>
+      <c r="D47" s="562"/>
+      <c r="E47" s="562"/>
+      <c r="F47" s="562"/>
+      <c r="G47" s="562"/>
+      <c r="H47" s="553"/>
+      <c r="I47" s="553"/>
       <c r="J47" s="321" t="s">
         <v>86</v>
       </c>
       <c r="K47" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="L47" s="556"/>
+      <c r="L47" s="553"/>
     </row>
     <row r="48" spans="1:13" s="142" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="340"/>
@@ -14046,11 +14046,11 @@
       <c r="L54" s="330"/>
     </row>
     <row r="55" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="554" t="s">
+      <c r="A55" s="565" t="s">
         <v>193</v>
       </c>
-      <c r="B55" s="554"/>
-      <c r="C55" s="554"/>
+      <c r="B55" s="565"/>
+      <c r="C55" s="565"/>
       <c r="D55" s="306"/>
       <c r="E55" s="306"/>
       <c r="F55" s="306"/>
@@ -14063,131 +14063,131 @@
       <c r="A56" s="306"/>
       <c r="B56" s="306"/>
       <c r="C56" s="306"/>
-      <c r="D56" s="575" t="s">
+      <c r="D56" s="566" t="s">
         <v>194</v>
       </c>
-      <c r="E56" s="575"/>
-      <c r="F56" s="575"/>
-      <c r="G56" s="575"/>
-      <c r="H56" s="575"/>
-      <c r="I56" s="575"/>
-      <c r="J56" s="576" t="s">
+      <c r="E56" s="566"/>
+      <c r="F56" s="566"/>
+      <c r="G56" s="566"/>
+      <c r="H56" s="566"/>
+      <c r="I56" s="566"/>
+      <c r="J56" s="567" t="s">
         <v>51</v>
       </c>
-      <c r="K56" s="576"/>
+      <c r="K56" s="567"/>
       <c r="L56" s="217"/>
     </row>
     <row r="57" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="306"/>
       <c r="B57" s="306"/>
       <c r="C57" s="306"/>
-      <c r="D57" s="574" t="s">
+      <c r="D57" s="555" t="s">
         <v>195</v>
       </c>
-      <c r="E57" s="574"/>
-      <c r="F57" s="574"/>
-      <c r="G57" s="574"/>
-      <c r="H57" s="574"/>
-      <c r="I57" s="574"/>
-      <c r="J57" s="582">
+      <c r="E57" s="555"/>
+      <c r="F57" s="555"/>
+      <c r="G57" s="555"/>
+      <c r="H57" s="555"/>
+      <c r="I57" s="555"/>
+      <c r="J57" s="559">
         <v>2112246</v>
       </c>
-      <c r="K57" s="582"/>
+      <c r="K57" s="559"/>
       <c r="L57" s="217"/>
     </row>
     <row r="58" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="306"/>
       <c r="B58" s="306"/>
       <c r="C58" s="306"/>
-      <c r="D58" s="574" t="s">
+      <c r="D58" s="555" t="s">
         <v>196</v>
       </c>
-      <c r="E58" s="574"/>
-      <c r="F58" s="574"/>
-      <c r="G58" s="574"/>
-      <c r="H58" s="574"/>
-      <c r="I58" s="574"/>
-      <c r="J58" s="582">
+      <c r="E58" s="555"/>
+      <c r="F58" s="555"/>
+      <c r="G58" s="555"/>
+      <c r="H58" s="555"/>
+      <c r="I58" s="555"/>
+      <c r="J58" s="559">
         <f>L32</f>
         <v>4504650.0000000009</v>
       </c>
-      <c r="K58" s="582"/>
+      <c r="K58" s="559"/>
       <c r="L58" s="217"/>
     </row>
     <row r="59" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="255"/>
       <c r="B59" s="255"/>
       <c r="C59" s="255"/>
-      <c r="D59" s="574" t="s">
+      <c r="D59" s="555" t="s">
         <v>197</v>
       </c>
-      <c r="E59" s="574"/>
-      <c r="F59" s="574"/>
-      <c r="G59" s="574"/>
-      <c r="H59" s="574"/>
-      <c r="I59" s="574"/>
-      <c r="J59" s="582">
+      <c r="E59" s="555"/>
+      <c r="F59" s="555"/>
+      <c r="G59" s="555"/>
+      <c r="H59" s="555"/>
+      <c r="I59" s="555"/>
+      <c r="J59" s="559">
         <f>L40</f>
         <v>1860000</v>
       </c>
-      <c r="K59" s="582"/>
+      <c r="K59" s="559"/>
       <c r="L59" s="217"/>
     </row>
     <row r="60" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="306"/>
       <c r="B60" s="306"/>
       <c r="C60" s="306"/>
-      <c r="D60" s="579" t="s">
+      <c r="D60" s="556" t="s">
         <v>199</v>
       </c>
-      <c r="E60" s="580"/>
-      <c r="F60" s="580"/>
-      <c r="G60" s="580"/>
-      <c r="H60" s="580"/>
-      <c r="I60" s="581"/>
-      <c r="J60" s="583">
+      <c r="E60" s="557"/>
+      <c r="F60" s="557"/>
+      <c r="G60" s="557"/>
+      <c r="H60" s="557"/>
+      <c r="I60" s="558"/>
+      <c r="J60" s="560">
         <f>'Bảng lương'!L17</f>
         <v>2395769.230769231</v>
       </c>
-      <c r="K60" s="584"/>
+      <c r="K60" s="561"/>
       <c r="L60" s="217"/>
     </row>
     <row r="61" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="306"/>
       <c r="B61" s="306"/>
       <c r="C61" s="306"/>
-      <c r="D61" s="579" t="s">
+      <c r="D61" s="556" t="s">
         <v>244</v>
       </c>
-      <c r="E61" s="580"/>
-      <c r="F61" s="580"/>
-      <c r="G61" s="580"/>
-      <c r="H61" s="580"/>
-      <c r="I61" s="581"/>
-      <c r="J61" s="583">
+      <c r="E61" s="557"/>
+      <c r="F61" s="557"/>
+      <c r="G61" s="557"/>
+      <c r="H61" s="557"/>
+      <c r="I61" s="558"/>
+      <c r="J61" s="560">
         <f>L53</f>
         <v>2530000</v>
       </c>
-      <c r="K61" s="584"/>
+      <c r="K61" s="561"/>
       <c r="L61" s="319"/>
     </row>
     <row r="62" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="255"/>
       <c r="B62" s="255"/>
       <c r="C62" s="255"/>
-      <c r="D62" s="574" t="s">
+      <c r="D62" s="555" t="s">
         <v>198</v>
       </c>
-      <c r="E62" s="574"/>
-      <c r="F62" s="574"/>
-      <c r="G62" s="574"/>
-      <c r="H62" s="574"/>
-      <c r="I62" s="574"/>
-      <c r="J62" s="582">
+      <c r="E62" s="555"/>
+      <c r="F62" s="555"/>
+      <c r="G62" s="555"/>
+      <c r="H62" s="555"/>
+      <c r="I62" s="555"/>
+      <c r="J62" s="559">
         <f>J57+J58+J59+J61-J60</f>
         <v>8611126.7692307681</v>
       </c>
-      <c r="K62" s="582"/>
+      <c r="K62" s="559"/>
       <c r="L62" s="217"/>
     </row>
     <row r="63" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
@@ -14219,19 +14219,19 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="92"/>
-      <c r="B65" s="554" t="s">
+      <c r="B65" s="565" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="554"/>
-      <c r="D65" s="554"/>
+      <c r="C65" s="565"/>
+      <c r="D65" s="565"/>
       <c r="E65" s="92"/>
       <c r="F65" s="92"/>
       <c r="G65" s="92"/>
       <c r="H65" s="92"/>
-      <c r="I65" s="554" t="s">
+      <c r="I65" s="565" t="s">
         <v>117</v>
       </c>
-      <c r="J65" s="554"/>
+      <c r="J65" s="565"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="92"/>
@@ -14311,8 +14311,8 @@
       <c r="I72" s="214"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="559"/>
-      <c r="B73" s="559"/>
+      <c r="A73" s="573"/>
+      <c r="B73" s="573"/>
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
@@ -14322,8 +14322,8 @@
       <c r="H75" s="215"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="559"/>
-      <c r="B77" s="559"/>
+      <c r="A77" s="573"/>
+      <c r="B77" s="573"/>
       <c r="E77" s="36"/>
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
@@ -14331,6 +14331,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:L36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
     <mergeCell ref="I37:I38"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="D59:I59"/>
@@ -14347,62 +14403,6 @@
     <mergeCell ref="F45:L45"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:L36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A5:L5"/>
   </mergeCells>
   <pageMargins left="0.94" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -14438,13 +14438,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="553" t="s">
+      <c r="A1" s="585" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="553"/>
-      <c r="C1" s="553"/>
-      <c r="D1" s="553"/>
-      <c r="E1" s="553"/>
+      <c r="B1" s="585"/>
+      <c r="C1" s="585"/>
+      <c r="D1" s="585"/>
+      <c r="E1" s="585"/>
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
@@ -14472,121 +14472,121 @@
       <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="554" t="s">
+      <c r="A4" s="565" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="554"/>
-      <c r="C4" s="554"/>
-      <c r="D4" s="554"/>
-      <c r="E4" s="554"/>
-      <c r="F4" s="554"/>
-      <c r="G4" s="554"/>
-      <c r="H4" s="554"/>
-      <c r="I4" s="554"/>
-      <c r="J4" s="554"/>
-      <c r="K4" s="554"/>
-      <c r="L4" s="554"/>
+      <c r="B4" s="565"/>
+      <c r="C4" s="565"/>
+      <c r="D4" s="565"/>
+      <c r="E4" s="565"/>
+      <c r="F4" s="565"/>
+      <c r="G4" s="565"/>
+      <c r="H4" s="565"/>
+      <c r="I4" s="565"/>
+      <c r="J4" s="565"/>
+      <c r="K4" s="565"/>
+      <c r="L4" s="565"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="558"/>
-      <c r="B5" s="558"/>
-      <c r="C5" s="558"/>
-      <c r="D5" s="558"/>
-      <c r="E5" s="558"/>
-      <c r="F5" s="558"/>
-      <c r="G5" s="558"/>
-      <c r="H5" s="558"/>
-      <c r="I5" s="558"/>
-      <c r="J5" s="558"/>
-      <c r="K5" s="558"/>
-      <c r="L5" s="558"/>
+      <c r="A5" s="574"/>
+      <c r="B5" s="574"/>
+      <c r="C5" s="574"/>
+      <c r="D5" s="574"/>
+      <c r="E5" s="574"/>
+      <c r="F5" s="574"/>
+      <c r="G5" s="574"/>
+      <c r="H5" s="574"/>
+      <c r="I5" s="574"/>
+      <c r="J5" s="574"/>
+      <c r="K5" s="574"/>
+      <c r="L5" s="574"/>
     </row>
     <row r="6" spans="1:13" s="142" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="555" t="s">
+      <c r="A6" s="562" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="561" t="s">
+      <c r="B6" s="575" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="555" t="s">
+      <c r="C6" s="562" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="555" t="s">
+      <c r="D6" s="562" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="560" t="s">
+      <c r="E6" s="562"/>
+      <c r="F6" s="563" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="560"/>
-      <c r="H6" s="560"/>
-      <c r="I6" s="560"/>
-      <c r="J6" s="560"/>
-      <c r="K6" s="560"/>
-      <c r="L6" s="560"/>
+      <c r="G6" s="563"/>
+      <c r="H6" s="563"/>
+      <c r="I6" s="563"/>
+      <c r="J6" s="563"/>
+      <c r="K6" s="563"/>
+      <c r="L6" s="563"/>
     </row>
     <row r="7" spans="1:13" s="142" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="555"/>
-      <c r="B7" s="561"/>
-      <c r="C7" s="555"/>
-      <c r="D7" s="555" t="s">
+      <c r="A7" s="562"/>
+      <c r="B7" s="575"/>
+      <c r="C7" s="562"/>
+      <c r="D7" s="562" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="555" t="s">
+      <c r="E7" s="562" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="555" t="s">
+      <c r="F7" s="562" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="555" t="s">
+      <c r="G7" s="562" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="556" t="s">
+      <c r="H7" s="553" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="556" t="s">
+      <c r="I7" s="553" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="557" t="s">
+      <c r="J7" s="554" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="557"/>
-      <c r="L7" s="586" t="s">
+      <c r="K7" s="554"/>
+      <c r="L7" s="592" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="142" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="555"/>
-      <c r="B8" s="561"/>
-      <c r="C8" s="555"/>
-      <c r="D8" s="555"/>
-      <c r="E8" s="555"/>
-      <c r="F8" s="555"/>
-      <c r="G8" s="555"/>
-      <c r="H8" s="556"/>
-      <c r="I8" s="556"/>
+      <c r="A8" s="562"/>
+      <c r="B8" s="575"/>
+      <c r="C8" s="562"/>
+      <c r="D8" s="562"/>
+      <c r="E8" s="562"/>
+      <c r="F8" s="562"/>
+      <c r="G8" s="562"/>
+      <c r="H8" s="553"/>
+      <c r="I8" s="553"/>
       <c r="J8" s="321" t="s">
         <v>86</v>
       </c>
       <c r="K8" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="587"/>
+      <c r="L8" s="593"/>
     </row>
     <row r="9" spans="1:13" s="313" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="565">
+      <c r="A9" s="579">
         <v>557</v>
       </c>
-      <c r="B9" s="567">
+      <c r="B9" s="581">
         <v>43981</v>
       </c>
-      <c r="C9" s="588" t="s">
+      <c r="C9" s="586" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="588" t="s">
+      <c r="D9" s="586" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="588" t="s">
+      <c r="E9" s="586" t="s">
         <v>135</v>
       </c>
       <c r="F9" s="243" t="s">
@@ -14611,11 +14611,11 @@
       <c r="M9" s="314"/>
     </row>
     <row r="10" spans="1:13" s="313" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="566"/>
-      <c r="B10" s="568"/>
-      <c r="C10" s="589"/>
-      <c r="D10" s="589"/>
-      <c r="E10" s="589"/>
+      <c r="A10" s="580"/>
+      <c r="B10" s="582"/>
+      <c r="C10" s="587"/>
+      <c r="D10" s="587"/>
+      <c r="E10" s="587"/>
       <c r="F10" s="243" t="s">
         <v>136</v>
       </c>
@@ -14707,19 +14707,19 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="313" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="565">
+      <c r="A13" s="579">
         <v>1154</v>
       </c>
-      <c r="B13" s="592">
+      <c r="B13" s="589">
         <v>44007</v>
       </c>
-      <c r="C13" s="565" t="s">
+      <c r="C13" s="579" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="588" t="s">
+      <c r="D13" s="586" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="588" t="s">
+      <c r="E13" s="586" t="s">
         <v>135</v>
       </c>
       <c r="F13" s="243" t="s">
@@ -14743,11 +14743,11 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="313" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="591"/>
-      <c r="B14" s="593"/>
-      <c r="C14" s="591"/>
-      <c r="D14" s="590"/>
-      <c r="E14" s="590"/>
+      <c r="A14" s="588"/>
+      <c r="B14" s="590"/>
+      <c r="C14" s="588"/>
+      <c r="D14" s="594"/>
+      <c r="E14" s="594"/>
       <c r="F14" s="243" t="s">
         <v>136</v>
       </c>
@@ -14769,11 +14769,11 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="313" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="566"/>
-      <c r="B15" s="594"/>
-      <c r="C15" s="566"/>
-      <c r="D15" s="589"/>
-      <c r="E15" s="589"/>
+      <c r="A15" s="580"/>
+      <c r="B15" s="591"/>
+      <c r="C15" s="580"/>
+      <c r="D15" s="587"/>
+      <c r="E15" s="587"/>
       <c r="F15" s="243" t="s">
         <v>137</v>
       </c>
@@ -14831,16 +14831,16 @@
       </c>
     </row>
     <row r="17" spans="1:12" s="210" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="571" t="s">
+      <c r="A17" s="570" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="572"/>
-      <c r="C17" s="572"/>
-      <c r="D17" s="572"/>
-      <c r="E17" s="572"/>
-      <c r="F17" s="572"/>
-      <c r="G17" s="572"/>
-      <c r="H17" s="573"/>
+      <c r="B17" s="571"/>
+      <c r="C17" s="571"/>
+      <c r="D17" s="571"/>
+      <c r="E17" s="571"/>
+      <c r="F17" s="571"/>
+      <c r="G17" s="571"/>
+      <c r="H17" s="572"/>
       <c r="I17" s="211">
         <f>SUM(I9:I16)</f>
         <v>4980000</v>
@@ -14890,11 +14890,11 @@
       <c r="L20" s="330"/>
     </row>
     <row r="21" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="554" t="s">
+      <c r="A21" s="565" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="554"/>
-      <c r="C21" s="554"/>
+      <c r="B21" s="565"/>
+      <c r="C21" s="565"/>
       <c r="D21" s="322"/>
       <c r="E21" s="322"/>
       <c r="F21" s="322"/>
@@ -14907,75 +14907,75 @@
       <c r="A22" s="322"/>
       <c r="B22" s="322"/>
       <c r="C22" s="322"/>
-      <c r="D22" s="575" t="s">
+      <c r="D22" s="566" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="575"/>
-      <c r="F22" s="575"/>
-      <c r="G22" s="575"/>
-      <c r="H22" s="575"/>
-      <c r="I22" s="575"/>
-      <c r="J22" s="576" t="s">
+      <c r="E22" s="566"/>
+      <c r="F22" s="566"/>
+      <c r="G22" s="566"/>
+      <c r="H22" s="566"/>
+      <c r="I22" s="566"/>
+      <c r="J22" s="567" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="576"/>
+      <c r="K22" s="567"/>
       <c r="L22" s="217"/>
     </row>
     <row r="23" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="322"/>
       <c r="B23" s="322"/>
       <c r="C23" s="322"/>
-      <c r="D23" s="574" t="s">
+      <c r="D23" s="555" t="s">
         <v>196</v>
       </c>
-      <c r="E23" s="574"/>
-      <c r="F23" s="574"/>
-      <c r="G23" s="574"/>
-      <c r="H23" s="574"/>
-      <c r="I23" s="574"/>
-      <c r="J23" s="582">
+      <c r="E23" s="555"/>
+      <c r="F23" s="555"/>
+      <c r="G23" s="555"/>
+      <c r="H23" s="555"/>
+      <c r="I23" s="555"/>
+      <c r="J23" s="559">
         <f>L17</f>
         <v>2938200.0000000005</v>
       </c>
-      <c r="K23" s="582"/>
+      <c r="K23" s="559"/>
       <c r="L23" s="217"/>
     </row>
     <row r="24" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="322"/>
       <c r="B24" s="322"/>
       <c r="C24" s="322"/>
-      <c r="D24" s="579" t="s">
+      <c r="D24" s="556" t="s">
         <v>199</v>
       </c>
-      <c r="E24" s="580"/>
-      <c r="F24" s="580"/>
-      <c r="G24" s="580"/>
-      <c r="H24" s="580"/>
-      <c r="I24" s="581"/>
-      <c r="J24" s="583">
+      <c r="E24" s="557"/>
+      <c r="F24" s="557"/>
+      <c r="G24" s="557"/>
+      <c r="H24" s="557"/>
+      <c r="I24" s="558"/>
+      <c r="J24" s="560">
         <f>'Bảng lương'!L16</f>
         <v>2107692.307692308</v>
       </c>
-      <c r="K24" s="584"/>
+      <c r="K24" s="561"/>
       <c r="L24" s="217"/>
     </row>
     <row r="25" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="322"/>
       <c r="B25" s="322"/>
       <c r="C25" s="322"/>
-      <c r="D25" s="574" t="s">
+      <c r="D25" s="555" t="s">
         <v>245</v>
       </c>
-      <c r="E25" s="574"/>
-      <c r="F25" s="574"/>
-      <c r="G25" s="574"/>
-      <c r="H25" s="574"/>
-      <c r="I25" s="574"/>
-      <c r="J25" s="582">
+      <c r="E25" s="555"/>
+      <c r="F25" s="555"/>
+      <c r="G25" s="555"/>
+      <c r="H25" s="555"/>
+      <c r="I25" s="555"/>
+      <c r="J25" s="559">
         <f>J23-J24</f>
         <v>830507.69230769249</v>
       </c>
-      <c r="K25" s="582"/>
+      <c r="K25" s="559"/>
       <c r="L25" s="217"/>
     </row>
     <row r="26" spans="1:12" s="218" customFormat="1" x14ac:dyDescent="0.25">
@@ -15004,19 +15004,19 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="322"/>
-      <c r="B28" s="554" t="s">
+      <c r="B28" s="565" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="554"/>
-      <c r="D28" s="554"/>
+      <c r="C28" s="565"/>
+      <c r="D28" s="565"/>
       <c r="E28" s="322"/>
       <c r="F28" s="322"/>
       <c r="G28" s="322"/>
       <c r="H28" s="322"/>
-      <c r="I28" s="554" t="s">
+      <c r="I28" s="565" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="554"/>
+      <c r="J28" s="565"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="322"/>
@@ -15096,8 +15096,8 @@
       <c r="I35" s="214"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="559"/>
-      <c r="B36" s="559"/>
+      <c r="A36" s="573"/>
+      <c r="B36" s="573"/>
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
@@ -15107,8 +15107,8 @@
       <c r="H38" s="215"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="559"/>
-      <c r="B40" s="559"/>
+      <c r="A40" s="573"/>
+      <c r="B40" s="573"/>
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
@@ -15116,23 +15116,14 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
     <mergeCell ref="D22:I22"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="A17:H17"/>
@@ -15148,14 +15139,23 @@
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -15696,16 +15696,16 @@
       <c r="C1" s="170"/>
       <c r="D1" s="170"/>
       <c r="E1" s="170"/>
-      <c r="Z1" s="613" t="s">
+      <c r="Z1" s="600" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="614"/>
-      <c r="AB1" s="614"/>
-      <c r="AC1" s="614"/>
-      <c r="AD1" s="614"/>
-      <c r="AE1" s="614"/>
-      <c r="AF1" s="614"/>
-      <c r="AG1" s="615"/>
+      <c r="AA1" s="601"/>
+      <c r="AB1" s="601"/>
+      <c r="AC1" s="601"/>
+      <c r="AD1" s="601"/>
+      <c r="AE1" s="601"/>
+      <c r="AF1" s="601"/>
+      <c r="AG1" s="602"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="173" t="s">
@@ -15715,18 +15715,18 @@
       <c r="C2" s="174"/>
       <c r="D2" s="174"/>
       <c r="E2" s="174"/>
-      <c r="Z2" s="596" t="s">
+      <c r="Z2" s="595" t="s">
         <v>89</v>
       </c>
-      <c r="AA2" s="597"/>
-      <c r="AB2" s="597"/>
-      <c r="AC2" s="597"/>
-      <c r="AD2" s="597"/>
-      <c r="AE2" s="598"/>
-      <c r="AF2" s="599" t="s">
+      <c r="AA2" s="596"/>
+      <c r="AB2" s="596"/>
+      <c r="AC2" s="596"/>
+      <c r="AD2" s="596"/>
+      <c r="AE2" s="597"/>
+      <c r="AF2" s="598" t="s">
         <v>90</v>
       </c>
-      <c r="AG2" s="600"/>
+      <c r="AG2" s="599"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="173" t="s">
@@ -15736,18 +15736,18 @@
       <c r="C3" s="83"/>
       <c r="D3" s="83"/>
       <c r="E3" s="83"/>
-      <c r="Z3" s="596" t="s">
+      <c r="Z3" s="595" t="s">
         <v>92</v>
       </c>
-      <c r="AA3" s="597"/>
-      <c r="AB3" s="597"/>
-      <c r="AC3" s="597"/>
-      <c r="AD3" s="597"/>
-      <c r="AE3" s="598"/>
-      <c r="AF3" s="599" t="s">
+      <c r="AA3" s="596"/>
+      <c r="AB3" s="596"/>
+      <c r="AC3" s="596"/>
+      <c r="AD3" s="596"/>
+      <c r="AE3" s="597"/>
+      <c r="AF3" s="598" t="s">
         <v>93</v>
       </c>
-      <c r="AG3" s="600"/>
+      <c r="AG3" s="599"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="173" t="s">
@@ -15760,18 +15760,18 @@
       <c r="T4" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="Z4" s="596" t="s">
+      <c r="Z4" s="595" t="s">
         <v>95</v>
       </c>
-      <c r="AA4" s="597"/>
-      <c r="AB4" s="597"/>
-      <c r="AC4" s="597"/>
-      <c r="AD4" s="597"/>
-      <c r="AE4" s="598"/>
-      <c r="AF4" s="599" t="s">
+      <c r="AA4" s="596"/>
+      <c r="AB4" s="596"/>
+      <c r="AC4" s="596"/>
+      <c r="AD4" s="596"/>
+      <c r="AE4" s="597"/>
+      <c r="AF4" s="598" t="s">
         <v>96</v>
       </c>
-      <c r="AG4" s="600"/>
+      <c r="AG4" s="599"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="173" t="s">
@@ -15781,18 +15781,18 @@
       <c r="C5" s="83"/>
       <c r="D5" s="83"/>
       <c r="E5" s="83"/>
-      <c r="Z5" s="596" t="s">
+      <c r="Z5" s="595" t="s">
         <v>98</v>
       </c>
-      <c r="AA5" s="597"/>
-      <c r="AB5" s="597"/>
-      <c r="AC5" s="597"/>
-      <c r="AD5" s="597"/>
-      <c r="AE5" s="598"/>
-      <c r="AF5" s="599" t="s">
+      <c r="AA5" s="596"/>
+      <c r="AB5" s="596"/>
+      <c r="AC5" s="596"/>
+      <c r="AD5" s="596"/>
+      <c r="AE5" s="597"/>
+      <c r="AF5" s="598" t="s">
         <v>99</v>
       </c>
-      <c r="AG5" s="600"/>
+      <c r="AG5" s="599"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="175"/>
@@ -15802,93 +15802,93 @@
       <c r="E6" s="175"/>
     </row>
     <row r="7" spans="1:40" s="178" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="601" t="s">
+      <c r="A7" s="604" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="601"/>
-      <c r="C7" s="601"/>
-      <c r="D7" s="601"/>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="601"/>
-      <c r="I7" s="601"/>
-      <c r="J7" s="601"/>
-      <c r="K7" s="601"/>
-      <c r="L7" s="601"/>
-      <c r="M7" s="601"/>
-      <c r="N7" s="601"/>
-      <c r="O7" s="601"/>
-      <c r="P7" s="601"/>
-      <c r="Q7" s="601"/>
-      <c r="R7" s="601"/>
-      <c r="S7" s="601"/>
-      <c r="T7" s="601"/>
-      <c r="U7" s="601"/>
-      <c r="V7" s="601"/>
-      <c r="W7" s="601"/>
-      <c r="X7" s="601"/>
-      <c r="Y7" s="601"/>
-      <c r="Z7" s="601"/>
-      <c r="AA7" s="601"/>
-      <c r="AB7" s="601"/>
-      <c r="AC7" s="601"/>
-      <c r="AD7" s="601"/>
-      <c r="AE7" s="601"/>
-      <c r="AF7" s="601"/>
-      <c r="AG7" s="601"/>
-      <c r="AH7" s="601"/>
-      <c r="AI7" s="601"/>
-      <c r="AJ7" s="601"/>
-      <c r="AK7" s="601"/>
-      <c r="AL7" s="601"/>
-      <c r="AM7" s="601"/>
+      <c r="B7" s="604"/>
+      <c r="C7" s="604"/>
+      <c r="D7" s="604"/>
+      <c r="E7" s="604"/>
+      <c r="F7" s="604"/>
+      <c r="G7" s="604"/>
+      <c r="H7" s="604"/>
+      <c r="I7" s="604"/>
+      <c r="J7" s="604"/>
+      <c r="K7" s="604"/>
+      <c r="L7" s="604"/>
+      <c r="M7" s="604"/>
+      <c r="N7" s="604"/>
+      <c r="O7" s="604"/>
+      <c r="P7" s="604"/>
+      <c r="Q7" s="604"/>
+      <c r="R7" s="604"/>
+      <c r="S7" s="604"/>
+      <c r="T7" s="604"/>
+      <c r="U7" s="604"/>
+      <c r="V7" s="604"/>
+      <c r="W7" s="604"/>
+      <c r="X7" s="604"/>
+      <c r="Y7" s="604"/>
+      <c r="Z7" s="604"/>
+      <c r="AA7" s="604"/>
+      <c r="AB7" s="604"/>
+      <c r="AC7" s="604"/>
+      <c r="AD7" s="604"/>
+      <c r="AE7" s="604"/>
+      <c r="AF7" s="604"/>
+      <c r="AG7" s="604"/>
+      <c r="AH7" s="604"/>
+      <c r="AI7" s="604"/>
+      <c r="AJ7" s="604"/>
+      <c r="AK7" s="604"/>
+      <c r="AL7" s="604"/>
+      <c r="AM7" s="604"/>
       <c r="AN7" s="177"/>
     </row>
     <row r="9" spans="1:40" s="183" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="602" t="s">
+      <c r="A9" s="605" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="602" t="s">
+      <c r="B9" s="605" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="602" t="s">
+      <c r="C9" s="605" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="605" t="s">
+      <c r="D9" s="608" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="606"/>
-      <c r="F9" s="606"/>
-      <c r="G9" s="606"/>
-      <c r="H9" s="606"/>
-      <c r="I9" s="606"/>
-      <c r="J9" s="606"/>
-      <c r="K9" s="606"/>
-      <c r="L9" s="606"/>
-      <c r="M9" s="606"/>
-      <c r="N9" s="606"/>
-      <c r="O9" s="606"/>
-      <c r="P9" s="606"/>
-      <c r="Q9" s="606"/>
-      <c r="R9" s="606"/>
-      <c r="S9" s="606"/>
-      <c r="T9" s="606"/>
-      <c r="U9" s="606"/>
-      <c r="V9" s="606"/>
-      <c r="W9" s="606"/>
-      <c r="X9" s="606"/>
-      <c r="Y9" s="606"/>
-      <c r="Z9" s="606"/>
-      <c r="AA9" s="606"/>
-      <c r="AB9" s="606"/>
-      <c r="AC9" s="606"/>
-      <c r="AD9" s="606"/>
-      <c r="AE9" s="606"/>
-      <c r="AF9" s="606"/>
-      <c r="AG9" s="606"/>
-      <c r="AH9" s="607"/>
-      <c r="AI9" s="608" t="s">
+      <c r="E9" s="609"/>
+      <c r="F9" s="609"/>
+      <c r="G9" s="609"/>
+      <c r="H9" s="609"/>
+      <c r="I9" s="609"/>
+      <c r="J9" s="609"/>
+      <c r="K9" s="609"/>
+      <c r="L9" s="609"/>
+      <c r="M9" s="609"/>
+      <c r="N9" s="609"/>
+      <c r="O9" s="609"/>
+      <c r="P9" s="609"/>
+      <c r="Q9" s="609"/>
+      <c r="R9" s="609"/>
+      <c r="S9" s="609"/>
+      <c r="T9" s="609"/>
+      <c r="U9" s="609"/>
+      <c r="V9" s="609"/>
+      <c r="W9" s="609"/>
+      <c r="X9" s="609"/>
+      <c r="Y9" s="609"/>
+      <c r="Z9" s="609"/>
+      <c r="AA9" s="609"/>
+      <c r="AB9" s="609"/>
+      <c r="AC9" s="609"/>
+      <c r="AD9" s="609"/>
+      <c r="AE9" s="609"/>
+      <c r="AF9" s="609"/>
+      <c r="AG9" s="609"/>
+      <c r="AH9" s="610"/>
+      <c r="AI9" s="611" t="s">
         <v>104</v>
       </c>
       <c r="AJ9" s="179"/>
@@ -15898,9 +15898,9 @@
       <c r="AN9" s="182"/>
     </row>
     <row r="10" spans="1:40" s="183" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="603"/>
-      <c r="B10" s="603"/>
-      <c r="C10" s="603"/>
+      <c r="A10" s="606"/>
+      <c r="B10" s="606"/>
+      <c r="C10" s="606"/>
       <c r="D10" s="184">
         <v>1</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>30</v>
       </c>
       <c r="AH10" s="184"/>
-      <c r="AI10" s="608"/>
+      <c r="AI10" s="611"/>
       <c r="AJ10" s="185"/>
       <c r="AK10" s="181"/>
       <c r="AL10" s="181"/>
@@ -16000,9 +16000,9 @@
       <c r="AN10" s="182"/>
     </row>
     <row r="11" spans="1:40" s="191" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="604"/>
-      <c r="B11" s="604"/>
-      <c r="C11" s="604"/>
+      <c r="A11" s="607"/>
+      <c r="B11" s="607"/>
+      <c r="C11" s="607"/>
       <c r="D11" s="184" t="s">
         <v>108</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>109</v>
       </c>
       <c r="AH11" s="186"/>
-      <c r="AI11" s="608"/>
+      <c r="AI11" s="611"/>
       <c r="AJ11" s="190"/>
       <c r="AN11" s="192"/>
     </row>
@@ -16657,10 +16657,10 @@
       <c r="AN17" s="192"/>
     </row>
     <row r="18" spans="1:40" s="191" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="609" t="s">
+      <c r="A18" s="612" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="610"/>
+      <c r="B18" s="613"/>
       <c r="C18" s="194"/>
       <c r="D18" s="194"/>
       <c r="E18" s="195"/>
@@ -16703,49 +16703,49 @@
       <c r="AN18" s="192"/>
     </row>
     <row r="20" spans="1:40" s="204" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="611" t="s">
+      <c r="A20" s="614" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="611"/>
-      <c r="C20" s="611"/>
-      <c r="D20" s="611"/>
-      <c r="E20" s="611"/>
-      <c r="F20" s="611"/>
-      <c r="G20" s="611"/>
+      <c r="B20" s="614"/>
+      <c r="C20" s="614"/>
+      <c r="D20" s="614"/>
+      <c r="E20" s="614"/>
+      <c r="F20" s="614"/>
+      <c r="G20" s="614"/>
       <c r="H20" s="199"/>
-      <c r="I20" s="612"/>
-      <c r="J20" s="612"/>
-      <c r="K20" s="612"/>
-      <c r="L20" s="612"/>
-      <c r="M20" s="612"/>
+      <c r="I20" s="615"/>
+      <c r="J20" s="615"/>
+      <c r="K20" s="615"/>
+      <c r="L20" s="615"/>
+      <c r="M20" s="615"/>
       <c r="N20" s="200"/>
-      <c r="O20" s="612" t="s">
+      <c r="O20" s="615" t="s">
         <v>114</v>
       </c>
-      <c r="P20" s="612"/>
-      <c r="Q20" s="612"/>
-      <c r="R20" s="612"/>
-      <c r="S20" s="612"/>
-      <c r="T20" s="612"/>
-      <c r="U20" s="612"/>
-      <c r="V20" s="612"/>
-      <c r="W20" s="612"/>
-      <c r="X20" s="612"/>
-      <c r="Y20" s="612"/>
+      <c r="P20" s="615"/>
+      <c r="Q20" s="615"/>
+      <c r="R20" s="615"/>
+      <c r="S20" s="615"/>
+      <c r="T20" s="615"/>
+      <c r="U20" s="615"/>
+      <c r="V20" s="615"/>
+      <c r="W20" s="615"/>
+      <c r="X20" s="615"/>
+      <c r="Y20" s="615"/>
       <c r="Z20" s="201"/>
       <c r="AA20" s="201"/>
       <c r="AB20" s="202"/>
-      <c r="AC20" s="612"/>
-      <c r="AD20" s="612"/>
-      <c r="AE20" s="612"/>
-      <c r="AF20" s="612"/>
-      <c r="AG20" s="612"/>
-      <c r="AH20" s="612"/>
-      <c r="AI20" s="612"/>
-      <c r="AJ20" s="612"/>
-      <c r="AK20" s="612"/>
-      <c r="AL20" s="612"/>
-      <c r="AM20" s="612"/>
+      <c r="AC20" s="615"/>
+      <c r="AD20" s="615"/>
+      <c r="AE20" s="615"/>
+      <c r="AF20" s="615"/>
+      <c r="AG20" s="615"/>
+      <c r="AH20" s="615"/>
+      <c r="AI20" s="615"/>
+      <c r="AJ20" s="615"/>
+      <c r="AK20" s="615"/>
+      <c r="AL20" s="615"/>
+      <c r="AM20" s="615"/>
       <c r="AN20" s="203"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
@@ -16779,131 +16779,131 @@
       <c r="AN35" s="208"/>
     </row>
     <row r="36" spans="3:40" s="207" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="595"/>
-      <c r="H36" s="595"/>
-      <c r="I36" s="595"/>
-      <c r="J36" s="595"/>
-      <c r="K36" s="595"/>
-      <c r="L36" s="595"/>
-      <c r="M36" s="595"/>
-      <c r="N36" s="595"/>
-      <c r="O36" s="595"/>
-      <c r="P36" s="595"/>
-      <c r="Q36" s="595"/>
-      <c r="R36" s="595"/>
-      <c r="S36" s="595"/>
-      <c r="T36" s="595"/>
-      <c r="U36" s="595"/>
-      <c r="V36" s="595"/>
-      <c r="W36" s="595"/>
-      <c r="X36" s="595"/>
+      <c r="G36" s="603"/>
+      <c r="H36" s="603"/>
+      <c r="I36" s="603"/>
+      <c r="J36" s="603"/>
+      <c r="K36" s="603"/>
+      <c r="L36" s="603"/>
+      <c r="M36" s="603"/>
+      <c r="N36" s="603"/>
+      <c r="O36" s="603"/>
+      <c r="P36" s="603"/>
+      <c r="Q36" s="603"/>
+      <c r="R36" s="603"/>
+      <c r="S36" s="603"/>
+      <c r="T36" s="603"/>
+      <c r="U36" s="603"/>
+      <c r="V36" s="603"/>
+      <c r="W36" s="603"/>
+      <c r="X36" s="603"/>
       <c r="AN36" s="208"/>
     </row>
     <row r="37" spans="3:40" s="207" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="595"/>
-      <c r="H37" s="595"/>
-      <c r="I37" s="595"/>
-      <c r="J37" s="595"/>
-      <c r="K37" s="595"/>
-      <c r="L37" s="595"/>
-      <c r="M37" s="595"/>
-      <c r="N37" s="595"/>
-      <c r="O37" s="595"/>
-      <c r="P37" s="595"/>
-      <c r="Q37" s="595"/>
-      <c r="R37" s="595"/>
-      <c r="S37" s="595"/>
-      <c r="T37" s="595"/>
-      <c r="U37" s="595"/>
-      <c r="V37" s="595"/>
-      <c r="W37" s="595"/>
-      <c r="X37" s="595"/>
+      <c r="G37" s="603"/>
+      <c r="H37" s="603"/>
+      <c r="I37" s="603"/>
+      <c r="J37" s="603"/>
+      <c r="K37" s="603"/>
+      <c r="L37" s="603"/>
+      <c r="M37" s="603"/>
+      <c r="N37" s="603"/>
+      <c r="O37" s="603"/>
+      <c r="P37" s="603"/>
+      <c r="Q37" s="603"/>
+      <c r="R37" s="603"/>
+      <c r="S37" s="603"/>
+      <c r="T37" s="603"/>
+      <c r="U37" s="603"/>
+      <c r="V37" s="603"/>
+      <c r="W37" s="603"/>
+      <c r="X37" s="603"/>
       <c r="AN37" s="208"/>
     </row>
     <row r="38" spans="3:40" s="207" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="595"/>
-      <c r="H38" s="595"/>
-      <c r="I38" s="595"/>
-      <c r="J38" s="595"/>
-      <c r="K38" s="595"/>
-      <c r="L38" s="595"/>
-      <c r="M38" s="595"/>
-      <c r="N38" s="595"/>
-      <c r="O38" s="595"/>
-      <c r="P38" s="595"/>
-      <c r="Q38" s="595"/>
-      <c r="R38" s="595"/>
-      <c r="S38" s="595"/>
-      <c r="T38" s="595"/>
-      <c r="U38" s="595"/>
-      <c r="V38" s="595"/>
-      <c r="W38" s="595"/>
-      <c r="X38" s="595"/>
+      <c r="G38" s="603"/>
+      <c r="H38" s="603"/>
+      <c r="I38" s="603"/>
+      <c r="J38" s="603"/>
+      <c r="K38" s="603"/>
+      <c r="L38" s="603"/>
+      <c r="M38" s="603"/>
+      <c r="N38" s="603"/>
+      <c r="O38" s="603"/>
+      <c r="P38" s="603"/>
+      <c r="Q38" s="603"/>
+      <c r="R38" s="603"/>
+      <c r="S38" s="603"/>
+      <c r="T38" s="603"/>
+      <c r="U38" s="603"/>
+      <c r="V38" s="603"/>
+      <c r="W38" s="603"/>
+      <c r="X38" s="603"/>
       <c r="AN38" s="208"/>
     </row>
     <row r="39" spans="3:40" s="207" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="595"/>
-      <c r="H39" s="595"/>
-      <c r="I39" s="595"/>
-      <c r="J39" s="595"/>
-      <c r="K39" s="595"/>
-      <c r="L39" s="595"/>
-      <c r="M39" s="595"/>
-      <c r="N39" s="595"/>
-      <c r="O39" s="595"/>
-      <c r="P39" s="595"/>
-      <c r="Q39" s="595"/>
-      <c r="R39" s="595"/>
-      <c r="S39" s="595"/>
-      <c r="T39" s="595"/>
-      <c r="U39" s="595"/>
-      <c r="V39" s="595"/>
-      <c r="W39" s="595"/>
-      <c r="X39" s="595"/>
+      <c r="G39" s="603"/>
+      <c r="H39" s="603"/>
+      <c r="I39" s="603"/>
+      <c r="J39" s="603"/>
+      <c r="K39" s="603"/>
+      <c r="L39" s="603"/>
+      <c r="M39" s="603"/>
+      <c r="N39" s="603"/>
+      <c r="O39" s="603"/>
+      <c r="P39" s="603"/>
+      <c r="Q39" s="603"/>
+      <c r="R39" s="603"/>
+      <c r="S39" s="603"/>
+      <c r="T39" s="603"/>
+      <c r="U39" s="603"/>
+      <c r="V39" s="603"/>
+      <c r="W39" s="603"/>
+      <c r="X39" s="603"/>
       <c r="AN39" s="208"/>
     </row>
     <row r="40" spans="3:40" s="207" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="595"/>
-      <c r="H40" s="595"/>
-      <c r="I40" s="595"/>
-      <c r="J40" s="595"/>
-      <c r="K40" s="595"/>
-      <c r="L40" s="595"/>
-      <c r="M40" s="595"/>
-      <c r="N40" s="595"/>
-      <c r="O40" s="595"/>
-      <c r="P40" s="595"/>
-      <c r="Q40" s="595"/>
-      <c r="R40" s="595"/>
-      <c r="S40" s="595"/>
-      <c r="T40" s="595"/>
-      <c r="U40" s="595"/>
-      <c r="V40" s="595"/>
-      <c r="W40" s="595"/>
-      <c r="X40" s="595"/>
+      <c r="G40" s="603"/>
+      <c r="H40" s="603"/>
+      <c r="I40" s="603"/>
+      <c r="J40" s="603"/>
+      <c r="K40" s="603"/>
+      <c r="L40" s="603"/>
+      <c r="M40" s="603"/>
+      <c r="N40" s="603"/>
+      <c r="O40" s="603"/>
+      <c r="P40" s="603"/>
+      <c r="Q40" s="603"/>
+      <c r="R40" s="603"/>
+      <c r="S40" s="603"/>
+      <c r="T40" s="603"/>
+      <c r="U40" s="603"/>
+      <c r="V40" s="603"/>
+      <c r="W40" s="603"/>
+      <c r="X40" s="603"/>
       <c r="AN40" s="208"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C41" s="171"/>
       <c r="D41" s="171"/>
-      <c r="G41" s="595"/>
-      <c r="H41" s="595"/>
-      <c r="I41" s="595"/>
-      <c r="J41" s="595"/>
-      <c r="K41" s="595"/>
-      <c r="L41" s="595"/>
-      <c r="M41" s="595"/>
-      <c r="N41" s="595"/>
-      <c r="O41" s="595"/>
-      <c r="P41" s="595"/>
-      <c r="Q41" s="595"/>
-      <c r="R41" s="595"/>
-      <c r="S41" s="595"/>
-      <c r="T41" s="595"/>
-      <c r="U41" s="595"/>
-      <c r="V41" s="595"/>
-      <c r="W41" s="595"/>
-      <c r="X41" s="595"/>
+      <c r="G41" s="603"/>
+      <c r="H41" s="603"/>
+      <c r="I41" s="603"/>
+      <c r="J41" s="603"/>
+      <c r="K41" s="603"/>
+      <c r="L41" s="603"/>
+      <c r="M41" s="603"/>
+      <c r="N41" s="603"/>
+      <c r="O41" s="603"/>
+      <c r="P41" s="603"/>
+      <c r="Q41" s="603"/>
+      <c r="R41" s="603"/>
+      <c r="S41" s="603"/>
+      <c r="T41" s="603"/>
+      <c r="U41" s="603"/>
+      <c r="V41" s="603"/>
+      <c r="W41" s="603"/>
+      <c r="X41" s="603"/>
       <c r="AN41" s="171"/>
     </row>
     <row r="42" spans="3:40" x14ac:dyDescent="0.25">
@@ -16913,13 +16913,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G36:X41"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -16934,6 +16927,13 @@
     <mergeCell ref="I20:M20"/>
     <mergeCell ref="O20:Y20"/>
     <mergeCell ref="AC20:AM20"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -17789,42 +17789,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="285" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="625" t="s">
+      <c r="A1" s="616" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="625"/>
-      <c r="C1" s="625"/>
-      <c r="D1" s="625"/>
+      <c r="B1" s="616"/>
+      <c r="C1" s="616"/>
+      <c r="D1" s="616"/>
       <c r="E1" s="284"/>
-      <c r="F1" s="626" t="s">
+      <c r="F1" s="617" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="626"/>
-      <c r="H1" s="626"/>
-      <c r="I1" s="626"/>
-      <c r="J1" s="626"/>
-      <c r="K1" s="626"/>
-      <c r="L1" s="626"/>
-      <c r="M1" s="626"/>
+      <c r="G1" s="617"/>
+      <c r="H1" s="617"/>
+      <c r="I1" s="617"/>
+      <c r="J1" s="617"/>
+      <c r="K1" s="617"/>
+      <c r="L1" s="617"/>
+      <c r="M1" s="617"/>
     </row>
     <row r="2" spans="1:17" s="285" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="627" t="s">
+      <c r="A2" s="618" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="627"/>
-      <c r="C2" s="627"/>
-      <c r="D2" s="627"/>
+      <c r="B2" s="618"/>
+      <c r="C2" s="618"/>
+      <c r="D2" s="618"/>
       <c r="E2" s="284"/>
-      <c r="F2" s="628" t="s">
+      <c r="F2" s="619" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="628"/>
-      <c r="H2" s="628"/>
-      <c r="I2" s="628"/>
-      <c r="J2" s="628"/>
-      <c r="K2" s="628"/>
-      <c r="L2" s="628"/>
-      <c r="M2" s="628"/>
+      <c r="G2" s="619"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="619"/>
+      <c r="J2" s="619"/>
+      <c r="K2" s="619"/>
+      <c r="L2" s="619"/>
+      <c r="M2" s="619"/>
     </row>
     <row r="3" spans="1:17" s="285" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="286"/>
@@ -17839,47 +17839,47 @@
       <c r="K3" s="287"/>
     </row>
     <row r="4" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="616" t="s">
+      <c r="A4" s="620" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="616"/>
-      <c r="C4" s="616"/>
-      <c r="D4" s="616"/>
-      <c r="E4" s="616"/>
-      <c r="F4" s="616"/>
-      <c r="G4" s="616"/>
-      <c r="H4" s="616"/>
-      <c r="I4" s="616"/>
-      <c r="J4" s="616"/>
-      <c r="K4" s="616"/>
-      <c r="L4" s="616"/>
-      <c r="M4" s="616"/>
-      <c r="N4" s="616"/>
+      <c r="B4" s="620"/>
+      <c r="C4" s="620"/>
+      <c r="D4" s="620"/>
+      <c r="E4" s="620"/>
+      <c r="F4" s="620"/>
+      <c r="G4" s="620"/>
+      <c r="H4" s="620"/>
+      <c r="I4" s="620"/>
+      <c r="J4" s="620"/>
+      <c r="K4" s="620"/>
+      <c r="L4" s="620"/>
+      <c r="M4" s="620"/>
+      <c r="N4" s="620"/>
     </row>
     <row r="5" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="616" t="s">
+      <c r="A5" s="620" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="616"/>
-      <c r="C5" s="616"/>
-      <c r="D5" s="616"/>
-      <c r="E5" s="616"/>
-      <c r="F5" s="616"/>
-      <c r="G5" s="616"/>
-      <c r="H5" s="616"/>
-      <c r="I5" s="616"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="616"/>
-      <c r="L5" s="616"/>
-      <c r="M5" s="616"/>
-      <c r="N5" s="616"/>
+      <c r="B5" s="620"/>
+      <c r="C5" s="620"/>
+      <c r="D5" s="620"/>
+      <c r="E5" s="620"/>
+      <c r="F5" s="620"/>
+      <c r="G5" s="620"/>
+      <c r="H5" s="620"/>
+      <c r="I5" s="620"/>
+      <c r="J5" s="620"/>
+      <c r="K5" s="620"/>
+      <c r="L5" s="620"/>
+      <c r="M5" s="620"/>
+      <c r="N5" s="620"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L6" s="617" t="s">
+      <c r="L6" s="621" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="617"/>
-      <c r="N6" s="617"/>
+      <c r="M6" s="621"/>
+      <c r="N6" s="621"/>
     </row>
     <row r="7" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
@@ -17956,10 +17956,10 @@
       <c r="N8" s="46"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="618" t="s">
+      <c r="A9" s="622" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="619"/>
+      <c r="B9" s="623"/>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
       <c r="E9" s="47"/>
@@ -18131,11 +18131,11 @@
       <c r="Q13" s="154"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="622" t="s">
+      <c r="A14" s="626" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="623"/>
-      <c r="C14" s="624"/>
+      <c r="B14" s="627"/>
+      <c r="C14" s="628"/>
       <c r="D14" s="262">
         <f>SUM(D10:D13)</f>
         <v>27000000</v>
@@ -18167,10 +18167,10 @@
       <c r="N14" s="290"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="620" t="s">
+      <c r="A15" s="624" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="621"/>
+      <c r="B15" s="625"/>
       <c r="C15" s="84"/>
       <c r="D15" s="85"/>
       <c r="E15" s="305"/>
@@ -18271,11 +18271,11 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="622" t="s">
+      <c r="A18" s="626" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="623"/>
-      <c r="C18" s="624"/>
+      <c r="B18" s="627"/>
+      <c r="C18" s="628"/>
       <c r="D18" s="291">
         <f>SUM(D16:D17)</f>
         <v>8000000</v>
@@ -18307,14 +18307,14 @@
       <c r="N18" s="290"/>
     </row>
     <row r="20" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="616"/>
-      <c r="C20" s="616"/>
-      <c r="D20" s="616"/>
+      <c r="B20" s="620"/>
+      <c r="C20" s="620"/>
+      <c r="D20" s="620"/>
       <c r="E20" s="263"/>
-      <c r="J20" s="616"/>
-      <c r="K20" s="616"/>
-      <c r="L20" s="616"/>
-      <c r="M20" s="616"/>
+      <c r="J20" s="620"/>
+      <c r="K20" s="620"/>
+      <c r="L20" s="620"/>
+      <c r="M20" s="620"/>
     </row>
     <row r="21" spans="1:14" s="285" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C21" s="293" t="s">
@@ -18358,11 +18358,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:N5"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="A9:B9"/>
@@ -18371,6 +18366,11 @@
     <mergeCell ref="J20:M20"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:N4"/>
   </mergeCells>
   <pageMargins left="0.12" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -18416,12 +18416,12 @@
       <c r="K2" s="272"/>
     </row>
     <row r="3" spans="1:15" s="270" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="529" t="s">
+      <c r="A3" s="535" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="529"/>
-      <c r="C3" s="529"/>
-      <c r="D3" s="529"/>
+      <c r="B3" s="535"/>
+      <c r="C3" s="535"/>
+      <c r="D3" s="535"/>
       <c r="E3" s="269"/>
       <c r="F3" s="269"/>
       <c r="G3" s="269"/>

--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 6_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 6_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$6:$P$120</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$H$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$H$79</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="375">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -853,9 +853,6 @@
     <t>Công ty vay Anh Triệu Sơn</t>
   </si>
   <si>
-    <t>ĐL Hải Vui Cọc HĐ</t>
-  </si>
-  <si>
     <t>Chị Phú thanh toán tiền hàng</t>
   </si>
   <si>
@@ -943,9 +940,6 @@
     <t>PT/PC</t>
   </si>
   <si>
-    <t>PT00080</t>
-  </si>
-  <si>
     <t>PT00081</t>
   </si>
   <si>
@@ -1139,6 +1133,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Số:062020.BL/PKT. MST: 0108806878</t>
+  </si>
+  <si>
+    <t>Anh Phương Huyền thanh toán tiền hàng  476</t>
+  </si>
+  <si>
+    <t>Ngọc anh Thái Bình thanh toán tiền hàng 560</t>
+  </si>
+  <si>
+    <t>Mai Hồng Sơn La thanh toán tiền hàng 563</t>
+  </si>
+  <si>
+    <t>Chị thắm yên bái thanh toán tiền hàng 564</t>
+  </si>
+  <si>
+    <t>Chị Huệ Điện Biên 566</t>
+  </si>
+  <si>
+    <t>Chị Phương yên châu 567</t>
   </si>
 </sst>
 </file>
@@ -3982,11 +3994,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B148" sqref="B148"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4067,7 +4079,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="472" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C6" s="469" t="s">
         <v>5</v>
@@ -4102,124 +4114,124 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="425">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B8" s="425" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C8" s="426" t="s">
         <v>267</v>
       </c>
       <c r="D8" s="427" t="s">
-        <v>275</v>
+        <v>369</v>
       </c>
       <c r="E8" s="428"/>
       <c r="F8" s="429">
-        <v>10000000</v>
+        <v>6867600</v>
       </c>
       <c r="G8" s="428"/>
       <c r="H8" s="429"/>
     </row>
     <row r="9" spans="1:9" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="425">
-        <v>43980</v>
+      <c r="A9" s="431">
+        <v>43983</v>
       </c>
       <c r="B9" s="425" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="426" t="s">
-        <v>267</v>
-      </c>
-      <c r="D9" s="427" t="s">
-        <v>295</v>
-      </c>
-      <c r="E9" s="428"/>
-      <c r="F9" s="429">
-        <v>6867600</v>
-      </c>
-      <c r="G9" s="428"/>
-      <c r="H9" s="429"/>
-    </row>
-    <row r="10" spans="1:9" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="C9" s="432" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="433" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="434">
+        <v>9800000</v>
+      </c>
+      <c r="F9" s="435"/>
+      <c r="G9" s="434"/>
+      <c r="H9" s="435"/>
+    </row>
+    <row r="10" spans="1:9" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="431">
         <v>43983</v>
       </c>
-      <c r="B10" s="425" t="s">
-        <v>307</v>
+      <c r="B10" s="431" t="s">
+        <v>312</v>
       </c>
       <c r="C10" s="432" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D10" s="433" t="s">
-        <v>274</v>
-      </c>
-      <c r="E10" s="434">
-        <v>9800000</v>
-      </c>
-      <c r="F10" s="435"/>
+        <v>288</v>
+      </c>
+      <c r="E10" s="434"/>
+      <c r="F10" s="435">
+        <v>19328400</v>
+      </c>
       <c r="G10" s="434"/>
       <c r="H10" s="435"/>
     </row>
-    <row r="11" spans="1:9" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="431">
         <v>43983</v>
       </c>
       <c r="B11" s="431" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C11" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D11" s="433" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E11" s="434"/>
       <c r="F11" s="435">
-        <v>19328400</v>
+        <v>23794300</v>
       </c>
       <c r="G11" s="434"/>
       <c r="H11" s="435"/>
     </row>
-    <row r="12" spans="1:9" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="431">
         <v>43983</v>
       </c>
       <c r="B12" s="431" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="C12" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D12" s="433" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="E12" s="434"/>
-      <c r="F12" s="435">
-        <v>23794300</v>
-      </c>
+      <c r="F12" s="435"/>
       <c r="G12" s="434"/>
-      <c r="H12" s="435"/>
+      <c r="H12" s="435">
+        <v>10822500</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="431">
         <v>43983</v>
       </c>
       <c r="B13" s="431" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" s="432" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="433" t="s">
         <v>332</v>
-      </c>
-      <c r="C13" s="432" t="s">
-        <v>267</v>
-      </c>
-      <c r="D13" s="433" t="s">
-        <v>333</v>
       </c>
       <c r="E13" s="434"/>
       <c r="F13" s="435"/>
       <c r="G13" s="434"/>
       <c r="H13" s="435">
-        <v>10822500</v>
+        <v>9800000</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -4227,19 +4239,19 @@
         <v>43983</v>
       </c>
       <c r="B14" s="431" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C14" s="432" t="s">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="D14" s="433" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="E14" s="434"/>
       <c r="F14" s="435"/>
       <c r="G14" s="434"/>
       <c r="H14" s="435">
-        <v>9800000</v>
+        <v>7538462</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -4247,7 +4259,7 @@
         <v>43983</v>
       </c>
       <c r="B15" s="431" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C15" s="432" t="s">
         <v>204</v>
@@ -4259,7 +4271,7 @@
       <c r="F15" s="435"/>
       <c r="G15" s="434"/>
       <c r="H15" s="435">
-        <v>7538462</v>
+        <v>1783100</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -4267,96 +4279,96 @@
         <v>43983</v>
       </c>
       <c r="B16" s="431" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C16" s="432" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="D16" s="433" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="E16" s="434"/>
       <c r="F16" s="435"/>
-      <c r="G16" s="434"/>
-      <c r="H16" s="435">
-        <v>1783100</v>
-      </c>
+      <c r="G16" s="434">
+        <v>10175000</v>
+      </c>
+      <c r="H16" s="435"/>
     </row>
     <row r="17" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="431">
         <v>43983</v>
       </c>
       <c r="B17" s="431" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="C17" s="432" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="D17" s="433" t="s">
-        <v>254</v>
+        <v>370</v>
       </c>
       <c r="E17" s="434"/>
-      <c r="F17" s="435"/>
-      <c r="G17" s="434">
-        <v>10175000</v>
-      </c>
+      <c r="F17" s="435">
+        <v>3221400</v>
+      </c>
+      <c r="G17" s="434"/>
       <c r="H17" s="435"/>
     </row>
     <row r="18" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="431">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B18" s="431" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="C18" s="432" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" s="433" t="s">
+        <v>256</v>
+      </c>
+      <c r="E18" s="434"/>
+      <c r="F18" s="435"/>
+      <c r="G18" s="434">
+        <v>10000000</v>
+      </c>
+      <c r="H18" s="435"/>
+    </row>
+    <row r="19" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="431">
+        <v>43986</v>
+      </c>
+      <c r="B19" s="431" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" s="432" t="s">
         <v>267</v>
       </c>
-      <c r="D18" s="433" t="s">
-        <v>296</v>
-      </c>
-      <c r="E18" s="434"/>
-      <c r="F18" s="435">
-        <v>3221400</v>
-      </c>
-      <c r="G18" s="434"/>
-      <c r="H18" s="435"/>
-    </row>
-    <row r="19" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="431">
-        <v>43984</v>
-      </c>
-      <c r="B19" s="431" t="s">
-        <v>339</v>
-      </c>
-      <c r="C19" s="432" t="s">
-        <v>255</v>
-      </c>
       <c r="D19" s="433" t="s">
-        <v>256</v>
-      </c>
-      <c r="E19" s="434"/>
+        <v>371</v>
+      </c>
+      <c r="E19" s="434">
+        <v>861400</v>
+      </c>
       <c r="F19" s="435"/>
-      <c r="G19" s="434">
-        <v>10000000</v>
-      </c>
+      <c r="G19" s="434"/>
       <c r="H19" s="435"/>
     </row>
-    <row r="20" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="431">
         <v>43986</v>
       </c>
       <c r="B20" s="431" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C20" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D20" s="433" t="s">
-        <v>272</v>
+        <v>372</v>
       </c>
       <c r="E20" s="434">
-        <v>861400</v>
+        <v>3363000</v>
       </c>
       <c r="F20" s="435"/>
       <c r="G20" s="434"/>
@@ -4364,61 +4376,61 @@
     </row>
     <row r="21" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="431">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B21" s="431" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="C21" s="432" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D21" s="433" t="s">
-        <v>297</v>
-      </c>
-      <c r="E21" s="434">
-        <v>3363000</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E21" s="434"/>
       <c r="F21" s="435"/>
       <c r="G21" s="434"/>
-      <c r="H21" s="435"/>
+      <c r="H21" s="435">
+        <v>200000</v>
+      </c>
     </row>
     <row r="22" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="431">
         <v>43987</v>
       </c>
       <c r="B22" s="431" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C22" s="432" t="s">
         <v>257</v>
       </c>
       <c r="D22" s="433" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E22" s="434"/>
       <c r="F22" s="435"/>
-      <c r="G22" s="434"/>
-      <c r="H22" s="435">
-        <v>200000</v>
-      </c>
+      <c r="G22" s="434">
+        <v>10500000</v>
+      </c>
+      <c r="H22" s="435"/>
     </row>
     <row r="23" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="431">
         <v>43987</v>
       </c>
       <c r="B23" s="431" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C23" s="432" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D23" s="433" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E23" s="434"/>
       <c r="F23" s="435"/>
       <c r="G23" s="434">
-        <v>10500000</v>
+        <v>1512000</v>
       </c>
       <c r="H23" s="435"/>
     </row>
@@ -4427,39 +4439,39 @@
         <v>43987</v>
       </c>
       <c r="B24" s="431" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C24" s="432" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D24" s="433" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E24" s="434"/>
       <c r="F24" s="435"/>
-      <c r="G24" s="434">
-        <v>1512000</v>
-      </c>
-      <c r="H24" s="435"/>
+      <c r="G24" s="434"/>
+      <c r="H24" s="435">
+        <v>500000</v>
+      </c>
     </row>
     <row r="25" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="431">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B25" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C25" s="432" t="s">
         <v>244</v>
       </c>
       <c r="D25" s="433" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E25" s="434"/>
       <c r="F25" s="435"/>
       <c r="G25" s="434"/>
       <c r="H25" s="435">
-        <v>500000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -4467,7 +4479,7 @@
         <v>43988</v>
       </c>
       <c r="B26" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C26" s="432" t="s">
         <v>244</v>
@@ -4482,104 +4494,104 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="431">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B27" s="431" t="s">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="C27" s="432" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="D27" s="433" t="s">
-        <v>245</v>
-      </c>
-      <c r="E27" s="434"/>
+        <v>373</v>
+      </c>
+      <c r="E27" s="434">
+        <v>6442800</v>
+      </c>
       <c r="F27" s="435"/>
       <c r="G27" s="434"/>
-      <c r="H27" s="435">
-        <v>40000</v>
-      </c>
+      <c r="H27" s="435"/>
     </row>
     <row r="28" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="431">
         <v>43990</v>
       </c>
       <c r="B28" s="431" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="C28" s="432" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D28" s="433" t="s">
-        <v>243</v>
-      </c>
-      <c r="E28" s="434">
-        <v>6442800</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="E28" s="434"/>
       <c r="F28" s="435"/>
       <c r="G28" s="434"/>
-      <c r="H28" s="435"/>
+      <c r="H28" s="435">
+        <v>100000</v>
+      </c>
     </row>
     <row r="29" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="431">
         <v>43990</v>
       </c>
       <c r="B29" s="431" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C29" s="432" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D29" s="433" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="E29" s="434"/>
       <c r="F29" s="435"/>
-      <c r="G29" s="434"/>
-      <c r="H29" s="435">
-        <v>100000</v>
-      </c>
+      <c r="G29" s="434">
+        <v>37800000</v>
+      </c>
+      <c r="H29" s="435"/>
     </row>
     <row r="30" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="431">
         <v>43990</v>
       </c>
       <c r="B30" s="431" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="C30" s="432" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="D30" s="433" t="s">
-        <v>287</v>
-      </c>
-      <c r="E30" s="434"/>
+        <v>374</v>
+      </c>
+      <c r="E30" s="434">
+        <v>3221400</v>
+      </c>
       <c r="F30" s="435"/>
-      <c r="G30" s="434">
-        <v>37800000</v>
-      </c>
+      <c r="G30" s="434"/>
       <c r="H30" s="435"/>
     </row>
     <row r="31" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="431">
-        <v>43990</v>
+        <v>43992</v>
       </c>
       <c r="B31" s="431" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="C31" s="432" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D31" s="433" t="s">
-        <v>299</v>
-      </c>
-      <c r="E31" s="434">
-        <v>3221400</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="E31" s="434"/>
       <c r="F31" s="435"/>
-      <c r="G31" s="434"/>
+      <c r="G31" s="434">
+        <v>2000000</v>
+      </c>
       <c r="H31" s="435"/>
     </row>
     <row r="32" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -4587,18 +4599,18 @@
         <v>43992</v>
       </c>
       <c r="B32" s="431" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C32" s="432" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="D32" s="433" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E32" s="434"/>
       <c r="F32" s="435"/>
       <c r="G32" s="434">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H32" s="435"/>
     </row>
@@ -4607,18 +4619,18 @@
         <v>43992</v>
       </c>
       <c r="B33" s="431" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C33" s="432" t="s">
         <v>204</v>
       </c>
       <c r="D33" s="433" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E33" s="434"/>
       <c r="F33" s="435"/>
       <c r="G33" s="434">
-        <v>4000000</v>
+        <v>2100000</v>
       </c>
       <c r="H33" s="435"/>
     </row>
@@ -4627,277 +4639,277 @@
         <v>43992</v>
       </c>
       <c r="B34" s="431" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C34" s="432" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="D34" s="433" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E34" s="434"/>
       <c r="F34" s="435"/>
       <c r="G34" s="434">
-        <v>2100000</v>
+        <v>2000000</v>
       </c>
       <c r="H34" s="435"/>
     </row>
-    <row r="35" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="431">
         <v>43992</v>
       </c>
       <c r="B35" s="431" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="C35" s="432" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D35" s="433" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="E35" s="434"/>
-      <c r="F35" s="435"/>
-      <c r="G35" s="434">
-        <v>2000000</v>
-      </c>
+      <c r="F35" s="435">
+        <v>268450</v>
+      </c>
+      <c r="G35" s="434"/>
       <c r="H35" s="435"/>
     </row>
-    <row r="36" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="430" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="431">
         <v>43992</v>
       </c>
       <c r="B36" s="431" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="C36" s="432" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D36" s="433" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="E36" s="434"/>
-      <c r="F36" s="435">
-        <v>268450</v>
-      </c>
+      <c r="F36" s="435"/>
       <c r="G36" s="434"/>
-      <c r="H36" s="435"/>
-    </row>
-    <row r="37" spans="1:8" s="430" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="435">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="431">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B37" s="431" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C37" s="432" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D37" s="433" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E37" s="434"/>
       <c r="F37" s="435"/>
       <c r="G37" s="434"/>
       <c r="H37" s="435">
-        <v>40000</v>
+        <v>765000</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="431">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B38" s="431" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C38" s="432" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D38" s="433" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E38" s="434"/>
       <c r="F38" s="435"/>
       <c r="G38" s="434"/>
       <c r="H38" s="435">
-        <v>765000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="431">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B39" s="431" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="C39" s="432" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="D39" s="433" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="E39" s="434"/>
-      <c r="F39" s="435"/>
+      <c r="F39" s="435">
+        <v>4855700</v>
+      </c>
       <c r="G39" s="434"/>
-      <c r="H39" s="435">
-        <v>500000</v>
-      </c>
+      <c r="H39" s="435"/>
     </row>
     <row r="40" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="431">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B40" s="431" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="C40" s="432" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" s="433" t="s">
+        <v>249</v>
+      </c>
+      <c r="E40" s="434"/>
+      <c r="F40" s="435"/>
+      <c r="G40" s="434"/>
+      <c r="H40" s="435">
+        <f>120000+45000</f>
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="431">
+        <v>43997</v>
+      </c>
+      <c r="B41" s="431" t="s">
+        <v>315</v>
+      </c>
+      <c r="C41" s="432" t="s">
         <v>267</v>
       </c>
-      <c r="D40" s="433" t="s">
-        <v>300</v>
-      </c>
-      <c r="E40" s="434"/>
-      <c r="F40" s="435">
-        <v>4855700</v>
-      </c>
-      <c r="G40" s="434"/>
-      <c r="H40" s="435"/>
-    </row>
-    <row r="41" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="431">
-        <v>43996</v>
-      </c>
-      <c r="B41" s="431" t="s">
-        <v>362</v>
-      </c>
-      <c r="C41" s="432" t="s">
-        <v>248</v>
-      </c>
       <c r="D41" s="433" t="s">
-        <v>249</v>
-      </c>
-      <c r="E41" s="434"/>
+        <v>243</v>
+      </c>
+      <c r="E41" s="434">
+        <v>16531800</v>
+      </c>
       <c r="F41" s="435"/>
       <c r="G41" s="434"/>
-      <c r="H41" s="435">
-        <f>120000+45000</f>
-        <v>165000</v>
-      </c>
+      <c r="H41" s="435"/>
     </row>
     <row r="42" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="431">
         <v>43997</v>
       </c>
       <c r="B42" s="431" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="C42" s="432" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D42" s="433" t="s">
         <v>243</v>
       </c>
-      <c r="E42" s="434">
-        <v>16531800</v>
-      </c>
+      <c r="E42" s="434"/>
       <c r="F42" s="435"/>
       <c r="G42" s="434"/>
-      <c r="H42" s="435"/>
+      <c r="H42" s="435">
+        <v>250000</v>
+      </c>
     </row>
     <row r="43" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="431">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B43" s="431" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C43" s="432" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D43" s="433" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E43" s="434"/>
       <c r="F43" s="435"/>
-      <c r="G43" s="434"/>
-      <c r="H43" s="435">
-        <v>250000</v>
-      </c>
+      <c r="G43" s="434">
+        <v>1903000</v>
+      </c>
+      <c r="H43" s="435"/>
     </row>
     <row r="44" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="431">
         <v>43998</v>
       </c>
       <c r="B44" s="431" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C44" s="432" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D44" s="433" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E44" s="434"/>
       <c r="F44" s="435"/>
-      <c r="G44" s="434">
-        <v>1903000</v>
-      </c>
-      <c r="H44" s="435"/>
-    </row>
-    <row r="45" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="434"/>
+      <c r="H44" s="435">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="431">
         <v>43998</v>
       </c>
       <c r="B45" s="431" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="C45" s="432" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="D45" s="433" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="E45" s="434"/>
-      <c r="F45" s="435"/>
+      <c r="F45" s="435">
+        <v>1097400</v>
+      </c>
       <c r="G45" s="434"/>
-      <c r="H45" s="435">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="435"/>
+    </row>
+    <row r="46" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="431">
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="B46" s="431" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C46" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D46" s="433" t="s">
-        <v>172</v>
-      </c>
-      <c r="E46" s="434"/>
-      <c r="F46" s="435">
-        <v>1097400</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E46" s="434">
+        <v>2271500</v>
+      </c>
+      <c r="F46" s="435"/>
       <c r="G46" s="434"/>
       <c r="H46" s="435"/>
     </row>
-    <row r="47" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="431">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B47" s="431" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C47" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D47" s="433" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E47" s="434">
-        <v>2271500</v>
+        <v>4728850</v>
       </c>
       <c r="F47" s="435"/>
       <c r="G47" s="434"/>
@@ -4908,19 +4920,19 @@
         <v>44001</v>
       </c>
       <c r="B48" s="431" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="C48" s="432" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D48" s="433" t="s">
-        <v>299</v>
-      </c>
-      <c r="E48" s="434">
-        <v>4728850</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="E48" s="434"/>
       <c r="F48" s="435"/>
-      <c r="G48" s="434"/>
+      <c r="G48" s="434">
+        <v>5000000</v>
+      </c>
       <c r="H48" s="435"/>
     </row>
     <row r="49" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
@@ -4928,18 +4940,19 @@
         <v>44001</v>
       </c>
       <c r="B49" s="431" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C49" s="432" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="D49" s="433" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E49" s="434"/>
       <c r="F49" s="435"/>
       <c r="G49" s="434">
-        <v>5000000</v>
+        <f>1650000*30</f>
+        <v>49500000</v>
       </c>
       <c r="H49" s="435"/>
     </row>
@@ -4948,40 +4961,39 @@
         <v>44001</v>
       </c>
       <c r="B50" s="431" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C50" s="432" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D50" s="433" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E50" s="434"/>
       <c r="F50" s="435"/>
       <c r="G50" s="434">
-        <f>1650000*30</f>
-        <v>49500000</v>
+        <v>430000</v>
       </c>
       <c r="H50" s="435"/>
     </row>
-    <row r="51" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="431">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B51" s="431" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="C51" s="432" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D51" s="433" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="E51" s="434"/>
-      <c r="F51" s="435"/>
-      <c r="G51" s="434">
-        <v>430000</v>
-      </c>
+      <c r="F51" s="435">
+        <v>536900</v>
+      </c>
+      <c r="G51" s="434"/>
       <c r="H51" s="435"/>
     </row>
     <row r="52" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -4989,118 +5001,118 @@
         <v>44002</v>
       </c>
       <c r="B52" s="431" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="C52" s="432" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D52" s="433" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="E52" s="434"/>
-      <c r="F52" s="435">
-        <v>536900</v>
-      </c>
+      <c r="F52" s="435"/>
       <c r="G52" s="434"/>
-      <c r="H52" s="435"/>
+      <c r="H52" s="435">
+        <v>40000</v>
+      </c>
     </row>
     <row r="53" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="431">
-        <v>44002</v>
+        <v>44004</v>
       </c>
       <c r="B53" s="431" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C53" s="432" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D53" s="433" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="E53" s="434"/>
       <c r="F53" s="435"/>
-      <c r="G53" s="434"/>
-      <c r="H53" s="435">
-        <v>40000</v>
-      </c>
+      <c r="G53" s="434">
+        <v>13000000</v>
+      </c>
+      <c r="H53" s="435"/>
     </row>
     <row r="54" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="431">
         <v>44004</v>
       </c>
       <c r="B54" s="431" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="C54" s="432" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="D54" s="433" t="s">
-        <v>294</v>
-      </c>
-      <c r="E54" s="434"/>
+        <v>301</v>
+      </c>
+      <c r="E54" s="434">
+        <v>2684500</v>
+      </c>
       <c r="F54" s="435"/>
-      <c r="G54" s="434">
-        <v>13000000</v>
-      </c>
+      <c r="G54" s="434"/>
       <c r="H54" s="435"/>
     </row>
-    <row r="55" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="431">
         <v>44004</v>
       </c>
       <c r="B55" s="431" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C55" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D55" s="433" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E55" s="434">
-        <v>2684500</v>
+        <v>3433800</v>
       </c>
       <c r="F55" s="435"/>
       <c r="G55" s="434"/>
       <c r="H55" s="435"/>
     </row>
-    <row r="56" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="431">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B56" s="431" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C56" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D56" s="433" t="s">
-        <v>297</v>
-      </c>
-      <c r="E56" s="434">
-        <v>3433800</v>
-      </c>
-      <c r="F56" s="435"/>
+        <v>302</v>
+      </c>
+      <c r="E56" s="434"/>
+      <c r="F56" s="435">
+        <v>610650</v>
+      </c>
       <c r="G56" s="434"/>
       <c r="H56" s="435"/>
     </row>
-    <row r="57" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="431">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B57" s="431" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C57" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D57" s="433" t="s">
-        <v>303</v>
-      </c>
-      <c r="E57" s="434"/>
-      <c r="F57" s="435">
-        <v>610650</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="E57" s="434">
+        <v>16284000</v>
+      </c>
+      <c r="F57" s="435"/>
       <c r="G57" s="434"/>
       <c r="H57" s="435"/>
     </row>
@@ -5109,59 +5121,60 @@
         <v>44006</v>
       </c>
       <c r="B58" s="431" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="C58" s="432" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D58" s="433" t="s">
         <v>243</v>
       </c>
-      <c r="E58" s="434">
-        <v>16284000</v>
-      </c>
+      <c r="E58" s="434"/>
       <c r="F58" s="435"/>
       <c r="G58" s="434"/>
-      <c r="H58" s="435"/>
+      <c r="H58" s="435">
+        <v>250000</v>
+      </c>
     </row>
     <row r="59" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="431">
         <v>44006</v>
       </c>
       <c r="B59" s="431" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C59" s="432" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D59" s="433" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E59" s="434"/>
       <c r="F59" s="435"/>
       <c r="G59" s="434"/>
       <c r="H59" s="435">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="430" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="431">
         <v>44006</v>
       </c>
       <c r="B60" s="431" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C60" s="432" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D60" s="433" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E60" s="434"/>
       <c r="F60" s="435"/>
       <c r="G60" s="434"/>
       <c r="H60" s="435">
-        <v>105000</v>
+        <f>680000+120000+15000+80000+60000+120000+300000+60000+450000+2585000+958980+1000545</f>
+        <v>6429525</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="430" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5169,43 +5182,42 @@
         <v>44006</v>
       </c>
       <c r="B61" s="431" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C61" s="432" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D61" s="433" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E61" s="434"/>
       <c r="F61" s="435"/>
       <c r="G61" s="434"/>
       <c r="H61" s="435">
-        <f>680000+120000+15000+80000+60000+120000+300000+60000+450000+2585000+958980+1000545</f>
-        <v>6429525</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="430" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="430" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="431">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B62" s="431" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="C62" s="432" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="D62" s="433" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="E62" s="434"/>
-      <c r="F62" s="435"/>
+      <c r="F62" s="435">
+        <v>295750</v>
+      </c>
       <c r="G62" s="434"/>
-      <c r="H62" s="435">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="430" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="435"/>
+    </row>
+    <row r="63" spans="1:8" s="430" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="431">
         <v>44007</v>
       </c>
@@ -5216,53 +5228,53 @@
         <v>267</v>
       </c>
       <c r="D63" s="433" t="s">
-        <v>276</v>
-      </c>
-      <c r="E63" s="434"/>
-      <c r="F63" s="435">
-        <v>295750</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="E63" s="434">
+        <v>3433800</v>
+      </c>
+      <c r="F63" s="435"/>
       <c r="G63" s="434"/>
       <c r="H63" s="435"/>
     </row>
-    <row r="64" spans="1:8" s="430" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="431">
         <v>44007</v>
       </c>
       <c r="B64" s="431" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="C64" s="432" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D64" s="433" t="s">
         <v>243</v>
       </c>
-      <c r="E64" s="434">
-        <v>3433800</v>
-      </c>
+      <c r="E64" s="434"/>
       <c r="F64" s="435"/>
       <c r="G64" s="434"/>
-      <c r="H64" s="435"/>
+      <c r="H64" s="435">
+        <v>100000</v>
+      </c>
     </row>
     <row r="65" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="431">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B65" s="431" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C65" s="432" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="D65" s="433" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="E65" s="434"/>
       <c r="F65" s="435"/>
       <c r="G65" s="434"/>
       <c r="H65" s="435">
-        <v>100000</v>
+        <v>887000</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5270,42 +5282,42 @@
         <v>44008</v>
       </c>
       <c r="B66" s="431" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C66" s="432" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D66" s="433" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E66" s="434"/>
       <c r="F66" s="435"/>
-      <c r="G66" s="434"/>
-      <c r="H66" s="435">
-        <v>887000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G66" s="434">
+        <v>8000000</v>
+      </c>
+      <c r="H66" s="435"/>
+    </row>
+    <row r="67" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="431">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B67" s="431" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="C67" s="432" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D67" s="433" t="s">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="E67" s="434"/>
-      <c r="F67" s="435"/>
-      <c r="G67" s="434">
-        <v>8000000</v>
-      </c>
+      <c r="F67" s="435">
+        <v>970000</v>
+      </c>
+      <c r="G67" s="434"/>
       <c r="H67" s="435"/>
     </row>
-    <row r="68" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="431">
         <v>44009</v>
       </c>
@@ -5316,82 +5328,82 @@
         <v>267</v>
       </c>
       <c r="D68" s="433" t="s">
-        <v>330</v>
-      </c>
-      <c r="E68" s="434"/>
-      <c r="F68" s="435">
-        <v>970000</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="E68" s="434">
+        <v>1681500</v>
+      </c>
+      <c r="F68" s="435"/>
       <c r="G68" s="434"/>
       <c r="H68" s="435"/>
     </row>
-    <row r="69" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="431">
         <v>44009</v>
       </c>
       <c r="B69" s="431" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C69" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D69" s="433" t="s">
-        <v>299</v>
-      </c>
-      <c r="E69" s="434">
-        <v>1681500</v>
-      </c>
-      <c r="F69" s="435"/>
+        <v>285</v>
+      </c>
+      <c r="E69" s="434"/>
+      <c r="F69" s="435">
+        <v>95000000</v>
+      </c>
       <c r="G69" s="434"/>
       <c r="H69" s="435"/>
     </row>
-    <row r="70" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="430" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="431">
         <v>44009</v>
       </c>
       <c r="B70" s="431" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="C70" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D70" s="433" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="E70" s="434"/>
-      <c r="F70" s="435">
-        <v>95000000</v>
-      </c>
-      <c r="G70" s="434"/>
+      <c r="F70" s="435"/>
+      <c r="G70" s="434">
+        <f>60*1650000</f>
+        <v>99000000</v>
+      </c>
       <c r="H70" s="435"/>
     </row>
     <row r="71" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="431">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B71" s="431" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C71" s="432" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D71" s="433" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E71" s="434"/>
       <c r="F71" s="435"/>
-      <c r="G71" s="434">
-        <f>60*1650000</f>
-        <v>99000000</v>
-      </c>
-      <c r="H71" s="435"/>
+      <c r="G71" s="434"/>
+      <c r="H71" s="435">
+        <v>105000</v>
+      </c>
     </row>
     <row r="72" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="431">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B72" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C72" s="432" t="s">
         <v>244</v>
@@ -5403,7 +5415,7 @@
       <c r="F72" s="435"/>
       <c r="G72" s="434"/>
       <c r="H72" s="435">
-        <v>105000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5411,7 +5423,7 @@
         <v>44011</v>
       </c>
       <c r="B73" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C73" s="432" t="s">
         <v>244</v>
@@ -5423,15 +5435,15 @@
       <c r="F73" s="435"/>
       <c r="G73" s="434"/>
       <c r="H73" s="435">
-        <v>40000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="431">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B74" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C74" s="432" t="s">
         <v>244</v>
@@ -5442,8 +5454,9 @@
       <c r="E74" s="434"/>
       <c r="F74" s="435"/>
       <c r="G74" s="434"/>
-      <c r="H74" s="435">
-        <v>105000</v>
+      <c r="H74" s="436">
+        <f>15000*22</f>
+        <v>330000</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5451,20 +5464,19 @@
         <v>44012</v>
       </c>
       <c r="B75" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C75" s="432" t="s">
         <v>244</v>
       </c>
       <c r="D75" s="433" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E75" s="434"/>
       <c r="F75" s="435"/>
       <c r="G75" s="434"/>
       <c r="H75" s="436">
-        <f>15000*22</f>
-        <v>330000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5472,19 +5484,19 @@
         <v>44012</v>
       </c>
       <c r="B76" s="431" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C76" s="432" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D76" s="433" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="E76" s="434"/>
       <c r="F76" s="435"/>
       <c r="G76" s="434"/>
       <c r="H76" s="436">
-        <v>90000</v>
+        <v>776000</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5495,16 +5507,16 @@
         <v>359</v>
       </c>
       <c r="C77" s="432" t="s">
-        <v>257</v>
-      </c>
-      <c r="D77" s="433" t="s">
-        <v>270</v>
+        <v>244</v>
+      </c>
+      <c r="D77" s="437" t="s">
+        <v>247</v>
       </c>
       <c r="E77" s="434"/>
       <c r="F77" s="435"/>
       <c r="G77" s="434"/>
       <c r="H77" s="436">
-        <v>776000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5512,82 +5524,72 @@
         <v>44012</v>
       </c>
       <c r="B78" s="431" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C78" s="432" t="s">
-        <v>244</v>
-      </c>
-      <c r="D78" s="437" t="s">
-        <v>247</v>
+        <v>242</v>
+      </c>
+      <c r="D78" s="433" t="s">
+        <v>283</v>
       </c>
       <c r="E78" s="434"/>
       <c r="F78" s="435"/>
       <c r="G78" s="434"/>
       <c r="H78" s="436">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="430" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="431">
-        <v>44012</v>
-      </c>
-      <c r="B79" s="431" t="s">
-        <v>360</v>
-      </c>
-      <c r="C79" s="432" t="s">
-        <v>242</v>
-      </c>
-      <c r="D79" s="433" t="s">
-        <v>284</v>
-      </c>
-      <c r="E79" s="434"/>
-      <c r="F79" s="435"/>
-      <c r="G79" s="434"/>
-      <c r="H79" s="436">
         <f>'Hỗ trợ vận chuyển'!D26+'Hỗ trợ vận chuyển'!E26+'Hỗ trợ vận chuyển'!F26</f>
         <v>365000</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="99" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="475" t="s">
+    <row r="79" spans="1:8" s="99" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="475" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="476"/>
-      <c r="C80" s="476"/>
-      <c r="D80" s="477"/>
-      <c r="E80" s="98">
-        <f>SUM(E8:E79)</f>
+      <c r="B79" s="476"/>
+      <c r="C79" s="476"/>
+      <c r="D79" s="477"/>
+      <c r="E79" s="98">
+        <f>SUM(E8:E78)</f>
         <v>74738350</v>
       </c>
-      <c r="F80" s="98">
-        <f t="shared" ref="F80:H80" si="0">SUM(F8:F79)</f>
-        <v>166846550</v>
-      </c>
-      <c r="G80" s="98">
-        <f t="shared" si="0"/>
+      <c r="F79" s="98">
+        <f>SUM(F8:F78)</f>
+        <v>156846550</v>
+      </c>
+      <c r="G79" s="98">
+        <f>SUM(G8:G78)</f>
         <v>256920000</v>
       </c>
-      <c r="H80" s="98">
-        <f t="shared" si="0"/>
+      <c r="H79" s="98">
+        <f>SUM(H8:H78)</f>
         <v>43311587</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="129"/>
-      <c r="B81" s="129"/>
-      <c r="C81" s="100"/>
+    <row r="80" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="129"/>
+      <c r="B80" s="129"/>
+      <c r="C80" s="100"/>
+      <c r="D80" s="100"/>
+      <c r="E80" s="101"/>
+      <c r="F80" s="101"/>
+      <c r="G80" s="101"/>
+      <c r="H80" s="101"/>
+    </row>
+    <row r="81" spans="1:8" s="99" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="474" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="474"/>
+      <c r="C81" s="474"/>
       <c r="D81" s="100"/>
       <c r="E81" s="101"/>
       <c r="F81" s="101"/>
       <c r="G81" s="101"/>
       <c r="H81" s="101"/>
     </row>
-    <row r="82" spans="1:8" s="99" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="474" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" s="474"/>
-      <c r="C82" s="474"/>
+    <row r="82" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="129"/>
+      <c r="B82" s="129"/>
+      <c r="C82" s="100"/>
       <c r="D82" s="100"/>
       <c r="E82" s="101"/>
       <c r="F82" s="101"/>
@@ -5596,341 +5598,351 @@
     </row>
     <row r="83" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="129"/>
-      <c r="B83" s="129"/>
-      <c r="C83" s="100"/>
-      <c r="D83" s="100"/>
+      <c r="B83" s="481" t="s">
+        <v>273</v>
+      </c>
+      <c r="C83" s="481"/>
+      <c r="D83" s="438"/>
       <c r="E83" s="101"/>
       <c r="F83" s="101"/>
       <c r="G83" s="101"/>
       <c r="H83" s="101"/>
     </row>
-    <row r="84" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="129"/>
-      <c r="B84" s="481" t="s">
+    <row r="84" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="469" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="472" t="s">
+        <v>303</v>
+      </c>
+      <c r="C84" s="469" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="470" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="471" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="471"/>
+      <c r="G84" s="471" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="471"/>
+    </row>
+    <row r="85" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="469"/>
+      <c r="B85" s="473"/>
+      <c r="C85" s="469"/>
+      <c r="D85" s="470"/>
+      <c r="E85" s="334" t="s">
+        <v>81</v>
+      </c>
+      <c r="F85" s="334" t="s">
+        <v>57</v>
+      </c>
+      <c r="G85" s="334" t="s">
+        <v>81</v>
+      </c>
+      <c r="H85" s="334" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="431">
+        <v>43983</v>
+      </c>
+      <c r="B86" s="425" t="s">
+        <v>305</v>
+      </c>
+      <c r="C86" s="432" t="s">
         <v>273</v>
       </c>
-      <c r="C84" s="481"/>
-      <c r="D84" s="438"/>
-      <c r="E84" s="101"/>
-      <c r="F84" s="101"/>
-      <c r="G84" s="101"/>
-      <c r="H84" s="101"/>
-    </row>
-    <row r="85" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="469" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85" s="472" t="s">
-        <v>304</v>
-      </c>
-      <c r="C85" s="469" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="470" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="471" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" s="471"/>
-      <c r="G85" s="471" t="s">
-        <v>8</v>
-      </c>
-      <c r="H85" s="471"/>
-    </row>
-    <row r="86" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="469"/>
-      <c r="B86" s="473"/>
-      <c r="C86" s="469"/>
-      <c r="D86" s="470"/>
-      <c r="E86" s="334" t="s">
-        <v>81</v>
-      </c>
-      <c r="F86" s="334" t="s">
-        <v>57</v>
-      </c>
-      <c r="G86" s="334" t="s">
-        <v>81</v>
-      </c>
-      <c r="H86" s="334" t="s">
-        <v>57</v>
-      </c>
+      <c r="D86" s="433" t="s">
+        <v>274</v>
+      </c>
+      <c r="E86" s="434">
+        <v>9800000</v>
+      </c>
+      <c r="F86" s="435"/>
+      <c r="G86" s="434"/>
+      <c r="H86" s="435"/>
     </row>
     <row r="87" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="431">
         <v>43983</v>
       </c>
-      <c r="B87" s="425" t="s">
-        <v>307</v>
+      <c r="B87" s="431" t="s">
+        <v>333</v>
       </c>
       <c r="C87" s="432" t="s">
         <v>273</v>
       </c>
       <c r="D87" s="433" t="s">
-        <v>274</v>
-      </c>
-      <c r="E87" s="434">
-        <v>9800000</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="E87" s="434"/>
       <c r="F87" s="435"/>
       <c r="G87" s="434"/>
-      <c r="H87" s="435"/>
-    </row>
-    <row r="88" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="431">
-        <v>43983</v>
-      </c>
-      <c r="B88" s="431" t="s">
-        <v>335</v>
-      </c>
-      <c r="C88" s="432" t="s">
-        <v>273</v>
-      </c>
-      <c r="D88" s="433" t="s">
-        <v>334</v>
-      </c>
-      <c r="E88" s="434"/>
-      <c r="F88" s="435"/>
-      <c r="G88" s="434"/>
-      <c r="H88" s="435">
+      <c r="H87" s="435">
         <v>9800000</v>
       </c>
     </row>
+    <row r="88" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="478" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="479"/>
+      <c r="C88" s="479"/>
+      <c r="D88" s="480"/>
+      <c r="E88" s="98">
+        <f>SUBTOTAL(9,E86:E87)</f>
+        <v>9800000</v>
+      </c>
+      <c r="F88" s="98"/>
+      <c r="G88" s="98"/>
+      <c r="H88" s="98">
+        <f t="shared" ref="H88" si="0">SUBTOTAL(9,H86:H87)</f>
+        <v>9800000</v>
+      </c>
+    </row>
     <row r="89" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="478" t="s">
-        <v>60</v>
-      </c>
-      <c r="B89" s="479"/>
-      <c r="C89" s="479"/>
-      <c r="D89" s="480"/>
-      <c r="E89" s="98">
-        <f>SUBTOTAL(9,E87:E88)</f>
-        <v>9800000</v>
-      </c>
-      <c r="F89" s="98"/>
-      <c r="G89" s="98"/>
-      <c r="H89" s="98">
-        <f t="shared" ref="H89" si="1">SUBTOTAL(9,H87:H88)</f>
-        <v>9800000</v>
-      </c>
+      <c r="A89" s="129"/>
+      <c r="B89" s="129"/>
+      <c r="C89" s="100"/>
+      <c r="D89" s="100"/>
+      <c r="E89" s="101"/>
+      <c r="F89" s="101"/>
+      <c r="G89" s="101"/>
+      <c r="H89" s="101"/>
     </row>
     <row r="90" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="129"/>
       <c r="B90" s="129"/>
-      <c r="C90" s="100"/>
-      <c r="D90" s="100"/>
+      <c r="C90" s="482" t="s">
+        <v>276</v>
+      </c>
+      <c r="D90" s="482"/>
       <c r="E90" s="101"/>
       <c r="F90" s="101"/>
       <c r="G90" s="101"/>
       <c r="H90" s="101"/>
     </row>
-    <row r="91" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="129"/>
-      <c r="B91" s="129"/>
-      <c r="C91" s="482" t="s">
-        <v>277</v>
-      </c>
-      <c r="D91" s="482"/>
-      <c r="E91" s="101"/>
-      <c r="F91" s="101"/>
-      <c r="G91" s="101"/>
-      <c r="H91" s="101"/>
-    </row>
-    <row r="92" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="469" t="s">
+    <row r="91" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="469" t="s">
         <v>4</v>
       </c>
-      <c r="B92" s="472" t="s">
-        <v>304</v>
-      </c>
-      <c r="C92" s="469" t="s">
+      <c r="B91" s="472" t="s">
+        <v>303</v>
+      </c>
+      <c r="C91" s="469" t="s">
         <v>5</v>
       </c>
-      <c r="D92" s="470" t="s">
+      <c r="D91" s="470" t="s">
         <v>6</v>
       </c>
-      <c r="E92" s="471" t="s">
+      <c r="E91" s="471" t="s">
         <v>7</v>
       </c>
-      <c r="F92" s="471"/>
-      <c r="G92" s="471" t="s">
+      <c r="F91" s="471"/>
+      <c r="G91" s="471" t="s">
         <v>8</v>
       </c>
-      <c r="H92" s="471"/>
-    </row>
-    <row r="93" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="469"/>
-      <c r="B93" s="473"/>
-      <c r="C93" s="469"/>
-      <c r="D93" s="470"/>
-      <c r="E93" s="334" t="s">
+      <c r="H91" s="471"/>
+    </row>
+    <row r="92" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="469"/>
+      <c r="B92" s="473"/>
+      <c r="C92" s="469"/>
+      <c r="D92" s="470"/>
+      <c r="E92" s="334" t="s">
         <v>81</v>
       </c>
-      <c r="F93" s="334" t="s">
+      <c r="F92" s="334" t="s">
         <v>57</v>
       </c>
-      <c r="G93" s="334" t="s">
+      <c r="G92" s="334" t="s">
         <v>81</v>
       </c>
-      <c r="H93" s="334" t="s">
+      <c r="H92" s="334" t="s">
         <v>57</v>
       </c>
     </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="335">
+        <v>43984</v>
+      </c>
+      <c r="B93" s="431" t="s">
+        <v>337</v>
+      </c>
+      <c r="C93" s="336" t="s">
+        <v>255</v>
+      </c>
+      <c r="D93" s="337" t="s">
+        <v>256</v>
+      </c>
+      <c r="E93" s="332"/>
+      <c r="F93" s="333"/>
+      <c r="G93" s="332">
+        <v>10000000</v>
+      </c>
+      <c r="H93" s="333"/>
+    </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="335">
-        <v>43984</v>
+      <c r="A94" s="128">
+        <v>43987</v>
       </c>
       <c r="B94" s="431" t="s">
-        <v>339</v>
-      </c>
-      <c r="C94" s="336" t="s">
+        <v>340</v>
+      </c>
+      <c r="C94" s="79" t="s">
         <v>255</v>
       </c>
-      <c r="D94" s="337" t="s">
-        <v>256</v>
-      </c>
-      <c r="E94" s="332"/>
-      <c r="F94" s="333"/>
-      <c r="G94" s="332">
-        <v>10000000</v>
-      </c>
-      <c r="H94" s="333"/>
+      <c r="D94" s="80" t="s">
+        <v>259</v>
+      </c>
+      <c r="E94" s="81"/>
+      <c r="F94" s="97"/>
+      <c r="G94" s="81">
+        <v>1512000</v>
+      </c>
+      <c r="H94" s="97"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="128">
-        <v>43987</v>
+      <c r="A95" s="327">
+        <v>44008</v>
       </c>
       <c r="B95" s="431" t="s">
-        <v>342</v>
-      </c>
-      <c r="C95" s="79" t="s">
+        <v>355</v>
+      </c>
+      <c r="C95" s="328" t="s">
         <v>255</v>
       </c>
-      <c r="D95" s="80" t="s">
-        <v>259</v>
-      </c>
-      <c r="E95" s="81"/>
-      <c r="F95" s="97"/>
-      <c r="G95" s="81">
-        <v>1512000</v>
-      </c>
-      <c r="H95" s="97"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="327">
-        <v>44008</v>
-      </c>
-      <c r="B96" s="431" t="s">
-        <v>357</v>
-      </c>
-      <c r="C96" s="328" t="s">
-        <v>255</v>
-      </c>
-      <c r="D96" s="329" t="s">
+      <c r="D95" s="329" t="s">
         <v>266</v>
       </c>
-      <c r="E96" s="330"/>
-      <c r="F96" s="331"/>
-      <c r="G96" s="330">
+      <c r="E95" s="330"/>
+      <c r="F95" s="331"/>
+      <c r="G95" s="330">
         <v>8000000</v>
       </c>
-      <c r="H96" s="331"/>
+      <c r="H95" s="331"/>
+    </row>
+    <row r="96" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A96" s="478" t="s">
+        <v>60</v>
+      </c>
+      <c r="B96" s="479"/>
+      <c r="C96" s="479"/>
+      <c r="D96" s="480"/>
+      <c r="E96" s="98"/>
+      <c r="F96" s="338"/>
+      <c r="G96" s="98">
+        <f>SUM(G93:G95)</f>
+        <v>19512000</v>
+      </c>
+      <c r="H96" s="338"/>
     </row>
     <row r="97" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="478" t="s">
-        <v>60</v>
-      </c>
-      <c r="B97" s="479"/>
-      <c r="C97" s="479"/>
-      <c r="D97" s="480"/>
-      <c r="E97" s="98"/>
-      <c r="F97" s="338"/>
-      <c r="G97" s="98">
-        <f>SUM(G94:G96)</f>
-        <v>19512000</v>
-      </c>
-      <c r="H97" s="338"/>
+      <c r="A97" s="129"/>
+      <c r="B97" s="129"/>
+      <c r="C97" s="100"/>
+      <c r="D97" s="100"/>
+      <c r="E97" s="101"/>
+      <c r="F97" s="101"/>
+      <c r="G97" s="101"/>
+      <c r="H97" s="101"/>
     </row>
     <row r="98" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="129"/>
       <c r="B98" s="129"/>
-      <c r="C98" s="100"/>
-      <c r="D98" s="100"/>
+      <c r="C98" s="483" t="s">
+        <v>277</v>
+      </c>
+      <c r="D98" s="483"/>
       <c r="E98" s="101"/>
       <c r="F98" s="101"/>
       <c r="G98" s="101"/>
       <c r="H98" s="101"/>
     </row>
-    <row r="99" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="129"/>
-      <c r="B99" s="129"/>
-      <c r="C99" s="483" t="s">
-        <v>278</v>
-      </c>
-      <c r="D99" s="483"/>
-      <c r="E99" s="101"/>
-      <c r="F99" s="101"/>
-      <c r="G99" s="101"/>
-      <c r="H99" s="101"/>
-    </row>
-    <row r="100" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="469" t="s">
+    <row r="99" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="469" t="s">
         <v>4</v>
       </c>
-      <c r="B100" s="472" t="s">
-        <v>304</v>
-      </c>
-      <c r="C100" s="469" t="s">
+      <c r="B99" s="472" t="s">
+        <v>303</v>
+      </c>
+      <c r="C99" s="469" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="470" t="s">
+      <c r="D99" s="470" t="s">
         <v>6</v>
       </c>
-      <c r="E100" s="471" t="s">
+      <c r="E99" s="471" t="s">
         <v>7</v>
       </c>
-      <c r="F100" s="471"/>
-      <c r="G100" s="471" t="s">
+      <c r="F99" s="471"/>
+      <c r="G99" s="471" t="s">
         <v>8</v>
       </c>
-      <c r="H100" s="471"/>
-    </row>
-    <row r="101" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="469"/>
-      <c r="B101" s="473"/>
-      <c r="C101" s="469"/>
-      <c r="D101" s="470"/>
-      <c r="E101" s="334" t="s">
+      <c r="H99" s="471"/>
+    </row>
+    <row r="100" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="469"/>
+      <c r="B100" s="473"/>
+      <c r="C100" s="469"/>
+      <c r="D100" s="470"/>
+      <c r="E100" s="334" t="s">
         <v>81</v>
       </c>
-      <c r="F101" s="334" t="s">
+      <c r="F100" s="334" t="s">
         <v>57</v>
       </c>
-      <c r="G101" s="334" t="s">
+      <c r="G100" s="334" t="s">
         <v>81</v>
       </c>
-      <c r="H101" s="334" t="s">
+      <c r="H100" s="334" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="431">
+        <v>43987</v>
+      </c>
+      <c r="B101" s="431" t="s">
+        <v>359</v>
+      </c>
+      <c r="C101" s="432" t="s">
+        <v>244</v>
+      </c>
+      <c r="D101" s="433" t="s">
+        <v>247</v>
+      </c>
+      <c r="E101" s="434"/>
+      <c r="F101" s="435"/>
+      <c r="G101" s="434"/>
+      <c r="H101" s="435">
+        <v>500000</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="431">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B102" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C102" s="432" t="s">
         <v>244</v>
       </c>
       <c r="D102" s="433" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E102" s="434"/>
       <c r="F102" s="435"/>
       <c r="G102" s="434"/>
       <c r="H102" s="435">
-        <v>500000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -5938,7 +5950,7 @@
         <v>43988</v>
       </c>
       <c r="B103" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C103" s="432" t="s">
         <v>244</v>
@@ -5953,12 +5965,12 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="431">
-        <v>43988</v>
+        <v>43992</v>
       </c>
       <c r="B104" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C104" s="432" t="s">
         <v>244</v>
@@ -5973,52 +5985,52 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="431">
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="B105" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C105" s="432" t="s">
         <v>244</v>
       </c>
       <c r="D105" s="433" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E105" s="434"/>
       <c r="F105" s="435"/>
       <c r="G105" s="434"/>
       <c r="H105" s="435">
-        <v>40000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="431">
-        <v>43994</v>
+        <v>43998</v>
       </c>
       <c r="B106" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C106" s="432" t="s">
         <v>244</v>
       </c>
       <c r="D106" s="433" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E106" s="434"/>
       <c r="F106" s="435"/>
       <c r="G106" s="434"/>
       <c r="H106" s="435">
-        <v>500000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="431">
-        <v>43998</v>
+        <v>44002</v>
       </c>
       <c r="B107" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C107" s="432" t="s">
         <v>244</v>
@@ -6035,10 +6047,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="431">
-        <v>44002</v>
+        <v>44006</v>
       </c>
       <c r="B108" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C108" s="432" t="s">
         <v>244</v>
@@ -6050,15 +6062,15 @@
       <c r="F108" s="435"/>
       <c r="G108" s="434"/>
       <c r="H108" s="435">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="431">
         <v>44006</v>
       </c>
       <c r="B109" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C109" s="432" t="s">
         <v>244</v>
@@ -6073,12 +6085,12 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="431">
-        <v>44006</v>
+        <v>44010</v>
       </c>
       <c r="B110" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C110" s="432" t="s">
         <v>244</v>
@@ -6095,10 +6107,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="431">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B111" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C111" s="432" t="s">
         <v>244</v>
@@ -6110,7 +6122,7 @@
       <c r="F111" s="435"/>
       <c r="G111" s="434"/>
       <c r="H111" s="435">
-        <v>105000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -6118,7 +6130,7 @@
         <v>44011</v>
       </c>
       <c r="B112" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C112" s="432" t="s">
         <v>244</v>
@@ -6130,15 +6142,15 @@
       <c r="F112" s="435"/>
       <c r="G112" s="434"/>
       <c r="H112" s="435">
-        <v>40000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="431">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B113" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C113" s="432" t="s">
         <v>244</v>
@@ -6149,8 +6161,8 @@
       <c r="E113" s="434"/>
       <c r="F113" s="435"/>
       <c r="G113" s="434"/>
-      <c r="H113" s="435">
-        <v>105000</v>
+      <c r="H113" s="436">
+        <v>330000</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -6158,19 +6170,19 @@
         <v>44012</v>
       </c>
       <c r="B114" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C114" s="432" t="s">
         <v>244</v>
       </c>
       <c r="D114" s="433" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E114" s="434"/>
       <c r="F114" s="435"/>
       <c r="G114" s="434"/>
       <c r="H114" s="436">
-        <v>330000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -6178,221 +6190,221 @@
         <v>44012</v>
       </c>
       <c r="B115" s="431" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C115" s="432" t="s">
         <v>244</v>
       </c>
-      <c r="D115" s="433" t="s">
-        <v>246</v>
+      <c r="D115" s="437" t="s">
+        <v>247</v>
       </c>
       <c r="E115" s="434"/>
       <c r="F115" s="435"/>
       <c r="G115" s="434"/>
       <c r="H115" s="436">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="431">
-        <v>44012</v>
-      </c>
-      <c r="B116" s="431" t="s">
-        <v>361</v>
-      </c>
-      <c r="C116" s="432" t="s">
-        <v>244</v>
-      </c>
-      <c r="D116" s="437" t="s">
-        <v>247</v>
-      </c>
-      <c r="E116" s="434"/>
-      <c r="F116" s="435"/>
-      <c r="G116" s="434"/>
-      <c r="H116" s="436">
         <v>1000000</v>
       </c>
     </row>
+    <row r="116" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A116" s="478" t="s">
+        <v>60</v>
+      </c>
+      <c r="B116" s="479"/>
+      <c r="C116" s="479"/>
+      <c r="D116" s="480"/>
+      <c r="E116" s="98"/>
+      <c r="F116" s="338"/>
+      <c r="G116" s="98"/>
+      <c r="H116" s="338">
+        <f>SUM(H101:H115)</f>
+        <v>3080000</v>
+      </c>
+    </row>
     <row r="117" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A117" s="478" t="s">
-        <v>60</v>
-      </c>
-      <c r="B117" s="479"/>
-      <c r="C117" s="479"/>
-      <c r="D117" s="480"/>
-      <c r="E117" s="98"/>
-      <c r="F117" s="338"/>
-      <c r="G117" s="98"/>
-      <c r="H117" s="338">
-        <f>SUM(H102:H116)</f>
-        <v>3080000</v>
-      </c>
+      <c r="A117" s="129"/>
+      <c r="B117" s="129"/>
+      <c r="C117" s="100"/>
+      <c r="D117" s="100"/>
+      <c r="E117" s="101"/>
+      <c r="F117" s="101"/>
+      <c r="G117" s="101"/>
+      <c r="H117" s="101"/>
     </row>
     <row r="118" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="129"/>
       <c r="B118" s="129"/>
-      <c r="C118" s="100"/>
-      <c r="D118" s="100"/>
+      <c r="C118" s="484" t="s">
+        <v>278</v>
+      </c>
+      <c r="D118" s="484"/>
       <c r="E118" s="101"/>
       <c r="F118" s="101"/>
       <c r="G118" s="101"/>
       <c r="H118" s="101"/>
     </row>
-    <row r="119" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A119" s="129"/>
-      <c r="B119" s="129"/>
-      <c r="C119" s="484" t="s">
-        <v>279</v>
-      </c>
-      <c r="D119" s="484"/>
-      <c r="E119" s="101"/>
-      <c r="F119" s="101"/>
-      <c r="G119" s="101"/>
-      <c r="H119" s="101"/>
-    </row>
-    <row r="120" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="469" t="s">
+    <row r="119" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="469" t="s">
         <v>4</v>
       </c>
-      <c r="B120" s="472" t="s">
+      <c r="B119" s="472" t="s">
+        <v>303</v>
+      </c>
+      <c r="C119" s="469" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="470" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="471" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="471"/>
+      <c r="G119" s="471" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" s="471"/>
+    </row>
+    <row r="120" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="469"/>
+      <c r="B120" s="473"/>
+      <c r="C120" s="469"/>
+      <c r="D120" s="470"/>
+      <c r="E120" s="334" t="s">
+        <v>81</v>
+      </c>
+      <c r="F120" s="334" t="s">
+        <v>57</v>
+      </c>
+      <c r="G120" s="334" t="s">
+        <v>81</v>
+      </c>
+      <c r="H120" s="334" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="425">
+        <v>43980</v>
+      </c>
+      <c r="B121" s="425" t="s">
         <v>304</v>
       </c>
-      <c r="C120" s="469" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" s="470" t="s">
-        <v>6</v>
-      </c>
-      <c r="E120" s="471" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" s="471"/>
-      <c r="G120" s="471" t="s">
-        <v>8</v>
-      </c>
-      <c r="H120" s="471"/>
-    </row>
-    <row r="121" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="469"/>
-      <c r="B121" s="473"/>
-      <c r="C121" s="469"/>
-      <c r="D121" s="470"/>
-      <c r="E121" s="334" t="s">
-        <v>81</v>
-      </c>
-      <c r="F121" s="334" t="s">
-        <v>57</v>
-      </c>
-      <c r="G121" s="334" t="s">
-        <v>81</v>
-      </c>
-      <c r="H121" s="334" t="s">
-        <v>57</v>
-      </c>
+      <c r="C121" s="426" t="s">
+        <v>267</v>
+      </c>
+      <c r="D121" s="427" t="s">
+        <v>294</v>
+      </c>
+      <c r="E121" s="428"/>
+      <c r="F121" s="429">
+        <v>6867600</v>
+      </c>
+      <c r="G121" s="428"/>
+      <c r="H121" s="429"/>
     </row>
     <row r="122" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="425">
-        <v>43949</v>
-      </c>
-      <c r="B122" s="425" t="s">
-        <v>305</v>
-      </c>
-      <c r="C122" s="426" t="s">
+      <c r="A122" s="431">
+        <v>43983</v>
+      </c>
+      <c r="B122" s="431" t="s">
+        <v>312</v>
+      </c>
+      <c r="C122" s="432" t="s">
         <v>267</v>
       </c>
-      <c r="D122" s="427" t="s">
-        <v>275</v>
-      </c>
-      <c r="E122" s="428"/>
-      <c r="F122" s="429">
-        <v>10000000</v>
-      </c>
-      <c r="G122" s="428"/>
-      <c r="H122" s="429"/>
-    </row>
-    <row r="123" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="425">
-        <v>43980</v>
-      </c>
-      <c r="B123" s="425" t="s">
-        <v>306</v>
-      </c>
-      <c r="C123" s="426" t="s">
+      <c r="D122" s="433" t="s">
+        <v>288</v>
+      </c>
+      <c r="E122" s="434"/>
+      <c r="F122" s="435">
+        <v>19328400</v>
+      </c>
+      <c r="G122" s="434"/>
+      <c r="H122" s="435"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="431">
+        <v>43983</v>
+      </c>
+      <c r="B123" s="431" t="s">
+        <v>313</v>
+      </c>
+      <c r="C123" s="432" t="s">
         <v>267</v>
       </c>
-      <c r="D123" s="427" t="s">
-        <v>295</v>
-      </c>
-      <c r="E123" s="428"/>
-      <c r="F123" s="429">
-        <v>6867600</v>
-      </c>
-      <c r="G123" s="428"/>
-      <c r="H123" s="429"/>
-    </row>
-    <row r="124" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D123" s="433" t="s">
+        <v>288</v>
+      </c>
+      <c r="E123" s="434"/>
+      <c r="F123" s="435">
+        <v>23794300</v>
+      </c>
+      <c r="G123" s="434"/>
+      <c r="H123" s="435"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="431">
         <v>43983</v>
       </c>
       <c r="B124" s="431" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="C124" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D124" s="433" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="E124" s="434"/>
-      <c r="F124" s="435">
-        <v>19328400</v>
-      </c>
+      <c r="F124" s="435"/>
       <c r="G124" s="434"/>
-      <c r="H124" s="435"/>
+      <c r="H124" s="435">
+        <v>10822500</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="431">
         <v>43983</v>
       </c>
       <c r="B125" s="431" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C125" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D125" s="433" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E125" s="434"/>
       <c r="F125" s="435">
-        <v>23794300</v>
+        <v>3221400</v>
       </c>
       <c r="G125" s="434"/>
       <c r="H125" s="435"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="431">
-        <v>43983</v>
+        <v>43986</v>
       </c>
       <c r="B126" s="431" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="C126" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D126" s="433" t="s">
-        <v>333</v>
-      </c>
-      <c r="E126" s="434"/>
+        <v>272</v>
+      </c>
+      <c r="E126" s="434">
+        <v>861400</v>
+      </c>
       <c r="F126" s="435"/>
       <c r="G126" s="434"/>
-      <c r="H126" s="435">
-        <v>10822500</v>
-      </c>
+      <c r="H126" s="435"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="431">
-        <v>43983</v>
+        <v>43986</v>
       </c>
       <c r="B127" s="431" t="s">
         <v>308</v>
@@ -6403,16 +6415,16 @@
       <c r="D127" s="433" t="s">
         <v>296</v>
       </c>
-      <c r="E127" s="434"/>
-      <c r="F127" s="435">
-        <v>3221400</v>
-      </c>
+      <c r="E127" s="434">
+        <v>3363000</v>
+      </c>
+      <c r="F127" s="435"/>
       <c r="G127" s="434"/>
       <c r="H127" s="435"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="431">
-        <v>43986</v>
+        <v>43990</v>
       </c>
       <c r="B128" s="431" t="s">
         <v>309</v>
@@ -6421,10 +6433,10 @@
         <v>267</v>
       </c>
       <c r="D128" s="433" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="E128" s="434">
-        <v>861400</v>
+        <v>6442800</v>
       </c>
       <c r="F128" s="435"/>
       <c r="G128" s="434"/>
@@ -6432,7 +6444,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="431">
-        <v>43986</v>
+        <v>43990</v>
       </c>
       <c r="B129" s="431" t="s">
         <v>310</v>
@@ -6441,10 +6453,10 @@
         <v>267</v>
       </c>
       <c r="D129" s="433" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E129" s="434">
-        <v>3363000</v>
+        <v>3221400</v>
       </c>
       <c r="F129" s="435"/>
       <c r="G129" s="434"/>
@@ -6452,7 +6464,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="431">
-        <v>43990</v>
+        <v>43992</v>
       </c>
       <c r="B130" s="431" t="s">
         <v>311</v>
@@ -6461,21 +6473,21 @@
         <v>267</v>
       </c>
       <c r="D130" s="433" t="s">
-        <v>243</v>
-      </c>
-      <c r="E130" s="434">
-        <v>6442800</v>
-      </c>
-      <c r="F130" s="435"/>
+        <v>275</v>
+      </c>
+      <c r="E130" s="434"/>
+      <c r="F130" s="435">
+        <v>268450</v>
+      </c>
       <c r="G130" s="434"/>
       <c r="H130" s="435"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="431">
-        <v>43990</v>
+        <v>43995</v>
       </c>
       <c r="B131" s="431" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C131" s="432" t="s">
         <v>267</v>
@@ -6483,36 +6495,36 @@
       <c r="D131" s="433" t="s">
         <v>299</v>
       </c>
-      <c r="E131" s="434">
-        <v>3221400</v>
-      </c>
-      <c r="F131" s="435"/>
+      <c r="E131" s="434"/>
+      <c r="F131" s="435">
+        <v>4855700</v>
+      </c>
       <c r="G131" s="434"/>
       <c r="H131" s="435"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="431">
-        <v>43992</v>
+        <v>43997</v>
       </c>
       <c r="B132" s="431" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C132" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D132" s="433" t="s">
-        <v>276</v>
-      </c>
-      <c r="E132" s="434"/>
-      <c r="F132" s="435">
-        <v>268450</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="E132" s="434">
+        <v>16531800</v>
+      </c>
+      <c r="F132" s="435"/>
       <c r="G132" s="434"/>
       <c r="H132" s="435"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="431">
-        <v>43995</v>
+        <v>43998</v>
       </c>
       <c r="B133" s="431" t="s">
         <v>316</v>
@@ -6521,18 +6533,18 @@
         <v>267</v>
       </c>
       <c r="D133" s="433" t="s">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="E133" s="434"/>
       <c r="F133" s="435">
-        <v>4855700</v>
+        <v>1097400</v>
       </c>
       <c r="G133" s="434"/>
       <c r="H133" s="435"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="431">
-        <v>43997</v>
+        <v>44000</v>
       </c>
       <c r="B134" s="431" t="s">
         <v>317</v>
@@ -6541,10 +6553,10 @@
         <v>267</v>
       </c>
       <c r="D134" s="433" t="s">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="E134" s="434">
-        <v>16531800</v>
+        <v>2271500</v>
       </c>
       <c r="F134" s="435"/>
       <c r="G134" s="434"/>
@@ -6552,7 +6564,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="431">
-        <v>43998</v>
+        <v>44001</v>
       </c>
       <c r="B135" s="431" t="s">
         <v>318</v>
@@ -6561,78 +6573,78 @@
         <v>267</v>
       </c>
       <c r="D135" s="433" t="s">
-        <v>172</v>
-      </c>
-      <c r="E135" s="434"/>
-      <c r="F135" s="435">
-        <v>1097400</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="E135" s="434">
+        <v>4728850</v>
+      </c>
+      <c r="F135" s="435"/>
       <c r="G135" s="434"/>
       <c r="H135" s="435"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="431">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B136" s="431" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="C136" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D136" s="433" t="s">
-        <v>301</v>
-      </c>
-      <c r="E136" s="434">
-        <v>2271500</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="E136" s="434"/>
       <c r="F136" s="435"/>
-      <c r="G136" s="434"/>
+      <c r="G136" s="434">
+        <v>49500000</v>
+      </c>
       <c r="H136" s="435"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="431">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B137" s="431" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C137" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D137" s="433" t="s">
-        <v>299</v>
-      </c>
-      <c r="E137" s="434">
-        <v>4728850</v>
-      </c>
-      <c r="F137" s="435"/>
+        <v>275</v>
+      </c>
+      <c r="E137" s="434"/>
+      <c r="F137" s="435">
+        <v>536900</v>
+      </c>
       <c r="G137" s="434"/>
       <c r="H137" s="435"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="431">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B138" s="431" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="C138" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D138" s="433" t="s">
-        <v>269</v>
-      </c>
-      <c r="E138" s="434"/>
+        <v>301</v>
+      </c>
+      <c r="E138" s="434">
+        <v>2684500</v>
+      </c>
       <c r="F138" s="435"/>
-      <c r="G138" s="434">
-        <v>49500000</v>
-      </c>
+      <c r="G138" s="434"/>
       <c r="H138" s="435"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="431">
-        <v>44002</v>
+        <v>44004</v>
       </c>
       <c r="B139" s="431" t="s">
         <v>321</v>
@@ -6641,21 +6653,21 @@
         <v>267</v>
       </c>
       <c r="D139" s="433" t="s">
-        <v>276</v>
-      </c>
-      <c r="E139" s="434"/>
-      <c r="F139" s="435">
-        <v>536900</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="E139" s="434">
+        <v>3433800</v>
+      </c>
+      <c r="F139" s="435"/>
       <c r="G139" s="434"/>
       <c r="H139" s="435"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="431">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B140" s="431" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C140" s="432" t="s">
         <v>267</v>
@@ -6663,28 +6675,28 @@
       <c r="D140" s="433" t="s">
         <v>302</v>
       </c>
-      <c r="E140" s="434">
-        <v>2684500</v>
-      </c>
-      <c r="F140" s="435"/>
+      <c r="E140" s="434"/>
+      <c r="F140" s="435">
+        <v>610650</v>
+      </c>
       <c r="G140" s="434"/>
       <c r="H140" s="435"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="431">
-        <v>44004</v>
+        <v>44006</v>
       </c>
       <c r="B141" s="431" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C141" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D141" s="433" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="E141" s="434">
-        <v>3433800</v>
+        <v>16284000</v>
       </c>
       <c r="F141" s="435"/>
       <c r="G141" s="434"/>
@@ -6692,30 +6704,30 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="431">
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="B142" s="431" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C142" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D142" s="433" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="E142" s="434"/>
       <c r="F142" s="435">
-        <v>610650</v>
+        <v>295750</v>
       </c>
       <c r="G142" s="434"/>
       <c r="H142" s="435"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="431">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B143" s="431" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C143" s="432" t="s">
         <v>267</v>
@@ -6724,7 +6736,7 @@
         <v>243</v>
       </c>
       <c r="E143" s="434">
-        <v>16284000</v>
+        <v>3433800</v>
       </c>
       <c r="F143" s="435"/>
       <c r="G143" s="434"/>
@@ -6732,39 +6744,39 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="431">
-        <v>44007</v>
+        <v>44009</v>
       </c>
       <c r="B144" s="431" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C144" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D144" s="433" t="s">
-        <v>276</v>
+        <v>328</v>
       </c>
       <c r="E144" s="434"/>
       <c r="F144" s="435">
-        <v>295750</v>
+        <v>970000</v>
       </c>
       <c r="G144" s="434"/>
       <c r="H144" s="435"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="431">
-        <v>44007</v>
+        <v>44009</v>
       </c>
       <c r="B145" s="431" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C145" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D145" s="433" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="E145" s="434">
-        <v>3433800</v>
+        <v>1681500</v>
       </c>
       <c r="F145" s="435"/>
       <c r="G145" s="434"/>
@@ -6775,17 +6787,17 @@
         <v>44009</v>
       </c>
       <c r="B146" s="431" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C146" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D146" s="433" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="E146" s="434"/>
       <c r="F146" s="435">
-        <v>970000</v>
+        <v>95000000</v>
       </c>
       <c r="G146" s="434"/>
       <c r="H146" s="435"/>
@@ -6795,493 +6807,493 @@
         <v>44009</v>
       </c>
       <c r="B147" s="431" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="C147" s="432" t="s">
         <v>267</v>
       </c>
       <c r="D147" s="433" t="s">
-        <v>299</v>
-      </c>
-      <c r="E147" s="434">
-        <v>1681500</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="E147" s="434"/>
       <c r="F147" s="435"/>
-      <c r="G147" s="434"/>
+      <c r="G147" s="434">
+        <v>99000000</v>
+      </c>
       <c r="H147" s="435"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="431">
-        <v>44009</v>
-      </c>
-      <c r="B148" s="431" t="s">
-        <v>329</v>
-      </c>
-      <c r="C148" s="432" t="s">
-        <v>267</v>
-      </c>
-      <c r="D148" s="433" t="s">
-        <v>286</v>
-      </c>
-      <c r="E148" s="434"/>
-      <c r="F148" s="435">
-        <v>95000000</v>
-      </c>
-      <c r="G148" s="434"/>
-      <c r="H148" s="435"/>
+    <row r="148" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A148" s="478" t="s">
+        <v>60</v>
+      </c>
+      <c r="B148" s="479"/>
+      <c r="C148" s="479"/>
+      <c r="D148" s="480"/>
+      <c r="E148" s="98">
+        <f>SUM(E121:E147)</f>
+        <v>64938350</v>
+      </c>
+      <c r="F148" s="98">
+        <f>SUM(F121:F147)</f>
+        <v>156846550</v>
+      </c>
+      <c r="G148" s="98">
+        <f>SUM(G121:G147)</f>
+        <v>148500000</v>
+      </c>
+      <c r="H148" s="98">
+        <f>SUM(H121:H147)</f>
+        <v>10822500</v>
+      </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="431">
-        <v>44009</v>
-      </c>
-      <c r="B149" s="431" t="s">
-        <v>358</v>
-      </c>
-      <c r="C149" s="432" t="s">
-        <v>267</v>
-      </c>
-      <c r="D149" s="433" t="s">
-        <v>268</v>
-      </c>
-      <c r="E149" s="434"/>
-      <c r="F149" s="435"/>
-      <c r="G149" s="434">
-        <v>99000000</v>
-      </c>
-      <c r="H149" s="435"/>
+      <c r="A149" s="218"/>
+      <c r="B149" s="218"/>
+      <c r="C149" s="219"/>
+      <c r="D149" s="326"/>
+      <c r="E149" s="221"/>
+      <c r="F149" s="222"/>
+      <c r="G149" s="221"/>
+      <c r="H149" s="222"/>
     </row>
     <row r="150" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A150" s="478" t="s">
-        <v>60</v>
-      </c>
-      <c r="B150" s="479"/>
-      <c r="C150" s="479"/>
-      <c r="D150" s="480"/>
-      <c r="E150" s="98">
-        <f>SUM(E122:E149)</f>
-        <v>64938350</v>
-      </c>
-      <c r="F150" s="98">
-        <f t="shared" ref="F150:H150" si="2">SUM(F122:F149)</f>
-        <v>166846550</v>
-      </c>
-      <c r="G150" s="98">
-        <f t="shared" si="2"/>
-        <v>148500000</v>
-      </c>
-      <c r="H150" s="98">
-        <f t="shared" si="2"/>
-        <v>10822500</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="218"/>
-      <c r="B151" s="218"/>
-      <c r="C151" s="219"/>
-      <c r="D151" s="326"/>
-      <c r="E151" s="221"/>
-      <c r="F151" s="222"/>
-      <c r="G151" s="221"/>
-      <c r="H151" s="222"/>
-    </row>
-    <row r="152" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A152" s="129"/>
-      <c r="B152" s="129"/>
-      <c r="C152" s="484" t="s">
-        <v>280</v>
-      </c>
-      <c r="D152" s="484"/>
-      <c r="E152" s="101"/>
-      <c r="F152" s="101"/>
-      <c r="G152" s="101"/>
-      <c r="H152" s="101"/>
-    </row>
-    <row r="153" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="469" t="s">
+      <c r="A150" s="129"/>
+      <c r="B150" s="129"/>
+      <c r="C150" s="484" t="s">
+        <v>279</v>
+      </c>
+      <c r="D150" s="484"/>
+      <c r="E150" s="101"/>
+      <c r="F150" s="101"/>
+      <c r="G150" s="101"/>
+      <c r="H150" s="101"/>
+    </row>
+    <row r="151" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="469" t="s">
         <v>4</v>
       </c>
-      <c r="B153" s="472" t="s">
-        <v>304</v>
-      </c>
-      <c r="C153" s="469" t="s">
+      <c r="B151" s="472" t="s">
+        <v>303</v>
+      </c>
+      <c r="C151" s="469" t="s">
         <v>5</v>
       </c>
-      <c r="D153" s="470" t="s">
+      <c r="D151" s="470" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="471" t="s">
+      <c r="E151" s="471" t="s">
         <v>7</v>
       </c>
-      <c r="F153" s="471"/>
-      <c r="G153" s="471" t="s">
+      <c r="F151" s="471"/>
+      <c r="G151" s="471" t="s">
         <v>8</v>
       </c>
-      <c r="H153" s="471"/>
+      <c r="H151" s="471"/>
+    </row>
+    <row r="152" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="469"/>
+      <c r="B152" s="473"/>
+      <c r="C152" s="469"/>
+      <c r="D152" s="470"/>
+      <c r="E152" s="334" t="s">
+        <v>81</v>
+      </c>
+      <c r="F152" s="334" t="s">
+        <v>57</v>
+      </c>
+      <c r="G152" s="334" t="s">
+        <v>81</v>
+      </c>
+      <c r="H152" s="334" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="431">
+        <v>43983</v>
+      </c>
+      <c r="B153" s="431" t="s">
+        <v>334</v>
+      </c>
+      <c r="C153" s="432" t="s">
+        <v>204</v>
+      </c>
+      <c r="D153" s="433" t="s">
+        <v>289</v>
+      </c>
+      <c r="E153" s="434"/>
+      <c r="F153" s="435"/>
+      <c r="G153" s="434"/>
+      <c r="H153" s="435">
+        <v>7538462</v>
+      </c>
     </row>
     <row r="154" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="469"/>
-      <c r="B154" s="473"/>
-      <c r="C154" s="469"/>
-      <c r="D154" s="470"/>
-      <c r="E154" s="334" t="s">
-        <v>81</v>
-      </c>
-      <c r="F154" s="334" t="s">
-        <v>57</v>
-      </c>
-      <c r="G154" s="334" t="s">
-        <v>81</v>
-      </c>
-      <c r="H154" s="334" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="431">
+        <v>43983</v>
+      </c>
+      <c r="B154" s="431" t="s">
+        <v>335</v>
+      </c>
+      <c r="C154" s="432" t="s">
+        <v>204</v>
+      </c>
+      <c r="D154" s="433" t="s">
+        <v>290</v>
+      </c>
+      <c r="E154" s="434"/>
+      <c r="F154" s="435"/>
+      <c r="G154" s="434"/>
+      <c r="H154" s="435">
+        <v>1783100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="431">
-        <v>43983</v>
+        <v>43992</v>
       </c>
       <c r="B155" s="431" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C155" s="432" t="s">
         <v>204</v>
       </c>
       <c r="D155" s="433" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="E155" s="434"/>
       <c r="F155" s="435"/>
-      <c r="G155" s="434"/>
-      <c r="H155" s="435">
-        <v>7538462</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G155" s="434">
+        <v>4000000</v>
+      </c>
+      <c r="H155" s="435"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="431">
-        <v>43983</v>
+        <v>43992</v>
       </c>
       <c r="B156" s="431" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C156" s="432" t="s">
         <v>204</v>
       </c>
       <c r="D156" s="433" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="E156" s="434"/>
       <c r="F156" s="435"/>
-      <c r="G156" s="434"/>
-      <c r="H156" s="435">
-        <v>1783100</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="431">
-        <v>43992</v>
-      </c>
-      <c r="B157" s="431" t="s">
-        <v>346</v>
-      </c>
-      <c r="C157" s="432" t="s">
-        <v>204</v>
-      </c>
-      <c r="D157" s="433" t="s">
-        <v>262</v>
-      </c>
-      <c r="E157" s="434"/>
-      <c r="F157" s="435"/>
-      <c r="G157" s="434">
-        <v>4000000</v>
-      </c>
-      <c r="H157" s="435"/>
+      <c r="G156" s="434">
+        <v>2100000</v>
+      </c>
+      <c r="H156" s="435"/>
+    </row>
+    <row r="157" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A157" s="478" t="s">
+        <v>60</v>
+      </c>
+      <c r="B157" s="479"/>
+      <c r="C157" s="479"/>
+      <c r="D157" s="480"/>
+      <c r="E157" s="98"/>
+      <c r="F157" s="338"/>
+      <c r="G157" s="98">
+        <f>SUM(G153:G156)</f>
+        <v>6100000</v>
+      </c>
+      <c r="H157" s="98">
+        <f>SUM(H153:H156)</f>
+        <v>9321562</v>
+      </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="431">
-        <v>43992</v>
-      </c>
-      <c r="B158" s="431" t="s">
-        <v>347</v>
-      </c>
-      <c r="C158" s="432" t="s">
-        <v>204</v>
-      </c>
-      <c r="D158" s="433" t="s">
-        <v>261</v>
-      </c>
-      <c r="E158" s="434"/>
-      <c r="F158" s="435"/>
-      <c r="G158" s="434">
-        <v>2100000</v>
-      </c>
-      <c r="H158" s="435"/>
+      <c r="A158" s="218"/>
+      <c r="B158" s="218"/>
+      <c r="C158" s="219"/>
+      <c r="D158" s="220"/>
+      <c r="E158" s="221"/>
+      <c r="F158" s="222"/>
+      <c r="G158" s="221"/>
+      <c r="H158" s="222"/>
     </row>
     <row r="159" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A159" s="478" t="s">
-        <v>60</v>
-      </c>
-      <c r="B159" s="479"/>
-      <c r="C159" s="479"/>
-      <c r="D159" s="480"/>
-      <c r="E159" s="98"/>
-      <c r="F159" s="338"/>
-      <c r="G159" s="98">
-        <f>SUM(G155:G158)</f>
-        <v>6100000</v>
-      </c>
-      <c r="H159" s="98">
-        <f>SUM(H155:H158)</f>
-        <v>9321562</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="218"/>
-      <c r="B160" s="218"/>
-      <c r="C160" s="219"/>
-      <c r="D160" s="220"/>
-      <c r="E160" s="221"/>
-      <c r="F160" s="222"/>
-      <c r="G160" s="221"/>
-      <c r="H160" s="222"/>
-    </row>
-    <row r="161" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A161" s="129"/>
-      <c r="B161" s="129"/>
-      <c r="C161" s="484" t="s">
-        <v>281</v>
-      </c>
-      <c r="D161" s="484"/>
-      <c r="E161" s="101"/>
-      <c r="F161" s="101"/>
-      <c r="G161" s="101"/>
-      <c r="H161" s="101"/>
-    </row>
-    <row r="162" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="469" t="s">
+      <c r="A159" s="129"/>
+      <c r="B159" s="129"/>
+      <c r="C159" s="484" t="s">
+        <v>280</v>
+      </c>
+      <c r="D159" s="484"/>
+      <c r="E159" s="101"/>
+      <c r="F159" s="101"/>
+      <c r="G159" s="101"/>
+      <c r="H159" s="101"/>
+    </row>
+    <row r="160" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="469" t="s">
         <v>4</v>
       </c>
-      <c r="B162" s="472" t="s">
-        <v>304</v>
-      </c>
-      <c r="C162" s="469" t="s">
+      <c r="B160" s="472" t="s">
+        <v>303</v>
+      </c>
+      <c r="C160" s="469" t="s">
         <v>5</v>
       </c>
-      <c r="D162" s="470" t="s">
+      <c r="D160" s="470" t="s">
         <v>6</v>
       </c>
-      <c r="E162" s="471" t="s">
+      <c r="E160" s="471" t="s">
         <v>7</v>
       </c>
-      <c r="F162" s="471"/>
-      <c r="G162" s="471" t="s">
+      <c r="F160" s="471"/>
+      <c r="G160" s="471" t="s">
         <v>8</v>
       </c>
-      <c r="H162" s="471"/>
-    </row>
-    <row r="163" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="469"/>
-      <c r="B163" s="473"/>
-      <c r="C163" s="469"/>
-      <c r="D163" s="470"/>
-      <c r="E163" s="334" t="s">
+      <c r="H160" s="471"/>
+    </row>
+    <row r="161" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="469"/>
+      <c r="B161" s="473"/>
+      <c r="C161" s="469"/>
+      <c r="D161" s="470"/>
+      <c r="E161" s="334" t="s">
         <v>81</v>
       </c>
-      <c r="F163" s="334" t="s">
+      <c r="F161" s="334" t="s">
         <v>57</v>
       </c>
-      <c r="G163" s="334" t="s">
+      <c r="G161" s="334" t="s">
         <v>81</v>
       </c>
-      <c r="H163" s="334" t="s">
+      <c r="H161" s="334" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="431">
+        <v>43993</v>
+      </c>
+      <c r="B162" s="431" t="s">
+        <v>360</v>
+      </c>
+      <c r="C162" s="432" t="s">
+        <v>248</v>
+      </c>
+      <c r="D162" s="433" t="s">
+        <v>251</v>
+      </c>
+      <c r="E162" s="434"/>
+      <c r="F162" s="435"/>
+      <c r="G162" s="434"/>
+      <c r="H162" s="435">
+        <v>765000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="431">
+        <v>43996</v>
+      </c>
+      <c r="B163" s="431" t="s">
+        <v>360</v>
+      </c>
+      <c r="C163" s="432" t="s">
+        <v>248</v>
+      </c>
+      <c r="D163" s="433" t="s">
+        <v>249</v>
+      </c>
+      <c r="E163" s="434"/>
+      <c r="F163" s="435"/>
+      <c r="G163" s="434"/>
+      <c r="H163" s="435">
+        <v>165000</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="431">
-        <v>43993</v>
+        <v>43998</v>
       </c>
       <c r="B164" s="431" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C164" s="432" t="s">
         <v>248</v>
       </c>
       <c r="D164" s="433" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E164" s="434"/>
       <c r="F164" s="435"/>
-      <c r="G164" s="434"/>
-      <c r="H164" s="435">
-        <v>765000</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G164" s="434">
+        <v>1903000</v>
+      </c>
+      <c r="H164" s="435"/>
+    </row>
+    <row r="165" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="431">
-        <v>43996</v>
+        <v>44006</v>
       </c>
       <c r="B165" s="431" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C165" s="432" t="s">
         <v>248</v>
       </c>
       <c r="D165" s="433" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E165" s="434"/>
       <c r="F165" s="435"/>
       <c r="G165" s="434"/>
       <c r="H165" s="435">
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="431">
-        <v>43998</v>
-      </c>
-      <c r="B166" s="431" t="s">
-        <v>362</v>
-      </c>
-      <c r="C166" s="432" t="s">
-        <v>248</v>
-      </c>
-      <c r="D166" s="433" t="s">
-        <v>250</v>
-      </c>
-      <c r="E166" s="434"/>
-      <c r="F166" s="435"/>
-      <c r="G166" s="434">
+        <v>6429525</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A166" s="478" t="s">
+        <v>60</v>
+      </c>
+      <c r="B166" s="479"/>
+      <c r="C166" s="479"/>
+      <c r="D166" s="480"/>
+      <c r="E166" s="98"/>
+      <c r="F166" s="338"/>
+      <c r="G166" s="98">
+        <f>SUM(G162:G165)</f>
         <v>1903000</v>
       </c>
-      <c r="H166" s="435"/>
+      <c r="H166" s="338">
+        <f>SUM(H162:H165)</f>
+        <v>7359525</v>
+      </c>
     </row>
     <row r="167" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="431">
-        <v>44006</v>
-      </c>
-      <c r="B167" s="431" t="s">
-        <v>362</v>
-      </c>
-      <c r="C167" s="432" t="s">
-        <v>248</v>
-      </c>
-      <c r="D167" s="433" t="s">
-        <v>252</v>
-      </c>
-      <c r="E167" s="434"/>
-      <c r="F167" s="435"/>
-      <c r="G167" s="434"/>
-      <c r="H167" s="435">
-        <v>6429525</v>
-      </c>
+      <c r="A167" s="218"/>
+      <c r="B167" s="218"/>
+      <c r="C167" s="219"/>
+      <c r="D167" s="220"/>
+      <c r="E167" s="221"/>
+      <c r="F167" s="222"/>
+      <c r="G167" s="221"/>
+      <c r="H167" s="222"/>
     </row>
     <row r="168" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A168" s="478" t="s">
-        <v>60</v>
-      </c>
-      <c r="B168" s="479"/>
-      <c r="C168" s="479"/>
-      <c r="D168" s="480"/>
-      <c r="E168" s="98"/>
-      <c r="F168" s="338"/>
-      <c r="G168" s="98">
-        <f>SUM(G164:G167)</f>
-        <v>1903000</v>
-      </c>
-      <c r="H168" s="338">
-        <f>SUM(H164:H167)</f>
-        <v>7359525</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="218"/>
-      <c r="B169" s="218"/>
-      <c r="C169" s="219"/>
-      <c r="D169" s="220"/>
-      <c r="E169" s="221"/>
-      <c r="F169" s="222"/>
-      <c r="G169" s="221"/>
-      <c r="H169" s="222"/>
-    </row>
-    <row r="170" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A170" s="129"/>
-      <c r="B170" s="129"/>
-      <c r="C170" s="484" t="s">
-        <v>282</v>
-      </c>
-      <c r="D170" s="484"/>
-      <c r="E170" s="101"/>
-      <c r="F170" s="101"/>
-      <c r="G170" s="101"/>
-      <c r="H170" s="101"/>
-    </row>
-    <row r="171" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="469" t="s">
+      <c r="A168" s="129"/>
+      <c r="B168" s="129"/>
+      <c r="C168" s="484" t="s">
+        <v>281</v>
+      </c>
+      <c r="D168" s="484"/>
+      <c r="E168" s="101"/>
+      <c r="F168" s="101"/>
+      <c r="G168" s="101"/>
+      <c r="H168" s="101"/>
+    </row>
+    <row r="169" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="469" t="s">
         <v>4</v>
       </c>
-      <c r="B171" s="472" t="s">
-        <v>304</v>
-      </c>
-      <c r="C171" s="469" t="s">
+      <c r="B169" s="472" t="s">
+        <v>303</v>
+      </c>
+      <c r="C169" s="469" t="s">
         <v>5</v>
       </c>
-      <c r="D171" s="470" t="s">
+      <c r="D169" s="470" t="s">
         <v>6</v>
       </c>
-      <c r="E171" s="471" t="s">
+      <c r="E169" s="471" t="s">
         <v>7</v>
       </c>
-      <c r="F171" s="471"/>
-      <c r="G171" s="471" t="s">
+      <c r="F169" s="471"/>
+      <c r="G169" s="471" t="s">
         <v>8</v>
       </c>
-      <c r="H171" s="471"/>
-    </row>
-    <row r="172" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="469"/>
-      <c r="B172" s="473"/>
-      <c r="C172" s="469"/>
-      <c r="D172" s="470"/>
-      <c r="E172" s="334" t="s">
+      <c r="H169" s="471"/>
+    </row>
+    <row r="170" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="469"/>
+      <c r="B170" s="473"/>
+      <c r="C170" s="469"/>
+      <c r="D170" s="470"/>
+      <c r="E170" s="334" t="s">
         <v>81</v>
       </c>
-      <c r="F172" s="334" t="s">
+      <c r="F170" s="334" t="s">
         <v>57</v>
       </c>
-      <c r="G172" s="334" t="s">
+      <c r="G170" s="334" t="s">
         <v>81</v>
       </c>
-      <c r="H172" s="334" t="s">
+      <c r="H170" s="334" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="431">
+        <v>43990</v>
+      </c>
+      <c r="B171" s="431" t="s">
+        <v>341</v>
+      </c>
+      <c r="C171" s="432" t="s">
+        <v>242</v>
+      </c>
+      <c r="D171" s="433" t="s">
+        <v>297</v>
+      </c>
+      <c r="E171" s="434"/>
+      <c r="F171" s="435"/>
+      <c r="G171" s="434"/>
+      <c r="H171" s="435">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="431">
+        <v>43997</v>
+      </c>
+      <c r="B172" s="431" t="s">
+        <v>347</v>
+      </c>
+      <c r="C172" s="432" t="s">
+        <v>242</v>
+      </c>
+      <c r="D172" s="433" t="s">
+        <v>243</v>
+      </c>
+      <c r="E172" s="434"/>
+      <c r="F172" s="435"/>
+      <c r="G172" s="434"/>
+      <c r="H172" s="435">
+        <v>250000</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="431">
-        <v>43990</v>
+        <v>44006</v>
       </c>
       <c r="B173" s="431" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C173" s="432" t="s">
         <v>242</v>
       </c>
       <c r="D173" s="433" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="E173" s="434"/>
       <c r="F173" s="435"/>
       <c r="G173" s="434"/>
       <c r="H173" s="435">
-        <v>100000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="431">
-        <v>43997</v>
+        <v>44007</v>
       </c>
       <c r="B174" s="431" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C174" s="432" t="s">
         <v>242</v>
@@ -7293,600 +7305,560 @@
       <c r="F174" s="435"/>
       <c r="G174" s="434"/>
       <c r="H174" s="435">
-        <v>250000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="431">
-        <v>44006</v>
+        <v>44012</v>
       </c>
       <c r="B175" s="431" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C175" s="432" t="s">
         <v>242</v>
       </c>
       <c r="D175" s="433" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="E175" s="434"/>
       <c r="F175" s="435"/>
       <c r="G175" s="434"/>
-      <c r="H175" s="435">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="431">
-        <v>44007</v>
-      </c>
-      <c r="B176" s="431" t="s">
-        <v>355</v>
-      </c>
-      <c r="C176" s="432" t="s">
-        <v>242</v>
-      </c>
-      <c r="D176" s="433" t="s">
-        <v>243</v>
-      </c>
-      <c r="E176" s="434"/>
-      <c r="F176" s="435"/>
-      <c r="G176" s="434"/>
-      <c r="H176" s="435">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="431">
-        <v>44012</v>
-      </c>
-      <c r="B177" s="431" t="s">
-        <v>360</v>
-      </c>
-      <c r="C177" s="432" t="s">
-        <v>242</v>
-      </c>
-      <c r="D177" s="433" t="s">
-        <v>284</v>
-      </c>
-      <c r="E177" s="434"/>
-      <c r="F177" s="435"/>
-      <c r="G177" s="434"/>
-      <c r="H177" s="436">
+      <c r="H175" s="436">
         <v>365000</v>
       </c>
     </row>
+    <row r="176" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A176" s="478" t="s">
+        <v>60</v>
+      </c>
+      <c r="B176" s="479"/>
+      <c r="C176" s="479"/>
+      <c r="D176" s="480"/>
+      <c r="E176" s="98"/>
+      <c r="F176" s="338"/>
+      <c r="G176" s="98"/>
+      <c r="H176" s="338">
+        <f>SUM(H171:H175)</f>
+        <v>1065000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A177" s="129"/>
+      <c r="B177" s="129"/>
+      <c r="C177" s="100"/>
+      <c r="D177" s="100"/>
+      <c r="E177" s="101"/>
+      <c r="F177" s="101"/>
+      <c r="G177" s="101"/>
+      <c r="H177" s="101"/>
+    </row>
     <row r="178" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A178" s="478" t="s">
-        <v>60</v>
-      </c>
-      <c r="B178" s="479"/>
-      <c r="C178" s="479"/>
-      <c r="D178" s="480"/>
-      <c r="E178" s="98"/>
-      <c r="F178" s="338"/>
-      <c r="G178" s="98"/>
-      <c r="H178" s="338">
-        <f>SUM(H173:H177)</f>
-        <v>1065000</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A179" s="129"/>
-      <c r="B179" s="129"/>
-      <c r="C179" s="100"/>
-      <c r="D179" s="100"/>
-      <c r="E179" s="101"/>
-      <c r="F179" s="101"/>
-      <c r="G179" s="101"/>
-      <c r="H179" s="101"/>
-    </row>
-    <row r="180" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A180" s="129"/>
-      <c r="B180" s="129"/>
-      <c r="C180" s="484" t="s">
-        <v>283</v>
-      </c>
-      <c r="D180" s="484"/>
-      <c r="E180" s="101"/>
-      <c r="F180" s="101"/>
-      <c r="G180" s="101"/>
-      <c r="H180" s="101"/>
-    </row>
-    <row r="181" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="469" t="s">
+      <c r="A178" s="129"/>
+      <c r="B178" s="129"/>
+      <c r="C178" s="484" t="s">
+        <v>282</v>
+      </c>
+      <c r="D178" s="484"/>
+      <c r="E178" s="101"/>
+      <c r="F178" s="101"/>
+      <c r="G178" s="101"/>
+      <c r="H178" s="101"/>
+    </row>
+    <row r="179" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="469" t="s">
         <v>4</v>
       </c>
-      <c r="B181" s="472" t="s">
-        <v>304</v>
-      </c>
-      <c r="C181" s="469" t="s">
+      <c r="B179" s="472" t="s">
+        <v>303</v>
+      </c>
+      <c r="C179" s="469" t="s">
         <v>5</v>
       </c>
-      <c r="D181" s="470" t="s">
+      <c r="D179" s="470" t="s">
         <v>6</v>
       </c>
-      <c r="E181" s="471" t="s">
+      <c r="E179" s="471" t="s">
         <v>7</v>
       </c>
-      <c r="F181" s="471"/>
-      <c r="G181" s="471" t="s">
+      <c r="F179" s="471"/>
+      <c r="G179" s="471" t="s">
         <v>8</v>
       </c>
-      <c r="H181" s="471"/>
-    </row>
-    <row r="182" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="469"/>
-      <c r="B182" s="473"/>
-      <c r="C182" s="469"/>
-      <c r="D182" s="470"/>
-      <c r="E182" s="334" t="s">
+      <c r="H179" s="471"/>
+    </row>
+    <row r="180" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="469"/>
+      <c r="B180" s="473"/>
+      <c r="C180" s="469"/>
+      <c r="D180" s="470"/>
+      <c r="E180" s="334" t="s">
         <v>81</v>
       </c>
-      <c r="F182" s="334" t="s">
+      <c r="F180" s="334" t="s">
         <v>57</v>
       </c>
-      <c r="G182" s="334" t="s">
+      <c r="G180" s="334" t="s">
         <v>81</v>
       </c>
-      <c r="H182" s="334" t="s">
+      <c r="H180" s="334" t="s">
         <v>57</v>
       </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="431">
+        <v>43987</v>
+      </c>
+      <c r="B181" s="431" t="s">
+        <v>338</v>
+      </c>
+      <c r="C181" s="432" t="s">
+        <v>257</v>
+      </c>
+      <c r="D181" s="433" t="s">
+        <v>263</v>
+      </c>
+      <c r="E181" s="434"/>
+      <c r="F181" s="435"/>
+      <c r="G181" s="434"/>
+      <c r="H181" s="435">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="431">
+        <v>43987</v>
+      </c>
+      <c r="B182" s="431" t="s">
+        <v>339</v>
+      </c>
+      <c r="C182" s="432" t="s">
+        <v>257</v>
+      </c>
+      <c r="D182" s="433" t="s">
+        <v>258</v>
+      </c>
+      <c r="E182" s="434"/>
+      <c r="F182" s="435"/>
+      <c r="G182" s="434">
+        <v>10500000</v>
+      </c>
+      <c r="H182" s="435"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="431">
-        <v>43987</v>
+        <v>43992</v>
       </c>
       <c r="B183" s="431" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C183" s="432" t="s">
         <v>257</v>
       </c>
       <c r="D183" s="433" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E183" s="434"/>
       <c r="F183" s="435"/>
-      <c r="G183" s="434"/>
-      <c r="H183" s="435">
-        <v>200000</v>
-      </c>
+      <c r="G183" s="434">
+        <v>2000000</v>
+      </c>
+      <c r="H183" s="435"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="431">
-        <v>43987</v>
+        <v>43992</v>
       </c>
       <c r="B184" s="431" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C184" s="432" t="s">
         <v>257</v>
       </c>
       <c r="D184" s="433" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E184" s="434"/>
       <c r="F184" s="435"/>
       <c r="G184" s="434">
-        <v>10500000</v>
+        <v>2000000</v>
       </c>
       <c r="H184" s="435"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="431">
-        <v>43992</v>
+        <v>44001</v>
       </c>
       <c r="B185" s="431" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C185" s="432" t="s">
         <v>257</v>
       </c>
       <c r="D185" s="433" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E185" s="434"/>
       <c r="F185" s="435"/>
       <c r="G185" s="434">
-        <v>2000000</v>
+        <v>430000</v>
       </c>
       <c r="H185" s="435"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="431">
-        <v>43992</v>
+        <v>44008</v>
       </c>
       <c r="B186" s="431" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C186" s="432" t="s">
         <v>257</v>
       </c>
       <c r="D186" s="433" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E186" s="434"/>
       <c r="F186" s="435"/>
-      <c r="G186" s="434">
-        <v>2000000</v>
-      </c>
-      <c r="H186" s="435"/>
+      <c r="G186" s="434"/>
+      <c r="H186" s="435">
+        <v>887000</v>
+      </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="431">
-        <v>44001</v>
+        <v>44012</v>
       </c>
       <c r="B187" s="431" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C187" s="432" t="s">
         <v>257</v>
       </c>
       <c r="D187" s="433" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E187" s="434"/>
       <c r="F187" s="435"/>
-      <c r="G187" s="434">
-        <v>430000</v>
-      </c>
-      <c r="H187" s="435"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="431">
-        <v>44008</v>
-      </c>
-      <c r="B188" s="431" t="s">
-        <v>356</v>
-      </c>
-      <c r="C188" s="432" t="s">
-        <v>257</v>
-      </c>
-      <c r="D188" s="433" t="s">
-        <v>270</v>
-      </c>
-      <c r="E188" s="434"/>
-      <c r="F188" s="435"/>
-      <c r="G188" s="434"/>
-      <c r="H188" s="435">
-        <v>887000</v>
+      <c r="G187" s="434"/>
+      <c r="H187" s="436">
+        <v>776000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A188" s="478" t="s">
+        <v>60</v>
+      </c>
+      <c r="B188" s="479"/>
+      <c r="C188" s="479"/>
+      <c r="D188" s="480"/>
+      <c r="E188" s="98"/>
+      <c r="F188" s="338"/>
+      <c r="G188" s="98">
+        <f>SUM(G181:G187)</f>
+        <v>14930000</v>
+      </c>
+      <c r="H188" s="98">
+        <f>SUM(H181:H187)</f>
+        <v>1863000</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="431">
-        <v>44012</v>
-      </c>
-      <c r="B189" s="431" t="s">
-        <v>359</v>
-      </c>
-      <c r="C189" s="432" t="s">
-        <v>257</v>
-      </c>
-      <c r="D189" s="433" t="s">
-        <v>270</v>
-      </c>
-      <c r="E189" s="434"/>
-      <c r="F189" s="435"/>
-      <c r="G189" s="434"/>
-      <c r="H189" s="436">
-        <v>776000</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A190" s="478" t="s">
-        <v>60</v>
-      </c>
-      <c r="B190" s="479"/>
-      <c r="C190" s="479"/>
-      <c r="D190" s="480"/>
-      <c r="E190" s="98"/>
-      <c r="F190" s="338"/>
-      <c r="G190" s="98">
-        <f>SUM(G183:G189)</f>
-        <v>14930000</v>
-      </c>
-      <c r="H190" s="98">
-        <f>SUM(H183:H189)</f>
-        <v>1863000</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="218"/>
-      <c r="B191" s="218"/>
-      <c r="C191" s="219"/>
-      <c r="D191" s="220"/>
-      <c r="E191" s="221"/>
-      <c r="F191" s="222"/>
-      <c r="G191" s="221"/>
-      <c r="H191" s="223"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="218"/>
-      <c r="B192" s="218"/>
-      <c r="C192" s="339" t="s">
-        <v>285</v>
-      </c>
-      <c r="D192" s="220"/>
-      <c r="E192" s="221"/>
-      <c r="F192" s="222"/>
-      <c r="G192" s="221"/>
-      <c r="H192" s="223"/>
-    </row>
-    <row r="193" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="469" t="s">
+      <c r="A189" s="218"/>
+      <c r="B189" s="218"/>
+      <c r="C189" s="219"/>
+      <c r="D189" s="220"/>
+      <c r="E189" s="221"/>
+      <c r="F189" s="222"/>
+      <c r="G189" s="221"/>
+      <c r="H189" s="223"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="218"/>
+      <c r="B190" s="218"/>
+      <c r="C190" s="339" t="s">
+        <v>284</v>
+      </c>
+      <c r="D190" s="220"/>
+      <c r="E190" s="221"/>
+      <c r="F190" s="222"/>
+      <c r="G190" s="221"/>
+      <c r="H190" s="223"/>
+    </row>
+    <row r="191" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="469" t="s">
         <v>4</v>
       </c>
-      <c r="B193" s="472" t="s">
-        <v>304</v>
-      </c>
-      <c r="C193" s="469" t="s">
+      <c r="B191" s="472" t="s">
+        <v>303</v>
+      </c>
+      <c r="C191" s="469" t="s">
         <v>5</v>
       </c>
-      <c r="D193" s="470" t="s">
+      <c r="D191" s="470" t="s">
         <v>6</v>
       </c>
-      <c r="E193" s="471" t="s">
+      <c r="E191" s="471" t="s">
         <v>7</v>
       </c>
-      <c r="F193" s="471"/>
-      <c r="G193" s="471" t="s">
+      <c r="F191" s="471"/>
+      <c r="G191" s="471" t="s">
         <v>8</v>
       </c>
-      <c r="H193" s="471"/>
-    </row>
-    <row r="194" spans="1:9" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="469"/>
-      <c r="B194" s="473"/>
-      <c r="C194" s="469"/>
-      <c r="D194" s="470"/>
-      <c r="E194" s="334" t="s">
+      <c r="H191" s="471"/>
+    </row>
+    <row r="192" spans="1:8" s="93" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="469"/>
+      <c r="B192" s="473"/>
+      <c r="C192" s="469"/>
+      <c r="D192" s="470"/>
+      <c r="E192" s="334" t="s">
         <v>81</v>
       </c>
-      <c r="F194" s="334" t="s">
+      <c r="F192" s="334" t="s">
         <v>57</v>
       </c>
-      <c r="G194" s="334" t="s">
+      <c r="G192" s="334" t="s">
         <v>81</v>
       </c>
-      <c r="H194" s="334" t="s">
+      <c r="H192" s="334" t="s">
         <v>57</v>
       </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="431">
+        <v>43983</v>
+      </c>
+      <c r="B193" s="431" t="s">
+        <v>336</v>
+      </c>
+      <c r="C193" s="432" t="s">
+        <v>253</v>
+      </c>
+      <c r="D193" s="433" t="s">
+        <v>254</v>
+      </c>
+      <c r="E193" s="434"/>
+      <c r="F193" s="435"/>
+      <c r="G193" s="434">
+        <v>10175000</v>
+      </c>
+      <c r="H193" s="435"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="431">
+        <v>43990</v>
+      </c>
+      <c r="B194" s="431" t="s">
+        <v>342</v>
+      </c>
+      <c r="C194" s="432" t="s">
+        <v>253</v>
+      </c>
+      <c r="D194" s="433" t="s">
+        <v>286</v>
+      </c>
+      <c r="E194" s="434"/>
+      <c r="F194" s="435"/>
+      <c r="G194" s="434">
+        <v>37800000</v>
+      </c>
+      <c r="H194" s="435"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="431">
-        <v>43983</v>
+        <v>44001</v>
       </c>
       <c r="B195" s="431" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C195" s="432" t="s">
         <v>253</v>
       </c>
       <c r="D195" s="433" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="E195" s="434"/>
       <c r="F195" s="435"/>
       <c r="G195" s="434">
-        <v>10175000</v>
+        <v>5000000</v>
       </c>
       <c r="H195" s="435"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="431">
-        <v>43990</v>
+        <v>44004</v>
       </c>
       <c r="B196" s="431" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C196" s="432" t="s">
         <v>253</v>
       </c>
       <c r="D196" s="433" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E196" s="434"/>
       <c r="F196" s="435"/>
       <c r="G196" s="434">
-        <v>37800000</v>
+        <v>13000000</v>
       </c>
       <c r="H196" s="435"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="431">
-        <v>44001</v>
-      </c>
-      <c r="B197" s="431" t="s">
-        <v>350</v>
-      </c>
-      <c r="C197" s="432" t="s">
-        <v>253</v>
-      </c>
-      <c r="D197" s="433" t="s">
-        <v>271</v>
-      </c>
-      <c r="E197" s="434"/>
-      <c r="F197" s="435"/>
-      <c r="G197" s="434">
-        <v>5000000</v>
-      </c>
-      <c r="H197" s="435"/>
+    <row r="197" spans="1:9" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A197" s="478" t="s">
+        <v>60</v>
+      </c>
+      <c r="B197" s="479"/>
+      <c r="C197" s="479"/>
+      <c r="D197" s="480"/>
+      <c r="E197" s="98"/>
+      <c r="F197" s="338"/>
+      <c r="G197" s="98">
+        <f>SUBTOTAL(9,G193:G196)</f>
+        <v>65975000</v>
+      </c>
+      <c r="H197" s="338"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="431">
-        <v>44004</v>
-      </c>
-      <c r="B198" s="431" t="s">
-        <v>353</v>
-      </c>
-      <c r="C198" s="432" t="s">
-        <v>253</v>
-      </c>
-      <c r="D198" s="433" t="s">
-        <v>294</v>
-      </c>
-      <c r="E198" s="434"/>
-      <c r="F198" s="435"/>
-      <c r="G198" s="434">
-        <v>13000000</v>
-      </c>
-      <c r="H198" s="435"/>
+      <c r="A198" s="218"/>
+      <c r="B198" s="218"/>
+      <c r="C198" s="219"/>
+      <c r="D198" s="220"/>
+      <c r="E198" s="221"/>
+      <c r="F198" s="222"/>
+      <c r="G198" s="221"/>
+      <c r="H198" s="222"/>
     </row>
     <row r="199" spans="1:9" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A199" s="478" t="s">
-        <v>60</v>
-      </c>
-      <c r="B199" s="479"/>
-      <c r="C199" s="479"/>
-      <c r="D199" s="480"/>
-      <c r="E199" s="98"/>
-      <c r="F199" s="338"/>
-      <c r="G199" s="98">
-        <f>SUBTOTAL(9,G195:G198)</f>
-        <v>65975000</v>
-      </c>
-      <c r="H199" s="338"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="218"/>
-      <c r="B200" s="218"/>
-      <c r="C200" s="219"/>
-      <c r="D200" s="220"/>
-      <c r="E200" s="221"/>
-      <c r="F200" s="222"/>
-      <c r="G200" s="221"/>
-      <c r="H200" s="222"/>
-    </row>
-    <row r="201" spans="1:9" s="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A201" s="129"/>
-      <c r="B201" s="129"/>
-      <c r="C201" s="100"/>
-      <c r="D201" s="100"/>
-      <c r="E201" s="101"/>
-      <c r="F201" s="101"/>
-      <c r="G201" s="101"/>
-      <c r="H201" s="101"/>
-    </row>
-    <row r="202" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="130"/>
-      <c r="B202" s="130"/>
-      <c r="C202" s="72" t="s">
+      <c r="A199" s="129"/>
+      <c r="B199" s="129"/>
+      <c r="C199" s="100"/>
+      <c r="D199" s="100"/>
+      <c r="E199" s="101"/>
+      <c r="F199" s="101"/>
+      <c r="G199" s="101"/>
+      <c r="H199" s="101"/>
+    </row>
+    <row r="200" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="130"/>
+      <c r="B200" s="130"/>
+      <c r="C200" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="D202" s="54"/>
-      <c r="E202" s="72" t="s">
+      <c r="D200" s="54"/>
+      <c r="E200" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F202" s="54"/>
-      <c r="G202" s="54"/>
-      <c r="H202" s="54"/>
-      <c r="I202" s="54"/>
-    </row>
-    <row r="203" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="130"/>
-      <c r="B203" s="130"/>
-      <c r="C203" s="4" t="s">
+      <c r="F200" s="54"/>
+      <c r="G200" s="54"/>
+      <c r="H200" s="54"/>
+      <c r="I200" s="54"/>
+    </row>
+    <row r="201" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="130"/>
+      <c r="B201" s="130"/>
+      <c r="C201" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D203" s="5"/>
-      <c r="E203" s="4" t="s">
+      <c r="D201" s="5"/>
+      <c r="E201" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="5"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C206" s="72"/>
-      <c r="D206" s="72"/>
-      <c r="E206" s="113"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C204" s="72"/>
+      <c r="D204" s="72"/>
+      <c r="E204" s="113"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:H80">
+  <autoFilter ref="A6:H79">
     <filterColumn colId="2">
       <filters>
-        <filter val="Khác"/>
+        <filter val="Hàng hóa"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="80">
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="A178:D178"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="E191:F191"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C90:D90"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:C7"/>
@@ -7905,8 +7877,8 @@
   <dimension ref="A1:R127"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K107" sqref="K107"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -11404,7 +11376,7 @@
         <v>176</v>
       </c>
       <c r="D92" s="391" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E92" s="392">
         <v>0.2</v>
@@ -13363,7 +13335,7 @@
         <v>3433800.0000000005</v>
       </c>
       <c r="P20" s="322" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -13697,7 +13669,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13877,7 +13849,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="422" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C9" s="423"/>
       <c r="D9" s="424">
@@ -13923,7 +13895,7 @@
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="103"/>
       <c r="B12" s="110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C12" s="112"/>
       <c r="D12" s="111">
@@ -13937,7 +13909,7 @@
     <row r="13" spans="1:17" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="103"/>
       <c r="B13" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C13" s="112"/>
       <c r="D13" s="111">
@@ -14006,11 +13978,11 @@
         <v>23</v>
       </c>
       <c r="C17" s="340">
-        <f>'THU CHI'!E150+'THU CHI'!F150</f>
-        <v>231784900</v>
+        <f>'THU CHI'!E148+'THU CHI'!F148</f>
+        <v>221784900</v>
       </c>
       <c r="D17" s="341">
-        <f>'THU CHI'!G150+'THU CHI'!H150</f>
+        <f>'THU CHI'!G148+'THU CHI'!H148</f>
         <v>159322500</v>
       </c>
       <c r="E17" s="342"/>
@@ -14024,7 +13996,7 @@
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="224">
-        <f>'THU CHI'!G97</f>
+        <f>'THU CHI'!G96</f>
         <v>19512000</v>
       </c>
       <c r="E18" s="345"/>
@@ -14038,7 +14010,7 @@
       </c>
       <c r="C19" s="346"/>
       <c r="D19" s="224">
-        <f>'THU CHI'!H117</f>
+        <f>'THU CHI'!H116</f>
         <v>3080000</v>
       </c>
       <c r="E19" s="34"/>
@@ -14052,7 +14024,7 @@
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="224">
-        <f>'THU CHI'!G159+'THU CHI'!H159</f>
+        <f>'THU CHI'!G157+'THU CHI'!H157</f>
         <v>15421562</v>
       </c>
       <c r="E20" s="34"/>
@@ -14066,7 +14038,7 @@
       </c>
       <c r="C21" s="346"/>
       <c r="D21" s="224">
-        <f>'THU CHI'!G168+'THU CHI'!H168</f>
+        <f>'THU CHI'!G166+'THU CHI'!H166</f>
         <v>9262525</v>
       </c>
       <c r="E21" s="34"/>
@@ -14080,7 +14052,7 @@
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="224">
-        <f>'THU CHI'!G190+'THU CHI'!H190</f>
+        <f>'THU CHI'!G188+'THU CHI'!H188</f>
         <v>16793000</v>
       </c>
       <c r="E22" s="34"/>
@@ -14094,7 +14066,7 @@
       </c>
       <c r="C23" s="346"/>
       <c r="D23" s="224">
-        <f>'THU CHI'!H178</f>
+        <f>'THU CHI'!H176</f>
         <v>1065000</v>
       </c>
       <c r="E23" s="34"/>
@@ -14107,11 +14079,11 @@
         <v>273</v>
       </c>
       <c r="C24" s="224">
-        <f>'THU CHI'!E89</f>
+        <f>'THU CHI'!E88</f>
         <v>9800000</v>
       </c>
       <c r="D24" s="224">
-        <f>'THU CHI'!H89</f>
+        <f>'THU CHI'!H88</f>
         <v>9800000</v>
       </c>
       <c r="E24" s="34"/>
@@ -14125,7 +14097,7 @@
       </c>
       <c r="C25" s="348"/>
       <c r="D25" s="225">
-        <f>'THU CHI'!G199</f>
+        <f>'THU CHI'!G197</f>
         <v>65975000</v>
       </c>
       <c r="E25" s="349"/>
@@ -14137,7 +14109,7 @@
       </c>
       <c r="C26" s="32">
         <f>SUM(C17:C25)</f>
-        <v>241584900</v>
+        <v>231584900</v>
       </c>
       <c r="D26" s="226">
         <f>SUM(D17:D25)</f>
@@ -14153,7 +14125,7 @@
       <c r="C27" s="30"/>
       <c r="D27" s="226">
         <f>C26-D26</f>
-        <v>-58646687</v>
+        <v>-68646687</v>
       </c>
       <c r="E27" s="30"/>
     </row>
@@ -16553,7 +16525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD20"/>
     </sheetView>
   </sheetViews>
@@ -17096,7 +17068,7 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="151" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B2" s="151"/>
       <c r="C2" s="152"/>
@@ -18027,7 +17999,7 @@
     </row>
     <row r="19" spans="1:40" s="452" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B19" s="453" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C19" s="453"/>
       <c r="D19" s="453"/>
@@ -18036,7 +18008,7 @@
         <v>109</v>
       </c>
       <c r="AB19" s="629" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AC19" s="629"/>
       <c r="AD19" s="629"/>
@@ -18044,16 +18016,16 @@
     </row>
     <row r="20" spans="1:40" s="454" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B20" s="455" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C20" s="455"/>
       <c r="D20" s="455"/>
       <c r="G20" s="455"/>
       <c r="N20" s="455" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AB20" s="630" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AC20" s="630"/>
       <c r="AD20" s="630"/>
@@ -19118,7 +19090,7 @@
     </row>
     <row r="2" spans="1:17" s="257" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="644" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B2" s="644"/>
       <c r="C2" s="644"/>
@@ -19241,10 +19213,10 @@
       <c r="D8" s="262"/>
       <c r="E8" s="464"/>
       <c r="F8" s="463" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G8" s="463" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H8" s="464" t="s">
         <v>70</v>
@@ -19628,7 +19600,7 @@
     </row>
     <row r="20" spans="1:14" s="452" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B20" s="453" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C20" s="453"/>
       <c r="D20" s="453"/>
@@ -19638,22 +19610,22 @@
       <c r="H20" s="453"/>
       <c r="J20" s="109"/>
       <c r="L20" s="453" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="454" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B21" s="455" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C21" s="455"/>
       <c r="D21" s="455"/>
       <c r="G21" s="455" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H21" s="455"/>
       <c r="J21" s="459"/>
       <c r="L21" s="455" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
